--- a/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDE417E-B99D-4482-A106-C026D46483CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B7663-2491-4425-95A5-BC4375BD1BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-Identification Projet" sheetId="39" r:id="rId1"/>
@@ -166,7 +166,6 @@
     <definedName name="xxx1" hidden="1">{"PageGarde1",#N/A,TRUE,"Page de garde";"Page0_1",#N/A,TRUE,"0.1 Fiche Descriptif Programme";"Page0_2",#N/A,TRUE,"0.2 Organisation";"Page1_1",#N/A,TRUE,"1.1 Faits Marquants";"Page1_2",#N/A,TRUE,"1.2 Décisions-Actions";"Page1_3",#N/A,TRUE,"1.3 Indicateur Satisfaction";"Page2_1",#N/A,TRUE,"2.1 Planning Directeur";"Page2_2",#N/A,TRUE,"2.2 Jalons Contractuels";"Page2_3",#N/A,TRUE,"2.3 IMD-IRD";"Page2_4",#N/A,TRUE,"2.4 Avancement Jalons";"Page2_5",#N/A,TRUE,"2.5 DFT";"Page2_6",#N/A,TRUE,"2.6 Obligations Client";"Page3_1",#N/A,TRUE,"3.1 Risques";"Page3_2",#N/A,TRUE,"3.2 Opportunités";"4_Performances",#N/A,TRUE,"4 Perfs et Exigences Critiques";"Page5_Charges",#N/A,TRUE,"5 Charges-Capacité";"6 Proch Etapes",#N/A,TRUE,"6 Proch. Etapes";"7 Reporting Spec",#N/A,TRUE,"7 Reporting Spec.";"Chap8",#N/A,TRUE,"Chap8";"Page8_1",#N/A,TRUE,"8.1 COP-CEP";"Page8_2",#N/A,TRUE,"8.2 CPP-CPE ";"Page8_3",#N/A,TRUE,"8.3 CPP-CPE par WP";"Page8_4",#N/A,TRUE,"8.4 Dépenses CPR-PPS";"Page8_5",#N/A,TRUE,"8.5 Compte d'Exploitation";"Page8_6",#N/A,TRUE,"8.6 Rentabilité"}</definedName>
     <definedName name="xxx2" hidden="1">{"PageGarde1",#N/A,TRUE,"Page de garde";"Page0_1",#N/A,TRUE,"0.1 Fiche Descriptif Programme";"Page0_2",#N/A,TRUE,"0.2 Organisation";"Page1_1",#N/A,TRUE,"1.1 Faits Marquants";"Page1_2",#N/A,TRUE,"1.2 Décisions-Actions";"Page1_3",#N/A,TRUE,"1.3 Indicateur Satisfaction";"Page2_1",#N/A,TRUE,"2.1 Planning Directeur";"Page2_2",#N/A,TRUE,"2.2 Jalons Contractuels";"Page2_3",#N/A,TRUE,"2.3 IMD-IRD";"Page2_4",#N/A,TRUE,"2.4 Avancement Jalons";"Page2_5",#N/A,TRUE,"2.5 DFT";"Page2_6",#N/A,TRUE,"2.6 Obligations Client";"Page3_1",#N/A,TRUE,"3.1 Risques";"Page3_2",#N/A,TRUE,"3.2 Opportunités";"4_Performances",#N/A,TRUE,"4 Perfs et Exigences Critiques";"Page5_Charges",#N/A,TRUE,"5 Charges-Capacité";"6 Proch Etapes",#N/A,TRUE,"6 Proch. Etapes";"7 Reporting Spec",#N/A,TRUE,"7 Reporting Spec.";"Chap8",#N/A,TRUE,"Chap8";"Page8_1",#N/A,TRUE,"8.1 COP-CEP";"Page8_2",#N/A,TRUE,"8.2 CPP-CPE ";"Page8_3",#N/A,TRUE,"8.3 CPP-CPE par WP";"Page8_4",#N/A,TRUE,"8.4 Dépenses CPR-PPS";"Page8_5",#N/A,TRUE,"8.5 Compte d'Exploitation";"Page8_6",#N/A,TRUE,"8.6 Rentabilité"}</definedName>
     <definedName name="y" hidden="1">{"PageGarde1",#N/A,TRUE,"Page de garde";"Page0_1",#N/A,TRUE,"0.1 Fiche Descriptif Programme";"Page0_2",#N/A,TRUE,"0.2 Organisation";"Page1_1",#N/A,TRUE,"1.1 Faits Marquants";"Page1_2",#N/A,TRUE,"1.2 Décisions-Actions";"Page1_3",#N/A,TRUE,"1.3 Indicateur Satisfaction";"Page2_1",#N/A,TRUE,"2.1 Planning Directeur";"Page2_2",#N/A,TRUE,"2.2 Jalons Contractuels";"Page2_3",#N/A,TRUE,"2.3 IMD-IRD";"Page2_4",#N/A,TRUE,"2.4 Avancement Jalons";"Page2_5",#N/A,TRUE,"2.5 DFT";"Page2_6",#N/A,TRUE,"2.6 Obligations Client";"Page3_1",#N/A,TRUE,"3.1 Risques";"Page3_2",#N/A,TRUE,"3.2 Opportunités";"4_Performances",#N/A,TRUE,"4 Perfs et Exigences Critiques";"Page5_Charges",#N/A,TRUE,"5 Charges-Capacité";"6 Proch Etapes",#N/A,TRUE,"6 Proch. Etapes";"7 Reporting Spec",#N/A,TRUE,"7 Reporting Spec.";"Chap8",#N/A,TRUE,"Chap8";"Page8_1",#N/A,TRUE,"8.1 COP-CEP";"Page8_2",#N/A,TRUE,"8.2 CPP-CPE ";"Page8_3",#N/A,TRUE,"8.3 CPP-CPE par WP";"Page8_4",#N/A,TRUE,"8.4 Dépenses CPR-PPS";"Page8_5",#N/A,TRUE,"8.5 Compte d'Exploitation";"Page8_6",#N/A,TRUE,"8.6 Rentabilité"}</definedName>
-    <definedName name="z" hidden="1">{#N/A,#N/A,TRUE,"Page de garde";#N/A,#N/A,TRUE,"0.1 Fiche desciptif programme";#N/A,#N/A,TRUE,"0.2 Orga indus";#N/A,#N/A,TRUE,"1.1 Faits marquants";#N/A,#N/A,TRUE,"1.2 Décisions-actions";#N/A,#N/A,TRUE,"1.3 Indicateur satisfaction";#N/A,#N/A,TRUE,"2.1 Planning directeur";#N/A,#N/A,TRUE,"2.2 Jalons contractuels";#N/A,#N/A,TRUE,"2.3 IMD-IRD";#N/A,#N/A,TRUE,"2.4 DFT";#N/A,#N/A,TRUE,"2.5 Buyers obligations";#N/A,#N/A,TRUE,"3.1 Risques";#N/A,#N/A,TRUE,"3.2 Opportunités";#N/A,#N/A,TRUE,"4.1 Perfs et exigences critique";#N/A,#N/A,TRUE,"5 Charges-capacité";#N/A,#N/A,TRUE,"6 Proch. étapes";#N/A,#N/A,TRUE,"7.1 Statut actions";#N/A,#N/A,TRUE,"7.2 Actions";#N/A,#N/A,TRUE,"7.3 Scurve DRL";#N/A,#N/A,TRUE,"7.4 Gantt"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -186,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="333">
   <si>
     <t>Responsable</t>
   </si>
@@ -522,10 +521,6 @@
   </si>
   <si>
     <t>Date d'enregistrement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/04/2018 =&gt; 31/06/2018
-</t>
   </si>
   <si>
     <t>Description Exigence</t>
@@ -1196,12 +1191,49 @@
   <si>
     <t>Décision prise de  travailler sur GihHub</t>
   </si>
+  <si>
+    <t>Implémentation plus proche voisin (nn)</t>
+  </si>
+  <si>
+    <t>Interface  CLI (première version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export CSV  (première version) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> confectionner un powerpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeux de tests </t>
+  </si>
+  <si>
+    <t>2jh</t>
+  </si>
+  <si>
+    <t>4jh</t>
+  </si>
+  <si>
+    <t>1.5jh</t>
+  </si>
+  <si>
+    <t>DR[100%]</t>
+  </si>
+  <si>
+    <t>DD[100%] </t>
+  </si>
+  <si>
+    <t>12'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/09/2025 =&gt; 12/12/2025
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="28">
+  <numFmts count="27">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0&quot; h&quot;"/>
@@ -1211,25 +1243,24 @@
     <numFmt numFmtId="170" formatCode="??0&quot; %&quot;"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="#\ ##0.##\j"/>
-    <numFmt numFmtId="175" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="176" formatCode="#,###,##0;[Red]\(#,###,##0\)"/>
-    <numFmt numFmtId="177" formatCode="\$#,##0;[Red]&quot;-$&quot;#,##0"/>
-    <numFmt numFmtId="178" formatCode="0.0_)"/>
-    <numFmt numFmtId="179" formatCode="\£#,##0;&quot;-£&quot;#,##0"/>
-    <numFmt numFmtId="180" formatCode="\£#,##0;[Red]&quot;-£&quot;#,##0"/>
-    <numFmt numFmtId="181" formatCode="&quot;Qty &quot;#_]"/>
-    <numFmt numFmtId="182" formatCode="&quot;Station  &quot;#&quot;  Total Each :- &quot;"/>
-    <numFmt numFmtId="183" formatCode="&quot;Station  &quot;#&quot; Grand Total :-&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Item  &quot;#.##&quot;  Total  :-&quot;"/>
-    <numFmt numFmtId="185" formatCode="#__\x_]"/>
-    <numFmt numFmtId="186" formatCode="0.0"/>
-    <numFmt numFmtId="187" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="188" formatCode="#,##0.0"/>
-    <numFmt numFmtId="189" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="190" formatCode="#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="191" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="173" formatCode="#\ ##0.##\j"/>
+    <numFmt numFmtId="174" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="175" formatCode="#,###,##0;[Red]\(#,###,##0\)"/>
+    <numFmt numFmtId="176" formatCode="\$#,##0;[Red]&quot;-$&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="0.0_)"/>
+    <numFmt numFmtId="178" formatCode="\£#,##0;&quot;-£&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="\£#,##0;[Red]&quot;-£&quot;#,##0"/>
+    <numFmt numFmtId="180" formatCode="&quot;Qty &quot;#_]"/>
+    <numFmt numFmtId="181" formatCode="&quot;Station  &quot;#&quot;  Total Each :- &quot;"/>
+    <numFmt numFmtId="182" formatCode="&quot;Station  &quot;#&quot; Grand Total :-&quot;"/>
+    <numFmt numFmtId="183" formatCode="&quot;Item  &quot;#.##&quot;  Total  :-&quot;"/>
+    <numFmt numFmtId="184" formatCode="#__\x_]"/>
+    <numFmt numFmtId="185" formatCode="0.0"/>
+    <numFmt numFmtId="186" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="187" formatCode="#,##0.0"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="190" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="104">
     <font>
@@ -3123,7 +3154,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1320">
+  <cellStyleXfs count="1319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3528,12 +3559,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyBorder="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyBorder="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="12" applyBorder="0"/>
@@ -3545,7 +3575,7 @@
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="81" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="81" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5720,22 +5750,22 @@
     <xf numFmtId="0" fontId="60" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="30" fillId="0" borderId="17">
+    <xf numFmtId="174" fontId="30" fillId="0" borderId="17">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="31" fillId="0" borderId="18">
@@ -5799,19 +5829,19 @@
     <xf numFmtId="0" fontId="33" fillId="40" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="40" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="40" borderId="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5826,9 +5856,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -5886,22 +5916,22 @@
     <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5947,19 +5977,19 @@
     <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="44" borderId="0"/>
@@ -6282,19 +6312,19 @@
     <xf numFmtId="0" fontId="63" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="182" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -6313,20 +6343,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="183" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="53" fillId="0" borderId="25">
+    <xf numFmtId="178" fontId="53" fillId="0" borderId="25">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="39" fillId="0" borderId="25">
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="25">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="77" fillId="0" borderId="26">
+    <xf numFmtId="185" fontId="77" fillId="0" borderId="26">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6898,10 +6928,10 @@
     <xf numFmtId="4" fontId="38" fillId="58" borderId="64" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="39" fillId="0" borderId="65">
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="65">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="39" fillId="0" borderId="65">
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="65">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -6911,99 +6941,99 @@
   </cellStyleXfs>
   <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="947"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="947" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="956"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="956" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="956" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="956" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="956" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="956" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="956" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="956" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="956" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="956" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="956" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="957"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="957" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="946" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="946" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="957" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="957" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="957" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="946" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="960"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="961" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="960" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="946" applyBorder="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="956" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="956" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="946" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="957" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="957" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="957" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="957" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="957" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="957" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="958"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="947" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="947" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="947" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="961"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="962" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="961" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="947" applyBorder="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="957" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="957" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="947" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="947" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="947" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="947" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="947" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="947" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="946" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="961" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="960" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="961" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="960" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="961" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="960" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="961" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="960" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="947" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="946" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="947" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="946" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="947" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="946" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -7028,28 +7058,28 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="62" borderId="0" xfId="957" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="62" borderId="0" xfId="961" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="62" borderId="0" xfId="961" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="62" borderId="0" xfId="956" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="62" borderId="0" xfId="960" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="62" borderId="0" xfId="960" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="62" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="62" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="62" borderId="36" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="62" borderId="36" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="62" borderId="36" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="54" fillId="62" borderId="36" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="62" borderId="37" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="54" fillId="62" borderId="37" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="62" borderId="38" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="62" borderId="38" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -7065,70 +7095,70 @@
     <xf numFmtId="0" fontId="15" fillId="64" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="10" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="17" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="17" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="17" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="17" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="39" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="39" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="4" fillId="65" borderId="39" xfId="947" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="4" fillId="65" borderId="39" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="65" borderId="39" xfId="947" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="4" fillId="65" borderId="39" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="65" borderId="39" xfId="947" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="65" borderId="39" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="190" fontId="4" fillId="65" borderId="40" xfId="947" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="189" fontId="4" fillId="65" borderId="40" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="10" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="10" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="41" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="41" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="190" fontId="4" fillId="65" borderId="39" xfId="947" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="189" fontId="4" fillId="65" borderId="39" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="190" fontId="4" fillId="65" borderId="39" xfId="947" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="189" fontId="4" fillId="65" borderId="39" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="42" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="42" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="41" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="41" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="40" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="40" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="42" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="42" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="43" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="43" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="947" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="946" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="65" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7192,7 +7222,7 @@
     <xf numFmtId="14" fontId="16" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="16" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="16" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="65" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7201,98 +7231,98 @@
     <xf numFmtId="0" fontId="7" fillId="65" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="7" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="7" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="947" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="946" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="947" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="946" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="947" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="947" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="946" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="946" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="947" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="946" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="34" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="34" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" xfId="958" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" xfId="957" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="21" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="21" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="46" xfId="960" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="46" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="960" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="960" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="960" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="959" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="960" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="50" xfId="960" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="50" xfId="959" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="47" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="47" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="961" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="960" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="62" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" xfId="959" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" xfId="958" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="34" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" xfId="957" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" xfId="956" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="21" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="21" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="62" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7304,22 +7334,22 @@
     <xf numFmtId="0" fontId="0" fillId="70" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="187" fontId="96" fillId="69" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="96" fillId="69" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="96" fillId="69" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="96" fillId="69" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="96" fillId="69" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="96" fillId="69" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="96" fillId="69" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="96" fillId="69" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="947" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="946" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="947" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="946" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="74" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7445,42 +7475,105 @@
     <xf numFmtId="0" fontId="99" fillId="77" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="66" borderId="62" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="66" borderId="62" xfId="955" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="67" borderId="62" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="67" borderId="62" xfId="955" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="67" borderId="63" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="67" borderId="63" xfId="955" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7491,304 +7584,241 @@
     <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" xfId="957" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="959" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="49" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="959" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="48" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="0" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="21" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" xfId="958" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="49" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="48" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="56" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="0" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="21" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="947" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="946" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="947" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="946" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="947" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="946" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="53" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="18" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="0" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="54" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="46" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="34" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="47" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="0" xfId="946" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="48" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="55" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="65" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="65" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" xfId="958" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="49" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="21" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="55" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="53" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="18" xfId="947" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="0" xfId="947" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="947" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="54" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="46" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="34" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="47" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="0" xfId="947" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="48" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="21" xfId="947" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="55" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="65" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="65" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="57" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" xfId="959" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="49" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="21" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="50" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="55" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="959" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1320">
+  <cellStyles count="1319">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="_0 - Getting Started" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="_0 - Getting Started 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -7976,58 +8006,59 @@
     <cellStyle name="_Solution_Monitoring_Tools_File_V2_83090147-DDQ-TAV-EN-001_OUTILS_PILOTAGE-1" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
     <cellStyle name="_Solution_Monitoring_Tools_File_V2_dossierpilotage_dts_2012_10_19" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="12Under" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20 % - Akzent1" xfId="194" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="195" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="196" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="197" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="198" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="199" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20 % - Accent1 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
     <cellStyle name="20 % - Accent2 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="20 % - Accent3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
     <cellStyle name="20 % - Accent4 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
     <cellStyle name="20 % - Accent5 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
     <cellStyle name="20 % - Accent6 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="20% - Accent1" xfId="194" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="195" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="196" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="197" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="198" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="199" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="206" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="207" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="208" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="209" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="210" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="211" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40 % - Accent1 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
     <cellStyle name="40 % - Accent2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
     <cellStyle name="40 % - Accent3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
     <cellStyle name="40 % - Accent4 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
     <cellStyle name="40 % - Accent5 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="40 % - Accent6 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="40% - Accent1" xfId="206" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="207" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="208" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="209" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="210" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="211" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="218" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="219" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="220" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="221" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="222" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="223" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60 % - Accent1 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
     <cellStyle name="60 % - Accent2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="60 % - Accent3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
     <cellStyle name="60 % - Accent4 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="60 % - Accent5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
     <cellStyle name="60 % - Accent6 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="60% - Accent1" xfId="218" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="219" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="220" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="221" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="222" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="223" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="224" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent1 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="Accent2" xfId="226" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="Accent3" xfId="228" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent3 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="Accent4" xfId="230" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent4 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="Accent5" xfId="232" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent5 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="Accent6" xfId="234" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Accent6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="Bad" xfId="884" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Akzent1" xfId="224" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="226" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="228" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="230" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="232" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="234" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="883" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Berechnung" xfId="245" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Bord: quadrillage" xfId="236" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Bord: quadrillage gras" xfId="237" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="Bord: quadrillage gras 2" xfId="1171" xr:uid="{E6CC26DB-73E0-447F-AC06-EED4707DF3BB}"/>
+    <cellStyle name="Bord: quadrillage gras 2" xfId="1170" xr:uid="{E6CC26DB-73E0-447F-AC06-EED4707DF3BB}"/>
     <cellStyle name="Bord: rien" xfId="238" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
     <cellStyle name="branche" xfId="239" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
     <cellStyle name="branche 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
@@ -8035,9 +8066,8 @@
     <cellStyle name="branche_1 - Fiche descriptive" xfId="242" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
     <cellStyle name="Caché" xfId="243" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
     <cellStyle name="Calcul 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="Calculation" xfId="245" builtinId="22" customBuiltin="1"/>
     <cellStyle name="CARTOUCHE_THOM" xfId="246" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="Check Cell" xfId="1166" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Check Cell" xfId="1165" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
     <cellStyle name="Comma [0]" xfId="247" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
     <cellStyle name="Comma [0] 2" xfId="248" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Comma [0] 2 2" xfId="249" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
@@ -8046,14 +8076,14 @@
     <cellStyle name="Comma [0] 4" xfId="252" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Comma [0] 4 2" xfId="253" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
     <cellStyle name="Comma [0] 5" xfId="254" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Comma [0] 5 2" xfId="1172" xr:uid="{97807492-3195-4FE2-97FE-5EB87F3B7F88}"/>
+    <cellStyle name="Comma [0] 5 2" xfId="1171" xr:uid="{97807492-3195-4FE2-97FE-5EB87F3B7F88}"/>
     <cellStyle name="Commentaire 2" xfId="255" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
     <cellStyle name="Commentaire 3" xfId="256" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Commentaire 3 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Commentaire 4" xfId="258" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
     <cellStyle name="Commentaire 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
     <cellStyle name="Commentaire 5" xfId="260" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="Commentaire 5 2" xfId="1173" xr:uid="{23782849-5A60-4BC0-A9E7-2E57EB8E29A9}"/>
+    <cellStyle name="Commentaire 5 2" xfId="1172" xr:uid="{23782849-5A60-4BC0-A9E7-2E57EB8E29A9}"/>
     <cellStyle name="Coût" xfId="261" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
     <cellStyle name="Coût 2" xfId="262" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
     <cellStyle name="Coût 2 2" xfId="263" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
@@ -8068,7 +8098,7 @@
     <cellStyle name="Currency [0] 4" xfId="272" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
     <cellStyle name="Currency [0] 4 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
     <cellStyle name="Currency [0] 5" xfId="274" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Currency [0] 5 2" xfId="1174" xr:uid="{76B3DFD2-A23D-4C70-B306-5A93B8329CD7}"/>
+    <cellStyle name="Currency [0] 5 2" xfId="1173" xr:uid="{76B3DFD2-A23D-4C70-B306-5A93B8329CD7}"/>
     <cellStyle name="Date" xfId="275" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
     <cellStyle name="Date 2" xfId="276" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
     <cellStyle name="Date 2 2" xfId="277" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
@@ -8098,11 +8128,11 @@
     <cellStyle name="dateCEP" xfId="301" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
     <cellStyle name="dateCEP 2" xfId="302" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
     <cellStyle name="dateCEP 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="dateCEP 2 2 2" xfId="1177" xr:uid="{C1E59451-81DA-4133-92F8-560BDF92AA62}"/>
-    <cellStyle name="dateCEP 2 3" xfId="1176" xr:uid="{C4838B75-E852-4686-B11E-B810F0C97F15}"/>
+    <cellStyle name="dateCEP 2 2 2" xfId="1176" xr:uid="{C1E59451-81DA-4133-92F8-560BDF92AA62}"/>
+    <cellStyle name="dateCEP 2 3" xfId="1175" xr:uid="{C4838B75-E852-4686-B11E-B810F0C97F15}"/>
     <cellStyle name="dateCEP 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="dateCEP 3 2" xfId="1178" xr:uid="{B8A08239-B012-47C6-961D-8F4D69DECECB}"/>
-    <cellStyle name="dateCEP 4" xfId="1175" xr:uid="{5550862C-A77A-4D79-BC7A-5D219DF9F490}"/>
+    <cellStyle name="dateCEP 3 2" xfId="1177" xr:uid="{B8A08239-B012-47C6-961D-8F4D69DECECB}"/>
+    <cellStyle name="dateCEP 4" xfId="1174" xr:uid="{5550862C-A77A-4D79-BC7A-5D219DF9F490}"/>
     <cellStyle name="dateCEP_1 - Fiche descriptive" xfId="305" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
     <cellStyle name="DCh" xfId="306" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
     <cellStyle name="Déf_kLoc" xfId="307" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
@@ -8111,1004 +8141,1003 @@
     <cellStyle name="Desc 2 2" xfId="310" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
     <cellStyle name="Desc 3" xfId="311" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
     <cellStyle name="Desc_1 - Fiche descriptive" xfId="312" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="Dezimal_Q-Indicator_fcu380_v030613" xfId="313" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="Dollar" xfId="314" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="Dollar 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="Dollar 2 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="Dollar 3" xfId="317" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="Dollar_1 - Fiche descriptive" xfId="318" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="Donnée" xfId="319" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="Donnée 2" xfId="320" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="Donnée 3" xfId="321" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="Donnée 3 2" xfId="322" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="Donnée 4" xfId="323" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="Donnée 5" xfId="324" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="Donnée_1 - Fiche descriptive" xfId="325" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="Entrée 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="Euro" xfId="327" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="Euro 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="Euro 2 2" xfId="329" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="Euro 3" xfId="330" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="Euro 3 2" xfId="331" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="Euro 3 2 2" xfId="1179" xr:uid="{CB46CD98-7154-48C5-B99E-A43669A0B30E}"/>
-    <cellStyle name="Euro 3 3" xfId="332" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="Euro 4" xfId="333" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="Euro 4 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="Euro 5" xfId="335" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
-    <cellStyle name="Euro 5 2" xfId="1180" xr:uid="{0A57B334-2CF9-4188-8A76-AECD699008AD}"/>
-    <cellStyle name="Explanatory Text" xfId="1135" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
-    <cellStyle name="Fixé" xfId="336" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
-    <cellStyle name="Fixé 2" xfId="337" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
-    <cellStyle name="Fixé 2 2" xfId="338" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
-    <cellStyle name="Fixé 3" xfId="339" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
-    <cellStyle name="Fixé 3 2" xfId="340" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
-    <cellStyle name="Fixé 4" xfId="341" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
-    <cellStyle name="Followed Hyperlink" xfId="342" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
-    <cellStyle name="Followed Hyperlink 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
-    <cellStyle name="Followed Hyperlink 2 2" xfId="344" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
-    <cellStyle name="Followed Hyperlink_1 - Fiche descriptive" xfId="345" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
-    <cellStyle name="Good" xfId="1112" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
-    <cellStyle name="gud" xfId="346" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
-    <cellStyle name="gud 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
-    <cellStyle name="gud 2 2" xfId="348" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
-    <cellStyle name="gud_1 - Fiche descriptive" xfId="349" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
-    <cellStyle name="H_Déf" xfId="350" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive" xfId="351" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive 2" xfId="352" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive 2 2" xfId="353" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_1 - Fiche descriptive" xfId="354" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_5-Charges MO" xfId="355" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_5-Charges MO 2" xfId="1181" xr:uid="{8D82A9D7-4F69-4BA1-B615-6C8A106660F5}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_7 - Recommandations AQ" xfId="356" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_906-1TdB AffaireS76-NAV_06_003458-17 (en cours)-1" xfId="357" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_99-2 Baseline Status (ECRs) (2)" xfId="358" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_99-2 Baseline Status (ECRs) (2) 2" xfId="1182" xr:uid="{AE5CE77F-B1C8-44CE-93DC-F88A5FB0B505}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_99-3 Formal IVV status (2)" xfId="359" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_99-3 Formal IVV status (2) 2" xfId="1183" xr:uid="{05439680-795B-4715-A9AF-4E332EEB6E19}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-F-DAE-025-00-D" xfId="360" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-F-DAE-025-00-D 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-F-DAE-025-00-D 2 2" xfId="362" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-S76-AVS-2010-04.new-xls" xfId="363" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-S76-AVS-2010-04.new-xls 2" xfId="1184" xr:uid="{7B9EC2EB-B8D1-42DB-A86D-5CB515D75F4E}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_Nettoyage_fichier" xfId="364" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_Nettoyage_fichier 2" xfId="365" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_Nettoyage_fichier 2 2" xfId="366" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="367" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="368" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="369" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1185" xr:uid="{8F5F54F6-6207-43D6-92F8-BCB254C295DA}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_TdB-S76-CIS-2010-03 V38 Recup" xfId="370" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
-    <cellStyle name="H_Déf_0.1 Fiche descriptive_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1186" xr:uid="{3BC26463-083D-44C9-AAB5-D081FC0699B2}"/>
-    <cellStyle name="H_Déf_0.2 Organisation" xfId="371" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation 2" xfId="372" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_1 - Fiche descriptive" xfId="373" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_5-Charges MO" xfId="374" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_7 - Recommandations AQ" xfId="375" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_99-2 Baseline Status (ECRs) (2)" xfId="376" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_99-3 Formal IVV status (2)" xfId="377" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_MAP-F-DAE-025-00-D" xfId="378" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_MAP-F-DAE-025-00-D 2" xfId="379" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_MAP-S76-AVS-2010-04.new-xls" xfId="380" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_Nettoyage_fichier" xfId="381" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_Nettoyage_fichier 2" xfId="382" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="383" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="384" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
-    <cellStyle name="H_Déf_0.2 Organisation_TdB-S76-CIS-2010-03 V38 Recup" xfId="385" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
-    <cellStyle name="H_Déf_05 juin TDB" xfId="386" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
-    <cellStyle name="H_Déf_05 juin TDB IR 00" xfId="387" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
-    <cellStyle name="H_Déf_05 juin TDB IR 00_ATA_08_4098_DIS-TdB_MAS FSTA _sept_11_ind00" xfId="388" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
-    <cellStyle name="H_Déf_05 juin TDB_ATA_08_4098_DIS-TdB_MAS FSTA _sept_11_ind00" xfId="389" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants" xfId="390" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants 2" xfId="391" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1" xfId="392" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1 - Fiche descriptive" xfId="393" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1 2" xfId="394" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1 2 2" xfId="395" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_1 - Fiche descriptive" xfId="396" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_5-Charges MO" xfId="397" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_5-Charges MO 2" xfId="1187" xr:uid="{1AFACE3E-6744-475B-9C98-F5B2831CC8B1}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_7 - Recommandations AQ" xfId="398" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_99-2 Baseline Status (ECRs) (2)" xfId="399" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_99-2 Baseline Status (ECRs) (2) 2" xfId="1188" xr:uid="{3B0B7D36-DBF4-43F4-9CC7-84F8E6DBBC3D}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_99-3 Formal IVV status (2)" xfId="400" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_99-3 Formal IVV status (2) 2" xfId="1189" xr:uid="{B93076AC-B48D-4B6A-A064-04C62ADD5CB9}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-F-DAE-025-00-D" xfId="401" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-F-DAE-025-00-D 2" xfId="402" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-F-DAE-025-00-D 2 2" xfId="403" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-S76-AVS-2010-04.new-xls" xfId="404" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-S76-AVS-2010-04.new-xls 2" xfId="1190" xr:uid="{9D0089AD-637D-468A-A95F-D1B380CE5CCE}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_Nettoyage_fichier" xfId="405" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_Nettoyage_fichier 2" xfId="406" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_Nettoyage_fichier 2 2" xfId="407" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="408" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="409" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="410" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1191" xr:uid="{2B4AFD2F-C5B4-4995-87F0-441E5B539DBB}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_TdB-S76-CIS-2010-03 V38 Recup" xfId="411" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_1_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1192" xr:uid="{96A20B43-CD00-4EED-A42C-C175106B692D}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_5-Charges MO" xfId="412" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_7 - Recommandations AQ" xfId="413" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_99-2 Baseline Status (ECRs) (2)" xfId="414" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_99-3 Formal IVV status (2)" xfId="415" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_MAP-F-DAE-025-00-D" xfId="416" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_MAP-F-DAE-025-00-D 2" xfId="417" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_MAP-S76-AVS-2010-04.new-xls" xfId="418" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_Nettoyage_fichier" xfId="419" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_Nettoyage_fichier 2" xfId="420" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="421" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="422" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
-    <cellStyle name="H_Déf_1.1 Faits Marquants_TdB-S76-CIS-2010-03 V38 Recup" xfId="423" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
-    <cellStyle name="H_Déf_1.2 Decisions-Actions" xfId="424" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions" xfId="425" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions 2 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_1 - Fiche descriptive" xfId="428" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_5-Charges MO" xfId="429" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_5-Charges MO 2" xfId="1193" xr:uid="{250B8185-7BBA-4AE8-96DD-997CB83B3F36}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_7 - Recommandations AQ" xfId="430" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_99-2 Baseline Status (ECRs) (2)" xfId="431" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_99-2 Baseline Status (ECRs) (2) 2" xfId="1194" xr:uid="{E4E52B93-F775-4F29-A667-0FF7DCB1E1E2}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_99-3 Formal IVV status (2)" xfId="432" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_99-3 Formal IVV status (2) 2" xfId="1195" xr:uid="{DEF223B9-A980-4BB8-A5EF-044AA460D7EE}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-F-DAE-025-00-D" xfId="433" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-F-DAE-025-00-D 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-F-DAE-025-00-D 2 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-S76-AVS-2010-04.new-xls" xfId="436" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-S76-AVS-2010-04.new-xls 2" xfId="1196" xr:uid="{921D5118-BC9E-4AF1-A466-AC1CBE191016}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_Nettoyage_fichier" xfId="437" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_Nettoyage_fichier 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_Nettoyage_fichier 2 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="440" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="442" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1197" xr:uid="{81540837-2579-4B4B-B149-DA64838E064B}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_TdB-S76-CIS-2010-03 V38 Recup" xfId="443" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
-    <cellStyle name="H_Déf_1.2 Décisions-Actions_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1198" xr:uid="{67DEDD09-54CF-48A4-8E21-52BE588BF645}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction" xfId="444" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction 2" xfId="445" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1" xfId="446" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1 - Fiche descriptive" xfId="447" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_1 - Fiche descriptive" xfId="450" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_5-Charges MO" xfId="451" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_5-Charges MO 2" xfId="1199" xr:uid="{5930258D-E5CE-4047-9D4F-8765797E1A39}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_7 - Recommandations AQ" xfId="452" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_99-2 Baseline Status (ECRs) (2)" xfId="453" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_99-2 Baseline Status (ECRs) (2) 2" xfId="1200" xr:uid="{07082B10-4B17-426E-B918-2A0C55FF3BA4}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_99-3 Formal IVV status (2)" xfId="454" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_99-3 Formal IVV status (2) 2" xfId="1201" xr:uid="{CB3F3FDC-4487-452E-86D4-E4761C4D124C}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-F-DAE-025-00-D" xfId="455" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-F-DAE-025-00-D 2" xfId="456" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-F-DAE-025-00-D 2 2" xfId="457" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-S76-AVS-2010-04.new-xls" xfId="458" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-S76-AVS-2010-04.new-xls 2" xfId="1202" xr:uid="{03BC5DA9-C3A9-4D68-8126-45ED95CC66D7}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_Nettoyage_fichier" xfId="459" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_Nettoyage_fichier 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_Nettoyage_fichier 2 2" xfId="461" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="462" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="464" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1203" xr:uid="{AA5DD947-97F4-40D1-B33B-FD597D3BAA40}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_TdB-S76-CIS-2010-03 V38 Recup" xfId="465" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1204" xr:uid="{289EF466-15C5-4465-A9C1-EC856144C275}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_5-Charges MO" xfId="466" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_7 - Recommandations AQ" xfId="467" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_99-2 Baseline Status (ECRs) (2)" xfId="468" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_99-3 Formal IVV status (2)" xfId="469" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_MAP-F-DAE-025-00-D" xfId="470" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_MAP-F-DAE-025-00-D 2" xfId="471" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_MAP-S76-AVS-2010-04.new-xls" xfId="472" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_Nettoyage_fichier" xfId="473" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_Nettoyage_fichier 2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="475" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="476" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
-    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_TdB-S76-CIS-2010-03 V38 Recup" xfId="477" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)" xfId="478" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1" xfId="479" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_1 - Fiche descriptive" xfId="481" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_5-Charges MO" xfId="482" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_7 - Recommandations AQ" xfId="483" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_99-2 Baseline Status (ECRs) (2)" xfId="484" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_99-3 Formal IVV status (2)" xfId="485" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_MAP-F-DAE-025-00-D" xfId="486" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_MAP-F-DAE-025-00-D 2" xfId="487" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_MAP-S76-AVS-2010-04.new-xls" xfId="488" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_Nettoyage_fichier" xfId="489" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_Nettoyage_fichier 2" xfId="490" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="491" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="492" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_TdB-S76-CIS-2010-03 V38 Recup" xfId="493" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2" xfId="494" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2 2" xfId="495" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2 2 2" xfId="496" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_1 - Fiche descriptive" xfId="497" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_5-Charges MO" xfId="498" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_5-Charges MO 2" xfId="1205" xr:uid="{91AEDF72-A791-401E-9797-F02AA4B0694A}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_7 - Recommandations AQ" xfId="499" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_99-2 Baseline Status (ECRs) (2)" xfId="500" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_99-2 Baseline Status (ECRs) (2) 2" xfId="1206" xr:uid="{590D7DFC-684A-4BE4-80C6-A0FF81797FD6}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_99-3 Formal IVV status (2)" xfId="501" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_99-3 Formal IVV status (2) 2" xfId="1207" xr:uid="{EDEC88BD-2DB2-41A0-9837-BEE7CC0B1F6C}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-F-DAE-025-00-D" xfId="502" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-F-DAE-025-00-D 2" xfId="503" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-F-DAE-025-00-D 2 2" xfId="504" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-S76-AVS-2010-04.new-xls" xfId="505" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-S76-AVS-2010-04.new-xls 2" xfId="1208" xr:uid="{BEC80FEC-A988-4401-9470-EAE8D02437C5}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_Nettoyage_fichier" xfId="506" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_Nettoyage_fichier 2" xfId="507" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_Nettoyage_fichier 2 2" xfId="508" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="509" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="510" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="511" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1209" xr:uid="{4F012A47-91E8-45C6-872A-46D2B7C35AA0}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_TdB-S76-CIS-2010-03 V38 Recup" xfId="512" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1210" xr:uid="{D04FBAA6-4BF7-4A17-B779-3602FCEE5FC4}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP" xfId="513" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP 2" xfId="514" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_1 - Fiche descriptive" xfId="515" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_5-Charges MO" xfId="516" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_7 - Recommandations AQ" xfId="517" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_99-2 Baseline Status (ECRs) (2)" xfId="518" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_99-3 Formal IVV status (2)" xfId="519" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_MAP-F-DAE-025-00-D" xfId="520" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_MAP-F-DAE-025-00-D 2" xfId="521" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_MAP-S76-AVS-2010-04.new-xls" xfId="522" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_Nettoyage_fichier" xfId="523" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_Nettoyage_fichier 2" xfId="524" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="525" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="526" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
-    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_TdB-S76-CIS-2010-03 V38 Recup" xfId="527" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat" xfId="528" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat 2" xfId="529" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat 2 2" xfId="530" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_1 - Fiche descriptive" xfId="531" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_5-Charges MO" xfId="532" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_5-Charges MO 2" xfId="1211" xr:uid="{6AD3E9E4-7C4C-4B55-8851-5191F91283AB}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_7 - Recommandations AQ" xfId="533" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_99-2 Baseline Status (ECRs) (2)" xfId="534" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_99-2 Baseline Status (ECRs) (2) 2" xfId="1212" xr:uid="{77E46FA7-D8E6-403E-AFED-C224B20A93BB}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_99-3 Formal IVV status (2)" xfId="535" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_99-3 Formal IVV status (2) 2" xfId="1213" xr:uid="{EC2A8F85-18E3-4F66-8E1C-0F4D7A76A0B5}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_MAP-F-DAE-025-00-D" xfId="536" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_MAP-F-DAE-025-00-D 2" xfId="537" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_MAP-F-DAE-025-00-D 2 2" xfId="538" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_MAP-S76-AVS-2010-04.new-xls" xfId="539" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_MAP-S76-AVS-2010-04.new-xls 2" xfId="1214" xr:uid="{8548C604-B2BA-4337-984D-E2479E9B8A38}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_Nettoyage_fichier" xfId="540" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_Nettoyage_fichier 2" xfId="541" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_Nettoyage_fichier 2 2" xfId="542" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="543" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="544" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="545" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1215" xr:uid="{BF9AE55F-0DD3-4922-8044-1E17BC4488D0}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_TdB-S76-CIS-2010-03 V38 Recup" xfId="546" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
-    <cellStyle name="H_Déf_2.5 Contrat_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1216" xr:uid="{6C5B4BC8-854B-473A-9CB4-62DBB2A80F0B}"/>
-    <cellStyle name="H_Déf_2.6 Cust_Internal dependancies" xfId="547" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client" xfId="548" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client 2" xfId="549" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client 2 2" xfId="550" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_1 - Fiche descriptive" xfId="551" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_5-Charges MO" xfId="552" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_5-Charges MO 2" xfId="1217" xr:uid="{6E8FD57E-01C6-498B-AD55-240FA6638B9C}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_7 - Recommandations AQ" xfId="553" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_99-2 Baseline Status (ECRs) (2)" xfId="554" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_99-2 Baseline Status (ECRs) (2) 2" xfId="1218" xr:uid="{15A8CCD5-0B65-4742-A405-F28247561324}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_99-3 Formal IVV status (2)" xfId="555" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_99-3 Formal IVV status (2) 2" xfId="1219" xr:uid="{451A1225-61D6-4E30-A573-978C61D4424D}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-F-DAE-025-00-D" xfId="556" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-F-DAE-025-00-D 2" xfId="557" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-F-DAE-025-00-D 2 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-S76-AVS-2010-04.new-xls" xfId="559" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-S76-AVS-2010-04.new-xls 2" xfId="1220" xr:uid="{4A20A012-8DE7-4C55-A397-E9738D8110C4}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_Nettoyage_fichier" xfId="560" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_Nettoyage_fichier 2" xfId="561" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_Nettoyage_fichier 2 2" xfId="562" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="563" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="564" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="565" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1221" xr:uid="{F2DC8BE4-4975-41A3-B448-81816D036FDE}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_TdB-S76-CIS-2010-03 V38 Recup" xfId="566" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
-    <cellStyle name="H_Déf_2.6 Obligations Client_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1222" xr:uid="{06355373-08B9-4AC6-844F-2EBF8C165CAE}"/>
-    <cellStyle name="H_Déf_2.7 Change Request" xfId="567" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request 2" xfId="568" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request 2 2" xfId="569" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_1 - Fiche descriptive" xfId="570" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_5-Charges MO" xfId="571" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_5-Charges MO 2" xfId="1223" xr:uid="{96900606-B00E-48BB-90D4-229BB1E59A54}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_7 - Recommandations AQ" xfId="572" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_99-2 Baseline Status (ECRs) (2)" xfId="573" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_99-2 Baseline Status (ECRs) (2) 2" xfId="1224" xr:uid="{C00E6460-0059-4C62-9538-1FCD1F3EA07B}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_99-3 Formal IVV status (2)" xfId="574" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_99-3 Formal IVV status (2) 2" xfId="1225" xr:uid="{96F03F06-D104-4EF7-B1F8-96DA6D25B2BC}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_MAP-F-DAE-025-00-D" xfId="575" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_MAP-F-DAE-025-00-D 2" xfId="576" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_MAP-F-DAE-025-00-D 2 2" xfId="577" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_MAP-S76-AVS-2010-04.new-xls" xfId="578" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_MAP-S76-AVS-2010-04.new-xls 2" xfId="1226" xr:uid="{F2C66550-60BC-4E8E-8BA3-93994828C7C9}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_Nettoyage_fichier" xfId="579" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_Nettoyage_fichier 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_Nettoyage_fichier 2 2" xfId="581" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="582" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="583" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="584" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1227" xr:uid="{7D9FD6AA-150D-475C-8308-45030A64BC4F}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_TdB-S76-CIS-2010-03 V38 Recup" xfId="585" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
-    <cellStyle name="H_Déf_2.7 Change Request_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1228" xr:uid="{F87CEE0A-7BFA-4859-8201-7114F67C8373}"/>
-    <cellStyle name="H_Déf_2007_11_DOR_DRAAMA éd2" xfId="586" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
-    <cellStyle name="H_Déf_20080619_Gripen_DOR_TASFR00591390-E" xfId="587" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
-    <cellStyle name="H_Déf_3.1 Risks" xfId="588" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques" xfId="589" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques 2" xfId="590" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques 2 2" xfId="591" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_1 - Fiche descriptive" xfId="592" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_5-Charges MO" xfId="593" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_5-Charges MO 2" xfId="1229" xr:uid="{CD2EAD70-89ED-41C8-AB0C-659B2E40D5CC}"/>
-    <cellStyle name="H_Déf_3.1 Risques_7 - Recommandations AQ" xfId="594" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_99-2 Baseline Status (ECRs) (2)" xfId="595" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_99-2 Baseline Status (ECRs) (2) 2" xfId="1230" xr:uid="{D21AE9FF-C7EC-4C13-946F-57E4650E4238}"/>
-    <cellStyle name="H_Déf_3.1 Risques_99-3 Formal IVV status (2)" xfId="596" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_99-3 Formal IVV status (2) 2" xfId="1231" xr:uid="{E34BD512-4CC1-47E0-9FDB-9E04DBE77ACB}"/>
-    <cellStyle name="H_Déf_3.1 Risques_MAP-F-DAE-025-00-D" xfId="597" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_MAP-F-DAE-025-00-D 2" xfId="598" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_MAP-F-DAE-025-00-D 2 2" xfId="599" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_MAP-S76-AVS-2010-04.new-xls" xfId="600" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_MAP-S76-AVS-2010-04.new-xls 2" xfId="1232" xr:uid="{64BA9580-E68D-4036-83FF-49F17D60CA87}"/>
-    <cellStyle name="H_Déf_3.1 Risques_Nettoyage_fichier" xfId="601" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_Nettoyage_fichier 2" xfId="602" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_Nettoyage_fichier 2 2" xfId="603" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="604" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="605" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="606" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1233" xr:uid="{6B49873F-5D4F-4DED-A256-BF037DD01533}"/>
-    <cellStyle name="H_Déf_3.1 Risques_TdB-S76-CIS-2010-03 V38 Recup" xfId="607" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
-    <cellStyle name="H_Déf_3.1 Risques_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1234" xr:uid="{A5CA7BBD-8D73-4D8A-8C8F-A79FE680FC94}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités" xfId="608" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités 2" xfId="609" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités 2 2" xfId="610" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_1 - Fiche descriptive" xfId="611" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_5-Charges MO" xfId="612" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_5-Charges MO 2" xfId="1235" xr:uid="{9C364AF9-687C-44B4-AC66-E7EA99BDDF90}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_7 - Recommandations AQ" xfId="613" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_99-2 Baseline Status (ECRs) (2)" xfId="614" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_99-2 Baseline Status (ECRs) (2) 2" xfId="1236" xr:uid="{72D038DD-7478-496B-A1D5-4FE2986EB6A9}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_99-3 Formal IVV status (2)" xfId="615" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_99-3 Formal IVV status (2) 2" xfId="1237" xr:uid="{58987CFD-5036-4E6F-B656-52AA88EF0418}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_MAP-F-DAE-025-00-D" xfId="616" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_MAP-F-DAE-025-00-D 2" xfId="617" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_MAP-F-DAE-025-00-D 2 2" xfId="618" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_MAP-S76-AVS-2010-04.new-xls" xfId="619" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_MAP-S76-AVS-2010-04.new-xls 2" xfId="1238" xr:uid="{EB4DA3B8-5FA3-47ED-8D02-B717BD278FC0}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_Nettoyage_fichier" xfId="620" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_Nettoyage_fichier 2" xfId="621" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_Nettoyage_fichier 2 2" xfId="622" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="623" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="624" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="625" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1239" xr:uid="{F4C04D41-E14F-4B93-9B79-44CCAC443BF1}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_TdB-S76-CIS-2010-03 V38 Recup" xfId="626" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
-    <cellStyle name="H_Déf_3.2 Opportunités_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1240" xr:uid="{E78539FB-2411-4CDF-8677-5F79EA933F48}"/>
-    <cellStyle name="H_Déf_3.2 Opportunities" xfId="627" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources" xfId="628" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources 2" xfId="629" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources 2 2" xfId="630" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_1 - Fiche descriptive" xfId="631" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_5-Charges MO" xfId="632" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_5-Charges MO 2" xfId="1241" xr:uid="{BAEC3316-F9C7-4CBF-BC10-3350F1E22A90}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_7 - Recommandations AQ" xfId="633" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_99-2 Baseline Status (ECRs) (2)" xfId="634" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_99-2 Baseline Status (ECRs) (2) 2" xfId="1242" xr:uid="{8AD8F208-FDD3-449C-9FC3-EC9A1955DBDB}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_99-3 Formal IVV status (2)" xfId="635" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_99-3 Formal IVV status (2) 2" xfId="1243" xr:uid="{E4722372-7956-462A-A33A-EBD5CEAE9F77}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-F-DAE-025-00-D" xfId="636" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-F-DAE-025-00-D 2" xfId="637" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-F-DAE-025-00-D 2 2" xfId="638" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-S76-AVS-2010-04.new-xls" xfId="639" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-S76-AVS-2010-04.new-xls 2" xfId="1244" xr:uid="{F199DD3B-8834-4BCC-A5CD-B16342429918}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_Nettoyage_fichier" xfId="640" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_Nettoyage_fichier 2" xfId="641" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_Nettoyage_fichier 2 2" xfId="642" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="643" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="644" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="645" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1245" xr:uid="{FC59E53A-EDEF-469C-BA77-517CC8291AF0}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_TdB-S76-CIS-2010-03 V38 Recup" xfId="646" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
-    <cellStyle name="H_Déf_5.1 Charges - ressources_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1246" xr:uid="{4C0E6C4E-9D17-40FA-97D0-D900038B980F}"/>
-    <cellStyle name="H_Déf_5.1 Labor workload" xfId="647" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes" xfId="648" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes 2" xfId="649" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes 2 2" xfId="650" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_1 - Fiche descriptive" xfId="651" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_5-Charges MO" xfId="652" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_5-Charges MO 2" xfId="1247" xr:uid="{7401D2F8-674F-4AA8-8E27-84C1A8BF7544}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_7 - Recommandations AQ" xfId="653" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_99-2 Baseline Status (ECRs) (2)" xfId="654" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_99-2 Baseline Status (ECRs) (2) 2" xfId="1248" xr:uid="{4383EC2A-00E0-49B1-9582-8B2690383FF7}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_99-3 Formal IVV status (2)" xfId="655" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_99-3 Formal IVV status (2) 2" xfId="1249" xr:uid="{1E37DF1C-ED63-4C7F-A810-25CABE262452}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-F-DAE-025-00-D" xfId="656" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-F-DAE-025-00-D 2" xfId="657" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-F-DAE-025-00-D 2 2" xfId="658" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-S76-AVS-2010-04.new-xls" xfId="659" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-S76-AVS-2010-04.new-xls 2" xfId="1250" xr:uid="{DA6B7A63-019C-4A8B-B27E-B73756A80F2B}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_Nettoyage_fichier" xfId="660" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_Nettoyage_fichier 2" xfId="661" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_Nettoyage_fichier 2 2" xfId="662" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="663" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="664" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="665" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1251" xr:uid="{329C7139-7279-4F15-B500-9138DC1ED03D}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_TdB-S76-CIS-2010-03 V38 Recup" xfId="666" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
-    <cellStyle name="H_Déf_6 - Prochaines Etapes_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1252" xr:uid="{063E9302-0799-46FC-8154-5962D8E13164}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects" xfId="667" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects 2" xfId="668" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects 2 2" xfId="669" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_1 - Fiche descriptive" xfId="670" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_5-Charges MO" xfId="671" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_5-Charges MO 2" xfId="1253" xr:uid="{A4A30DA3-C522-402B-B8A4-6B33AE610B14}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_7 - Recommandations AQ" xfId="672" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_99-2 Baseline Status (ECRs) (2)" xfId="673" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_99-2 Baseline Status (ECRs) (2) 2" xfId="1254" xr:uid="{88AF0C16-6CBE-4F03-821B-E62F5E440E5F}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_99-3 Formal IVV status (2)" xfId="674" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_99-3 Formal IVV status (2) 2" xfId="1255" xr:uid="{88DF9776-AC59-4D31-8DF8-B33772C1FDB8}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-F-DAE-025-00-D" xfId="675" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-F-DAE-025-00-D 2" xfId="676" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-F-DAE-025-00-D 2 2" xfId="677" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-S76-AVS-2010-04.new-xls" xfId="678" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-S76-AVS-2010-04.new-xls 2" xfId="1256" xr:uid="{9B2C93C1-33E7-49D0-AA2A-B51C81931DE9}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_Nettoyage_fichier" xfId="679" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_Nettoyage_fichier 2" xfId="680" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_Nettoyage_fichier 2 2" xfId="681" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="682" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="683" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="684" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1257" xr:uid="{2E34DE80-BAF3-400F-9D8E-DC1ACD5B741D}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_TdB-S76-CIS-2010-03 V38 Recup" xfId="685" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
-    <cellStyle name="H_Déf_7.10 Autres aspects_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1258" xr:uid="{82F843ED-F6CC-4BCA-8702-D9B6A4A56BB6}"/>
-    <cellStyle name="H_Déf_8.1 COP-CEP" xfId="686" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP" xfId="687" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP 2" xfId="688" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP 2 2" xfId="689" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_1 - Fiche descriptive" xfId="690" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_5-Charges MO" xfId="691" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_5-Charges MO 2" xfId="1259" xr:uid="{892BD18B-102F-42D4-A54D-35270E9D0759}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_7 - Recommandations AQ" xfId="692" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_99-2 Baseline Status (ECRs) (2)" xfId="693" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_99-2 Baseline Status (ECRs) (2) 2" xfId="1260" xr:uid="{E623580E-7CDC-432E-8F54-020434F27EFD}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_99-3 Formal IVV status (2)" xfId="694" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_99-3 Formal IVV status (2) 2" xfId="1261" xr:uid="{29546ECA-A5EC-4B78-AC24-5155636CE47C}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-F-DAE-025-00-D" xfId="695" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-F-DAE-025-00-D 2" xfId="696" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-F-DAE-025-00-D 2 2" xfId="697" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-S76-AVS-2010-04.new-xls" xfId="698" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-S76-AVS-2010-04.new-xls 2" xfId="1262" xr:uid="{DAD7D739-F34D-4798-9E9B-36220104043A}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_Nettoyage_fichier" xfId="699" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_Nettoyage_fichier 2" xfId="700" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_Nettoyage_fichier 2 2" xfId="701" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="702" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="703" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="704" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1263" xr:uid="{4851DE39-29FA-4DA1-8D3F-DCC27B88D3CC}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_TdB-S76-CIS-2010-03 V38 Recup" xfId="705" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
-    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1264" xr:uid="{4B13253F-4A8E-496D-B931-39C0201B6770}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots" xfId="706" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots 2 2" xfId="708" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_1 - Fiche descriptive" xfId="709" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_5-Charges MO" xfId="710" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_5-Charges MO 2" xfId="1265" xr:uid="{73D71094-2845-4ADC-9B0E-8016D57FF215}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_7 - Recommandations AQ" xfId="711" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_99-2 Baseline Status (ECRs) (2)" xfId="712" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_99-2 Baseline Status (ECRs) (2) 2" xfId="1266" xr:uid="{E74BC5DF-4E29-469F-BD9B-962FF782B222}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_99-3 Formal IVV status (2)" xfId="713" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_99-3 Formal IVV status (2) 2" xfId="1267" xr:uid="{B38A0EBE-C0AA-45AC-9DEA-3EEEADB0FCF1}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-F-DAE-025-00-D" xfId="714" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-F-DAE-025-00-D 2" xfId="715" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-F-DAE-025-00-D 2 2" xfId="716" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-S76-AVS-2010-04.new-xls" xfId="717" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-S76-AVS-2010-04.new-xls 2" xfId="1268" xr:uid="{2DB83138-685A-47E6-97A2-C1B2AE99B658}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_Nettoyage_fichier" xfId="718" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_Nettoyage_fichier 2" xfId="719" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_Nettoyage_fichier 2 2" xfId="720" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="721" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="722" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="723" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1269" xr:uid="{6947D4C5-6193-4469-B79C-4CD45FF8B6E2}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_TdB-S76-CIS-2010-03 V38 Recup" xfId="724" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
-    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1270" xr:uid="{7757EEAF-299B-4FC9-BA38-8FBDB9D474F4}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS" xfId="725" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS 2" xfId="726" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS 2 2" xfId="727" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_1 - Fiche descriptive" xfId="728" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_5-Charges MO" xfId="729" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_5-Charges MO 2" xfId="1271" xr:uid="{996A9D3D-54A4-44E4-BA37-BA02271A7889}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_7 - Recommandations AQ" xfId="730" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_99-2 Baseline Status (ECRs) (2)" xfId="731" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_99-2 Baseline Status (ECRs) (2) 2" xfId="1272" xr:uid="{29A362E5-61A0-4D56-9D89-BBB14F671A19}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_99-3 Formal IVV status (2)" xfId="732" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_99-3 Formal IVV status (2) 2" xfId="1273" xr:uid="{602BF1AD-965B-466F-B9B3-6E5A8894208E}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-F-DAE-025-00-D" xfId="733" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-F-DAE-025-00-D 2" xfId="734" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-F-DAE-025-00-D 2 2" xfId="735" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-S76-AVS-2010-04.new-xls" xfId="736" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-S76-AVS-2010-04.new-xls 2" xfId="1274" xr:uid="{38CD97FF-C2BE-4D94-A712-1C710B8F6CAF}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_Nettoyage_fichier" xfId="737" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_Nettoyage_fichier 2" xfId="738" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_Nettoyage_fichier 2 2" xfId="739" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="740" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="741" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="742" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1275" xr:uid="{AF55AC9B-BE35-4BF7-8C43-F836032E4535}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_TdB-S76-CIS-2010-03 V38 Recup" xfId="743" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
-    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1276" xr:uid="{A13C099F-70CB-48B3-ACE5-BEF4D1D794A9}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière" xfId="744" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière 2" xfId="745" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière 2 2" xfId="746" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_1 - Fiche descriptive" xfId="747" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_5-Charges MO" xfId="748" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_5-Charges MO 2" xfId="1277" xr:uid="{9FD8F1CC-0687-49D1-A539-8F1F999BFFC8}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_7 - Recommandations AQ" xfId="749" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_99-2 Baseline Status (ECRs) (2)" xfId="750" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_99-2 Baseline Status (ECRs) (2) 2" xfId="1278" xr:uid="{EED7C606-57C4-4F7A-98DC-54685C033552}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_99-3 Formal IVV status (2)" xfId="751" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_99-3 Formal IVV status (2) 2" xfId="1279" xr:uid="{CEE16AE5-6288-4AAF-A44E-9971C6D9FE5F}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_MAP-F-DAE-025-00-D" xfId="752" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_MAP-F-DAE-025-00-D 2" xfId="753" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_MAP-F-DAE-025-00-D 2 2" xfId="754" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_MAP-S76-AVS-2010-04.new-xls" xfId="755" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_MAP-S76-AVS-2010-04.new-xls 2" xfId="1280" xr:uid="{341D3EE2-CC12-44E4-A8A3-F20F2A399ECF}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_Nettoyage_fichier" xfId="756" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_Nettoyage_fichier 2" xfId="757" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_Nettoyage_fichier 2 2" xfId="758" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="759" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="760" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="761" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1281" xr:uid="{70BFA7EF-7DBF-4D3F-A949-356BBFE30898}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_TdB-S76-CIS-2010-03 V38 Recup" xfId="762" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
-    <cellStyle name="H_Déf_8.5 Situation financière_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1282" xr:uid="{37B6D5AD-A325-48A4-A30D-7DDE29952D85}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison" xfId="763" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison 2" xfId="764" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison 2 2" xfId="765" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_1 - Fiche descriptive" xfId="766" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_5-Charges MO" xfId="767" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_5-Charges MO 2" xfId="1283" xr:uid="{B0B65A99-7C16-4F2B-A5F6-44F722B88CDA}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_7 - Recommandations AQ" xfId="768" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_99-2 Baseline Status (ECRs) (2)" xfId="769" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_99-2 Baseline Status (ECRs) (2) 2" xfId="1284" xr:uid="{0AC5B6CA-84D1-4FEF-B116-729279FAAFCF}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_99-3 Formal IVV status (2)" xfId="770" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_99-3 Formal IVV status (2) 2" xfId="1285" xr:uid="{F1C0C652-092C-433E-8EFD-A641EBE831F1}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-F-DAE-025-00-D" xfId="771" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-F-DAE-025-00-D 2" xfId="772" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-F-DAE-025-00-D 2 2" xfId="773" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-S76-AVS-2010-04.new-xls" xfId="774" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-S76-AVS-2010-04.new-xls 2" xfId="1286" xr:uid="{943B2F8E-485C-4A36-82AB-C82751BC46CD}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_Nettoyage_fichier" xfId="775" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_Nettoyage_fichier 2" xfId="776" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_Nettoyage_fichier 2 2" xfId="777" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="778" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="779" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="780" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1287" xr:uid="{C2DB7FCD-0ADB-4631-938F-7B65DC4D7796}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_TdB-S76-CIS-2010-03 V38 Recup" xfId="781" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
-    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1288" xr:uid="{7293AE01-9505-4E6A-A90D-B7BEE4ACA511}"/>
-    <cellStyle name="H_Déf_9 Administration" xfId="782" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
-    <cellStyle name="H_Déf_9 Administration_8.1 COP-CEP" xfId="783" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL" xfId="784" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL 2" xfId="785" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL 2 2" xfId="786" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_1 - Fiche descriptive" xfId="787" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_5-Charges MO" xfId="788" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_5-Charges MO 2" xfId="1289" xr:uid="{4F2AD6AE-D4BA-49B3-A28A-8EF8BF4F20F6}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_7 - Recommandations AQ" xfId="789" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_99-2 Baseline Status (ECRs) (2)" xfId="790" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_99-2 Baseline Status (ECRs) (2) 2" xfId="1290" xr:uid="{206E16FE-C818-4793-9272-71A6B0858F8B}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_99-3 Formal IVV status (2)" xfId="791" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_99-3 Formal IVV status (2) 2" xfId="1291" xr:uid="{E4BB2B4D-168E-4FF4-B876-7678ED41C8CC}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-F-DAE-025-00-D" xfId="792" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-F-DAE-025-00-D 2" xfId="793" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-F-DAE-025-00-D 2 2" xfId="794" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-S76-AVS-2010-04.new-xls" xfId="795" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-S76-AVS-2010-04.new-xls 2" xfId="1292" xr:uid="{8BC99FD9-9A38-47DE-8F52-F5C280496599}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_Nettoyage_fichier" xfId="796" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_Nettoyage_fichier 2" xfId="797" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_Nettoyage_fichier 2 2" xfId="798" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="799" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="800" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="801" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1293" xr:uid="{EFFEAA97-2329-4B46-8E09-535C5A7E8519}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_TdB-S76-CIS-2010-03 V38 Recup" xfId="802" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
-    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1294" xr:uid="{6E5FEEAC-9203-4814-BEF6-66B3984ACBB0}"/>
-    <cellStyle name="H_Déf_DOR C130 map-f-dae-008-fr NAV-08-003164-02 Octobre 2008" xfId="803" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
-    <cellStyle name="H_Déf_DOR FdLIndus RDR -A_V2" xfId="804" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
-    <cellStyle name="H_Déf_DOR Integ EAA RC - NRC" xfId="805" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
-    <cellStyle name="H_Déf_DOR map-f-dae-008-fr NAV-08-003255-01 Aout 2008" xfId="806" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
-    <cellStyle name="H_Déf_DOR Meltem3-ir00" xfId="807" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
-    <cellStyle name="H_Déf_DOR RPU-PBU FREMM-SNA 0605 partie I2M SAN-2" xfId="808" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
-    <cellStyle name="H_Déf_DOR RPU-PBU FREMM-SNA partie I2M SAN-3 080702" xfId="809" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
-    <cellStyle name="H_Déf_DOR SYNTHESE Fremm" xfId="810" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
-    <cellStyle name="H_Déf_DOR_1erSerie" xfId="811" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
-    <cellStyle name="H_Déf_DOR_EAA7" xfId="812" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
-    <cellStyle name="H_Déf_DOR_EAA7_jv08" xfId="813" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
-    <cellStyle name="H_Déf_DOR_EAA7_nov07" xfId="814" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
-    <cellStyle name="H_Déf_DOR_EAA7_nov08" xfId="815" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
-    <cellStyle name="H_Déf_DOR_EPS-synthese_EPS-IS et EPTS-Mars 09" xfId="816" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
-    <cellStyle name="H_Déf_DOR_EPTS-synthese programme-Mai 08" xfId="817" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
-    <cellStyle name="H_Déf_DOR_EPTS-synthese-Juillet 08" xfId="818" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
-    <cellStyle name="H_Déf_DOR_EPTS-synthese-Juin 08" xfId="819" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
-    <cellStyle name="H_Déf_DOR_EPTS-synthese-Mai 08" xfId="820" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
-    <cellStyle name="H_Déf_DOR_EPTS-synthese-Octobre 08" xfId="821" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
-    <cellStyle name="H_Déf_DOR_EPTS-synthese-Septembre 08" xfId="822" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
-    <cellStyle name="H_Déf_DOR_ETS-synthese_EPS-IS et EPTS-Janvier 09" xfId="823" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
-    <cellStyle name="H_Déf_DOR_indusRdR_nov08" xfId="824" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
-    <cellStyle name="H_Déf_DOR_indusRdR_STR" xfId="825" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
-    <cellStyle name="H_Déf_DOR_indusRdR_STR_jv08" xfId="826" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
-    <cellStyle name="H_Déf_DOR_TASFR00584242-" xfId="827" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
-    <cellStyle name="H_Déf_DORV5.1-2.5-EWS-Jan 08_280108" xfId="828" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles" xfId="829" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles 2" xfId="830" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles 2 2" xfId="831" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_1 - Fiche descriptive" xfId="832" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_5-Charges MO" xfId="833" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_5-Charges MO 2" xfId="1295" xr:uid="{FB9A21D6-4121-451E-B102-2B4A6D3F626E}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_7 - Recommandations AQ" xfId="834" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_99-2 Baseline Status (ECRs) (2)" xfId="835" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_99-2 Baseline Status (ECRs) (2) 2" xfId="1296" xr:uid="{DA12D096-A308-4866-88A5-22E2B329D1F7}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_99-3 Formal IVV status (2)" xfId="836" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_99-3 Formal IVV status (2) 2" xfId="1297" xr:uid="{0C1CCFB2-F5C3-4C4B-AC39-BC15216FEB65}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-F-DAE-025-00-D" xfId="837" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-F-DAE-025-00-D 2" xfId="838" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-F-DAE-025-00-D 2 2" xfId="839" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-S76-AVS-2010-04.new-xls" xfId="840" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-S76-AVS-2010-04.new-xls 2" xfId="1298" xr:uid="{51ADEB6C-417E-4AF2-92CF-31B69FCCB391}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_Nettoyage_fichier" xfId="841" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_Nettoyage_fichier 2" xfId="842" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_Nettoyage_fichier 2 2" xfId="843" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="844" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="845" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_TdB-S76-CIS-2010-03 V38 Recup" xfId="846" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
-    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1299" xr:uid="{9EC6ED27-8833-4C10-9E9C-3A3B42F6305D}"/>
-    <cellStyle name="H_Déf_LINKS_CLEANUP_17" xfId="847" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
-    <cellStyle name="H_Déf_Log Risk" xfId="848" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
-    <cellStyle name="H_Déf_MAP-F-DAE-005-XX_08" xfId="849" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
-    <cellStyle name="H_Déf_MAP-F-DAE-008-F_03 (DOR_V5_2)_PertMaster" xfId="850" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
-    <cellStyle name="H_Déf_Onglets_R_O_TDB_New" xfId="851" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
-    <cellStyle name="H_Déf_P3E_DAE_DASHBOARD_MODULE_V2_12" xfId="852" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
-    <cellStyle name="H_Déf_Page de garde" xfId="853" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
-    <cellStyle name="H_Déf_Page de garde_ATA_08_4098_DIS-TdB_MAS FSTA _sept_11_ind00" xfId="854" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
-    <cellStyle name="H_Déf_RRJ WP4.2 Progress Report-2006-06 IR 04" xfId="855" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
-    <cellStyle name="H_Déf_RRJ WP4.2 Progress Report-2006-07 IR 00" xfId="856" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7" xfId="857" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7 2" xfId="858" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7 2 2" xfId="859" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_1 - Fiche descriptive" xfId="860" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_5-Charges MO" xfId="861" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_5-Charges MO 2" xfId="1300" xr:uid="{59E2C80A-055A-427F-A4E8-8FC93FA68843}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_7 - Recommandations AQ" xfId="862" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_99-2 Baseline Status (ECRs) (2)" xfId="863" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_99-2 Baseline Status (ECRs) (2) 2" xfId="1301" xr:uid="{6F831C4A-3FC2-4E35-9B3F-62D6BE21941E}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_99-3 Formal IVV status (2)" xfId="864" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_99-3 Formal IVV status (2) 2" xfId="1302" xr:uid="{355A5A76-F3C2-45D2-9CC7-FD7E5B373E42}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-F-DAE-025-00-D" xfId="865" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-F-DAE-025-00-D 2" xfId="866" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-F-DAE-025-00-D 2 2" xfId="867" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-S76-AVS-2010-04.new-xls" xfId="868" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-S76-AVS-2010-04.new-xls 2" xfId="1303" xr:uid="{80D925B6-38F0-429F-BADC-C20B448DC901}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_Nettoyage_fichier" xfId="869" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_Nettoyage_fichier 2" xfId="870" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_Nettoyage_fichier 2 2" xfId="871" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="872" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="873" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_TdB-S76-CIS-2010-03 V38 Recup" xfId="874" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
-    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1304" xr:uid="{7F6B1F87-5EDF-48DB-B6E1-E90A14C46ABE}"/>
-    <cellStyle name="Heading 1" xfId="1140" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
-    <cellStyle name="Heading 2" xfId="1141" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
-    <cellStyle name="Heading 3" xfId="1142" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
-    <cellStyle name="Heading 4" xfId="1143" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
-    <cellStyle name="Here" xfId="875" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
-    <cellStyle name="Here 2" xfId="876" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
-    <cellStyle name="Here 2 2" xfId="877" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
-    <cellStyle name="Here_1 - Fiche descriptive" xfId="878" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
-    <cellStyle name="Hyperlink" xfId="879" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
-    <cellStyle name="Hyperlink 2" xfId="880" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="881" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
-    <cellStyle name="Hyperlink_1 - Fiche descriptive" xfId="882" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
-    <cellStyle name="Input" xfId="883" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant 2" xfId="885" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
-    <cellStyle name="item" xfId="886" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
-    <cellStyle name="item 2" xfId="887" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
-    <cellStyle name="item 2 2" xfId="888" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
-    <cellStyle name="item 3" xfId="889" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
-    <cellStyle name="item_1 - Fiche descriptive" xfId="890" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
-    <cellStyle name="keuros" xfId="891" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
-    <cellStyle name="l1" xfId="892" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
-    <cellStyle name="l1 2" xfId="893" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
-    <cellStyle name="l1_1 - Fiche descriptive" xfId="894" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
-    <cellStyle name="l2" xfId="895" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
-    <cellStyle name="l3" xfId="896" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
-    <cellStyle name="l4" xfId="897" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
-    <cellStyle name="l4 2" xfId="898" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
-    <cellStyle name="l4 2 2" xfId="899" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
-    <cellStyle name="l4_1 - Fiche descriptive" xfId="900" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
-    <cellStyle name="l5" xfId="901" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
-    <cellStyle name="l5 2" xfId="902" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
-    <cellStyle name="l5 2 2" xfId="903" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
-    <cellStyle name="l5_1 - Fiche descriptive" xfId="904" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
-    <cellStyle name="Lien hypertexte 2" xfId="905" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
-    <cellStyle name="Lien hypertexte 2 2" xfId="906" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
-    <cellStyle name="Lien hypertexte 3" xfId="907" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
-    <cellStyle name="Lien hypertexte 3 2" xfId="908" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
-    <cellStyle name="Lien hypertexte 3 3" xfId="1305" xr:uid="{4E3B0385-B764-4A67-8656-92CBB5A2245A}"/>
-    <cellStyle name="Lien hypertexte 4" xfId="909" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
-    <cellStyle name="Lien hypertexte 4 2" xfId="1306" xr:uid="{D5450407-B805-47BF-9125-39E0F4306AE8}"/>
-    <cellStyle name="Lien hypertexte 5" xfId="910" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
-    <cellStyle name="Lien hypertexte 6" xfId="911" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
-    <cellStyle name="Lien hypertexte 6 2" xfId="1307" xr:uid="{3157CAE7-E5F3-4808-A259-1024D05AC903}"/>
-    <cellStyle name="Lien_x0018_hypertexte" xfId="912" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
-    <cellStyle name="Lien_x0018_hypertexte 2" xfId="913" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
-    <cellStyle name="Linked Cell" xfId="914" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Masqué" xfId="915" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
-    <cellStyle name="Masqué 2" xfId="916" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
-    <cellStyle name="Masqué 2 2" xfId="917" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
-    <cellStyle name="Masqué 3" xfId="918" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
-    <cellStyle name="Masqué 3 2" xfId="919" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
-    <cellStyle name="Masqué 4" xfId="920" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
-    <cellStyle name="Masqué_1 - Fiche descriptive" xfId="921" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
-    <cellStyle name="money" xfId="922" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
-    <cellStyle name="money 2" xfId="923" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
-    <cellStyle name="money 2 2" xfId="924" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
-    <cellStyle name="money 3" xfId="925" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
-    <cellStyle name="money_1 - Fiche descriptive" xfId="926" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
-    <cellStyle name="Neutral" xfId="927" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
-    <cellStyle name="Neutre 2" xfId="928" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
-    <cellStyle name="NEW_equipement" xfId="929" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
-    <cellStyle name="Niveau_1" xfId="930" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
-    <cellStyle name="Noeud" xfId="931" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
-    <cellStyle name="Nom Doc" xfId="932" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
-    <cellStyle name="nombre" xfId="933" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
-    <cellStyle name="nombre 2" xfId="934" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
-    <cellStyle name="nombre_1 - Fiche descriptive" xfId="935" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
-    <cellStyle name="Noms" xfId="936" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
-    <cellStyle name="Non défini" xfId="937" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
-    <cellStyle name="Non défini 2" xfId="938" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
-    <cellStyle name="Non défini 2 2" xfId="939" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
-    <cellStyle name="Non défini_1 - Fiche descriptive" xfId="940" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
-    <cellStyle name="Non modifiable" xfId="941" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
-    <cellStyle name="Non modifiable 2" xfId="942" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
-    <cellStyle name="Non modifiable 2 2" xfId="943" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
-    <cellStyle name="Non modifiable 3" xfId="944" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
-    <cellStyle name="Non modifiable 3 2" xfId="945" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
-    <cellStyle name="Non modifiable 4" xfId="946" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="947" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
-    <cellStyle name="Normal 2 2" xfId="948" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="949" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
-    <cellStyle name="Normal 2 3" xfId="950" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
-    <cellStyle name="Normal 3" xfId="951" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
-    <cellStyle name="Normal 3 2" xfId="952" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="1308" xr:uid="{29B876DC-5232-4A22-88A5-030E565BCE92}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="1318" xr:uid="{52DA3CD4-C8EA-4F39-9836-1FF82D628E5E}"/>
-    <cellStyle name="Normal 3 2 3" xfId="1316" xr:uid="{799AD7DC-8251-4BF1-B5A7-323716CDE335}"/>
-    <cellStyle name="Normal 4" xfId="953" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
-    <cellStyle name="Normal 5" xfId="954" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
-    <cellStyle name="Normal 5 2" xfId="1309" xr:uid="{DE3F61F3-A2A5-4BA8-91EB-C31D3FF0B07E}"/>
-    <cellStyle name="Normal 5 2 2" xfId="1319" xr:uid="{689931A7-9F5F-497F-8A2B-044E88F0886D}"/>
-    <cellStyle name="Normal 5 3" xfId="1317" xr:uid="{1459879A-DCEB-4253-AB9F-2DF59B46D6D8}"/>
-    <cellStyle name="Normal 97" xfId="955" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
-    <cellStyle name="Normal_2 - Evènements clés 2" xfId="956" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
-    <cellStyle name="Normal_87201044-MGPR-GRP-EN-Draft002-Project_reporting_template_b_20110121" xfId="957" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
-    <cellStyle name="Normal_87201044-MGPR-GRP-EN-Draft002-Project_reporting_template_b_20110121 2" xfId="958" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
-    <cellStyle name="Normal_Maquette_TDB4" xfId="959" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
-    <cellStyle name="Normal_Maquette_TDB4 2" xfId="960" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
-    <cellStyle name="Normal_Project reporting template-87201044-MGPR-GRP-EN- 2" xfId="961" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
-    <cellStyle name="Normal_Solution_Monitoring_Dashboard_File 2" xfId="962" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
-    <cellStyle name="Note" xfId="963" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="obsolete" xfId="964" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
-    <cellStyle name="one" xfId="965" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
-    <cellStyle name="Output" xfId="1114" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
-    <cellStyle name="pepin" xfId="966" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
-    <cellStyle name="pepin 2" xfId="967" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
-    <cellStyle name="pepin_1 - Fiche descriptive" xfId="968" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
-    <cellStyle name="Pound" xfId="969" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
-    <cellStyle name="Pound 2" xfId="970" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
-    <cellStyle name="Pound 2 2" xfId="971" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
-    <cellStyle name="Pound 3" xfId="972" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
-    <cellStyle name="Pound_1 - Fiche descriptive" xfId="973" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
-    <cellStyle name="Pound12" xfId="974" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
-    <cellStyle name="Pourcentage 2" xfId="975" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
-    <cellStyle name="Pourcentage 2 2" xfId="976" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
-    <cellStyle name="Pourcentage 3" xfId="977" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
-    <cellStyle name="Pourcentage 4" xfId="978" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
-    <cellStyle name="Pourcentage 4 2" xfId="1310" xr:uid="{19FD9B53-8516-4C2C-85E9-387F952CF670}"/>
-    <cellStyle name="Pourcentage 5" xfId="979" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
-    <cellStyle name="Pourcentage 5 2" xfId="980" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
-    <cellStyle name="Pourcentage entier" xfId="981" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
-    <cellStyle name="PSChar" xfId="982" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
-    <cellStyle name="PSChar 2" xfId="983" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
-    <cellStyle name="PSChar 2 2" xfId="984" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
-    <cellStyle name="PSDate" xfId="985" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
-    <cellStyle name="PSDate 2" xfId="986" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
-    <cellStyle name="PSDate 2 2" xfId="987" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
-    <cellStyle name="PSDec" xfId="988" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
-    <cellStyle name="PSDec 2" xfId="989" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
-    <cellStyle name="PSDec 2 2" xfId="990" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
-    <cellStyle name="PSHeading" xfId="991" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
-    <cellStyle name="PSHeading 2" xfId="992" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
-    <cellStyle name="PSHeading 2 2" xfId="993" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
-    <cellStyle name="PSHeading_1 - Fiche descriptive" xfId="994" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
-    <cellStyle name="PSInt" xfId="995" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
-    <cellStyle name="PSInt 2" xfId="996" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
-    <cellStyle name="PSInt 2 2" xfId="997" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
-    <cellStyle name="PSSpacer" xfId="998" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
-    <cellStyle name="PSSpacer 2" xfId="999" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
-    <cellStyle name="PSSpacer 2 2" xfId="1000" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
-    <cellStyle name="Qty" xfId="1001" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
-    <cellStyle name="Qty 2" xfId="1002" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
-    <cellStyle name="Qty 2 2" xfId="1003" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
-    <cellStyle name="Qty 3" xfId="1004" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
-    <cellStyle name="Qty_1 - Fiche descriptive" xfId="1005" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
-    <cellStyle name="Réduction" xfId="1006" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
-    <cellStyle name="SAPBEXaggData" xfId="1007" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
-    <cellStyle name="SAPBEXaggData 2" xfId="1008" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
-    <cellStyle name="SAPBEXaggData 2 2" xfId="1009" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
-    <cellStyle name="SAPBEXaggData_1 - Fiche descriptive" xfId="1010" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="1011" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
-    <cellStyle name="SAPBEXaggDataEmph 2" xfId="1012" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
-    <cellStyle name="SAPBEXaggDataEmph 2 2" xfId="1013" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
-    <cellStyle name="SAPBEXaggDataEmph_1 - Fiche descriptive" xfId="1014" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
-    <cellStyle name="SAPBEXaggItem" xfId="1015" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
-    <cellStyle name="SAPBEXaggItem 2" xfId="1016" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
-    <cellStyle name="SAPBEXaggItem 2 2" xfId="1017" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
-    <cellStyle name="SAPBEXaggItem_1 - Fiche descriptive" xfId="1018" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
-    <cellStyle name="SAPBEXchaText" xfId="1019" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
-    <cellStyle name="SAPBEXchaText 2" xfId="1020" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
-    <cellStyle name="SAPBEXchaText 2 2" xfId="1021" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
-    <cellStyle name="SAPBEXchaText_1 - Fiche descriptive" xfId="1022" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
-    <cellStyle name="SAPBEXexcBad7" xfId="1023" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
-    <cellStyle name="SAPBEXexcBad7 2" xfId="1024" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
-    <cellStyle name="SAPBEXexcBad7 2 2" xfId="1025" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
-    <cellStyle name="SAPBEXexcBad7_1 - Fiche descriptive" xfId="1026" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
-    <cellStyle name="SAPBEXexcBad8" xfId="1027" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
-    <cellStyle name="SAPBEXexcBad8 2" xfId="1028" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
-    <cellStyle name="SAPBEXexcBad8 2 2" xfId="1029" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
-    <cellStyle name="SAPBEXexcBad8_1 - Fiche descriptive" xfId="1030" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
-    <cellStyle name="SAPBEXexcBad9" xfId="1031" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
-    <cellStyle name="SAPBEXexcBad9 2" xfId="1032" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
-    <cellStyle name="SAPBEXexcBad9 2 2" xfId="1033" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
-    <cellStyle name="SAPBEXexcBad9_1 - Fiche descriptive" xfId="1034" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
-    <cellStyle name="SAPBEXexcCritical4" xfId="1035" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
-    <cellStyle name="SAPBEXexcCritical4 2" xfId="1036" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
-    <cellStyle name="SAPBEXexcCritical4 2 2" xfId="1037" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
-    <cellStyle name="SAPBEXexcCritical4_1 - Fiche descriptive" xfId="1038" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
-    <cellStyle name="SAPBEXexcCritical5" xfId="1039" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
-    <cellStyle name="SAPBEXexcCritical5 2" xfId="1040" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
-    <cellStyle name="SAPBEXexcCritical5 2 2" xfId="1041" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
-    <cellStyle name="SAPBEXexcCritical5_1 - Fiche descriptive" xfId="1042" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="1043" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
-    <cellStyle name="SAPBEXexcCritical6 2" xfId="1044" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
-    <cellStyle name="SAPBEXexcCritical6 2 2" xfId="1045" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
-    <cellStyle name="SAPBEXexcCritical6_1 - Fiche descriptive" xfId="1046" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
-    <cellStyle name="SAPBEXexcGood1" xfId="1047" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
-    <cellStyle name="SAPBEXexcGood1 2" xfId="1048" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
-    <cellStyle name="SAPBEXexcGood1 2 2" xfId="1049" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
-    <cellStyle name="SAPBEXexcGood1_1 - Fiche descriptive" xfId="1050" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="1051" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
-    <cellStyle name="SAPBEXexcGood2 2" xfId="1052" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
-    <cellStyle name="SAPBEXexcGood2 2 2" xfId="1053" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
-    <cellStyle name="SAPBEXexcGood2_1 - Fiche descriptive" xfId="1054" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
-    <cellStyle name="SAPBEXexcGood3" xfId="1055" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
-    <cellStyle name="SAPBEXexcGood3 2" xfId="1056" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
-    <cellStyle name="SAPBEXexcGood3 2 2" xfId="1057" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
-    <cellStyle name="SAPBEXexcGood3_1 - Fiche descriptive" xfId="1058" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="1059" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
-    <cellStyle name="SAPBEXfilterDrill 2" xfId="1060" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
-    <cellStyle name="SAPBEXfilterDrill 2 2" xfId="1061" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
-    <cellStyle name="SAPBEXfilterDrill 2 2 2" xfId="1313" xr:uid="{2C62C57D-0610-416F-88CB-9477D0479CCD}"/>
-    <cellStyle name="SAPBEXfilterDrill 2 3" xfId="1312" xr:uid="{51DBF75C-4C92-422A-9DC9-EF82BA41C4C6}"/>
-    <cellStyle name="SAPBEXfilterDrill 3" xfId="1311" xr:uid="{30FA1BE6-D6A5-42AF-A3E0-1164014D375C}"/>
-    <cellStyle name="SAPBEXfilterDrill_1 - Fiche descriptive" xfId="1062" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="1063" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
-    <cellStyle name="SAPBEXfilterItem 2" xfId="1064" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
-    <cellStyle name="SAPBEXfilterItem 2 2" xfId="1065" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
-    <cellStyle name="SAPBEXfilterItem_1 - Fiche descriptive" xfId="1066" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
-    <cellStyle name="SAPBEXfilterText" xfId="1067" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
-    <cellStyle name="SAPBEXfilterText 2" xfId="1068" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
-    <cellStyle name="SAPBEXfilterText 2 2" xfId="1069" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
-    <cellStyle name="SAPBEXfilterText_1 - Fiche descriptive" xfId="1070" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
-    <cellStyle name="SAPBEXformats" xfId="1071" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
-    <cellStyle name="SAPBEXformats 2" xfId="1072" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
-    <cellStyle name="SAPBEXformats 2 2" xfId="1073" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
-    <cellStyle name="SAPBEXformats_1 - Fiche descriptive" xfId="1074" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="1075" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
-    <cellStyle name="SAPBEXheaderItem 2" xfId="1076" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
-    <cellStyle name="SAPBEXheaderItem 2 2" xfId="1077" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
-    <cellStyle name="SAPBEXheaderItem_1 - Fiche descriptive" xfId="1078" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
-    <cellStyle name="SAPBEXheaderText" xfId="1079" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
-    <cellStyle name="SAPBEXheaderText 2" xfId="1080" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
-    <cellStyle name="SAPBEXheaderText 2 2" xfId="1081" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
-    <cellStyle name="SAPBEXheaderText_1 - Fiche descriptive" xfId="1082" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
-    <cellStyle name="SAPBEXresData" xfId="1083" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
-    <cellStyle name="SAPBEXresData 2" xfId="1084" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
-    <cellStyle name="SAPBEXresData 2 2" xfId="1085" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
-    <cellStyle name="SAPBEXresData_1 - Fiche descriptive" xfId="1086" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="1087" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
-    <cellStyle name="SAPBEXresDataEmph 2" xfId="1088" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
-    <cellStyle name="SAPBEXresDataEmph 2 2" xfId="1089" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
-    <cellStyle name="SAPBEXresDataEmph_1 - Fiche descriptive" xfId="1090" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
-    <cellStyle name="SAPBEXresItem" xfId="1091" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
-    <cellStyle name="SAPBEXresItem 2" xfId="1092" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
-    <cellStyle name="SAPBEXresItem 2 2" xfId="1093" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
-    <cellStyle name="SAPBEXresItem_1 - Fiche descriptive" xfId="1094" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
-    <cellStyle name="SAPBEXstdData" xfId="1095" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="1096" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
-    <cellStyle name="SAPBEXstdDataEmph 2" xfId="1097" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
-    <cellStyle name="SAPBEXstdDataEmph 2 2" xfId="1098" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
-    <cellStyle name="SAPBEXstdDataEmph_1 - Fiche descriptive" xfId="1099" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
-    <cellStyle name="SAPBEXstdItem" xfId="1100" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
-    <cellStyle name="SAPBEXstdItem 2" xfId="1101" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
-    <cellStyle name="SAPBEXstdItem 2 2" xfId="1102" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
-    <cellStyle name="SAPBEXstdItem_1 - Fiche descriptive" xfId="1103" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
-    <cellStyle name="SAPBEXtitle" xfId="1104" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
-    <cellStyle name="SAPBEXtitle 2" xfId="1105" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
-    <cellStyle name="SAPBEXtitle 2 2" xfId="1106" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
-    <cellStyle name="SAPBEXtitle_1 - Fiche descriptive" xfId="1107" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
-    <cellStyle name="SAPBEXundefined" xfId="1108" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
-    <cellStyle name="SAPBEXundefined 2" xfId="1109" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
-    <cellStyle name="SAPBEXundefined 2 2" xfId="1110" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
-    <cellStyle name="SAPBEXundefined_1 - Fiche descriptive" xfId="1111" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
-    <cellStyle name="Satisfaisant 2" xfId="1113" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
-    <cellStyle name="Sortie 2" xfId="1115" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
-    <cellStyle name="StationEach" xfId="1116" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
-    <cellStyle name="StationTot" xfId="1117" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
-    <cellStyle name="Style 1" xfId="1118" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
-    <cellStyle name="Style 1 2" xfId="1119" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
-    <cellStyle name="StyleJour" xfId="1120" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
-    <cellStyle name="StyleJour 2" xfId="1121" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
-    <cellStyle name="StyleJour 2 2" xfId="1122" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
-    <cellStyle name="StyleJour 3" xfId="1123" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
-    <cellStyle name="StyleJour_1 - Fiche descriptive" xfId="1124" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
-    <cellStyle name="styleTitreHorizontal" xfId="1125" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
-    <cellStyle name="styleTitreHorizontal 2" xfId="1126" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
-    <cellStyle name="styleTitreHorizontal_1 - Fiche descriptive" xfId="1127" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
-    <cellStyle name="styleTitreVertical" xfId="1128" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
-    <cellStyle name="styleTitreVertical 2" xfId="1129" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
-    <cellStyle name="styleTitreVertical_1 - Fiche descriptive" xfId="1130" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
-    <cellStyle name="SubTot" xfId="1131" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
-    <cellStyle name="Subtoteqsheet" xfId="1132" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
-    <cellStyle name="Subtoteqsheet 2" xfId="1133" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
-    <cellStyle name="Subtoteqsheet 2 2" xfId="1315" xr:uid="{79B3A886-DC7C-417B-B2F4-79B5C6C7AE57}"/>
-    <cellStyle name="Subtoteqsheet 3" xfId="1314" xr:uid="{ED6BB213-CA52-4254-8B9D-CE3B824284D9}"/>
-    <cellStyle name="temp" xfId="1134" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
-    <cellStyle name="Times" xfId="1136" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
-    <cellStyle name="Title" xfId="1137" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
-    <cellStyle name="Titre 1" xfId="1138" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
-    <cellStyle name="titre ital 32" xfId="1139" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
-    <cellStyle name="TitreSérie" xfId="1144" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
-    <cellStyle name="TitreSérie 2" xfId="1145" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
-    <cellStyle name="TitreSérie 3" xfId="1146" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
-    <cellStyle name="TitreSérie 3 2" xfId="1147" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
-    <cellStyle name="TitreSérie 4" xfId="1148" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
-    <cellStyle name="TitreSérie 5" xfId="1149" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
-    <cellStyle name="TitreSérie_1 - Fiche descriptive" xfId="1150" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
-    <cellStyle name="Total" xfId="1151" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="TypeDonnée" xfId="1152" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
-    <cellStyle name="TypeDonnée 2" xfId="1153" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
-    <cellStyle name="TypeDonnée 2 2" xfId="1154" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
-    <cellStyle name="TypeDonnée 3" xfId="1155" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
-    <cellStyle name="TypeDonnée 3 2" xfId="1156" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
-    <cellStyle name="TypeDonnée 4" xfId="1157" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
-    <cellStyle name="TypeDonnée_1 - Fiche descriptive" xfId="1158" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
-    <cellStyle name="Variation" xfId="1159" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
-    <cellStyle name="Variation 2" xfId="1160" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
-    <cellStyle name="Variation 2 2" xfId="1161" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
-    <cellStyle name="Variation 3" xfId="1162" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
-    <cellStyle name="Variation 3 2" xfId="1163" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
-    <cellStyle name="Variation 4" xfId="1164" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
-    <cellStyle name="Variation_1 - Fiche descriptive" xfId="1165" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
-    <cellStyle name="Vérification 2" xfId="1167" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
-    <cellStyle name="Warning Text" xfId="1168" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Обычный_2.1 GANTT" xfId="1169" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
-    <cellStyle name="標準_Application List with Client Dependencies DSL" xfId="1170" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Dollar" xfId="313" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Dollar 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Dollar 2 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Dollar 3" xfId="316" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Dollar_1 - Fiche descriptive" xfId="317" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Donnée" xfId="318" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Donnée 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Donnée 3" xfId="320" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Donnée 3 2" xfId="321" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Donnée 4" xfId="322" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Donnée 5" xfId="323" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Donnée_1 - Fiche descriptive" xfId="324" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Eingabe" xfId="882" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Entrée 2" xfId="325" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Ergebnis" xfId="1150" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Euro" xfId="326" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Euro 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Euro 2 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Euro 3" xfId="329" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Euro 3 2" xfId="330" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Euro 3 2 2" xfId="1178" xr:uid="{CB46CD98-7154-48C5-B99E-A43669A0B30E}"/>
+    <cellStyle name="Euro 3 3" xfId="331" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Euro 4" xfId="332" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Euro 4 2" xfId="333" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Euro 5" xfId="334" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Euro 5 2" xfId="1179" xr:uid="{0A57B334-2CF9-4188-8A76-AECD699008AD}"/>
+    <cellStyle name="Explanatory Text" xfId="1134" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Fixé" xfId="335" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Fixé 2" xfId="336" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Fixé 2 2" xfId="337" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Fixé 3" xfId="338" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Fixé 3 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Fixé 4" xfId="340" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="342" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Followed Hyperlink 2 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Followed Hyperlink_1 - Fiche descriptive" xfId="344" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Good" xfId="1111" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="gud" xfId="345" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="gud 2" xfId="346" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="gud 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="gud_1 - Fiche descriptive" xfId="348" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="H_Déf" xfId="349" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive" xfId="350" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive 2" xfId="351" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive 2 2" xfId="352" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_1 - Fiche descriptive" xfId="353" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_5-Charges MO" xfId="354" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_5-Charges MO 2" xfId="1180" xr:uid="{8D82A9D7-4F69-4BA1-B615-6C8A106660F5}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_7 - Recommandations AQ" xfId="355" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_906-1TdB AffaireS76-NAV_06_003458-17 (en cours)-1" xfId="356" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_99-2 Baseline Status (ECRs) (2)" xfId="357" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_99-2 Baseline Status (ECRs) (2) 2" xfId="1181" xr:uid="{AE5CE77F-B1C8-44CE-93DC-F88A5FB0B505}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_99-3 Formal IVV status (2)" xfId="358" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_99-3 Formal IVV status (2) 2" xfId="1182" xr:uid="{05439680-795B-4715-A9AF-4E332EEB6E19}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-F-DAE-025-00-D" xfId="359" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-F-DAE-025-00-D 2" xfId="360" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-F-DAE-025-00-D 2 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-S76-AVS-2010-04.new-xls" xfId="362" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_MAP-S76-AVS-2010-04.new-xls 2" xfId="1183" xr:uid="{7B9EC2EB-B8D1-42DB-A86D-5CB515D75F4E}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_Nettoyage_fichier" xfId="363" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_Nettoyage_fichier 2" xfId="364" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_Nettoyage_fichier 2 2" xfId="365" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="366" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="367" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="368" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1184" xr:uid="{8F5F54F6-6207-43D6-92F8-BCB254C295DA}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_TdB-S76-CIS-2010-03 V38 Recup" xfId="369" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="H_Déf_0.1 Fiche descriptive_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1185" xr:uid="{3BC26463-083D-44C9-AAB5-D081FC0699B2}"/>
+    <cellStyle name="H_Déf_0.2 Organisation" xfId="370" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation 2" xfId="371" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_1 - Fiche descriptive" xfId="372" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_5-Charges MO" xfId="373" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_7 - Recommandations AQ" xfId="374" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_99-2 Baseline Status (ECRs) (2)" xfId="375" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_99-3 Formal IVV status (2)" xfId="376" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_MAP-F-DAE-025-00-D" xfId="377" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_MAP-F-DAE-025-00-D 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_MAP-S76-AVS-2010-04.new-xls" xfId="379" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_Nettoyage_fichier" xfId="380" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_Nettoyage_fichier 2" xfId="381" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="382" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="383" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="H_Déf_0.2 Organisation_TdB-S76-CIS-2010-03 V38 Recup" xfId="384" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="H_Déf_05 juin TDB" xfId="385" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="H_Déf_05 juin TDB IR 00" xfId="386" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="H_Déf_05 juin TDB IR 00_ATA_08_4098_DIS-TdB_MAS FSTA _sept_11_ind00" xfId="387" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="H_Déf_05 juin TDB_ATA_08_4098_DIS-TdB_MAS FSTA _sept_11_ind00" xfId="388" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants" xfId="389" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants 2" xfId="390" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1" xfId="391" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1 - Fiche descriptive" xfId="392" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1 2 2" xfId="394" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_1 - Fiche descriptive" xfId="395" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_5-Charges MO" xfId="396" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_5-Charges MO 2" xfId="1186" xr:uid="{1AFACE3E-6744-475B-9C98-F5B2831CC8B1}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_7 - Recommandations AQ" xfId="397" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_99-2 Baseline Status (ECRs) (2)" xfId="398" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_99-2 Baseline Status (ECRs) (2) 2" xfId="1187" xr:uid="{3B0B7D36-DBF4-43F4-9CC7-84F8E6DBBC3D}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_99-3 Formal IVV status (2)" xfId="399" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_99-3 Formal IVV status (2) 2" xfId="1188" xr:uid="{B93076AC-B48D-4B6A-A064-04C62ADD5CB9}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-F-DAE-025-00-D" xfId="400" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-F-DAE-025-00-D 2" xfId="401" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-F-DAE-025-00-D 2 2" xfId="402" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-S76-AVS-2010-04.new-xls" xfId="403" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_MAP-S76-AVS-2010-04.new-xls 2" xfId="1189" xr:uid="{9D0089AD-637D-468A-A95F-D1B380CE5CCE}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_Nettoyage_fichier" xfId="404" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_Nettoyage_fichier 2" xfId="405" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_Nettoyage_fichier 2 2" xfId="406" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="407" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="408" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="409" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1190" xr:uid="{2B4AFD2F-C5B4-4995-87F0-441E5B539DBB}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_TdB-S76-CIS-2010-03 V38 Recup" xfId="410" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_1_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1191" xr:uid="{96A20B43-CD00-4EED-A42C-C175106B692D}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_5-Charges MO" xfId="411" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_7 - Recommandations AQ" xfId="412" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_99-2 Baseline Status (ECRs) (2)" xfId="413" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_99-3 Formal IVV status (2)" xfId="414" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_MAP-F-DAE-025-00-D" xfId="415" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_MAP-F-DAE-025-00-D 2" xfId="416" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_MAP-S76-AVS-2010-04.new-xls" xfId="417" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_Nettoyage_fichier" xfId="418" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_Nettoyage_fichier 2" xfId="419" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="420" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="421" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="H_Déf_1.1 Faits Marquants_TdB-S76-CIS-2010-03 V38 Recup" xfId="422" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="H_Déf_1.2 Decisions-Actions" xfId="423" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions" xfId="424" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions 2" xfId="425" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions 2 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_1 - Fiche descriptive" xfId="427" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_5-Charges MO" xfId="428" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_5-Charges MO 2" xfId="1192" xr:uid="{250B8185-7BBA-4AE8-96DD-997CB83B3F36}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_7 - Recommandations AQ" xfId="429" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_99-2 Baseline Status (ECRs) (2)" xfId="430" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_99-2 Baseline Status (ECRs) (2) 2" xfId="1193" xr:uid="{E4E52B93-F775-4F29-A667-0FF7DCB1E1E2}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_99-3 Formal IVV status (2)" xfId="431" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_99-3 Formal IVV status (2) 2" xfId="1194" xr:uid="{DEF223B9-A980-4BB8-A5EF-044AA460D7EE}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-F-DAE-025-00-D" xfId="432" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-F-DAE-025-00-D 2" xfId="433" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-F-DAE-025-00-D 2 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-S76-AVS-2010-04.new-xls" xfId="435" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_MAP-S76-AVS-2010-04.new-xls 2" xfId="1195" xr:uid="{921D5118-BC9E-4AF1-A466-AC1CBE191016}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_Nettoyage_fichier" xfId="436" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_Nettoyage_fichier 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_Nettoyage_fichier 2 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="439" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="440" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="441" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1196" xr:uid="{81540837-2579-4B4B-B149-DA64838E064B}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_TdB-S76-CIS-2010-03 V38 Recup" xfId="442" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="H_Déf_1.2 Décisions-Actions_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1197" xr:uid="{67DEDD09-54CF-48A4-8E21-52BE588BF645}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction" xfId="443" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1" xfId="445" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1 - Fiche descriptive" xfId="446" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1 2" xfId="447" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1 2 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_1 - Fiche descriptive" xfId="449" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_5-Charges MO" xfId="450" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_5-Charges MO 2" xfId="1198" xr:uid="{5930258D-E5CE-4047-9D4F-8765797E1A39}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_7 - Recommandations AQ" xfId="451" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_99-2 Baseline Status (ECRs) (2)" xfId="452" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_99-2 Baseline Status (ECRs) (2) 2" xfId="1199" xr:uid="{07082B10-4B17-426E-B918-2A0C55FF3BA4}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_99-3 Formal IVV status (2)" xfId="453" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_99-3 Formal IVV status (2) 2" xfId="1200" xr:uid="{CB3F3FDC-4487-452E-86D4-E4761C4D124C}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-F-DAE-025-00-D" xfId="454" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-F-DAE-025-00-D 2" xfId="455" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-F-DAE-025-00-D 2 2" xfId="456" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-S76-AVS-2010-04.new-xls" xfId="457" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_MAP-S76-AVS-2010-04.new-xls 2" xfId="1201" xr:uid="{03BC5DA9-C3A9-4D68-8126-45ED95CC66D7}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_Nettoyage_fichier" xfId="458" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_Nettoyage_fichier 2" xfId="459" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_Nettoyage_fichier 2 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="461" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="462" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="463" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1202" xr:uid="{AA5DD947-97F4-40D1-B33B-FD597D3BAA40}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_TdB-S76-CIS-2010-03 V38 Recup" xfId="464" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_1_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1203" xr:uid="{289EF466-15C5-4465-A9C1-EC856144C275}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_5-Charges MO" xfId="465" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_7 - Recommandations AQ" xfId="466" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_99-2 Baseline Status (ECRs) (2)" xfId="467" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_99-3 Formal IVV status (2)" xfId="468" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_MAP-F-DAE-025-00-D" xfId="469" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_MAP-F-DAE-025-00-D 2" xfId="470" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_MAP-S76-AVS-2010-04.new-xls" xfId="471" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_Nettoyage_fichier" xfId="472" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_Nettoyage_fichier 2" xfId="473" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="474" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="475" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="H_Déf_1.3 Indicateur Satisfaction_TdB-S76-CIS-2010-03 V38 Recup" xfId="476" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)" xfId="477" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1" xfId="478" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_1 - Fiche descriptive" xfId="480" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_5-Charges MO" xfId="481" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_7 - Recommandations AQ" xfId="482" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_99-2 Baseline Status (ECRs) (2)" xfId="483" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_99-3 Formal IVV status (2)" xfId="484" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_MAP-F-DAE-025-00-D" xfId="485" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_MAP-F-DAE-025-00-D 2" xfId="486" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_MAP-S76-AVS-2010-04.new-xls" xfId="487" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_Nettoyage_fichier" xfId="488" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_Nettoyage_fichier 2" xfId="489" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="490" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="491" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_1_TdB-S76-CIS-2010-03 V38 Recup" xfId="492" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2" xfId="493" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2 2" xfId="494" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2 2 2" xfId="495" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_1 - Fiche descriptive" xfId="496" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_5-Charges MO" xfId="497" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_5-Charges MO 2" xfId="1204" xr:uid="{91AEDF72-A791-401E-9797-F02AA4B0694A}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_7 - Recommandations AQ" xfId="498" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_99-2 Baseline Status (ECRs) (2)" xfId="499" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_99-2 Baseline Status (ECRs) (2) 2" xfId="1205" xr:uid="{590D7DFC-684A-4BE4-80C6-A0FF81797FD6}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_99-3 Formal IVV status (2)" xfId="500" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_99-3 Formal IVV status (2) 2" xfId="1206" xr:uid="{EDEC88BD-2DB2-41A0-9837-BEE7CC0B1F6C}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-F-DAE-025-00-D" xfId="501" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-F-DAE-025-00-D 2" xfId="502" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-F-DAE-025-00-D 2 2" xfId="503" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-S76-AVS-2010-04.new-xls" xfId="504" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_MAP-S76-AVS-2010-04.new-xls 2" xfId="1207" xr:uid="{BEC80FEC-A988-4401-9470-EAE8D02437C5}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_Nettoyage_fichier" xfId="505" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_Nettoyage_fichier 2" xfId="506" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_Nettoyage_fichier 2 2" xfId="507" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="508" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="509" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="510" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1208" xr:uid="{4F012A47-91E8-45C6-872A-46D2B7C35AA0}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_TdB-S76-CIS-2010-03 V38 Recup" xfId="511" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_2_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1209" xr:uid="{D04FBAA6-4BF7-4A17-B779-3602FCEE5FC4}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP" xfId="512" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP 2" xfId="513" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_1 - Fiche descriptive" xfId="514" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_5-Charges MO" xfId="515" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_7 - Recommandations AQ" xfId="516" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_99-2 Baseline Status (ECRs) (2)" xfId="517" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_99-3 Formal IVV status (2)" xfId="518" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_MAP-F-DAE-025-00-D" xfId="519" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_MAP-F-DAE-025-00-D 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_MAP-S76-AVS-2010-04.new-xls" xfId="521" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_Nettoyage_fichier" xfId="522" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_Nettoyage_fichier 2" xfId="523" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="524" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="525" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="H_Déf_2.2 Jalons (Courbe à 45°)_8.1 COP-CEP_TdB-S76-CIS-2010-03 V38 Recup" xfId="526" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat" xfId="527" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat 2" xfId="528" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat 2 2" xfId="529" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_1 - Fiche descriptive" xfId="530" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_5-Charges MO" xfId="531" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_5-Charges MO 2" xfId="1210" xr:uid="{6AD3E9E4-7C4C-4B55-8851-5191F91283AB}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_7 - Recommandations AQ" xfId="532" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_99-2 Baseline Status (ECRs) (2)" xfId="533" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_99-2 Baseline Status (ECRs) (2) 2" xfId="1211" xr:uid="{77E46FA7-D8E6-403E-AFED-C224B20A93BB}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_99-3 Formal IVV status (2)" xfId="534" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_99-3 Formal IVV status (2) 2" xfId="1212" xr:uid="{EC2A8F85-18E3-4F66-8E1C-0F4D7A76A0B5}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_MAP-F-DAE-025-00-D" xfId="535" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_MAP-F-DAE-025-00-D 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_MAP-F-DAE-025-00-D 2 2" xfId="537" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_MAP-S76-AVS-2010-04.new-xls" xfId="538" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_MAP-S76-AVS-2010-04.new-xls 2" xfId="1213" xr:uid="{8548C604-B2BA-4337-984D-E2479E9B8A38}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_Nettoyage_fichier" xfId="539" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_Nettoyage_fichier 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_Nettoyage_fichier 2 2" xfId="541" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="542" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="543" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="544" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1214" xr:uid="{BF9AE55F-0DD3-4922-8044-1E17BC4488D0}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_TdB-S76-CIS-2010-03 V38 Recup" xfId="545" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="H_Déf_2.5 Contrat_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1215" xr:uid="{6C5B4BC8-854B-473A-9CB4-62DBB2A80F0B}"/>
+    <cellStyle name="H_Déf_2.6 Cust_Internal dependancies" xfId="546" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client" xfId="547" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client 2" xfId="548" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client 2 2" xfId="549" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_1 - Fiche descriptive" xfId="550" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_5-Charges MO" xfId="551" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_5-Charges MO 2" xfId="1216" xr:uid="{6E8FD57E-01C6-498B-AD55-240FA6638B9C}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_7 - Recommandations AQ" xfId="552" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_99-2 Baseline Status (ECRs) (2)" xfId="553" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_99-2 Baseline Status (ECRs) (2) 2" xfId="1217" xr:uid="{15A8CCD5-0B65-4742-A405-F28247561324}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_99-3 Formal IVV status (2)" xfId="554" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_99-3 Formal IVV status (2) 2" xfId="1218" xr:uid="{451A1225-61D6-4E30-A573-978C61D4424D}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-F-DAE-025-00-D" xfId="555" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-F-DAE-025-00-D 2" xfId="556" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-F-DAE-025-00-D 2 2" xfId="557" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-S76-AVS-2010-04.new-xls" xfId="558" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_MAP-S76-AVS-2010-04.new-xls 2" xfId="1219" xr:uid="{4A20A012-8DE7-4C55-A397-E9738D8110C4}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_Nettoyage_fichier" xfId="559" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_Nettoyage_fichier 2" xfId="560" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_Nettoyage_fichier 2 2" xfId="561" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="562" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="563" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="564" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1220" xr:uid="{F2DC8BE4-4975-41A3-B448-81816D036FDE}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_TdB-S76-CIS-2010-03 V38 Recup" xfId="565" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="H_Déf_2.6 Obligations Client_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1221" xr:uid="{06355373-08B9-4AC6-844F-2EBF8C165CAE}"/>
+    <cellStyle name="H_Déf_2.7 Change Request" xfId="566" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request 2" xfId="567" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request 2 2" xfId="568" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_1 - Fiche descriptive" xfId="569" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_5-Charges MO" xfId="570" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_5-Charges MO 2" xfId="1222" xr:uid="{96900606-B00E-48BB-90D4-229BB1E59A54}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_7 - Recommandations AQ" xfId="571" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_99-2 Baseline Status (ECRs) (2)" xfId="572" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_99-2 Baseline Status (ECRs) (2) 2" xfId="1223" xr:uid="{C00E6460-0059-4C62-9538-1FCD1F3EA07B}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_99-3 Formal IVV status (2)" xfId="573" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_99-3 Formal IVV status (2) 2" xfId="1224" xr:uid="{96F03F06-D104-4EF7-B1F8-96DA6D25B2BC}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_MAP-F-DAE-025-00-D" xfId="574" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_MAP-F-DAE-025-00-D 2" xfId="575" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_MAP-F-DAE-025-00-D 2 2" xfId="576" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_MAP-S76-AVS-2010-04.new-xls" xfId="577" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_MAP-S76-AVS-2010-04.new-xls 2" xfId="1225" xr:uid="{F2C66550-60BC-4E8E-8BA3-93994828C7C9}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_Nettoyage_fichier" xfId="578" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_Nettoyage_fichier 2" xfId="579" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_Nettoyage_fichier 2 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="581" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="582" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="583" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1226" xr:uid="{7D9FD6AA-150D-475C-8308-45030A64BC4F}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_TdB-S76-CIS-2010-03 V38 Recup" xfId="584" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="H_Déf_2.7 Change Request_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1227" xr:uid="{F87CEE0A-7BFA-4859-8201-7114F67C8373}"/>
+    <cellStyle name="H_Déf_2007_11_DOR_DRAAMA éd2" xfId="585" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="H_Déf_20080619_Gripen_DOR_TASFR00591390-E" xfId="586" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="H_Déf_3.1 Risks" xfId="587" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques" xfId="588" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques 2" xfId="589" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques 2 2" xfId="590" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_1 - Fiche descriptive" xfId="591" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_5-Charges MO" xfId="592" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_5-Charges MO 2" xfId="1228" xr:uid="{CD2EAD70-89ED-41C8-AB0C-659B2E40D5CC}"/>
+    <cellStyle name="H_Déf_3.1 Risques_7 - Recommandations AQ" xfId="593" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_99-2 Baseline Status (ECRs) (2)" xfId="594" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_99-2 Baseline Status (ECRs) (2) 2" xfId="1229" xr:uid="{D21AE9FF-C7EC-4C13-946F-57E4650E4238}"/>
+    <cellStyle name="H_Déf_3.1 Risques_99-3 Formal IVV status (2)" xfId="595" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_99-3 Formal IVV status (2) 2" xfId="1230" xr:uid="{E34BD512-4CC1-47E0-9FDB-9E04DBE77ACB}"/>
+    <cellStyle name="H_Déf_3.1 Risques_MAP-F-DAE-025-00-D" xfId="596" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_MAP-F-DAE-025-00-D 2" xfId="597" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_MAP-F-DAE-025-00-D 2 2" xfId="598" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_MAP-S76-AVS-2010-04.new-xls" xfId="599" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_MAP-S76-AVS-2010-04.new-xls 2" xfId="1231" xr:uid="{64BA9580-E68D-4036-83FF-49F17D60CA87}"/>
+    <cellStyle name="H_Déf_3.1 Risques_Nettoyage_fichier" xfId="600" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_Nettoyage_fichier 2" xfId="601" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_Nettoyage_fichier 2 2" xfId="602" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="603" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="604" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="605" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1232" xr:uid="{6B49873F-5D4F-4DED-A256-BF037DD01533}"/>
+    <cellStyle name="H_Déf_3.1 Risques_TdB-S76-CIS-2010-03 V38 Recup" xfId="606" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="H_Déf_3.1 Risques_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1233" xr:uid="{A5CA7BBD-8D73-4D8A-8C8F-A79FE680FC94}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités" xfId="607" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités 2" xfId="608" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités 2 2" xfId="609" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_1 - Fiche descriptive" xfId="610" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_5-Charges MO" xfId="611" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_5-Charges MO 2" xfId="1234" xr:uid="{9C364AF9-687C-44B4-AC66-E7EA99BDDF90}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_7 - Recommandations AQ" xfId="612" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_99-2 Baseline Status (ECRs) (2)" xfId="613" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_99-2 Baseline Status (ECRs) (2) 2" xfId="1235" xr:uid="{72D038DD-7478-496B-A1D5-4FE2986EB6A9}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_99-3 Formal IVV status (2)" xfId="614" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_99-3 Formal IVV status (2) 2" xfId="1236" xr:uid="{58987CFD-5036-4E6F-B656-52AA88EF0418}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_MAP-F-DAE-025-00-D" xfId="615" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_MAP-F-DAE-025-00-D 2" xfId="616" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_MAP-F-DAE-025-00-D 2 2" xfId="617" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_MAP-S76-AVS-2010-04.new-xls" xfId="618" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_MAP-S76-AVS-2010-04.new-xls 2" xfId="1237" xr:uid="{EB4DA3B8-5FA3-47ED-8D02-B717BD278FC0}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_Nettoyage_fichier" xfId="619" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_Nettoyage_fichier 2" xfId="620" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_Nettoyage_fichier 2 2" xfId="621" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="622" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="623" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="624" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1238" xr:uid="{F4C04D41-E14F-4B93-9B79-44CCAC443BF1}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_TdB-S76-CIS-2010-03 V38 Recup" xfId="625" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="H_Déf_3.2 Opportunités_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1239" xr:uid="{E78539FB-2411-4CDF-8677-5F79EA933F48}"/>
+    <cellStyle name="H_Déf_3.2 Opportunities" xfId="626" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources" xfId="627" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources 2" xfId="628" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources 2 2" xfId="629" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_1 - Fiche descriptive" xfId="630" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_5-Charges MO" xfId="631" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_5-Charges MO 2" xfId="1240" xr:uid="{BAEC3316-F9C7-4CBF-BC10-3350F1E22A90}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_7 - Recommandations AQ" xfId="632" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_99-2 Baseline Status (ECRs) (2)" xfId="633" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_99-2 Baseline Status (ECRs) (2) 2" xfId="1241" xr:uid="{8AD8F208-FDD3-449C-9FC3-EC9A1955DBDB}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_99-3 Formal IVV status (2)" xfId="634" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_99-3 Formal IVV status (2) 2" xfId="1242" xr:uid="{E4722372-7956-462A-A33A-EBD5CEAE9F77}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-F-DAE-025-00-D" xfId="635" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-F-DAE-025-00-D 2" xfId="636" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-F-DAE-025-00-D 2 2" xfId="637" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-S76-AVS-2010-04.new-xls" xfId="638" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_MAP-S76-AVS-2010-04.new-xls 2" xfId="1243" xr:uid="{F199DD3B-8834-4BCC-A5CD-B16342429918}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_Nettoyage_fichier" xfId="639" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_Nettoyage_fichier 2" xfId="640" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_Nettoyage_fichier 2 2" xfId="641" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="642" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="643" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="644" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1244" xr:uid="{FC59E53A-EDEF-469C-BA77-517CC8291AF0}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_TdB-S76-CIS-2010-03 V38 Recup" xfId="645" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="H_Déf_5.1 Charges - ressources_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1245" xr:uid="{4C0E6C4E-9D17-40FA-97D0-D900038B980F}"/>
+    <cellStyle name="H_Déf_5.1 Labor workload" xfId="646" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes" xfId="647" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes 2" xfId="648" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes 2 2" xfId="649" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_1 - Fiche descriptive" xfId="650" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_5-Charges MO" xfId="651" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_5-Charges MO 2" xfId="1246" xr:uid="{7401D2F8-674F-4AA8-8E27-84C1A8BF7544}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_7 - Recommandations AQ" xfId="652" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_99-2 Baseline Status (ECRs) (2)" xfId="653" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_99-2 Baseline Status (ECRs) (2) 2" xfId="1247" xr:uid="{4383EC2A-00E0-49B1-9582-8B2690383FF7}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_99-3 Formal IVV status (2)" xfId="654" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_99-3 Formal IVV status (2) 2" xfId="1248" xr:uid="{1E37DF1C-ED63-4C7F-A810-25CABE262452}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-F-DAE-025-00-D" xfId="655" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-F-DAE-025-00-D 2" xfId="656" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-F-DAE-025-00-D 2 2" xfId="657" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-S76-AVS-2010-04.new-xls" xfId="658" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_MAP-S76-AVS-2010-04.new-xls 2" xfId="1249" xr:uid="{DA6B7A63-019C-4A8B-B27E-B73756A80F2B}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_Nettoyage_fichier" xfId="659" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_Nettoyage_fichier 2" xfId="660" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_Nettoyage_fichier 2 2" xfId="661" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="662" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="663" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="664" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1250" xr:uid="{329C7139-7279-4F15-B500-9138DC1ED03D}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_TdB-S76-CIS-2010-03 V38 Recup" xfId="665" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="H_Déf_6 - Prochaines Etapes_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1251" xr:uid="{063E9302-0799-46FC-8154-5962D8E13164}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects" xfId="666" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects 2" xfId="667" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects 2 2" xfId="668" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_1 - Fiche descriptive" xfId="669" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_5-Charges MO" xfId="670" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_5-Charges MO 2" xfId="1252" xr:uid="{A4A30DA3-C522-402B-B8A4-6B33AE610B14}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_7 - Recommandations AQ" xfId="671" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_99-2 Baseline Status (ECRs) (2)" xfId="672" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_99-2 Baseline Status (ECRs) (2) 2" xfId="1253" xr:uid="{88AF0C16-6CBE-4F03-821B-E62F5E440E5F}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_99-3 Formal IVV status (2)" xfId="673" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_99-3 Formal IVV status (2) 2" xfId="1254" xr:uid="{88DF9776-AC59-4D31-8DF8-B33772C1FDB8}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-F-DAE-025-00-D" xfId="674" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-F-DAE-025-00-D 2" xfId="675" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-F-DAE-025-00-D 2 2" xfId="676" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-S76-AVS-2010-04.new-xls" xfId="677" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_MAP-S76-AVS-2010-04.new-xls 2" xfId="1255" xr:uid="{9B2C93C1-33E7-49D0-AA2A-B51C81931DE9}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_Nettoyage_fichier" xfId="678" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_Nettoyage_fichier 2" xfId="679" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_Nettoyage_fichier 2 2" xfId="680" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="681" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="682" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="683" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1256" xr:uid="{2E34DE80-BAF3-400F-9D8E-DC1ACD5B741D}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_TdB-S76-CIS-2010-03 V38 Recup" xfId="684" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="H_Déf_7.10 Autres aspects_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1257" xr:uid="{82F843ED-F6CC-4BCA-8702-D9B6A4A56BB6}"/>
+    <cellStyle name="H_Déf_8.1 COP-CEP" xfId="685" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP" xfId="686" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP 2" xfId="687" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP 2 2" xfId="688" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_1 - Fiche descriptive" xfId="689" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_5-Charges MO" xfId="690" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_5-Charges MO 2" xfId="1258" xr:uid="{892BD18B-102F-42D4-A54D-35270E9D0759}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_7 - Recommandations AQ" xfId="691" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_99-2 Baseline Status (ECRs) (2)" xfId="692" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_99-2 Baseline Status (ECRs) (2) 2" xfId="1259" xr:uid="{E623580E-7CDC-432E-8F54-020434F27EFD}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_99-3 Formal IVV status (2)" xfId="693" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_99-3 Formal IVV status (2) 2" xfId="1260" xr:uid="{29546ECA-A5EC-4B78-AC24-5155636CE47C}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-F-DAE-025-00-D" xfId="694" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-F-DAE-025-00-D 2" xfId="695" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-F-DAE-025-00-D 2 2" xfId="696" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-S76-AVS-2010-04.new-xls" xfId="697" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_MAP-S76-AVS-2010-04.new-xls 2" xfId="1261" xr:uid="{DAD7D739-F34D-4798-9E9B-36220104043A}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_Nettoyage_fichier" xfId="698" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_Nettoyage_fichier 2" xfId="699" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_Nettoyage_fichier 2 2" xfId="700" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="701" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="702" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="703" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1262" xr:uid="{4851DE39-29FA-4DA1-8D3F-DCC27B88D3CC}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_TdB-S76-CIS-2010-03 V38 Recup" xfId="704" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="H_Déf_8.2 Synthèse CPE CPP_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1263" xr:uid="{4B13253F-4A8E-496D-B931-39C0201B6770}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots" xfId="705" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots 2" xfId="706" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots 2 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_1 - Fiche descriptive" xfId="708" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_5-Charges MO" xfId="709" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_5-Charges MO 2" xfId="1264" xr:uid="{73D71094-2845-4ADC-9B0E-8016D57FF215}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_7 - Recommandations AQ" xfId="710" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_99-2 Baseline Status (ECRs) (2)" xfId="711" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_99-2 Baseline Status (ECRs) (2) 2" xfId="1265" xr:uid="{E74BC5DF-4E29-469F-BD9B-962FF782B222}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_99-3 Formal IVV status (2)" xfId="712" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_99-3 Formal IVV status (2) 2" xfId="1266" xr:uid="{B38A0EBE-C0AA-45AC-9DEA-3EEEADB0FCF1}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-F-DAE-025-00-D" xfId="713" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-F-DAE-025-00-D 2" xfId="714" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-F-DAE-025-00-D 2 2" xfId="715" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-S76-AVS-2010-04.new-xls" xfId="716" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_MAP-S76-AVS-2010-04.new-xls 2" xfId="1267" xr:uid="{2DB83138-685A-47E6-97A2-C1B2AE99B658}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_Nettoyage_fichier" xfId="717" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_Nettoyage_fichier 2" xfId="718" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_Nettoyage_fichier 2 2" xfId="719" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="720" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="721" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="722" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1268" xr:uid="{6947D4C5-6193-4469-B79C-4CD45FF8B6E2}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_TdB-S76-CIS-2010-03 V38 Recup" xfId="723" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="H_Déf_8.3 CPE-CPP par lots_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1269" xr:uid="{7757EEAF-299B-4FC9-BA38-8FBDB9D474F4}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS" xfId="724" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS 2 2" xfId="726" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_1 - Fiche descriptive" xfId="727" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_5-Charges MO" xfId="728" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_5-Charges MO 2" xfId="1270" xr:uid="{996A9D3D-54A4-44E4-BA37-BA02271A7889}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_7 - Recommandations AQ" xfId="729" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_99-2 Baseline Status (ECRs) (2)" xfId="730" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_99-2 Baseline Status (ECRs) (2) 2" xfId="1271" xr:uid="{29A362E5-61A0-4D56-9D89-BBB14F671A19}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_99-3 Formal IVV status (2)" xfId="731" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_99-3 Formal IVV status (2) 2" xfId="1272" xr:uid="{602BF1AD-965B-466F-B9B3-6E5A8894208E}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-F-DAE-025-00-D" xfId="732" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-F-DAE-025-00-D 2" xfId="733" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-F-DAE-025-00-D 2 2" xfId="734" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-S76-AVS-2010-04.new-xls" xfId="735" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_MAP-S76-AVS-2010-04.new-xls 2" xfId="1273" xr:uid="{38CD97FF-C2BE-4D94-A712-1C710B8F6CAF}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_Nettoyage_fichier" xfId="736" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_Nettoyage_fichier 2" xfId="737" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_Nettoyage_fichier 2 2" xfId="738" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="739" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="740" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="741" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1274" xr:uid="{AF55AC9B-BE35-4BF7-8C43-F836032E4535}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_TdB-S76-CIS-2010-03 V38 Recup" xfId="742" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="H_Déf_8.4 Courbe dépenses CPR-PPS_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1275" xr:uid="{A13C099F-70CB-48B3-ACE5-BEF4D1D794A9}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière" xfId="743" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière 2" xfId="744" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière 2 2" xfId="745" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_1 - Fiche descriptive" xfId="746" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_5-Charges MO" xfId="747" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_5-Charges MO 2" xfId="1276" xr:uid="{9FD8F1CC-0687-49D1-A539-8F1F999BFFC8}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_7 - Recommandations AQ" xfId="748" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_99-2 Baseline Status (ECRs) (2)" xfId="749" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_99-2 Baseline Status (ECRs) (2) 2" xfId="1277" xr:uid="{EED7C606-57C4-4F7A-98DC-54685C033552}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_99-3 Formal IVV status (2)" xfId="750" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_99-3 Formal IVV status (2) 2" xfId="1278" xr:uid="{CEE16AE5-6288-4AAF-A44E-9971C6D9FE5F}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_MAP-F-DAE-025-00-D" xfId="751" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_MAP-F-DAE-025-00-D 2" xfId="752" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_MAP-F-DAE-025-00-D 2 2" xfId="753" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_MAP-S76-AVS-2010-04.new-xls" xfId="754" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_MAP-S76-AVS-2010-04.new-xls 2" xfId="1279" xr:uid="{341D3EE2-CC12-44E4-A8A3-F20F2A399ECF}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_Nettoyage_fichier" xfId="755" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_Nettoyage_fichier 2" xfId="756" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_Nettoyage_fichier 2 2" xfId="757" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="758" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="759" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="760" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1280" xr:uid="{70BFA7EF-7DBF-4D3F-A949-356BBFE30898}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_TdB-S76-CIS-2010-03 V38 Recup" xfId="761" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="H_Déf_8.5 Situation financière_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1281" xr:uid="{37B6D5AD-A325-48A4-A30D-7DDE29952D85}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison" xfId="762" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison 2" xfId="763" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison 2 2" xfId="764" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_1 - Fiche descriptive" xfId="765" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_5-Charges MO" xfId="766" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_5-Charges MO 2" xfId="1282" xr:uid="{B0B65A99-7C16-4F2B-A5F6-44F722B88CDA}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_7 - Recommandations AQ" xfId="767" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_99-2 Baseline Status (ECRs) (2)" xfId="768" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_99-2 Baseline Status (ECRs) (2) 2" xfId="1283" xr:uid="{0AC5B6CA-84D1-4FEF-B116-729279FAAFCF}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_99-3 Formal IVV status (2)" xfId="769" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_99-3 Formal IVV status (2) 2" xfId="1284" xr:uid="{F1C0C652-092C-433E-8EFD-A641EBE831F1}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-F-DAE-025-00-D" xfId="770" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-F-DAE-025-00-D 2" xfId="771" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-F-DAE-025-00-D 2 2" xfId="772" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-S76-AVS-2010-04.new-xls" xfId="773" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_MAP-S76-AVS-2010-04.new-xls 2" xfId="1285" xr:uid="{943B2F8E-485C-4A36-82AB-C82751BC46CD}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_Nettoyage_fichier" xfId="774" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_Nettoyage_fichier 2" xfId="775" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_Nettoyage_fichier 2 2" xfId="776" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="777" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="778" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="779" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1286" xr:uid="{C2DB7FCD-0ADB-4631-938F-7B65DC4D7796}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_TdB-S76-CIS-2010-03 V38 Recup" xfId="780" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="H_Déf_8.6 Rentabilité à terminaison_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1287" xr:uid="{7293AE01-9505-4E6A-A90D-B7BEE4ACA511}"/>
+    <cellStyle name="H_Déf_9 Administration" xfId="781" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="H_Déf_9 Administration_8.1 COP-CEP" xfId="782" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL" xfId="783" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL 2" xfId="784" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL 2 2" xfId="785" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_1 - Fiche descriptive" xfId="786" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_5-Charges MO" xfId="787" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_5-Charges MO 2" xfId="1288" xr:uid="{4F2AD6AE-D4BA-49B3-A28A-8EF8BF4F20F6}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_7 - Recommandations AQ" xfId="788" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_99-2 Baseline Status (ECRs) (2)" xfId="789" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_99-2 Baseline Status (ECRs) (2) 2" xfId="1289" xr:uid="{206E16FE-C818-4793-9272-71A6B0858F8B}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_99-3 Formal IVV status (2)" xfId="790" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_99-3 Formal IVV status (2) 2" xfId="1290" xr:uid="{E4BB2B4D-168E-4FF4-B876-7678ED41C8CC}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-F-DAE-025-00-D" xfId="791" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-F-DAE-025-00-D 2" xfId="792" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-F-DAE-025-00-D 2 2" xfId="793" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-S76-AVS-2010-04.new-xls" xfId="794" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_MAP-S76-AVS-2010-04.new-xls 2" xfId="1291" xr:uid="{8BC99FD9-9A38-47DE-8F52-F5C280496599}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_Nettoyage_fichier" xfId="795" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_Nettoyage_fichier 2" xfId="796" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_Nettoyage_fichier 2 2" xfId="797" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="798" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="799" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_tdb MAP CAM ATR42 NAV 08-00531-03" xfId="800" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_tdb MAP CAM ATR42 NAV 08-00531-03 2" xfId="1292" xr:uid="{EFFEAA97-2329-4B46-8E09-535C5A7E8519}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_TdB-S76-CIS-2010-03 V38 Recup" xfId="801" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="H_Déf_Copie de 2005_06_23_TdB RRJ-DG FINAL_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1293" xr:uid="{6E5FEEAC-9203-4814-BEF6-66B3984ACBB0}"/>
+    <cellStyle name="H_Déf_DOR C130 map-f-dae-008-fr NAV-08-003164-02 Octobre 2008" xfId="802" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="H_Déf_DOR FdLIndus RDR -A_V2" xfId="803" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="H_Déf_DOR Integ EAA RC - NRC" xfId="804" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="H_Déf_DOR map-f-dae-008-fr NAV-08-003255-01 Aout 2008" xfId="805" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="H_Déf_DOR Meltem3-ir00" xfId="806" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="H_Déf_DOR RPU-PBU FREMM-SNA 0605 partie I2M SAN-2" xfId="807" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="H_Déf_DOR RPU-PBU FREMM-SNA partie I2M SAN-3 080702" xfId="808" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="H_Déf_DOR SYNTHESE Fremm" xfId="809" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="H_Déf_DOR_1erSerie" xfId="810" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="H_Déf_DOR_EAA7" xfId="811" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="H_Déf_DOR_EAA7_jv08" xfId="812" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="H_Déf_DOR_EAA7_nov07" xfId="813" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="H_Déf_DOR_EAA7_nov08" xfId="814" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="H_Déf_DOR_EPS-synthese_EPS-IS et EPTS-Mars 09" xfId="815" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="H_Déf_DOR_EPTS-synthese programme-Mai 08" xfId="816" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="H_Déf_DOR_EPTS-synthese-Juillet 08" xfId="817" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="H_Déf_DOR_EPTS-synthese-Juin 08" xfId="818" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="H_Déf_DOR_EPTS-synthese-Mai 08" xfId="819" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="H_Déf_DOR_EPTS-synthese-Octobre 08" xfId="820" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="H_Déf_DOR_EPTS-synthese-Septembre 08" xfId="821" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="H_Déf_DOR_ETS-synthese_EPS-IS et EPTS-Janvier 09" xfId="822" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="H_Déf_DOR_indusRdR_nov08" xfId="823" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="H_Déf_DOR_indusRdR_STR" xfId="824" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="H_Déf_DOR_indusRdR_STR_jv08" xfId="825" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="H_Déf_DOR_TASFR00584242-" xfId="826" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="H_Déf_DORV5.1-2.5-EWS-Jan 08_280108" xfId="827" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles" xfId="828" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles 2" xfId="829" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles 2 2" xfId="830" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_1 - Fiche descriptive" xfId="831" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_5-Charges MO" xfId="832" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_5-Charges MO 2" xfId="1294" xr:uid="{FB9A21D6-4121-451E-B102-2B4A6D3F626E}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_7 - Recommandations AQ" xfId="833" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_99-2 Baseline Status (ECRs) (2)" xfId="834" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_99-2 Baseline Status (ECRs) (2) 2" xfId="1295" xr:uid="{DA12D096-A308-4866-88A5-22E2B329D1F7}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_99-3 Formal IVV status (2)" xfId="835" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_99-3 Formal IVV status (2) 2" xfId="1296" xr:uid="{0C1CCFB2-F5C3-4C4B-AC39-BC15216FEB65}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-F-DAE-025-00-D" xfId="836" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-F-DAE-025-00-D 2" xfId="837" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-F-DAE-025-00-D 2 2" xfId="838" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-S76-AVS-2010-04.new-xls" xfId="839" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_MAP-S76-AVS-2010-04.new-xls 2" xfId="1297" xr:uid="{51ADEB6C-417E-4AF2-92CF-31B69FCCB391}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_Nettoyage_fichier" xfId="840" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_Nettoyage_fichier 2" xfId="841" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_Nettoyage_fichier 2 2" xfId="842" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="843" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="844" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_TdB-S76-CIS-2010-03 V38 Recup" xfId="845" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="H_Déf_IBPM gAC limite 2 feuilles_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1298" xr:uid="{9EC6ED27-8833-4C10-9E9C-3A3B42F6305D}"/>
+    <cellStyle name="H_Déf_LINKS_CLEANUP_17" xfId="846" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="H_Déf_Log Risk" xfId="847" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="H_Déf_MAP-F-DAE-005-XX_08" xfId="848" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="H_Déf_MAP-F-DAE-008-F_03 (DOR_V5_2)_PertMaster" xfId="849" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="H_Déf_Onglets_R_O_TDB_New" xfId="850" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="H_Déf_P3E_DAE_DASHBOARD_MODULE_V2_12" xfId="851" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="H_Déf_Page de garde" xfId="852" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="H_Déf_Page de garde_ATA_08_4098_DIS-TdB_MAS FSTA _sept_11_ind00" xfId="853" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="H_Déf_RRJ WP4.2 Progress Report-2006-06 IR 04" xfId="854" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="H_Déf_RRJ WP4.2 Progress Report-2006-07 IR 00" xfId="855" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7" xfId="856" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7 2" xfId="857" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7 2 2" xfId="858" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_1 - Fiche descriptive" xfId="859" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_5-Charges MO" xfId="860" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_5-Charges MO 2" xfId="1299" xr:uid="{59E2C80A-055A-427F-A4E8-8FC93FA68843}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_7 - Recommandations AQ" xfId="861" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_99-2 Baseline Status (ECRs) (2)" xfId="862" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_99-2 Baseline Status (ECRs) (2) 2" xfId="1300" xr:uid="{6F831C4A-3FC2-4E35-9B3F-62D6BE21941E}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_99-3 Formal IVV status (2)" xfId="863" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_99-3 Formal IVV status (2) 2" xfId="1301" xr:uid="{355A5A76-F3C2-45D2-9CC7-FD7E5B373E42}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-F-DAE-025-00-D" xfId="864" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-F-DAE-025-00-D 2" xfId="865" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-F-DAE-025-00-D 2 2" xfId="866" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-S76-AVS-2010-04.new-xls" xfId="867" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_MAP-S76-AVS-2010-04.new-xls 2" xfId="1302" xr:uid="{80D925B6-38F0-429F-BADC-C20B448DC901}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_Nettoyage_fichier" xfId="868" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_Nettoyage_fichier 2" xfId="869" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_Nettoyage_fichier 2 2" xfId="870" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_TdB 30_04_2010 TASFR00580937AJ-1 THTH" xfId="871" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_TdB 30_04_2010 TASFR00580937AJ-1 THTH 2" xfId="872" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_TdB-S76-CIS-2010-03 V38 Recup" xfId="873" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="H_Déf_TdB_FMS2_2006_11_28_MRTT part 1.XLS Graphique 7_TdB-S76-CIS-2010-03 V38 Recup 2" xfId="1303" xr:uid="{7F6B1F87-5EDF-48DB-B6E1-E90A14C46ABE}"/>
+    <cellStyle name="Heading 1" xfId="1139" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Heading 2" xfId="1140" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Heading 3" xfId="1141" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Heading 4" xfId="1142" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Here" xfId="874" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Here 2" xfId="875" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Here 2 2" xfId="876" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Here_1 - Fiche descriptive" xfId="877" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Hyperlink" xfId="878" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Hyperlink 2" xfId="879" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="880" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Hyperlink_1 - Fiche descriptive" xfId="881" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Insatisfaisant 2" xfId="884" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="item" xfId="885" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="item 2" xfId="886" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="item 2 2" xfId="887" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="item 3" xfId="888" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="item_1 - Fiche descriptive" xfId="889" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="keuros" xfId="890" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="l1" xfId="891" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="l1 2" xfId="892" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="l1_1 - Fiche descriptive" xfId="893" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="l2" xfId="894" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="l3" xfId="895" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="l4" xfId="896" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="l4 2" xfId="897" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="l4 2 2" xfId="898" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="l4_1 - Fiche descriptive" xfId="899" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="l5" xfId="900" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="l5 2" xfId="901" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="l5 2 2" xfId="902" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="l5_1 - Fiche descriptive" xfId="903" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Lien hypertexte 2" xfId="904" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Lien hypertexte 2 2" xfId="905" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Lien hypertexte 3" xfId="906" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Lien hypertexte 3 2" xfId="907" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Lien hypertexte 3 3" xfId="1304" xr:uid="{4E3B0385-B764-4A67-8656-92CBB5A2245A}"/>
+    <cellStyle name="Lien hypertexte 4" xfId="908" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Lien hypertexte 4 2" xfId="1305" xr:uid="{D5450407-B805-47BF-9125-39E0F4306AE8}"/>
+    <cellStyle name="Lien hypertexte 5" xfId="909" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Lien hypertexte 6" xfId="910" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Lien hypertexte 6 2" xfId="1306" xr:uid="{3157CAE7-E5F3-4808-A259-1024D05AC903}"/>
+    <cellStyle name="Lien_x0018_hypertexte" xfId="911" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Lien_x0018_hypertexte 2" xfId="912" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Masqué" xfId="914" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Masqué 2" xfId="915" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Masqué 2 2" xfId="916" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Masqué 3" xfId="917" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Masqué 3 2" xfId="918" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Masqué 4" xfId="919" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Masqué_1 - Fiche descriptive" xfId="920" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="money" xfId="921" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="money 2" xfId="922" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="money 2 2" xfId="923" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="money 3" xfId="924" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="money_1 - Fiche descriptive" xfId="925" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Neutral" xfId="926" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Neutre 2" xfId="927" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="NEW_equipement" xfId="928" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Niveau_1" xfId="929" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Noeud" xfId="930" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Nom Doc" xfId="931" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="nombre" xfId="932" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="nombre 2" xfId="933" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="nombre_1 - Fiche descriptive" xfId="934" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Noms" xfId="935" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Non défini" xfId="936" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Non défini 2" xfId="937" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Non défini 2 2" xfId="938" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Non défini_1 - Fiche descriptive" xfId="939" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Non modifiable" xfId="940" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Non modifiable 2" xfId="941" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Non modifiable 2 2" xfId="942" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Non modifiable 3" xfId="943" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Non modifiable 3 2" xfId="944" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Non modifiable 4" xfId="945" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Normal 2" xfId="946" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Normal 2 2" xfId="947" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="948" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Normal 2 3" xfId="949" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Normal 3" xfId="950" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Normal 3 2" xfId="951" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="1307" xr:uid="{29B876DC-5232-4A22-88A5-030E565BCE92}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="1317" xr:uid="{52DA3CD4-C8EA-4F39-9836-1FF82D628E5E}"/>
+    <cellStyle name="Normal 3 2 3" xfId="1315" xr:uid="{799AD7DC-8251-4BF1-B5A7-323716CDE335}"/>
+    <cellStyle name="Normal 4" xfId="952" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Normal 5" xfId="953" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Normal 5 2" xfId="1308" xr:uid="{DE3F61F3-A2A5-4BA8-91EB-C31D3FF0B07E}"/>
+    <cellStyle name="Normal 5 2 2" xfId="1318" xr:uid="{689931A7-9F5F-497F-8A2B-044E88F0886D}"/>
+    <cellStyle name="Normal 5 3" xfId="1316" xr:uid="{1459879A-DCEB-4253-AB9F-2DF59B46D6D8}"/>
+    <cellStyle name="Normal 97" xfId="954" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Normal_2 - Evènements clés 2" xfId="955" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Normal_87201044-MGPR-GRP-EN-Draft002-Project_reporting_template_b_20110121" xfId="956" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Normal_87201044-MGPR-GRP-EN-Draft002-Project_reporting_template_b_20110121 2" xfId="957" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Normal_Maquette_TDB4" xfId="958" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Normal_Maquette_TDB4 2" xfId="959" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Normal_Project reporting template-87201044-MGPR-GRP-EN- 2" xfId="960" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Normal_Solution_Monitoring_Dashboard_File 2" xfId="961" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Notiz" xfId="962" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="obsolete" xfId="963" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="one" xfId="964" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Output" xfId="1113" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="pepin" xfId="965" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="pepin 2" xfId="966" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="pepin_1 - Fiche descriptive" xfId="967" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Pound" xfId="968" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Pound 2" xfId="969" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Pound 2 2" xfId="970" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Pound 3" xfId="971" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Pound_1 - Fiche descriptive" xfId="972" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Pound12" xfId="973" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Pourcentage 2" xfId="974" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Pourcentage 2 2" xfId="975" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Pourcentage 3" xfId="976" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Pourcentage 4" xfId="977" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Pourcentage 4 2" xfId="1309" xr:uid="{19FD9B53-8516-4C2C-85E9-387F952CF670}"/>
+    <cellStyle name="Pourcentage 5" xfId="978" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Pourcentage 5 2" xfId="979" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Pourcentage entier" xfId="980" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="PSChar" xfId="981" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="PSChar 2" xfId="982" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="PSChar 2 2" xfId="983" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="PSDate" xfId="984" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="PSDate 2" xfId="985" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="PSDate 2 2" xfId="986" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="PSDec" xfId="987" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="PSDec 2" xfId="988" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="PSDec 2 2" xfId="989" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="PSHeading" xfId="990" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="PSHeading 2" xfId="991" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="PSHeading 2 2" xfId="992" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="PSHeading_1 - Fiche descriptive" xfId="993" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="PSInt" xfId="994" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="PSInt 2" xfId="995" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="PSInt 2 2" xfId="996" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="PSSpacer" xfId="997" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="PSSpacer 2" xfId="998" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="PSSpacer 2 2" xfId="999" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Qty" xfId="1000" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Qty 2" xfId="1001" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Qty 2 2" xfId="1002" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Qty 3" xfId="1003" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Qty_1 - Fiche descriptive" xfId="1004" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Réduction" xfId="1005" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="SAPBEXaggData" xfId="1006" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="SAPBEXaggData 2" xfId="1007" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="SAPBEXaggData 2 2" xfId="1008" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="SAPBEXaggData_1 - Fiche descriptive" xfId="1009" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="1010" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="SAPBEXaggDataEmph 2" xfId="1011" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="SAPBEXaggDataEmph 2 2" xfId="1012" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="SAPBEXaggDataEmph_1 - Fiche descriptive" xfId="1013" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="1014" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="SAPBEXaggItem 2" xfId="1015" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="SAPBEXaggItem 2 2" xfId="1016" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="SAPBEXaggItem_1 - Fiche descriptive" xfId="1017" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="SAPBEXchaText" xfId="1018" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="SAPBEXchaText 2" xfId="1019" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="SAPBEXchaText 2 2" xfId="1020" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="SAPBEXchaText_1 - Fiche descriptive" xfId="1021" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="1022" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="SAPBEXexcBad7 2" xfId="1023" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="SAPBEXexcBad7 2 2" xfId="1024" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="SAPBEXexcBad7_1 - Fiche descriptive" xfId="1025" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="1026" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="SAPBEXexcBad8 2" xfId="1027" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="SAPBEXexcBad8 2 2" xfId="1028" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="SAPBEXexcBad8_1 - Fiche descriptive" xfId="1029" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="1030" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="SAPBEXexcBad9 2" xfId="1031" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="SAPBEXexcBad9 2 2" xfId="1032" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="SAPBEXexcBad9_1 - Fiche descriptive" xfId="1033" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="1034" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="SAPBEXexcCritical4 2" xfId="1035" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="SAPBEXexcCritical4 2 2" xfId="1036" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="SAPBEXexcCritical4_1 - Fiche descriptive" xfId="1037" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="1038" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="SAPBEXexcCritical5 2" xfId="1039" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="SAPBEXexcCritical5 2 2" xfId="1040" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="SAPBEXexcCritical5_1 - Fiche descriptive" xfId="1041" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="1042" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="SAPBEXexcCritical6 2" xfId="1043" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="SAPBEXexcCritical6 2 2" xfId="1044" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="SAPBEXexcCritical6_1 - Fiche descriptive" xfId="1045" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="1046" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="SAPBEXexcGood1 2" xfId="1047" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="SAPBEXexcGood1 2 2" xfId="1048" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="SAPBEXexcGood1_1 - Fiche descriptive" xfId="1049" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="1050" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="SAPBEXexcGood2 2" xfId="1051" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="SAPBEXexcGood2 2 2" xfId="1052" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="SAPBEXexcGood2_1 - Fiche descriptive" xfId="1053" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="1054" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="SAPBEXexcGood3 2" xfId="1055" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="SAPBEXexcGood3 2 2" xfId="1056" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="SAPBEXexcGood3_1 - Fiche descriptive" xfId="1057" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="1058" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="SAPBEXfilterDrill 2" xfId="1059" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="SAPBEXfilterDrill 2 2" xfId="1060" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="SAPBEXfilterDrill 2 2 2" xfId="1312" xr:uid="{2C62C57D-0610-416F-88CB-9477D0479CCD}"/>
+    <cellStyle name="SAPBEXfilterDrill 2 3" xfId="1311" xr:uid="{51DBF75C-4C92-422A-9DC9-EF82BA41C4C6}"/>
+    <cellStyle name="SAPBEXfilterDrill 3" xfId="1310" xr:uid="{30FA1BE6-D6A5-42AF-A3E0-1164014D375C}"/>
+    <cellStyle name="SAPBEXfilterDrill_1 - Fiche descriptive" xfId="1061" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="1062" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="SAPBEXfilterItem 2" xfId="1063" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="SAPBEXfilterItem 2 2" xfId="1064" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="SAPBEXfilterItem_1 - Fiche descriptive" xfId="1065" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="1066" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="SAPBEXfilterText 2" xfId="1067" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="SAPBEXfilterText 2 2" xfId="1068" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="SAPBEXfilterText_1 - Fiche descriptive" xfId="1069" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="SAPBEXformats" xfId="1070" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="SAPBEXformats 2" xfId="1071" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="SAPBEXformats 2 2" xfId="1072" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="SAPBEXformats_1 - Fiche descriptive" xfId="1073" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="1074" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="SAPBEXheaderItem 2" xfId="1075" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="SAPBEXheaderItem 2 2" xfId="1076" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="SAPBEXheaderItem_1 - Fiche descriptive" xfId="1077" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="1078" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="SAPBEXheaderText 2" xfId="1079" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="SAPBEXheaderText 2 2" xfId="1080" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="SAPBEXheaderText_1 - Fiche descriptive" xfId="1081" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="SAPBEXresData" xfId="1082" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="SAPBEXresData 2" xfId="1083" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="SAPBEXresData 2 2" xfId="1084" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="SAPBEXresData_1 - Fiche descriptive" xfId="1085" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="1086" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="SAPBEXresDataEmph 2" xfId="1087" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="SAPBEXresDataEmph 2 2" xfId="1088" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="SAPBEXresDataEmph_1 - Fiche descriptive" xfId="1089" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="SAPBEXresItem" xfId="1090" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="SAPBEXresItem 2" xfId="1091" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="SAPBEXresItem 2 2" xfId="1092" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="SAPBEXresItem_1 - Fiche descriptive" xfId="1093" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="SAPBEXstdData" xfId="1094" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="1095" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="SAPBEXstdDataEmph 2" xfId="1096" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="SAPBEXstdDataEmph 2 2" xfId="1097" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="SAPBEXstdDataEmph_1 - Fiche descriptive" xfId="1098" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="1099" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="SAPBEXstdItem 2" xfId="1100" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="SAPBEXstdItem 2 2" xfId="1101" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="SAPBEXstdItem_1 - Fiche descriptive" xfId="1102" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="SAPBEXtitle" xfId="1103" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="SAPBEXtitle 2" xfId="1104" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="SAPBEXtitle 2 2" xfId="1105" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="SAPBEXtitle_1 - Fiche descriptive" xfId="1106" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="SAPBEXundefined" xfId="1107" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="SAPBEXundefined 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="SAPBEXundefined 2 2" xfId="1109" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="SAPBEXundefined_1 - Fiche descriptive" xfId="1110" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Satisfaisant 2" xfId="1112" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Sortie 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="StationEach" xfId="1115" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="StationTot" xfId="1116" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Style 1" xfId="1117" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Style 1 2" xfId="1118" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="StyleJour" xfId="1119" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="StyleJour 2" xfId="1120" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="StyleJour 2 2" xfId="1121" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="StyleJour 3" xfId="1122" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="StyleJour_1 - Fiche descriptive" xfId="1123" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="styleTitreHorizontal" xfId="1124" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="styleTitreHorizontal 2" xfId="1125" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="styleTitreHorizontal_1 - Fiche descriptive" xfId="1126" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="styleTitreVertical" xfId="1127" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="styleTitreVertical 2" xfId="1128" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="styleTitreVertical_1 - Fiche descriptive" xfId="1129" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="SubTot" xfId="1130" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Subtoteqsheet" xfId="1131" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Subtoteqsheet 2" xfId="1132" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Subtoteqsheet 2 2" xfId="1314" xr:uid="{79B3A886-DC7C-417B-B2F4-79B5C6C7AE57}"/>
+    <cellStyle name="Subtoteqsheet 3" xfId="1313" xr:uid="{ED6BB213-CA52-4254-8B9D-CE3B824284D9}"/>
+    <cellStyle name="temp" xfId="1133" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Times" xfId="1135" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Title" xfId="1136" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Titre 1" xfId="1137" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="titre ital 32" xfId="1138" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="TitreSérie" xfId="1143" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="TitreSérie 2" xfId="1144" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="TitreSérie 3" xfId="1145" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="TitreSérie 3 2" xfId="1146" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="TitreSérie 4" xfId="1147" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="TitreSérie 5" xfId="1148" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="TitreSérie_1 - Fiche descriptive" xfId="1149" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="TypeDonnée" xfId="1151" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="TypeDonnée 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="TypeDonnée 2 2" xfId="1153" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="TypeDonnée 3" xfId="1154" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="TypeDonnée 3 2" xfId="1155" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="TypeDonnée 4" xfId="1156" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="TypeDonnée_1 - Fiche descriptive" xfId="1157" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Variation" xfId="1158" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Variation 2" xfId="1159" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Variation 2 2" xfId="1160" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Variation 3" xfId="1161" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Variation 3 2" xfId="1162" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Variation 4" xfId="1163" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Variation_1 - Fiche descriptive" xfId="1164" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Vérification 2" xfId="1166" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="913" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="1167" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Обычный_2.1 GANTT" xfId="1168" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="標準_Application List with Client Dependencies DSL" xfId="1169" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -9301,681 +9330,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>583406</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>261930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>821523</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle à coins arrondis 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12501562" y="3548055"/>
-          <a:ext cx="2714625" cy="559593"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -126096"/>
-            <a:gd name="adj2" fmla="val -191362"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Definissez ici l'objectif de votre projet</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>521494</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1223955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>188119</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>521485</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle à coins arrondis 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12439650" y="4510080"/>
-          <a:ext cx="2714625" cy="559593"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -122587"/>
-            <a:gd name="adj2" fmla="val -161575"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Diffusez votre tableau</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> de bord  à vos clients et aux membres du groupe  projet.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>616744</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>283369</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>711986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle à coins arrondis 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12534900" y="2533643"/>
-          <a:ext cx="2714625" cy="559593"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -127850"/>
-            <a:gd name="adj2" fmla="val -148809"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Definissez ici la période pendant laquelle se déroule votre projet</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>245262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114293</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle à coins arrondis 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12461081" y="1804981"/>
-          <a:ext cx="2714625" cy="559593"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -126096"/>
-            <a:gd name="adj2" fmla="val -136043"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Indiquez ici qui endosse la responsabilité de la pertinence et de la complétude de ce tableau de bord.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>207162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>130961</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle à coins arrondis 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12518231" y="1397787"/>
-          <a:ext cx="2714625" cy="292893"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -126973"/>
-            <a:gd name="adj2" fmla="val -229003"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Indiquez ici le nom de votre projet</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle à coins arrondis 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15575756" y="573882"/>
-          <a:ext cx="3236119" cy="473868"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -210455"/>
-            <a:gd name="adj2" fmla="val -102880"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Indiquez ici la date de l'issue de ce tableau de bord, elle  se répercutera dans les autres onglets</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>607220</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle à coins arrondis 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15573376" y="1142999"/>
-          <a:ext cx="3309936" cy="497681"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -206771"/>
-            <a:gd name="adj2" fmla="val -176683"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Indiquez ici votre groupe projet, , il se répercutera dans les autres onglets</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>631031</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>690562</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle à coins arrondis 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15597187" y="47626"/>
-          <a:ext cx="3107531" cy="404811"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -218094"/>
-            <a:gd name="adj2" fmla="val -27260"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Indiquez ici la dréférence de votre tableau de bord, elle  se répercutera dans les autres onglets</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10085,13 +9439,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>701337</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24927,11 +24281,11 @@
   </sheetPr>
   <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:N13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="5"/>
@@ -24953,11 +24307,11 @@
       <c r="I1" s="127"/>
       <c r="J1" s="127"/>
       <c r="K1" s="127"/>
-      <c r="L1" s="196" t="s">
+      <c r="L1" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="197"/>
-      <c r="N1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="199"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24971,11 +24325,11 @@
       <c r="I2" s="129"/>
       <c r="J2" s="129"/>
       <c r="K2" s="129"/>
-      <c r="L2" s="199">
-        <v>42836</v>
-      </c>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
+      <c r="L2" s="200">
+        <v>45912</v>
+      </c>
+      <c r="M2" s="201"/>
+      <c r="N2" s="202"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="130"/>
@@ -24988,34 +24342,34 @@
       <c r="I3" s="131"/>
       <c r="J3" s="131"/>
       <c r="K3" s="131"/>
-      <c r="L3" s="202" t="s">
+      <c r="L3" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="205"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="187"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="205" t="s">
-        <v>316</v>
-      </c>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
+      <c r="E5" s="206" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -25032,23 +24386,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="187" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="187"/>
+      <c r="B7" s="188" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="188"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="190" t="s">
-        <v>315</v>
-      </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="192"/>
+      <c r="E7" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -25066,23 +24420,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="193"/>
+      <c r="C9" s="194"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="194" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="195"/>
+      <c r="E9" s="195" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -25100,23 +24454,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="187"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="194" t="s">
+      <c r="E11" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="195"/>
-      <c r="M11" s="195"/>
-      <c r="N11" s="195"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="196"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -25134,23 +24488,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="187"/>
+      <c r="C13" s="188"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="188" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
+      <c r="E13" s="189" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -25212,7 +24566,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="7.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" style="3" customWidth="1"/>
@@ -25228,52 +24582,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A1" s="256" t="str">
+      <c r="A1" s="257" t="str">
         <f>"LISTE DES ACTIONS au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
-        <v>LISTE DES ACTIONS au 17/00/Dienstag</v>
-      </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="206" t="str">
+        <v>LISTE DES ACTIONS au 25/00/Freitag</v>
+      </c>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="207"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A2" s="259"/>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="208">
+      <c r="A2" s="260"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
-        <v>42836</v>
-      </c>
-      <c r="J2" s="209"/>
+        <v>45912</v>
+      </c>
+      <c r="J2" s="210"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="262"/>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="210" t="str">
+      <c r="A3" s="263"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="211"/>
+      <c r="J3" s="212"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -25863,12 +25217,12 @@
     </row>
     <row r="16" spans="1:60">
       <c r="A16" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -25912,7 +25266,7 @@
       <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="2" width="52" style="3" customWidth="1"/>
@@ -25928,55 +25282,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="270" t="str">
+      <c r="A1" s="271" t="str">
         <f>"LISTE DES DECISIONS au "&amp;TEXT(J2,"jj/mm/aaaa")</f>
-        <v>LISTE DES DECISIONS au 17/00/Dienstag</v>
-      </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="206" t="str">
+        <v>LISTE DES DECISIONS au 25/00/Freitag</v>
+      </c>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="207"/>
+      <c r="K1" s="208"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="260"/>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="208">
+      <c r="A2" s="261"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
-        <v>42836</v>
-      </c>
-      <c r="K2" s="209"/>
+        <v>45912</v>
+      </c>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="263"/>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="210" t="str">
+      <c r="A3" s="264"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="211"/>
+      <c r="K3" s="212"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25988,13 +25342,13 @@
       <c r="A5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="270"/>
       <c r="G5" s="94" t="s">
         <v>22</v>
       </c>
@@ -26015,17 +25369,17 @@
       <c r="A6" s="95">
         <v>1</v>
       </c>
-      <c r="B6" s="265" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
+      <c r="B6" s="266" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
       <c r="G6" s="96" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" s="298">
+        <v>319</v>
+      </c>
+      <c r="H6" s="187">
         <v>45908</v>
       </c>
       <c r="I6" s="96"/>
@@ -26038,11 +25392,11 @@
       <c r="A7" s="95">
         <v>2</v>
       </c>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="266"/>
       <c r="G7" s="96"/>
       <c r="H7" s="96"/>
       <c r="I7" s="96"/>
@@ -26053,11 +25407,11 @@
       <c r="A8" s="95">
         <v>3</v>
       </c>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
@@ -26068,11 +25422,11 @@
       <c r="A9" s="95">
         <v>4</v>
       </c>
-      <c r="B9" s="266"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
       <c r="G9" s="99"/>
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
@@ -26083,11 +25437,11 @@
       <c r="A10" s="95">
         <v>5</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
@@ -26098,11 +25452,11 @@
       <c r="A11" s="95">
         <v>6</v>
       </c>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
@@ -26111,7 +25465,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -26148,7 +25502,7 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="3" customWidth="1"/>
@@ -26165,52 +25519,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="256" t="str">
+      <c r="A1" s="257" t="str">
         <f>"DOCUMENTS PROJET au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
-        <v>DOCUMENTS PROJET au 17/00/Dienstag</v>
-      </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="206" t="str">
+        <v>DOCUMENTS PROJET au 25/00/Freitag</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="207"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="272"/>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="274"/>
-      <c r="I2" s="208">
+      <c r="A2" s="273"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
-        <v>42836</v>
-      </c>
-      <c r="J2" s="209"/>
+        <v>45912</v>
+      </c>
+      <c r="J2" s="210"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="276"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="210" t="str">
+      <c r="A3" s="276"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="211"/>
+      <c r="J3" s="212"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -26765,7 +26119,7 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" style="3" customWidth="1"/>
@@ -26777,37 +26131,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="278" t="str">
+      <c r="A1" s="279" t="str">
         <f>"LIVRABLES PROJET au "&amp;TEXT(D2,"jj/mm/aaaa")</f>
-        <v>LIVRABLES PROJET au 17/00/Dienstag</v>
-      </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="206" t="str">
+        <v>LIVRABLES PROJET au 25/00/Freitag</v>
+      </c>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="207"/>
+      <c r="E1" s="208"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="280"/>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="208">
+      <c r="A2" s="281"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
-        <v>42836</v>
-      </c>
-      <c r="E2" s="209"/>
+        <v>45912</v>
+      </c>
+      <c r="E2" s="210"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="282"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="210" t="str">
+      <c r="A3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="211"/>
+      <c r="E3" s="212"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26971,13 +26325,13 @@
   <sheetPr codeName="Feuil20">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM207"/>
+  <dimension ref="A1:AM208"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="108" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -26998,59 +26352,59 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="16"/>
-      <c r="B1" s="278" t="str">
+      <c r="B1" s="279" t="str">
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
-        <v>PLANNING COURANT  au 17/00/Dienstag</v>
-      </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="233" t="str">
+        <v>PLANNING COURANT  au 25/00/Freitag</v>
+      </c>
+      <c r="C1" s="285"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="234" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="225"/>
-      <c r="M1" s="234"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="235"/>
     </row>
     <row r="2" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="280"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="219">
+      <c r="B2" s="281"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
-        <v>42836</v>
-      </c>
-      <c r="L2" s="220"/>
-      <c r="M2" s="221"/>
+        <v>45912</v>
+      </c>
+      <c r="L2" s="221"/>
+      <c r="M2" s="222"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="282"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="222" t="str">
+      <c r="B3" s="283"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="223"/>
-      <c r="M3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="225"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
@@ -27171,25 +26525,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="288" t="s">
-        <v>318</v>
-      </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
-      <c r="I7" s="290"/>
+      <c r="C7" s="289" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7"/>
-      <c r="K7" s="288" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" s="289"/>
-      <c r="M7" s="289"/>
-      <c r="N7" s="289"/>
-      <c r="O7" s="289"/>
-      <c r="P7" s="289"/>
-      <c r="Q7" s="290"/>
+      <c r="K7" s="289" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="290"/>
+      <c r="M7" s="290"/>
+      <c r="N7" s="290"/>
+      <c r="O7" s="290"/>
+      <c r="P7" s="290"/>
+      <c r="Q7" s="291"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -27216,46 +26570,46 @@
     <row r="8" spans="1:39" ht="33" customHeight="1">
       <c r="A8"/>
       <c r="C8" s="165" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="166" t="s">
         <v>242</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="E8" s="166" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="166" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="166" t="s">
-        <v>244</v>
-      </c>
       <c r="G8" s="166" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H8" s="166" t="s">
         <v>96</v>
       </c>
       <c r="I8" s="166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K8" s="165" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" s="166" t="s">
         <v>242</v>
       </c>
-      <c r="L8" s="166" t="s">
+      <c r="M8" s="166" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="166" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" s="166" t="s">
-        <v>244</v>
-      </c>
       <c r="O8" s="166" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P8" s="166" t="s">
         <v>96</v>
       </c>
       <c r="Q8" s="166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R8"/>
       <c r="S8"/>
@@ -27297,7 +26651,7 @@
       <c r="G9" s="170"/>
       <c r="H9" s="170"/>
       <c r="I9" s="167" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K9" s="167">
         <v>1</v>
@@ -27341,7 +26695,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="172" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="173">
         <v>45915</v>
@@ -27352,13 +26706,13 @@
       <c r="G10" s="174"/>
       <c r="H10" s="174"/>
       <c r="I10" s="171" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K10" s="171">
         <v>2</v>
       </c>
       <c r="L10" s="172" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M10" s="173">
         <v>45920</v>
@@ -27366,7 +26720,9 @@
       <c r="N10" s="173"/>
       <c r="O10" s="174"/>
       <c r="P10" s="174"/>
-      <c r="Q10" s="171"/>
+      <c r="Q10" s="171" t="s">
+        <v>327</v>
+      </c>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
@@ -27396,7 +26752,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="176" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="177">
         <v>45915</v>
@@ -27405,19 +26761,19 @@
         <v>45921</v>
       </c>
       <c r="G11" s="175" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" s="176" t="s">
         <v>250</v>
       </c>
-      <c r="H11" s="176" t="s">
+      <c r="I11" s="175" t="s">
         <v>251</v>
-      </c>
-      <c r="I11" s="175" t="s">
-        <v>252</v>
       </c>
       <c r="K11" s="175">
         <v>3</v>
       </c>
       <c r="L11" s="176" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M11" s="177">
         <v>45920</v>
@@ -27426,12 +26782,14 @@
         <v>45928</v>
       </c>
       <c r="O11" s="175" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="176" t="s">
         <v>250</v>
       </c>
-      <c r="P11" s="176" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q11" s="175"/>
+      <c r="Q11" s="175" t="s">
+        <v>326</v>
+      </c>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
@@ -27461,7 +26819,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="176" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E12" s="177">
         <v>45924</v>
@@ -27473,16 +26831,16 @@
         <v>3</v>
       </c>
       <c r="H12" s="176" t="s">
+        <v>253</v>
+      </c>
+      <c r="I12" s="175" t="s">
         <v>254</v>
-      </c>
-      <c r="I12" s="175" t="s">
-        <v>255</v>
       </c>
       <c r="K12" s="175">
         <v>4</v>
       </c>
       <c r="L12" s="176" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M12" s="177">
         <v>45924</v>
@@ -27494,9 +26852,11 @@
         <v>3</v>
       </c>
       <c r="P12" s="176" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q12" s="175"/>
+        <v>253</v>
+      </c>
+      <c r="Q12" s="175" t="s">
+        <v>326</v>
+      </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
@@ -27526,7 +26886,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="179" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E13" s="180">
         <v>45945</v>
@@ -27537,13 +26897,13 @@
       <c r="G13" s="181"/>
       <c r="H13" s="182"/>
       <c r="I13" s="178" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K13" s="178">
         <v>5</v>
       </c>
       <c r="L13" s="179" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M13" s="180">
         <v>45943</v>
@@ -27581,7 +26941,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="176" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" s="177">
         <v>45945</v>
@@ -27590,27 +26950,33 @@
         <v>45945</v>
       </c>
       <c r="G14" s="175" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H14" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" s="175" t="s">
         <v>259</v>
-      </c>
-      <c r="I14" s="175" t="s">
-        <v>260</v>
       </c>
       <c r="K14" s="175">
         <v>6</v>
       </c>
       <c r="L14" s="176" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M14" s="177">
         <v>45943</v>
       </c>
-      <c r="N14" s="177"/>
+      <c r="N14" s="177">
+        <v>45945</v>
+      </c>
       <c r="O14" s="175"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="175"/>
+      <c r="P14" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q14" s="175" t="s">
+        <v>328</v>
+      </c>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
@@ -27640,7 +27006,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="176" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E15" s="177">
         <v>45946</v>
@@ -27652,26 +27018,32 @@
         <v>6</v>
       </c>
       <c r="H15" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I15" s="175" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K15" s="175">
         <v>7</v>
       </c>
       <c r="L15" s="176" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M15" s="177">
         <v>45943</v>
       </c>
-      <c r="N15" s="177"/>
+      <c r="N15" s="177">
+        <v>45946</v>
+      </c>
       <c r="O15" s="175">
         <v>6</v>
       </c>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="175"/>
+      <c r="P15" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q15" s="175" t="s">
+        <v>251</v>
+      </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
@@ -27701,7 +27073,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="176" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E16" s="177">
         <v>45948</v>
@@ -27713,24 +27085,32 @@
         <v>7</v>
       </c>
       <c r="H16" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I16" s="175" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K16" s="175">
         <v>8</v>
       </c>
       <c r="L16" s="176" t="s">
-        <v>262</v>
-      </c>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
+        <v>261</v>
+      </c>
+      <c r="M16" s="177">
+        <v>45947</v>
+      </c>
+      <c r="N16" s="177">
+        <v>45950</v>
+      </c>
       <c r="O16" s="175">
         <v>7</v>
       </c>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="175"/>
+      <c r="P16" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q16" s="175" t="s">
+        <v>251</v>
+      </c>
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
@@ -27760,7 +27140,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="176" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E17" s="177">
         <v>45952</v>
@@ -27772,18 +27152,32 @@
         <v>7</v>
       </c>
       <c r="H17" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I17" s="175" t="s">
-        <v>252</v>
-      </c>
-      <c r="K17" s="175"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="175"/>
+        <v>251</v>
+      </c>
+      <c r="K17" s="175">
+        <v>9</v>
+      </c>
+      <c r="L17" s="176" t="s">
+        <v>321</v>
+      </c>
+      <c r="M17" s="177">
+        <v>45951</v>
+      </c>
+      <c r="N17" s="177">
+        <v>45951</v>
+      </c>
+      <c r="O17" s="175">
+        <v>7</v>
+      </c>
+      <c r="P17" s="176" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q17" s="175" t="s">
+        <v>266</v>
+      </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
@@ -27813,7 +27207,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="176" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E18" s="177">
         <v>45955</v>
@@ -27822,21 +27216,35 @@
         <v>45955</v>
       </c>
       <c r="G18" s="175" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="176" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="176" t="s">
+      <c r="I18" s="175" t="s">
         <v>266</v>
       </c>
-      <c r="I18" s="175" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="175"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="175"/>
+      <c r="K18" s="175">
+        <v>10</v>
+      </c>
+      <c r="L18" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="M18" s="177">
+        <v>45952</v>
+      </c>
+      <c r="N18" s="177">
+        <v>45952</v>
+      </c>
+      <c r="O18" s="175" t="s">
+        <v>264</v>
+      </c>
+      <c r="P18" s="176" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q18" s="175" t="s">
+        <v>272</v>
+      </c>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
@@ -27866,7 +27274,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="176" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" s="177">
         <v>45956</v>
@@ -27875,21 +27283,35 @@
         <v>45956</v>
       </c>
       <c r="G19" s="175" t="s">
+        <v>268</v>
+      </c>
+      <c r="H19" s="176" t="s">
         <v>269</v>
       </c>
-      <c r="H19" s="176" t="s">
-        <v>270</v>
-      </c>
       <c r="I19" s="175" t="s">
-        <v>267</v>
-      </c>
-      <c r="K19" s="175"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="177"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="175"/>
+        <v>266</v>
+      </c>
+      <c r="K19" s="175">
+        <v>11</v>
+      </c>
+      <c r="L19" s="176" t="s">
+        <v>323</v>
+      </c>
+      <c r="M19" s="177">
+        <v>45952</v>
+      </c>
+      <c r="N19" s="177">
+        <v>45952</v>
+      </c>
+      <c r="O19" s="175" t="s">
+        <v>268</v>
+      </c>
+      <c r="P19" s="176" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q19" s="175" t="s">
+        <v>272</v>
+      </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
@@ -27919,7 +27341,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="176" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E20" s="177">
         <v>45956</v>
@@ -27928,21 +27350,35 @@
         <v>45956</v>
       </c>
       <c r="G20" s="175" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" s="175" t="s">
         <v>272</v>
       </c>
-      <c r="H20" s="176" t="s">
-        <v>259</v>
-      </c>
-      <c r="I20" s="175" t="s">
-        <v>273</v>
-      </c>
-      <c r="K20" s="175"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="177"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="176"/>
-      <c r="Q20" s="175"/>
+      <c r="K20" s="175">
+        <v>12</v>
+      </c>
+      <c r="L20" s="176" t="s">
+        <v>325</v>
+      </c>
+      <c r="M20" s="177">
+        <v>45953</v>
+      </c>
+      <c r="N20" s="177">
+        <v>45953</v>
+      </c>
+      <c r="O20" s="175" t="s">
+        <v>271</v>
+      </c>
+      <c r="P20" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q20" s="175" t="s">
+        <v>272</v>
+      </c>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
@@ -27968,30 +27404,32 @@
     </row>
     <row r="21" spans="1:39" ht="27" customHeight="1">
       <c r="A21"/>
-      <c r="C21" s="178">
-        <v>13</v>
-      </c>
-      <c r="D21" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="180">
-        <v>45976</v>
-      </c>
-      <c r="F21" s="180">
-        <v>45984</v>
-      </c>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="178" t="s">
-        <v>275</v>
-      </c>
-      <c r="K21" s="178"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="178"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="175"/>
+      <c r="K21" s="175" t="s">
+        <v>331</v>
+      </c>
+      <c r="L21" s="176" t="s">
+        <v>324</v>
+      </c>
+      <c r="M21" s="177">
+        <v>45955</v>
+      </c>
+      <c r="N21" s="177">
+        <v>45955</v>
+      </c>
+      <c r="O21" s="175"/>
+      <c r="P21" s="176" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q21" s="175" t="s">
+        <v>259</v>
+      </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
@@ -28017,34 +27455,30 @@
     </row>
     <row r="22" spans="1:39" ht="27" customHeight="1">
       <c r="A22"/>
-      <c r="C22" s="175">
-        <v>14</v>
-      </c>
-      <c r="D22" s="176" t="s">
-        <v>276</v>
-      </c>
-      <c r="E22" s="177">
+      <c r="C22" s="178">
+        <v>13</v>
+      </c>
+      <c r="D22" s="179" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="180">
         <v>45976</v>
       </c>
-      <c r="F22" s="177">
-        <v>45977</v>
-      </c>
-      <c r="G22" s="175">
-        <v>7</v>
-      </c>
-      <c r="H22" s="176" t="s">
-        <v>259</v>
-      </c>
-      <c r="I22" s="175" t="s">
-        <v>252</v>
-      </c>
-      <c r="K22" s="175"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="176"/>
-      <c r="Q22" s="175"/>
+      <c r="F22" s="180">
+        <v>45984</v>
+      </c>
+      <c r="G22" s="181"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="178" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="178"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="178"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
@@ -28071,25 +27505,25 @@
     <row r="23" spans="1:39" ht="27" customHeight="1">
       <c r="A23"/>
       <c r="C23" s="175">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="176" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E23" s="177">
+        <v>45976</v>
+      </c>
+      <c r="F23" s="177">
         <v>45977</v>
       </c>
-      <c r="F23" s="177">
-        <v>45979</v>
-      </c>
-      <c r="G23" s="175" t="s">
-        <v>278</v>
+      <c r="G23" s="175">
+        <v>7</v>
       </c>
       <c r="H23" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I23" s="175" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="K23" s="175"/>
       <c r="L23" s="176"/>
@@ -28124,25 +27558,25 @@
     <row r="24" spans="1:39" ht="27" customHeight="1">
       <c r="A24"/>
       <c r="C24" s="175">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="176" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E24" s="177">
-        <v>45980</v>
+        <v>45977</v>
       </c>
       <c r="F24" s="177">
-        <v>45981</v>
+        <v>45979</v>
       </c>
       <c r="G24" s="175" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H24" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I24" s="175" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="K24" s="175"/>
       <c r="L24" s="176"/>
@@ -28177,25 +27611,25 @@
     <row r="25" spans="1:39" ht="27" customHeight="1">
       <c r="A25"/>
       <c r="C25" s="175">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="176" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E25" s="177">
-        <v>45982</v>
+        <v>45980</v>
       </c>
       <c r="F25" s="177">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="G25" s="175" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H25" s="176" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="I25" s="175" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="K25" s="175"/>
       <c r="L25" s="176"/>
@@ -28230,25 +27664,25 @@
     <row r="26" spans="1:39" ht="27" customHeight="1">
       <c r="A26"/>
       <c r="C26" s="175">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="176" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E26" s="177">
-        <v>45983</v>
+        <v>45982</v>
       </c>
       <c r="F26" s="177">
-        <v>45983</v>
+        <v>45982</v>
       </c>
       <c r="G26" s="175" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H26" s="176" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="I26" s="175" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K26" s="175"/>
       <c r="L26" s="176"/>
@@ -28282,30 +27716,34 @@
     </row>
     <row r="27" spans="1:39" ht="27" customHeight="1">
       <c r="A27"/>
-      <c r="C27" s="178">
-        <v>19</v>
-      </c>
-      <c r="D27" s="179" t="s">
-        <v>286</v>
-      </c>
-      <c r="E27" s="180">
-        <v>46001</v>
-      </c>
-      <c r="F27" s="180">
-        <v>46012</v>
-      </c>
-      <c r="G27" s="181"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="178" t="s">
-        <v>287</v>
-      </c>
-      <c r="K27" s="178"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="178"/>
+      <c r="C27" s="175">
+        <v>18</v>
+      </c>
+      <c r="D27" s="176" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="177">
+        <v>45983</v>
+      </c>
+      <c r="F27" s="177">
+        <v>45983</v>
+      </c>
+      <c r="G27" s="175" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="I27" s="175" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" s="175"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="176"/>
+      <c r="Q27" s="175"/>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
@@ -28331,34 +27769,30 @@
     </row>
     <row r="28" spans="1:39" ht="27" customHeight="1">
       <c r="A28"/>
-      <c r="C28" s="175">
-        <v>20</v>
-      </c>
-      <c r="D28" s="176" t="s">
-        <v>288</v>
-      </c>
-      <c r="E28" s="177">
+      <c r="C28" s="178">
+        <v>19</v>
+      </c>
+      <c r="D28" s="179" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="180">
         <v>46001</v>
       </c>
-      <c r="F28" s="177">
-        <v>45941</v>
-      </c>
-      <c r="G28" s="175" t="s">
-        <v>289</v>
-      </c>
-      <c r="H28" s="176" t="s">
-        <v>259</v>
-      </c>
-      <c r="I28" s="175" t="s">
-        <v>252</v>
-      </c>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="177"/>
-      <c r="N28" s="177"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="175"/>
+      <c r="F28" s="180">
+        <v>46012</v>
+      </c>
+      <c r="G28" s="181"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="178" t="s">
+        <v>286</v>
+      </c>
+      <c r="K28" s="178"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="178"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
@@ -28384,28 +27818,28 @@
     </row>
     <row r="29" spans="1:39" ht="27" customHeight="1">
       <c r="A29"/>
-      <c r="C29" s="291">
-        <v>21</v>
-      </c>
-      <c r="D29" s="292" t="s">
-        <v>290</v>
-      </c>
-      <c r="E29" s="293">
-        <v>46003</v>
-      </c>
-      <c r="F29" s="293">
-        <v>45943</v>
+      <c r="C29" s="175">
+        <v>20</v>
+      </c>
+      <c r="D29" s="176" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29" s="177">
+        <v>46001</v>
+      </c>
+      <c r="F29" s="177">
+        <v>45941</v>
       </c>
       <c r="G29" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="H29" s="292" t="s">
-        <v>259</v>
-      </c>
-      <c r="I29" s="291" t="s">
-        <v>252</v>
-      </c>
-      <c r="K29" s="291"/>
+        <v>288</v>
+      </c>
+      <c r="H29" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="I29" s="175" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" s="175"/>
       <c r="L29" s="176"/>
       <c r="M29" s="177"/>
       <c r="N29" s="177"/>
@@ -28437,16 +27871,28 @@
     </row>
     <row r="30" spans="1:39" ht="27" customHeight="1">
       <c r="A30"/>
-      <c r="C30" s="291"/>
-      <c r="D30" s="292"/>
-      <c r="E30" s="293"/>
-      <c r="F30" s="293"/>
+      <c r="C30" s="292">
+        <v>21</v>
+      </c>
+      <c r="D30" s="293" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="294">
+        <v>46003</v>
+      </c>
+      <c r="F30" s="294">
+        <v>45943</v>
+      </c>
       <c r="G30" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="H30" s="292"/>
-      <c r="I30" s="291"/>
-      <c r="K30" s="291"/>
+        <v>290</v>
+      </c>
+      <c r="H30" s="293" t="s">
+        <v>258</v>
+      </c>
+      <c r="I30" s="292" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" s="292"/>
       <c r="L30" s="176"/>
       <c r="M30" s="177"/>
       <c r="N30" s="177"/>
@@ -28478,28 +27924,16 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="175">
-        <v>22</v>
-      </c>
-      <c r="D31" s="176" t="s">
-        <v>293</v>
-      </c>
-      <c r="E31" s="177">
-        <v>46003</v>
-      </c>
-      <c r="F31" s="177">
-        <v>45943</v>
-      </c>
+      <c r="C31" s="292"/>
+      <c r="D31" s="293"/>
+      <c r="E31" s="294"/>
+      <c r="F31" s="294"/>
       <c r="G31" s="175" t="s">
-        <v>250</v>
-      </c>
-      <c r="H31" s="176" t="s">
-        <v>259</v>
-      </c>
-      <c r="I31" s="175" t="s">
-        <v>279</v>
-      </c>
-      <c r="K31" s="175"/>
+        <v>291</v>
+      </c>
+      <c r="H31" s="293"/>
+      <c r="I31" s="292"/>
+      <c r="K31" s="292"/>
       <c r="L31" s="176"/>
       <c r="M31" s="177"/>
       <c r="N31" s="177"/>
@@ -28532,25 +27966,25 @@
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
       <c r="C32" s="175">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="176" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E32" s="177">
-        <v>46006</v>
+        <v>46003</v>
       </c>
       <c r="F32" s="177">
-        <v>45946</v>
+        <v>45943</v>
       </c>
       <c r="G32" s="175" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H32" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I32" s="175" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K32" s="175"/>
       <c r="L32" s="176"/>
@@ -28585,25 +28019,25 @@
     <row r="33" spans="1:39" ht="27" customHeight="1">
       <c r="A33"/>
       <c r="C33" s="175">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="176" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E33" s="177">
-        <v>46009</v>
+        <v>46006</v>
       </c>
       <c r="F33" s="177">
-        <v>45950</v>
+        <v>45946</v>
       </c>
       <c r="G33" s="175" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="H33" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I33" s="175" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K33" s="175"/>
       <c r="L33" s="176"/>
@@ -28635,8 +28069,36 @@
       <c r="AL33"/>
       <c r="AM33"/>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" ht="27" customHeight="1">
       <c r="A34"/>
+      <c r="C34" s="175">
+        <v>24</v>
+      </c>
+      <c r="D34" s="176" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="177">
+        <v>46009</v>
+      </c>
+      <c r="F34" s="177">
+        <v>45950</v>
+      </c>
+      <c r="G34" s="175" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" s="176" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" s="175" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" s="175"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="176"/>
+      <c r="Q34" s="175"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
@@ -28987,22 +28449,6 @@
     </row>
     <row r="48" spans="1:39">
       <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -35545,16 +34991,57 @@
       <c r="AL207"/>
       <c r="AM207"/>
     </row>
+    <row r="208" spans="1:39">
+      <c r="A208"/>
+      <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="M208"/>
+      <c r="N208"/>
+      <c r="O208"/>
+      <c r="P208"/>
+      <c r="Q208"/>
+      <c r="R208"/>
+      <c r="S208"/>
+      <c r="T208"/>
+      <c r="U208"/>
+      <c r="V208"/>
+      <c r="W208"/>
+      <c r="X208"/>
+      <c r="Y208"/>
+      <c r="Z208"/>
+      <c r="AA208"/>
+      <c r="AB208"/>
+      <c r="AC208"/>
+      <c r="AD208"/>
+      <c r="AE208"/>
+      <c r="AF208"/>
+      <c r="AG208"/>
+      <c r="AH208"/>
+      <c r="AI208"/>
+      <c r="AJ208"/>
+      <c r="AK208"/>
+      <c r="AL208"/>
+      <c r="AM208"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:M3"/>
@@ -35581,7 +35068,7 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="3" customWidth="1"/>
@@ -35596,46 +35083,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="278" t="str">
+      <c r="A1" s="279" t="str">
         <f>"BILAN au "&amp;TEXT(G2,"jj/mm/aaaa")</f>
-        <v>BILAN au 17/00/Dienstag</v>
-      </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="296" t="str">
+        <v>BILAN au 25/00/Freitag</v>
+      </c>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="297" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="297"/>
+      <c r="H1" s="298"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="280"/>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="208">
+      <c r="A2" s="281"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
-        <v>42836</v>
-      </c>
-      <c r="H2" s="209"/>
+        <v>45912</v>
+      </c>
+      <c r="H2" s="210"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="282"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="210" t="str">
+      <c r="A3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="211"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35645,78 +35132,78 @@
     <row r="5" spans="1:8" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:8">
       <c r="A6" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="294"/>
-      <c r="B7" s="295"/>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
+      <c r="A7" s="295"/>
+      <c r="B7" s="296"/>
+      <c r="C7" s="296"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
     </row>
     <row r="8" spans="1:8" ht="87" customHeight="1">
-      <c r="A8" s="294"/>
-      <c r="B8" s="295"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
-      <c r="G8" s="295"/>
-      <c r="H8" s="295"/>
+      <c r="A8" s="295"/>
+      <c r="B8" s="296"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="296"/>
+      <c r="F8" s="296"/>
+      <c r="G8" s="296"/>
+      <c r="H8" s="296"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="294"/>
-      <c r="B10" s="295"/>
-      <c r="C10" s="295"/>
-      <c r="D10" s="295"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
-      <c r="G10" s="295"/>
-      <c r="H10" s="295"/>
+      <c r="A10" s="295"/>
+      <c r="B10" s="296"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
     </row>
     <row r="11" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A11" s="294"/>
-      <c r="B11" s="295"/>
-      <c r="C11" s="295"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="295"/>
-      <c r="G11" s="295"/>
-      <c r="H11" s="295"/>
+      <c r="A11" s="295"/>
+      <c r="B11" s="296"/>
+      <c r="C11" s="296"/>
+      <c r="D11" s="296"/>
+      <c r="E11" s="296"/>
+      <c r="F11" s="296"/>
+      <c r="G11" s="296"/>
+      <c r="H11" s="296"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="294"/>
-      <c r="B13" s="295"/>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
+      <c r="A13" s="295"/>
+      <c r="B13" s="296"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
     </row>
     <row r="14" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A14" s="294"/>
-      <c r="B14" s="295"/>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="295"/>
-      <c r="G14" s="295"/>
-      <c r="H14" s="295"/>
+      <c r="A14" s="295"/>
+      <c r="B14" s="296"/>
+      <c r="C14" s="296"/>
+      <c r="D14" s="296"/>
+      <c r="E14" s="296"/>
+      <c r="F14" s="296"/>
+      <c r="G14" s="296"/>
+      <c r="H14" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -35743,11 +35230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
@@ -35755,18 +35242,18 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
         <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -35786,7 +35273,7 @@
       <selection activeCell="F3" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="3" customWidth="1"/>
@@ -35807,11 +35294,11 @@
       <c r="D1" s="123"/>
       <c r="E1" s="123"/>
       <c r="F1" s="123"/>
-      <c r="G1" s="206" t="str">
+      <c r="G1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="207"/>
+      <c r="H1" s="208"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="120"/>
@@ -35820,11 +35307,11 @@
       <c r="D2" s="124"/>
       <c r="E2" s="124"/>
       <c r="F2" s="124"/>
-      <c r="G2" s="208">
+      <c r="G2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
-        <v>42836</v>
-      </c>
-      <c r="H2" s="209"/>
+        <v>45912</v>
+      </c>
+      <c r="H2" s="210"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35833,11 +35320,11 @@
       <c r="D3" s="125"/>
       <c r="E3" s="125"/>
       <c r="F3" s="125"/>
-      <c r="G3" s="210" t="str">
+      <c r="G3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="211"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35856,7 +35343,7 @@
     </row>
     <row r="7" spans="1:15" ht="36.6" customHeight="1">
       <c r="A7" s="140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="140"/>
       <c r="C7" s="140"/>
@@ -35867,20 +35354,20 @@
       <c r="H7" s="141"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="212" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
+      <c r="A8" s="213" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -35892,75 +35379,75 @@
     </row>
     <row r="10" spans="1:15" ht="41.4" thickBot="1">
       <c r="A10" s="133" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="133" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="E10" s="122" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="134" t="s">
         <v>112</v>
-      </c>
-      <c r="D10" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="122" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="134" t="s">
-        <v>113</v>
       </c>
       <c r="H10" s="135"/>
     </row>
     <row r="11" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A11" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="136" t="s">
-        <v>117</v>
-      </c>
       <c r="C11" s="136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="138" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="138" t="s">
+      <c r="G11" s="214" t="s">
         <v>151</v>
       </c>
-      <c r="G11" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="214"/>
+      <c r="H11" s="215"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="136" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="136" t="s">
         <v>153</v>
-      </c>
-      <c r="C12" s="136" t="s">
-        <v>154</v>
       </c>
       <c r="D12" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="138" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="G12" s="214" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="213" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" s="215"/>
+      <c r="H12" s="216"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35971,73 +35458,73 @@
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A13" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="136" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="139" t="s">
         <v>158</v>
-      </c>
-      <c r="C13" s="139" t="s">
-        <v>159</v>
       </c>
       <c r="D13" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="138"/>
+      <c r="G13" s="214" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="213" t="s">
-        <v>161</v>
-      </c>
-      <c r="H13" s="215"/>
+      <c r="H13" s="216"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="136" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="139" t="s">
         <v>162</v>
-      </c>
-      <c r="C14" s="139" t="s">
-        <v>163</v>
       </c>
       <c r="D14" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="138" t="s">
+      <c r="G14" s="214" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="213" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="215"/>
+      <c r="H14" s="216"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="139" t="s">
         <v>167</v>
-      </c>
-      <c r="C15" s="139" t="s">
-        <v>168</v>
       </c>
       <c r="D15" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="137" t="s">
+      <c r="G15" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="213" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="215"/>
+      <c r="H15" s="216"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -36048,346 +35535,346 @@
     </row>
     <row r="16" spans="1:15" ht="13.8" outlineLevel="2">
       <c r="A16" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="136" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="136" t="s">
         <v>172</v>
-      </c>
-      <c r="C16" s="136" t="s">
-        <v>173</v>
       </c>
       <c r="D16" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="138" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="F16" s="138" t="s">
+      <c r="G16" s="214" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="213" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="215"/>
+      <c r="H16" s="216"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="136" t="s">
         <v>177</v>
-      </c>
-      <c r="C17" s="136" t="s">
-        <v>178</v>
       </c>
       <c r="D17" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="138" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="137" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="137" t="s">
+      <c r="G17" s="214" t="s">
         <v>180</v>
       </c>
-      <c r="G17" s="213" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="215"/>
+      <c r="H17" s="216"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="136" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="136" t="s">
         <v>182</v>
-      </c>
-      <c r="C18" s="136" t="s">
-        <v>183</v>
       </c>
       <c r="D18" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="137" t="s">
         <v>184</v>
       </c>
-      <c r="F18" s="137" t="s">
+      <c r="G18" s="214" t="s">
         <v>185</v>
       </c>
-      <c r="G18" s="213" t="s">
-        <v>186</v>
-      </c>
-      <c r="H18" s="215"/>
+      <c r="H18" s="216"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="139" t="s">
         <v>187</v>
-      </c>
-      <c r="C19" s="139" t="s">
-        <v>188</v>
       </c>
       <c r="D19" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="138" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="137" t="s">
         <v>189</v>
       </c>
-      <c r="F19" s="137" t="s">
+      <c r="G19" s="214" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="213" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="215"/>
+      <c r="H19" s="216"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="136" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="136" t="s">
         <v>192</v>
-      </c>
-      <c r="C20" s="136" t="s">
-        <v>193</v>
       </c>
       <c r="D20" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="137" t="s">
+      <c r="G20" s="214" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="213" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="215"/>
+      <c r="H20" s="216"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="136" t="s">
         <v>197</v>
-      </c>
-      <c r="C21" s="136" t="s">
-        <v>198</v>
       </c>
       <c r="D21" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="G21" s="214" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="213" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="215"/>
+      <c r="H21" s="216"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="136" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="136" t="s">
         <v>202</v>
-      </c>
-      <c r="C22" s="136" t="s">
-        <v>203</v>
       </c>
       <c r="D22" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="F22" s="137" t="s">
+      <c r="G22" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="G22" s="213" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="215"/>
+      <c r="H22" s="216"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="139" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="138" t="s">
+      <c r="G23" s="214" t="s">
         <v>209</v>
       </c>
-      <c r="G23" s="213" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="215"/>
+      <c r="H23" s="216"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="136" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="136" t="s">
         <v>211</v>
-      </c>
-      <c r="C24" s="136" t="s">
-        <v>212</v>
       </c>
       <c r="D24" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="138" t="s">
         <v>213</v>
       </c>
-      <c r="F24" s="138" t="s">
+      <c r="G24" s="214" t="s">
         <v>214</v>
       </c>
-      <c r="G24" s="213" t="s">
-        <v>215</v>
-      </c>
-      <c r="H24" s="215"/>
+      <c r="H24" s="216"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="136" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="139" t="s">
         <v>216</v>
-      </c>
-      <c r="C25" s="139" t="s">
-        <v>217</v>
       </c>
       <c r="D25" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="138" t="s">
         <v>218</v>
       </c>
-      <c r="F25" s="138" t="s">
+      <c r="G25" s="214" t="s">
         <v>219</v>
       </c>
-      <c r="G25" s="213" t="s">
-        <v>220</v>
-      </c>
-      <c r="H25" s="215"/>
+      <c r="H25" s="216"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="136" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="136" t="s">
         <v>221</v>
-      </c>
-      <c r="C26" s="136" t="s">
-        <v>222</v>
       </c>
       <c r="D26" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="F26" s="138" t="s">
+      <c r="G26" s="214" t="s">
         <v>224</v>
       </c>
-      <c r="G26" s="213" t="s">
-        <v>225</v>
-      </c>
-      <c r="H26" s="215"/>
+      <c r="H26" s="216"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="136" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="136" t="s">
         <v>226</v>
-      </c>
-      <c r="C27" s="136" t="s">
-        <v>227</v>
       </c>
       <c r="D27" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="137" t="s">
+      <c r="G27" s="214" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="213" t="s">
-        <v>230</v>
-      </c>
-      <c r="H27" s="215"/>
+      <c r="H27" s="216"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="136" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="136" t="s">
         <v>231</v>
-      </c>
-      <c r="C28" s="136" t="s">
-        <v>232</v>
       </c>
       <c r="D28" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="138" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="F28" s="138" t="s">
+      <c r="G28" s="214" t="s">
         <v>234</v>
       </c>
-      <c r="G28" s="213" t="s">
-        <v>235</v>
-      </c>
-      <c r="H28" s="215"/>
+      <c r="H28" s="216"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="136" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="136" t="s">
         <v>236</v>
-      </c>
-      <c r="C29" s="136" t="s">
-        <v>237</v>
       </c>
       <c r="D29" s="136" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="138" t="s">
         <v>238</v>
       </c>
-      <c r="F29" s="138" t="s">
+      <c r="G29" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="G29" s="213" t="s">
-        <v>240</v>
-      </c>
-      <c r="H29" s="215"/>
+      <c r="H29" s="216"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="136"/>
       <c r="D30" s="136" t="s">
@@ -36395,8 +35882,8 @@
       </c>
       <c r="E30" s="138"/>
       <c r="F30" s="138"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="215"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -36441,7 +35928,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="11.5546875" style="186"/>
   </cols>
@@ -36461,7 +35948,7 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="3"/>
@@ -36478,12 +35965,12 @@
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
       <c r="J1" s="109"/>
-      <c r="K1" s="216" t="str">
+      <c r="K1" s="217" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="217"/>
-      <c r="M1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="219"/>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="110"/>
@@ -36495,12 +35982,12 @@
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
       <c r="J2" s="111"/>
-      <c r="K2" s="219">
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
-        <v>42836</v>
-      </c>
-      <c r="L2" s="220"/>
-      <c r="M2" s="221"/>
+        <v>45912</v>
+      </c>
+      <c r="L2" s="221"/>
+      <c r="M2" s="222"/>
     </row>
     <row r="3" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="112"/>
@@ -36512,12 +35999,12 @@
       <c r="H3" s="113"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
-      <c r="K3" s="222" t="str">
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="223"/>
-      <c r="M3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="225"/>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -36655,11 +36142,11 @@
   </sheetPr>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="3"/>
@@ -36676,12 +36163,12 @@
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
       <c r="J1" s="109"/>
-      <c r="K1" s="216" t="str">
+      <c r="K1" s="217" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="217"/>
-      <c r="M1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="219"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="110"/>
@@ -36693,12 +36180,12 @@
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
       <c r="J2" s="111"/>
-      <c r="K2" s="219">
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
-        <v>42836</v>
-      </c>
-      <c r="L2" s="220"/>
-      <c r="M2" s="221"/>
+        <v>45912</v>
+      </c>
+      <c r="L2" s="221"/>
+      <c r="M2" s="222"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="112"/>
@@ -36710,12 +36197,12 @@
       <c r="H3" s="113"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
-      <c r="K3" s="222" t="str">
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="223"/>
-      <c r="M3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="225"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37545,11 +37032,11 @@
   </sheetPr>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A59" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="3"/>
@@ -37566,13 +37053,13 @@
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
       <c r="J1" s="109"/>
-      <c r="K1" s="216" t="str">
+      <c r="K1" s="217" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="225"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="110"/>
@@ -37584,13 +37071,13 @@
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
       <c r="J2" s="111"/>
-      <c r="K2" s="219">
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
-        <v>42836</v>
-      </c>
-      <c r="L2" s="226"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="221"/>
+        <v>45912</v>
+      </c>
+      <c r="L2" s="227"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="112"/>
@@ -37602,13 +37089,13 @@
       <c r="H3" s="113"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
-      <c r="K3" s="222" t="str">
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="227"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37961,11 +37448,11 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="3:13" ht="17.399999999999999" customHeight="1">
-      <c r="C53" s="228" t="s">
+      <c r="C53" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="229"/>
-      <c r="E53" s="230"/>
+      <c r="D53" s="230"/>
+      <c r="E53" s="231"/>
       <c r="F53" s="103" t="s">
         <v>82</v>
       </c>
@@ -38108,43 +37595,43 @@
       </c>
     </row>
     <row r="67" spans="3:16" ht="39.6">
-      <c r="C67" s="228" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="231"/>
-      <c r="E67" s="232"/>
+      <c r="C67" s="229" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="232"/>
+      <c r="E67" s="233"/>
       <c r="F67" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="G67" s="103" t="s">
+      <c r="H67" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="H67" s="103" t="s">
+      <c r="I67" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I67" s="103" t="s">
+      <c r="J67" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="J67" s="103" t="s">
-        <v>134</v>
-      </c>
       <c r="K67" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="L67" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="M67" s="103" t="s">
         <v>138</v>
-      </c>
-      <c r="L67" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="M67" s="103" t="s">
-        <v>139</v>
       </c>
       <c r="N67" s="103" t="s">
         <v>67</v>
       </c>
       <c r="O67" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="P67" s="103" t="s">
         <v>141</v>
-      </c>
-      <c r="P67" s="103" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="68" spans="3:16" ht="17.399999999999999">
@@ -38159,7 +37646,7 @@
       <c r="I68" s="104"/>
       <c r="J68" s="104"/>
       <c r="K68" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L68" s="104"/>
       <c r="M68" s="104"/>
@@ -38180,13 +37667,13 @@
       <c r="J69" s="104"/>
       <c r="K69" s="104"/>
       <c r="L69" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M69" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N69" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O69" s="104"/>
       <c r="P69" s="104"/>
@@ -38207,26 +37694,26 @@
       <c r="M70" s="104"/>
       <c r="N70" s="104"/>
       <c r="O70" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P70" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="3:16" ht="17.399999999999999">
       <c r="C71" s="105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D71" s="107"/>
       <c r="E71" s="106"/>
       <c r="F71" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G71" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H71" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I71" s="104"/>
       <c r="J71" s="104"/>
@@ -38236,12 +37723,12 @@
       <c r="N71" s="104"/>
       <c r="O71" s="104"/>
       <c r="P71" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="3:16" ht="17.399999999999999">
       <c r="C72" s="105" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" s="107"/>
       <c r="E72" s="106"/>
@@ -38249,7 +37736,7 @@
       <c r="G72" s="104"/>
       <c r="H72" s="104"/>
       <c r="I72" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J72" s="104"/>
       <c r="K72" s="104"/>
@@ -38258,12 +37745,12 @@
       <c r="N72" s="104"/>
       <c r="O72" s="104"/>
       <c r="P72" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="3:16" ht="17.399999999999999">
       <c r="C73" s="105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D73" s="107"/>
       <c r="E73" s="106"/>
@@ -38272,7 +37759,7 @@
       <c r="H73" s="104"/>
       <c r="I73" s="104"/>
       <c r="J73" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K73" s="104"/>
       <c r="L73" s="104"/>
@@ -38280,7 +37767,7 @@
       <c r="N73" s="104"/>
       <c r="O73" s="104"/>
       <c r="P73" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -38306,11 +37793,11 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
@@ -38336,12 +37823,12 @@
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
       <c r="J1" s="109"/>
-      <c r="K1" s="233" t="str">
+      <c r="K1" s="234" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="225"/>
-      <c r="M1" s="234"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="235"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="110"/>
@@ -38353,12 +37840,12 @@
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
       <c r="J2" s="111"/>
-      <c r="K2" s="219">
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
-        <v>42836</v>
-      </c>
-      <c r="L2" s="220"/>
-      <c r="M2" s="221"/>
+        <v>45912</v>
+      </c>
+      <c r="L2" s="221"/>
+      <c r="M2" s="222"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="112"/>
@@ -38370,12 +37857,12 @@
       <c r="H3" s="113"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
-      <c r="K3" s="222" t="str">
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="223"/>
-      <c r="M3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="225"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -38428,16 +37915,16 @@
     </row>
     <row r="7" spans="1:15" ht="27.6">
       <c r="B7" s="142" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="142" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="D7" s="142" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="142" t="s">
         <v>243</v>
-      </c>
-      <c r="D7" s="142" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="142" t="s">
-        <v>244</v>
       </c>
       <c r="F7" s="143" t="s">
         <v>95</v>
@@ -38446,7 +37933,7 @@
         <v>96</v>
       </c>
       <c r="H7" s="142" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -38472,7 +37959,7 @@
       <c r="F8" s="147"/>
       <c r="G8" s="147"/>
       <c r="H8" s="148" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -38487,7 +37974,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="151">
         <v>45915</v>
@@ -38498,7 +37985,7 @@
       <c r="F9" s="152"/>
       <c r="G9" s="152"/>
       <c r="H9" s="153" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -38513,7 +38000,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="155" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" s="156">
         <v>45915</v>
@@ -38522,13 +38009,13 @@
         <v>45921</v>
       </c>
       <c r="F10" s="157" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="155" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="H10" s="157" t="s">
         <v>251</v>
-      </c>
-      <c r="H10" s="157" t="s">
-        <v>252</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -38543,7 +38030,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="155" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="156">
         <v>45924</v>
@@ -38555,10 +38042,10 @@
         <v>3</v>
       </c>
       <c r="G11" s="155" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="157" t="s">
         <v>254</v>
-      </c>
-      <c r="H11" s="157" t="s">
-        <v>255</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -38573,7 +38060,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="159" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D12" s="160">
         <v>45945</v>
@@ -38584,7 +38071,7 @@
       <c r="F12" s="161"/>
       <c r="G12" s="162"/>
       <c r="H12" s="163" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -38599,7 +38086,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D13" s="156">
         <v>45945</v>
@@ -38608,13 +38095,13 @@
         <v>45945</v>
       </c>
       <c r="F13" s="157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="157" t="s">
         <v>259</v>
-      </c>
-      <c r="H13" s="157" t="s">
-        <v>260</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -38629,7 +38116,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="155" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="156">
         <v>45946</v>
@@ -38641,10 +38128,10 @@
         <v>6</v>
       </c>
       <c r="G14" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H14" s="157" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -38659,7 +38146,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="155" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D15" s="156">
         <v>45948</v>
@@ -38671,10 +38158,10 @@
         <v>7</v>
       </c>
       <c r="G15" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H15" s="157" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -38689,7 +38176,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" s="156">
         <v>45952</v>
@@ -38701,10 +38188,10 @@
         <v>7</v>
       </c>
       <c r="G16" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H16" s="157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -38719,7 +38206,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="156">
         <v>45955</v>
@@ -38728,13 +38215,13 @@
         <v>45955</v>
       </c>
       <c r="F17" s="157" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="155" t="s">
         <v>265</v>
       </c>
-      <c r="G17" s="155" t="s">
+      <c r="H17" s="157" t="s">
         <v>266</v>
-      </c>
-      <c r="H17" s="157" t="s">
-        <v>267</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -38749,7 +38236,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="155" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="156">
         <v>45956</v>
@@ -38758,13 +38245,13 @@
         <v>45956</v>
       </c>
       <c r="F18" s="157" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="155" t="s">
         <v>269</v>
       </c>
-      <c r="G18" s="155" t="s">
-        <v>270</v>
-      </c>
       <c r="H18" s="157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -38779,7 +38266,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="155" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D19" s="156">
         <v>45956</v>
@@ -38788,13 +38275,13 @@
         <v>45956</v>
       </c>
       <c r="F19" s="157" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="H19" s="157" t="s">
         <v>272</v>
-      </c>
-      <c r="G19" s="155" t="s">
-        <v>259</v>
-      </c>
-      <c r="H19" s="157" t="s">
-        <v>273</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -38809,7 +38296,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D20" s="160">
         <v>45976</v>
@@ -38820,7 +38307,7 @@
       <c r="F20" s="161"/>
       <c r="G20" s="162"/>
       <c r="H20" s="163" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -38835,7 +38322,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="155" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D21" s="156">
         <v>45976</v>
@@ -38847,10 +38334,10 @@
         <v>7</v>
       </c>
       <c r="G21" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H21" s="157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -38865,7 +38352,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="155" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D22" s="156">
         <v>45977</v>
@@ -38874,13 +38361,13 @@
         <v>45979</v>
       </c>
       <c r="F22" s="157" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="157" t="s">
         <v>278</v>
-      </c>
-      <c r="G22" s="155" t="s">
-        <v>259</v>
-      </c>
-      <c r="H22" s="157" t="s">
-        <v>279</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -38895,7 +38382,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="155" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="156">
         <v>45980</v>
@@ -38904,13 +38391,13 @@
         <v>45981</v>
       </c>
       <c r="F23" s="157" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G23" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H23" s="157" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -38925,7 +38412,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="155" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D24" s="156">
         <v>45982</v>
@@ -38934,13 +38421,13 @@
         <v>45982</v>
       </c>
       <c r="F24" s="157" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G24" s="155" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H24" s="157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -38955,7 +38442,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="155" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" s="156">
         <v>45983</v>
@@ -38964,13 +38451,13 @@
         <v>45983</v>
       </c>
       <c r="F25" s="157" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G25" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H25" s="157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -38985,7 +38472,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="159" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D26" s="160">
         <v>46001</v>
@@ -38996,7 +38483,7 @@
       <c r="F26" s="161"/>
       <c r="G26" s="162"/>
       <c r="H26" s="163" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -39011,7 +38498,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="155" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D27" s="156">
         <v>46001</v>
@@ -39020,13 +38507,13 @@
         <v>45941</v>
       </c>
       <c r="F27" s="157" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G27" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H27" s="157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -39037,26 +38524,26 @@
       <c r="O27"/>
     </row>
     <row r="28" spans="2:15" ht="28.8" customHeight="1">
-      <c r="B28" s="235">
+      <c r="B28" s="236">
         <v>21</v>
       </c>
-      <c r="C28" s="237" t="s">
+      <c r="C28" s="238" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="240">
+        <v>46003</v>
+      </c>
+      <c r="E28" s="240">
+        <v>45943</v>
+      </c>
+      <c r="F28" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="D28" s="239">
-        <v>46003</v>
-      </c>
-      <c r="E28" s="239">
-        <v>45943</v>
-      </c>
-      <c r="F28" s="164" t="s">
-        <v>291</v>
-      </c>
-      <c r="G28" s="237" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="235" t="s">
-        <v>252</v>
+      <c r="G28" s="238" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="236" t="s">
+        <v>251</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -39067,15 +38554,15 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B29" s="236"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="241"/>
       <c r="F29" s="157" t="s">
-        <v>292</v>
-      </c>
-      <c r="G29" s="238"/>
-      <c r="H29" s="236"/>
+        <v>291</v>
+      </c>
+      <c r="G29" s="239"/>
+      <c r="H29" s="237"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -39089,7 +38576,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D30" s="156">
         <v>46003</v>
@@ -39098,13 +38585,13 @@
         <v>45943</v>
       </c>
       <c r="F30" s="157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G30" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H30" s="157" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -39119,7 +38606,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="155" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" s="156">
         <v>46006</v>
@@ -39128,13 +38615,13 @@
         <v>45946</v>
       </c>
       <c r="F31" s="157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G31" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H31" s="157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -39149,7 +38636,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D32" s="156">
         <v>46009</v>
@@ -39158,13 +38645,13 @@
         <v>45950</v>
       </c>
       <c r="F32" s="157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G32" s="155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H32" s="157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -39253,7 +38740,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="40.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="3" customWidth="1"/>
@@ -39268,49 +38755,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="250" t="str">
+      <c r="A1" s="251" t="str">
         <f>"Risques / opportunités au "&amp;TEXT(F2,"jj/MM/AAAA")</f>
-        <v>Risques / opportunités au 17/04/Dienstag</v>
-      </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="241" t="str">
+        <v>Risques / opportunités au 25/09/Freitag</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="242" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="244"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="252"/>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="244">
+      <c r="A2" s="253"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="245">
         <f>'1a-Identification Projet'!$L2</f>
-        <v>42836</v>
-      </c>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="246"/>
+        <v>45912</v>
+      </c>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="247"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="254"/>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="247" t="str">
+      <c r="A3" s="255"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="248" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="250"/>
     </row>
     <row r="4" spans="1:9">
       <c r="F4" s="31"/>
@@ -39344,7 +38831,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="52" t="s">
         <v>16</v>
@@ -39456,7 +38943,7 @@
     <row r="14" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="15" spans="1:9" ht="55.2">
       <c r="A15" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>11</v>
@@ -39474,7 +38961,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="52" t="s">
         <v>16</v>
@@ -39604,11 +39091,11 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="88.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="85.33203125" style="20" customWidth="1"/>
@@ -39637,7 +39124,7 @@
       <c r="A2" s="116"/>
       <c r="B2" s="117">
         <f>'1a-Identification Projet'!$L$2</f>
-        <v>42836</v>
+        <v>45912</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -39682,7 +39169,7 @@
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1">
       <c r="A6" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" s="48"/>
     </row>
@@ -39696,10 +39183,10 @@
     </row>
     <row r="8" spans="1:11" ht="46.8" outlineLevel="1">
       <c r="A8" s="121" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="121" t="s">
         <v>300</v>
-      </c>
-      <c r="B8" s="121" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" outlineLevel="1">
@@ -39720,7 +39207,7 @@
     </row>
     <row r="13" spans="1:11" ht="18" thickBot="1">
       <c r="A13" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" s="48"/>
     </row>
@@ -39734,7 +39221,7 @@
     </row>
     <row r="15" spans="1:11" ht="31.2" outlineLevel="1">
       <c r="A15" s="121" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="121"/>
     </row>
@@ -39756,7 +39243,7 @@
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1">
       <c r="A20" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B20" s="48"/>
     </row>
@@ -39790,7 +39277,7 @@
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1">
       <c r="A27" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B27" s="48"/>
     </row>
@@ -39824,7 +39311,7 @@
     </row>
     <row r="34" spans="1:2" ht="18" thickBot="1">
       <c r="A34" s="47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" s="48"/>
     </row>
@@ -39858,7 +39345,7 @@
     </row>
     <row r="41" spans="1:2" ht="18" thickBot="1">
       <c r="A41" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B41" s="48"/>
     </row>
@@ -39892,7 +39379,7 @@
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1">
       <c r="A48" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="48"/>
     </row>
@@ -39926,7 +39413,7 @@
     </row>
     <row r="55" spans="1:2" ht="18" thickBot="1">
       <c r="A55" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B55" s="48"/>
     </row>
@@ -39960,7 +39447,7 @@
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1">
       <c r="A62" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B62" s="48"/>
     </row>
@@ -39994,7 +39481,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" thickBot="1">
       <c r="A69" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B69" s="48"/>
     </row>
@@ -40028,7 +39515,7 @@
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1">
       <c r="A76" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B76" s="48"/>
     </row>

--- a/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B7663-2491-4425-95A5-BC4375BD1BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17061E92-1A36-4154-9486-DEAE2F4EC0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-Identification Projet" sheetId="39" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="306">
   <si>
     <t>Responsable</t>
   </si>
@@ -332,46 +332,6 @@
   </si>
   <si>
     <t xml:space="preserve">date prévue </t>
-  </si>
-  <si>
-    <t>WP0 Capture Besoin</t>
-  </si>
-  <si>
-    <t>WP1 Pilotage Projet</t>
-  </si>
-  <si>
-    <t>WP2 Conception Intégration</t>
-  </si>
-  <si>
-    <t>Développement A1</t>
-  </si>
-  <si>
-    <t>Développement A2</t>
-  </si>
-  <si>
-    <t>Développement A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    OBS
-WBS</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>R: Responsable</t>
-  </si>
-  <si>
-    <t>C: Contributeur</t>
-  </si>
-  <si>
-    <t>A: Approbateur</t>
   </si>
   <si>
     <t xml:space="preserve">    &gt;&gt;&gt; dossier Client</t>
@@ -581,52 +541,6 @@
   </si>
   <si>
     <t>Planning courant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    PBS
-WBS</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>WP3 Developpement A1</t>
-  </si>
-  <si>
-    <t>WP3 Developpement A2</t>
-  </si>
-  <si>
-    <t>WP3 Developpement A3</t>
-  </si>
-  <si>
-    <t>referentiel du besoin</t>
-  </si>
-  <si>
-    <t>Tableaux de bords</t>
-  </si>
-  <si>
-    <t>Reférentiel projet</t>
-  </si>
-  <si>
-    <t>Dossier d'architecture</t>
-  </si>
-  <si>
-    <t>Dossier de test</t>
   </si>
   <si>
     <t xml:space="preserve">Description de l'opportunité </t>
@@ -1227,6 +1141,9 @@
   <si>
     <t xml:space="preserve">12/09/2025 =&gt; 12/12/2025
 </t>
+  </si>
+  <si>
+    <t>Le plannig n'a pas été respecté à la lettre à cause des  cc d'autres matieres</t>
   </si>
 </sst>
 </file>
@@ -6939,7 +6856,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7237,19 +7154,6 @@
     <xf numFmtId="14" fontId="7" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="946" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="946" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="946" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="946" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="946" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7488,9 +7392,39 @@
     <xf numFmtId="14" fontId="16" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7515,35 +7449,11 @@
     <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7566,15 +7476,9 @@
     <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7611,17 +7515,6 @@
     <xf numFmtId="14" fontId="4" fillId="68" borderId="21" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="946" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="946" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="946" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7775,6 +7668,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7796,15 +7698,6 @@
     <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7817,6 +7710,17 @@
     <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="946" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1319">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -14172,15 +14076,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>222164</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>142102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>20595</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>92675</xdr:rowOff>
+      <xdr:rowOff>82378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14195,7 +14099,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10467975" y="2675237"/>
+          <a:off x="10509164" y="2664940"/>
           <a:ext cx="1363620" cy="1093573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14368,6 +14272,34 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>csv_export.c</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14562,7 +14494,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>main.c </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14744,6 +14676,21 @@
               </a:solidFill>
             </a:rPr>
             <a:t> &amp; coûts</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>distance.c</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100">
@@ -14933,6 +14880,21 @@
               </a:solidFill>
             </a:rPr>
             <a:t> &amp; Instance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>main.c</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100">
@@ -24281,7 +24243,7 @@
   </sheetPr>
   <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:N2"/>
     </sheetView>
   </sheetViews>
@@ -24297,79 +24259,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17.399999999999999">
-      <c r="B1" s="126"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="197" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="198"/>
-      <c r="N1" s="199"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="200">
+      <c r="B2" s="123"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="186">
         <v>45912</v>
       </c>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="203" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="204"/>
-      <c r="N3" s="205"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="188"/>
+      <c r="C5" s="192"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="206" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
+      <c r="E5" s="193" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24386,23 +24348,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="188" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="188"/>
+      <c r="B7" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="192"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="193"/>
+      <c r="E7" s="196" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="198"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24420,23 +24382,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="194"/>
+      <c r="C9" s="199"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="195" t="s">
-        <v>332</v>
-      </c>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="196"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
+      <c r="E9" s="200" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24454,23 +24416,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="188" t="s">
+      <c r="B11" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="188"/>
+      <c r="C11" s="192"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="195" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
+      <c r="E11" s="200" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24488,23 +24450,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="188"/>
+      <c r="C13" s="192"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="189" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="190"/>
+      <c r="E13" s="194" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -24528,11 +24490,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -24541,6 +24498,11 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -24582,52 +24544,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A1" s="257" t="str">
+      <c r="A1" s="247" t="str">
         <f>"LISTE DES ACTIONS au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>LISTE DES ACTIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="207" t="str">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="204" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="208"/>
+      <c r="J1" s="205"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A2" s="260"/>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="209">
+      <c r="A2" s="250"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="206">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="210"/>
+      <c r="J2" s="207"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="263"/>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="211" t="str">
+      <c r="A3" s="253"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="208" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="212"/>
+      <c r="J3" s="209"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -24639,31 +24601,31 @@
         <v>8</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -25217,12 +25179,12 @@
     </row>
     <row r="16" spans="1:60">
       <c r="A16" s="3" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -25282,55 +25244,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="271" t="str">
+      <c r="A1" s="261" t="str">
         <f>"LISTE DES DECISIONS au "&amp;TEXT(J2,"jj/mm/aaaa")</f>
         <v>LISTE DES DECISIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="207" t="str">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="204" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="208"/>
+      <c r="K1" s="205"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="261"/>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="209">
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="206">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="210"/>
+      <c r="K2" s="207"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="264"/>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="211" t="str">
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="208" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="212"/>
+      <c r="K3" s="209"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25342,13 +25304,13 @@
       <c r="A5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="258" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="260"/>
       <c r="G5" s="94" t="s">
         <v>22</v>
       </c>
@@ -25369,17 +25331,17 @@
       <c r="A6" s="95">
         <v>1</v>
       </c>
-      <c r="B6" s="266" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
+      <c r="B6" s="256" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
       <c r="G6" s="96" t="s">
-        <v>319</v>
-      </c>
-      <c r="H6" s="187">
+        <v>291</v>
+      </c>
+      <c r="H6" s="182">
         <v>45908</v>
       </c>
       <c r="I6" s="96"/>
@@ -25392,11 +25354,11 @@
       <c r="A7" s="95">
         <v>2</v>
       </c>
-      <c r="B7" s="266"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
       <c r="G7" s="96"/>
       <c r="H7" s="96"/>
       <c r="I7" s="96"/>
@@ -25407,11 +25369,11 @@
       <c r="A8" s="95">
         <v>3</v>
       </c>
-      <c r="B8" s="266"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
@@ -25422,11 +25384,11 @@
       <c r="A9" s="95">
         <v>4</v>
       </c>
-      <c r="B9" s="267"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
+      <c r="B9" s="257"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="257"/>
       <c r="G9" s="99"/>
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
@@ -25437,11 +25399,11 @@
       <c r="A10" s="95">
         <v>5</v>
       </c>
-      <c r="B10" s="267"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="257"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
@@ -25452,11 +25414,11 @@
       <c r="A11" s="95">
         <v>6</v>
       </c>
-      <c r="B11" s="267"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="267"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="257"/>
+      <c r="E11" s="257"/>
+      <c r="F11" s="257"/>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
@@ -25465,7 +25427,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="3" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -25519,52 +25481,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="257" t="str">
+      <c r="A1" s="247" t="str">
         <f>"DOCUMENTS PROJET au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>DOCUMENTS PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="207" t="str">
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="204" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="208"/>
+      <c r="J1" s="205"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="273"/>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="209">
+      <c r="A2" s="263"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="206">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="210"/>
+      <c r="J2" s="207"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="276"/>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="211" t="str">
+      <c r="A3" s="266"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="208" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="212"/>
+      <c r="J3" s="209"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -25626,7 +25588,7 @@
     </row>
     <row r="7" spans="1:10" ht="13.8" thickBot="1">
       <c r="A7" s="58" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -25640,12 +25602,12 @@
     </row>
     <row r="8" spans="1:10" ht="13.8" outlineLevel="1" thickBot="1">
       <c r="A8" s="59" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E8" s="59"/>
       <c r="F8" s="59"/>
@@ -25653,12 +25615,12 @@
       <c r="H8" s="59"/>
       <c r="I8" s="59"/>
       <c r="J8" s="59" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.8" outlineLevel="2" thickBot="1">
       <c r="A9" s="58" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -25672,12 +25634,12 @@
     </row>
     <row r="10" spans="1:10" outlineLevel="1">
       <c r="A10" s="59" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -25685,7 +25647,7 @@
       <c r="H10" s="59"/>
       <c r="I10" s="59"/>
       <c r="J10" s="59" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" outlineLevel="2">
@@ -25746,7 +25708,7 @@
     </row>
     <row r="15" spans="1:10" ht="13.8" thickBot="1">
       <c r="A15" s="58" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
@@ -25760,12 +25722,12 @@
     </row>
     <row r="16" spans="1:10" outlineLevel="1">
       <c r="A16" s="59" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="59" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
@@ -25780,12 +25742,12 @@
     </row>
     <row r="17" spans="1:10" outlineLevel="2">
       <c r="A17" s="59" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
       <c r="D17" s="59" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E17" s="59"/>
       <c r="F17" s="59"/>
@@ -25800,18 +25762,18 @@
     </row>
     <row r="18" spans="1:10" outlineLevel="2">
       <c r="A18" s="59" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
       <c r="H18" s="59" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I18" s="59"/>
       <c r="J18" s="59" t="s">
@@ -25820,12 +25782,12 @@
     </row>
     <row r="19" spans="1:10" ht="13.8" outlineLevel="2" thickBot="1">
       <c r="A19" s="59" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -25840,7 +25802,7 @@
     </row>
     <row r="20" spans="1:10" ht="13.8" outlineLevel="2" thickBot="1">
       <c r="A20" s="58" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -25854,12 +25816,12 @@
     </row>
     <row r="21" spans="1:10" outlineLevel="1">
       <c r="A21" s="59" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="59"/>
@@ -25874,12 +25836,12 @@
     </row>
     <row r="22" spans="1:10" outlineLevel="2">
       <c r="A22" s="59" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
@@ -25894,12 +25856,12 @@
     </row>
     <row r="23" spans="1:10" outlineLevel="2">
       <c r="A23" s="59" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="59"/>
@@ -25914,12 +25876,12 @@
     </row>
     <row r="24" spans="1:10" outlineLevel="2">
       <c r="A24" s="59" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
@@ -25934,12 +25896,12 @@
     </row>
     <row r="25" spans="1:10" outlineLevel="2">
       <c r="A25" s="59" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
@@ -25954,12 +25916,12 @@
     </row>
     <row r="26" spans="1:10" outlineLevel="2">
       <c r="A26" s="59" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
       <c r="D26" s="59" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
@@ -25974,12 +25936,12 @@
     </row>
     <row r="27" spans="1:10" outlineLevel="2">
       <c r="A27" s="59" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
       <c r="D27" s="59" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -25994,12 +25956,12 @@
     </row>
     <row r="28" spans="1:10" outlineLevel="2">
       <c r="A28" s="59" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
       <c r="D28" s="59" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
@@ -26014,12 +25976,12 @@
     </row>
     <row r="29" spans="1:10" outlineLevel="2">
       <c r="A29" s="59" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -26034,12 +25996,12 @@
     </row>
     <row r="30" spans="1:10" ht="13.8" outlineLevel="2" thickBot="1">
       <c r="A30" s="59" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
@@ -26054,7 +26016,7 @@
     </row>
     <row r="31" spans="1:10" ht="13.8" outlineLevel="2" thickBot="1">
       <c r="A31" s="58" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -26068,12 +26030,12 @@
     </row>
     <row r="32" spans="1:10" outlineLevel="1">
       <c r="A32" s="59" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
@@ -26131,37 +26093,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="279" t="str">
+      <c r="A1" s="269" t="str">
         <f>"LIVRABLES PROJET au "&amp;TEXT(D2,"jj/mm/aaaa")</f>
         <v>LIVRABLES PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="207" t="str">
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="204" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="208"/>
+      <c r="E1" s="205"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="281"/>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="209">
+      <c r="A2" s="271"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="206">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="210"/>
+      <c r="E2" s="207"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="284"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="211" t="str">
+      <c r="A3" s="273"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="208" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="212"/>
+      <c r="E3" s="209"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26185,7 +26147,7 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="56" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -26194,7 +26156,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="59" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59">
@@ -26207,7 +26169,7 @@
     </row>
     <row r="8" spans="1:12" outlineLevel="2">
       <c r="A8" s="59" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="59">
@@ -26220,7 +26182,7 @@
     </row>
     <row r="9" spans="1:12" outlineLevel="2">
       <c r="A9" s="59" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B9" s="59"/>
       <c r="C9" s="59">
@@ -26240,7 +26202,7 @@
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" outlineLevel="2">
       <c r="A10" s="59" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="59">
@@ -26253,7 +26215,7 @@
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" outlineLevel="2">
       <c r="A11" s="59" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="59">
@@ -26266,7 +26228,7 @@
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" outlineLevel="2">
       <c r="A12" s="59" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B12" s="59"/>
       <c r="C12" s="59">
@@ -26286,7 +26248,7 @@
     </row>
     <row r="13" spans="1:12" outlineLevel="2">
       <c r="A13" s="59" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59">
@@ -26327,8 +26289,8 @@
   </sheetPr>
   <dimension ref="A1:AM208"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -26352,59 +26314,59 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="16"/>
-      <c r="B1" s="279" t="str">
+      <c r="B1" s="269" t="str">
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="285"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="234" t="str">
+      <c r="C1" s="278"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="279"/>
+      <c r="K1" s="224" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="226"/>
-      <c r="M1" s="235"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="225"/>
     </row>
     <row r="2" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="281"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="220">
+      <c r="B2" s="271"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="215">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="221"/>
-      <c r="M2" s="222"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="217"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="283"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="284"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="223" t="str">
+      <c r="B3" s="273"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="281"/>
+      <c r="K3" s="218" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="225"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="220"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
@@ -26525,25 +26487,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="289" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="291"/>
+      <c r="C7" s="282" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="283"/>
+      <c r="I7" s="284"/>
       <c r="J7"/>
-      <c r="K7" s="289" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="290"/>
-      <c r="M7" s="290"/>
-      <c r="N7" s="290"/>
-      <c r="O7" s="290"/>
-      <c r="P7" s="290"/>
-      <c r="Q7" s="291"/>
+      <c r="K7" s="282" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="283"/>
+      <c r="M7" s="283"/>
+      <c r="N7" s="283"/>
+      <c r="O7" s="283"/>
+      <c r="P7" s="283"/>
+      <c r="Q7" s="284"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -26569,47 +26531,47 @@
     </row>
     <row r="8" spans="1:39" ht="33" customHeight="1">
       <c r="A8"/>
-      <c r="C8" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="166" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="166" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="166" t="s">
-        <v>296</v>
-      </c>
-      <c r="H8" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="166" t="s">
-        <v>244</v>
-      </c>
-      <c r="K8" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="L8" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="M8" s="166" t="s">
-        <v>125</v>
-      </c>
-      <c r="N8" s="166" t="s">
-        <v>243</v>
-      </c>
-      <c r="O8" s="166" t="s">
-        <v>297</v>
-      </c>
-      <c r="P8" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="166" t="s">
-        <v>244</v>
+      <c r="C8" s="160" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="161" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="161" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="161" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="161" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="161" t="s">
+        <v>216</v>
+      </c>
+      <c r="K8" s="160" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="161" t="s">
+        <v>214</v>
+      </c>
+      <c r="M8" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="161" t="s">
+        <v>215</v>
+      </c>
+      <c r="O8" s="161" t="s">
+        <v>269</v>
+      </c>
+      <c r="P8" s="161" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="161" t="s">
+        <v>216</v>
       </c>
       <c r="R8"/>
       <c r="S8"/>
@@ -26636,36 +26598,36 @@
     </row>
     <row r="9" spans="1:39" ht="27" customHeight="1">
       <c r="A9"/>
-      <c r="C9" s="167">
+      <c r="C9" s="162">
         <v>1</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="169">
+      <c r="E9" s="164">
         <v>45915</v>
       </c>
-      <c r="F9" s="169">
+      <c r="F9" s="164">
         <v>46012</v>
       </c>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="167" t="s">
-        <v>245</v>
-      </c>
-      <c r="K9" s="167">
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="162" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="162">
         <v>1</v>
       </c>
-      <c r="L9" s="168" t="s">
+      <c r="L9" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="169">
+      <c r="M9" s="164">
         <v>45920</v>
       </c>
-      <c r="N9" s="169"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="167"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="162"/>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
@@ -26691,37 +26653,37 @@
     </row>
     <row r="10" spans="1:39" ht="27" customHeight="1">
       <c r="A10"/>
-      <c r="C10" s="171">
+      <c r="C10" s="166">
         <v>2</v>
       </c>
-      <c r="D10" s="172" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="173">
+      <c r="D10" s="167" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="168">
         <v>45915</v>
       </c>
-      <c r="F10" s="173">
+      <c r="F10" s="168">
         <v>45928</v>
       </c>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="171" t="s">
-        <v>247</v>
-      </c>
-      <c r="K10" s="171">
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="166" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="166">
         <v>2</v>
       </c>
-      <c r="L10" s="172" t="s">
-        <v>246</v>
-      </c>
-      <c r="M10" s="173">
+      <c r="L10" s="167" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" s="168">
         <v>45920</v>
       </c>
-      <c r="N10" s="173"/>
-      <c r="O10" s="174"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="171" t="s">
-        <v>327</v>
+      <c r="N10" s="168"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="166" t="s">
+        <v>299</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
@@ -26748,47 +26710,47 @@
     </row>
     <row r="11" spans="1:39" ht="27" customHeight="1">
       <c r="A11"/>
-      <c r="C11" s="175">
+      <c r="C11" s="170">
         <v>3</v>
       </c>
-      <c r="D11" s="176" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="177">
+      <c r="D11" s="171" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="172">
         <v>45915</v>
       </c>
-      <c r="F11" s="177">
+      <c r="F11" s="172">
         <v>45921</v>
       </c>
-      <c r="G11" s="175" t="s">
-        <v>249</v>
-      </c>
-      <c r="H11" s="176" t="s">
-        <v>250</v>
-      </c>
-      <c r="I11" s="175" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" s="175">
+      <c r="G11" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="171" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="K11" s="170">
         <v>3</v>
       </c>
-      <c r="L11" s="176" t="s">
-        <v>248</v>
-      </c>
-      <c r="M11" s="177">
+      <c r="L11" s="171" t="s">
+        <v>220</v>
+      </c>
+      <c r="M11" s="172">
         <v>45920</v>
       </c>
-      <c r="N11" s="177">
+      <c r="N11" s="172">
         <v>45928</v>
       </c>
-      <c r="O11" s="175" t="s">
-        <v>249</v>
-      </c>
-      <c r="P11" s="176" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q11" s="175" t="s">
-        <v>326</v>
+      <c r="O11" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="P11" s="171" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q11" s="170" t="s">
+        <v>298</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
@@ -26815,47 +26777,47 @@
     </row>
     <row r="12" spans="1:39" ht="27" customHeight="1">
       <c r="A12"/>
-      <c r="C12" s="175">
+      <c r="C12" s="170">
         <v>4</v>
       </c>
-      <c r="D12" s="176" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="177">
+      <c r="D12" s="171" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="172">
         <v>45924</v>
       </c>
-      <c r="F12" s="177">
+      <c r="F12" s="172">
         <v>45928</v>
       </c>
-      <c r="G12" s="175">
+      <c r="G12" s="170">
         <v>3</v>
       </c>
-      <c r="H12" s="176" t="s">
-        <v>253</v>
-      </c>
-      <c r="I12" s="175" t="s">
-        <v>254</v>
-      </c>
-      <c r="K12" s="175">
+      <c r="H12" s="171" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="170" t="s">
+        <v>226</v>
+      </c>
+      <c r="K12" s="170">
         <v>4</v>
       </c>
-      <c r="L12" s="176" t="s">
-        <v>252</v>
-      </c>
-      <c r="M12" s="177">
+      <c r="L12" s="171" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12" s="172">
         <v>45924</v>
       </c>
-      <c r="N12" s="177">
+      <c r="N12" s="172">
         <v>45942</v>
       </c>
-      <c r="O12" s="175">
+      <c r="O12" s="170">
         <v>3</v>
       </c>
-      <c r="P12" s="176" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q12" s="175" t="s">
-        <v>326</v>
+      <c r="P12" s="171" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q12" s="170" t="s">
+        <v>298</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -26882,36 +26844,36 @@
     </row>
     <row r="13" spans="1:39" ht="27" customHeight="1">
       <c r="A13"/>
-      <c r="C13" s="178">
+      <c r="C13" s="173">
         <v>5</v>
       </c>
-      <c r="D13" s="179" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" s="180">
+      <c r="D13" s="174" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="175">
         <v>45945</v>
       </c>
-      <c r="F13" s="180">
+      <c r="F13" s="175">
         <v>45956</v>
       </c>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="178" t="s">
-        <v>256</v>
-      </c>
-      <c r="K13" s="178">
+      <c r="G13" s="176"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="173" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="173">
         <v>5</v>
       </c>
-      <c r="L13" s="179" t="s">
-        <v>255</v>
-      </c>
-      <c r="M13" s="180">
+      <c r="L13" s="174" t="s">
+        <v>227</v>
+      </c>
+      <c r="M13" s="175">
         <v>45943</v>
       </c>
-      <c r="N13" s="180"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="178"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="173"/>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
@@ -26937,45 +26899,45 @@
     </row>
     <row r="14" spans="1:39" ht="27" customHeight="1">
       <c r="A14"/>
-      <c r="C14" s="175">
+      <c r="C14" s="170">
         <v>6</v>
       </c>
-      <c r="D14" s="176" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="177">
+      <c r="D14" s="171" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="172">
         <v>45945</v>
       </c>
-      <c r="F14" s="177">
+      <c r="F14" s="172">
         <v>45945</v>
       </c>
-      <c r="G14" s="175" t="s">
-        <v>249</v>
-      </c>
-      <c r="H14" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I14" s="175" t="s">
-        <v>259</v>
-      </c>
-      <c r="K14" s="175">
+      <c r="G14" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" s="170" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="170">
         <v>6</v>
       </c>
-      <c r="L14" s="176" t="s">
-        <v>257</v>
-      </c>
-      <c r="M14" s="177">
+      <c r="L14" s="171" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="172">
         <v>45943</v>
       </c>
-      <c r="N14" s="177">
+      <c r="N14" s="172">
         <v>45945</v>
       </c>
-      <c r="O14" s="175"/>
-      <c r="P14" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q14" s="175" t="s">
-        <v>328</v>
+      <c r="O14" s="170"/>
+      <c r="P14" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="170" t="s">
+        <v>300</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -27002,47 +26964,47 @@
     </row>
     <row r="15" spans="1:39" ht="27" customHeight="1">
       <c r="A15"/>
-      <c r="C15" s="175">
+      <c r="C15" s="170">
         <v>7</v>
       </c>
-      <c r="D15" s="176" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="177">
+      <c r="D15" s="171" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="172">
         <v>45946</v>
       </c>
-      <c r="F15" s="177">
+      <c r="F15" s="172">
         <v>45947</v>
       </c>
-      <c r="G15" s="175">
+      <c r="G15" s="170">
         <v>6</v>
       </c>
-      <c r="H15" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="175" t="s">
-        <v>254</v>
-      </c>
-      <c r="K15" s="175">
+      <c r="H15" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" s="170" t="s">
+        <v>226</v>
+      </c>
+      <c r="K15" s="170">
         <v>7</v>
       </c>
-      <c r="L15" s="176" t="s">
-        <v>260</v>
-      </c>
-      <c r="M15" s="177">
+      <c r="L15" s="171" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="172">
         <v>45943</v>
       </c>
-      <c r="N15" s="177">
+      <c r="N15" s="172">
         <v>45946</v>
       </c>
-      <c r="O15" s="175">
+      <c r="O15" s="170">
         <v>6</v>
       </c>
-      <c r="P15" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q15" s="175" t="s">
-        <v>251</v>
+      <c r="P15" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="170" t="s">
+        <v>223</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -27069,47 +27031,47 @@
     </row>
     <row r="16" spans="1:39" ht="40.799999999999997" customHeight="1">
       <c r="A16"/>
-      <c r="C16" s="175">
+      <c r="C16" s="170">
         <v>8</v>
       </c>
-      <c r="D16" s="176" t="s">
-        <v>261</v>
-      </c>
-      <c r="E16" s="177">
+      <c r="D16" s="171" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="172">
         <v>45948</v>
       </c>
-      <c r="F16" s="177">
+      <c r="F16" s="172">
         <v>45951</v>
       </c>
-      <c r="G16" s="175">
+      <c r="G16" s="170">
         <v>7</v>
       </c>
-      <c r="H16" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I16" s="175" t="s">
-        <v>254</v>
-      </c>
-      <c r="K16" s="175">
+      <c r="H16" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="170" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="170">
         <v>8</v>
       </c>
-      <c r="L16" s="176" t="s">
-        <v>261</v>
-      </c>
-      <c r="M16" s="177">
+      <c r="L16" s="171" t="s">
+        <v>233</v>
+      </c>
+      <c r="M16" s="172">
         <v>45947</v>
       </c>
-      <c r="N16" s="177">
+      <c r="N16" s="172">
         <v>45950</v>
       </c>
-      <c r="O16" s="175">
+      <c r="O16" s="170">
         <v>7</v>
       </c>
-      <c r="P16" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q16" s="175" t="s">
-        <v>251</v>
+      <c r="P16" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q16" s="170" t="s">
+        <v>223</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -27136,47 +27098,47 @@
     </row>
     <row r="17" spans="1:39" ht="27" customHeight="1">
       <c r="A17"/>
-      <c r="C17" s="175">
+      <c r="C17" s="170">
         <v>9</v>
       </c>
-      <c r="D17" s="176" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="177">
+      <c r="D17" s="171" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="172">
         <v>45952</v>
       </c>
-      <c r="F17" s="177">
+      <c r="F17" s="172">
         <v>45954</v>
       </c>
-      <c r="G17" s="175">
+      <c r="G17" s="170">
         <v>7</v>
       </c>
-      <c r="H17" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I17" s="175" t="s">
-        <v>251</v>
-      </c>
-      <c r="K17" s="175">
+      <c r="H17" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="K17" s="170">
         <v>9</v>
       </c>
-      <c r="L17" s="176" t="s">
-        <v>321</v>
-      </c>
-      <c r="M17" s="177">
+      <c r="L17" s="171" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" s="172">
         <v>45951</v>
       </c>
-      <c r="N17" s="177">
+      <c r="N17" s="172">
         <v>45951</v>
       </c>
-      <c r="O17" s="175">
+      <c r="O17" s="170">
         <v>7</v>
       </c>
-      <c r="P17" s="176" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q17" s="175" t="s">
-        <v>266</v>
+      <c r="P17" s="171" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q17" s="170" t="s">
+        <v>238</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -27203,47 +27165,47 @@
     </row>
     <row r="18" spans="1:39" ht="27" customHeight="1">
       <c r="A18"/>
-      <c r="C18" s="175">
+      <c r="C18" s="170">
         <v>10</v>
       </c>
-      <c r="D18" s="176" t="s">
-        <v>263</v>
-      </c>
-      <c r="E18" s="177">
+      <c r="D18" s="171" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="172">
         <v>45955</v>
       </c>
-      <c r="F18" s="177">
+      <c r="F18" s="172">
         <v>45955</v>
       </c>
-      <c r="G18" s="175" t="s">
-        <v>264</v>
-      </c>
-      <c r="H18" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" s="175" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="175">
+      <c r="G18" s="170" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="171" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="170">
         <v>10</v>
       </c>
-      <c r="L18" s="176" t="s">
-        <v>322</v>
-      </c>
-      <c r="M18" s="177">
+      <c r="L18" s="171" t="s">
+        <v>294</v>
+      </c>
+      <c r="M18" s="172">
         <v>45952</v>
       </c>
-      <c r="N18" s="177">
+      <c r="N18" s="172">
         <v>45952</v>
       </c>
-      <c r="O18" s="175" t="s">
-        <v>264</v>
-      </c>
-      <c r="P18" s="176" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q18" s="175" t="s">
-        <v>272</v>
+      <c r="O18" s="170" t="s">
+        <v>236</v>
+      </c>
+      <c r="P18" s="171" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q18" s="170" t="s">
+        <v>244</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -27270,47 +27232,47 @@
     </row>
     <row r="19" spans="1:39" ht="27" customHeight="1">
       <c r="A19"/>
-      <c r="C19" s="175">
+      <c r="C19" s="170">
         <v>11</v>
       </c>
-      <c r="D19" s="176" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="177">
+      <c r="D19" s="171" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="172">
         <v>45956</v>
       </c>
-      <c r="F19" s="177">
+      <c r="F19" s="172">
         <v>45956</v>
       </c>
-      <c r="G19" s="175" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19" s="176" t="s">
-        <v>269</v>
-      </c>
-      <c r="I19" s="175" t="s">
-        <v>266</v>
-      </c>
-      <c r="K19" s="175">
+      <c r="G19" s="170" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="I19" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="170">
         <v>11</v>
       </c>
-      <c r="L19" s="176" t="s">
-        <v>323</v>
-      </c>
-      <c r="M19" s="177">
+      <c r="L19" s="171" t="s">
+        <v>295</v>
+      </c>
+      <c r="M19" s="172">
         <v>45952</v>
       </c>
-      <c r="N19" s="177">
+      <c r="N19" s="172">
         <v>45952</v>
       </c>
-      <c r="O19" s="175" t="s">
-        <v>268</v>
-      </c>
-      <c r="P19" s="176" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q19" s="175" t="s">
-        <v>272</v>
+      <c r="O19" s="170" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="170" t="s">
+        <v>244</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -27337,47 +27299,47 @@
     </row>
     <row r="20" spans="1:39" ht="27" customHeight="1">
       <c r="A20"/>
-      <c r="C20" s="175">
+      <c r="C20" s="170">
         <v>12</v>
       </c>
-      <c r="D20" s="176" t="s">
-        <v>270</v>
-      </c>
-      <c r="E20" s="177">
+      <c r="D20" s="171" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="172">
         <v>45956</v>
       </c>
-      <c r="F20" s="177">
+      <c r="F20" s="172">
         <v>45956</v>
       </c>
-      <c r="G20" s="175" t="s">
-        <v>271</v>
-      </c>
-      <c r="H20" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I20" s="175" t="s">
-        <v>272</v>
-      </c>
-      <c r="K20" s="175">
+      <c r="G20" s="170" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I20" s="170" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="170">
         <v>12</v>
       </c>
-      <c r="L20" s="176" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="177">
+      <c r="L20" s="171" t="s">
+        <v>297</v>
+      </c>
+      <c r="M20" s="172">
         <v>45953</v>
       </c>
-      <c r="N20" s="177">
+      <c r="N20" s="172">
         <v>45953</v>
       </c>
-      <c r="O20" s="175" t="s">
-        <v>271</v>
-      </c>
-      <c r="P20" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q20" s="175" t="s">
-        <v>272</v>
+      <c r="O20" s="170" t="s">
+        <v>243</v>
+      </c>
+      <c r="P20" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q20" s="170" t="s">
+        <v>244</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -27404,31 +27366,31 @@
     </row>
     <row r="21" spans="1:39" ht="27" customHeight="1">
       <c r="A21"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="175"/>
-      <c r="K21" s="175" t="s">
-        <v>331</v>
-      </c>
-      <c r="L21" s="176" t="s">
-        <v>324</v>
-      </c>
-      <c r="M21" s="177">
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="170"/>
+      <c r="K21" s="170" t="s">
+        <v>303</v>
+      </c>
+      <c r="L21" s="171" t="s">
+        <v>296</v>
+      </c>
+      <c r="M21" s="172">
         <v>45955</v>
       </c>
-      <c r="N21" s="177">
+      <c r="N21" s="172">
         <v>45955</v>
       </c>
-      <c r="O21" s="175"/>
-      <c r="P21" s="176" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q21" s="175" t="s">
-        <v>259</v>
+      <c r="O21" s="170"/>
+      <c r="P21" s="171" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q21" s="170" t="s">
+        <v>231</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -27455,30 +27417,30 @@
     </row>
     <row r="22" spans="1:39" ht="27" customHeight="1">
       <c r="A22"/>
-      <c r="C22" s="178">
+      <c r="C22" s="173">
         <v>13</v>
       </c>
-      <c r="D22" s="179" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" s="180">
+      <c r="D22" s="174" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="175">
         <v>45976</v>
       </c>
-      <c r="F22" s="180">
+      <c r="F22" s="175">
         <v>45984</v>
       </c>
-      <c r="G22" s="181"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="178" t="s">
-        <v>274</v>
-      </c>
-      <c r="K22" s="178"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="178"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="173" t="s">
+        <v>246</v>
+      </c>
+      <c r="K22" s="173"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="176"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="173"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
@@ -27504,34 +27466,34 @@
     </row>
     <row r="23" spans="1:39" ht="27" customHeight="1">
       <c r="A23"/>
-      <c r="C23" s="175">
+      <c r="C23" s="170">
         <v>14</v>
       </c>
-      <c r="D23" s="176" t="s">
-        <v>275</v>
-      </c>
-      <c r="E23" s="177">
+      <c r="D23" s="171" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="172">
         <v>45976</v>
       </c>
-      <c r="F23" s="177">
+      <c r="F23" s="172">
         <v>45977</v>
       </c>
-      <c r="G23" s="175">
+      <c r="G23" s="170">
         <v>7</v>
       </c>
-      <c r="H23" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I23" s="175" t="s">
-        <v>251</v>
-      </c>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="177"/>
-      <c r="N23" s="177"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="175"/>
+      <c r="H23" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" s="170"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="171"/>
+      <c r="Q23" s="170"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
@@ -27557,34 +27519,34 @@
     </row>
     <row r="24" spans="1:39" ht="27" customHeight="1">
       <c r="A24"/>
-      <c r="C24" s="175">
+      <c r="C24" s="170">
         <v>15</v>
       </c>
-      <c r="D24" s="176" t="s">
-        <v>276</v>
-      </c>
-      <c r="E24" s="177">
+      <c r="D24" s="171" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" s="172">
         <v>45977</v>
       </c>
-      <c r="F24" s="177">
+      <c r="F24" s="172">
         <v>45979</v>
       </c>
-      <c r="G24" s="175" t="s">
-        <v>277</v>
-      </c>
-      <c r="H24" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I24" s="175" t="s">
-        <v>278</v>
-      </c>
-      <c r="K24" s="175"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="177"/>
-      <c r="N24" s="177"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="175"/>
+      <c r="G24" s="170" t="s">
+        <v>249</v>
+      </c>
+      <c r="H24" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I24" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" s="170"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="170"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
@@ -27610,34 +27572,34 @@
     </row>
     <row r="25" spans="1:39" ht="27" customHeight="1">
       <c r="A25"/>
-      <c r="C25" s="175">
+      <c r="C25" s="170">
         <v>16</v>
       </c>
-      <c r="D25" s="176" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="177">
+      <c r="D25" s="171" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="172">
         <v>45980</v>
       </c>
-      <c r="F25" s="177">
+      <c r="F25" s="172">
         <v>45981</v>
       </c>
-      <c r="G25" s="175" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I25" s="175" t="s">
-        <v>254</v>
-      </c>
-      <c r="K25" s="175"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="177"/>
-      <c r="N25" s="177"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="175"/>
+      <c r="G25" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25" s="170" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="170"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="171"/>
+      <c r="Q25" s="170"/>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
@@ -27663,34 +27625,34 @@
     </row>
     <row r="26" spans="1:39" ht="27" customHeight="1">
       <c r="A26"/>
-      <c r="C26" s="175">
+      <c r="C26" s="170">
         <v>17</v>
       </c>
-      <c r="D26" s="176" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="177">
+      <c r="D26" s="171" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="172">
         <v>45982</v>
       </c>
-      <c r="F26" s="177">
+      <c r="F26" s="172">
         <v>45982</v>
       </c>
-      <c r="G26" s="175" t="s">
-        <v>282</v>
-      </c>
-      <c r="H26" s="176" t="s">
-        <v>269</v>
-      </c>
-      <c r="I26" s="175" t="s">
-        <v>266</v>
-      </c>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="175"/>
+      <c r="G26" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="170"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="170"/>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
@@ -27716,34 +27678,34 @@
     </row>
     <row r="27" spans="1:39" ht="27" customHeight="1">
       <c r="A27"/>
-      <c r="C27" s="175">
+      <c r="C27" s="170">
         <v>18</v>
       </c>
-      <c r="D27" s="176" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="177">
+      <c r="D27" s="171" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="172">
         <v>45983</v>
       </c>
-      <c r="F27" s="177">
+      <c r="F27" s="172">
         <v>45983</v>
       </c>
-      <c r="G27" s="175" t="s">
-        <v>284</v>
-      </c>
-      <c r="H27" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I27" s="175" t="s">
-        <v>266</v>
-      </c>
-      <c r="K27" s="175"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="177"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="175"/>
+      <c r="G27" s="170" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I27" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="170"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="172"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="171"/>
+      <c r="Q27" s="170"/>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
@@ -27769,30 +27731,30 @@
     </row>
     <row r="28" spans="1:39" ht="27" customHeight="1">
       <c r="A28"/>
-      <c r="C28" s="178">
+      <c r="C28" s="173">
         <v>19</v>
       </c>
-      <c r="D28" s="179" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="180">
+      <c r="D28" s="174" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="175">
         <v>46001</v>
       </c>
-      <c r="F28" s="180">
+      <c r="F28" s="175">
         <v>46012</v>
       </c>
-      <c r="G28" s="181"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="178" t="s">
-        <v>286</v>
-      </c>
-      <c r="K28" s="178"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="181"/>
-      <c r="P28" s="182"/>
-      <c r="Q28" s="178"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="173" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" s="173"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="173"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
@@ -27818,34 +27780,34 @@
     </row>
     <row r="29" spans="1:39" ht="27" customHeight="1">
       <c r="A29"/>
-      <c r="C29" s="175">
+      <c r="C29" s="170">
         <v>20</v>
       </c>
-      <c r="D29" s="176" t="s">
-        <v>287</v>
-      </c>
-      <c r="E29" s="177">
+      <c r="D29" s="171" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="172">
         <v>46001</v>
       </c>
-      <c r="F29" s="177">
+      <c r="F29" s="172">
         <v>45941</v>
       </c>
-      <c r="G29" s="175" t="s">
-        <v>288</v>
-      </c>
-      <c r="H29" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I29" s="175" t="s">
-        <v>251</v>
-      </c>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="175"/>
+      <c r="G29" s="170" t="s">
+        <v>260</v>
+      </c>
+      <c r="H29" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="170"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="171"/>
+      <c r="Q29" s="170"/>
       <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
@@ -27871,34 +27833,34 @@
     </row>
     <row r="30" spans="1:39" ht="27" customHeight="1">
       <c r="A30"/>
-      <c r="C30" s="292">
+      <c r="C30" s="275">
         <v>21</v>
       </c>
-      <c r="D30" s="293" t="s">
-        <v>289</v>
-      </c>
-      <c r="E30" s="294">
+      <c r="D30" s="276" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="277">
         <v>46003</v>
       </c>
-      <c r="F30" s="294">
+      <c r="F30" s="277">
         <v>45943</v>
       </c>
-      <c r="G30" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="H30" s="293" t="s">
-        <v>258</v>
-      </c>
-      <c r="I30" s="292" t="s">
-        <v>251</v>
-      </c>
-      <c r="K30" s="292"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="177"/>
-      <c r="N30" s="177"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="176"/>
-      <c r="Q30" s="175"/>
+      <c r="G30" s="170" t="s">
+        <v>262</v>
+      </c>
+      <c r="H30" s="276" t="s">
+        <v>230</v>
+      </c>
+      <c r="I30" s="275" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" s="275"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="172"/>
+      <c r="N30" s="172"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="170"/>
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
@@ -27924,22 +27886,22 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="292"/>
-      <c r="D31" s="293"/>
-      <c r="E31" s="294"/>
-      <c r="F31" s="294"/>
-      <c r="G31" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="H31" s="293"/>
-      <c r="I31" s="292"/>
-      <c r="K31" s="292"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="175"/>
+      <c r="C31" s="275"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="277"/>
+      <c r="F31" s="277"/>
+      <c r="G31" s="170" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31" s="276"/>
+      <c r="I31" s="275"/>
+      <c r="K31" s="275"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="172"/>
+      <c r="N31" s="172"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="170"/>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
@@ -27965,34 +27927,34 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="175">
+      <c r="C32" s="170">
         <v>22</v>
       </c>
-      <c r="D32" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="E32" s="177">
+      <c r="D32" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="172">
         <v>46003</v>
       </c>
-      <c r="F32" s="177">
+      <c r="F32" s="172">
         <v>45943</v>
       </c>
-      <c r="G32" s="175" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I32" s="175" t="s">
-        <v>278</v>
-      </c>
-      <c r="K32" s="175"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="175"/>
+      <c r="G32" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" s="170"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="171"/>
+      <c r="Q32" s="170"/>
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
@@ -28018,34 +27980,34 @@
     </row>
     <row r="33" spans="1:39" ht="27" customHeight="1">
       <c r="A33"/>
-      <c r="C33" s="175">
+      <c r="C33" s="170">
         <v>23</v>
       </c>
-      <c r="D33" s="176" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="177">
+      <c r="D33" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="172">
         <v>46006</v>
       </c>
-      <c r="F33" s="177">
+      <c r="F33" s="172">
         <v>45946</v>
       </c>
-      <c r="G33" s="175" t="s">
-        <v>249</v>
-      </c>
-      <c r="H33" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I33" s="175" t="s">
-        <v>251</v>
-      </c>
-      <c r="K33" s="175"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="177"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="175"/>
+      <c r="G33" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" s="170"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="170"/>
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
@@ -28071,34 +28033,34 @@
     </row>
     <row r="34" spans="1:39" ht="27" customHeight="1">
       <c r="A34"/>
-      <c r="C34" s="175">
+      <c r="C34" s="170">
         <v>24</v>
       </c>
-      <c r="D34" s="176" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="177">
+      <c r="D34" s="171" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="172">
         <v>46009</v>
       </c>
-      <c r="F34" s="177">
+      <c r="F34" s="172">
         <v>45950</v>
       </c>
-      <c r="G34" s="175" t="s">
-        <v>295</v>
-      </c>
-      <c r="H34" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="I34" s="175" t="s">
-        <v>251</v>
-      </c>
-      <c r="K34" s="175"/>
-      <c r="L34" s="176"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="177"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="176"/>
-      <c r="Q34" s="175"/>
+      <c r="G34" s="170" t="s">
+        <v>267</v>
+      </c>
+      <c r="H34" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" s="170"/>
+      <c r="L34" s="171"/>
+      <c r="M34" s="172"/>
+      <c r="N34" s="172"/>
+      <c r="O34" s="170"/>
+      <c r="P34" s="171"/>
+      <c r="Q34" s="170"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
@@ -35035,6 +34997,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="C30:C31"/>
@@ -35042,12 +35010,6 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35083,46 +35045,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="279" t="str">
+      <c r="A1" s="269" t="str">
         <f>"BILAN au "&amp;TEXT(G2,"jj/mm/aaaa")</f>
         <v>BILAN au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="297" t="str">
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="287" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="298"/>
+      <c r="H1" s="288"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="281"/>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="209">
+      <c r="A2" s="271"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="206">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="210"/>
+      <c r="H2" s="207"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="284"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="211" t="str">
+      <c r="A3" s="273"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="208" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="212"/>
+      <c r="H3" s="209"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35132,78 +35094,78 @@
     <row r="5" spans="1:8" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:8">
       <c r="A6" s="76" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="295"/>
-      <c r="B7" s="296"/>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="296"/>
+      <c r="A7" s="285"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="87" customHeight="1">
-      <c r="A8" s="295"/>
-      <c r="B8" s="296"/>
-      <c r="C8" s="296"/>
-      <c r="D8" s="296"/>
-      <c r="E8" s="296"/>
-      <c r="F8" s="296"/>
-      <c r="G8" s="296"/>
-      <c r="H8" s="296"/>
+      <c r="A8" s="285"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="76" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="295"/>
-      <c r="B10" s="296"/>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
+      <c r="A10" s="285"/>
+      <c r="B10" s="286"/>
+      <c r="C10" s="286"/>
+      <c r="D10" s="286"/>
+      <c r="E10" s="286"/>
+      <c r="F10" s="286"/>
+      <c r="G10" s="286"/>
+      <c r="H10" s="286"/>
     </row>
     <row r="11" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A11" s="295"/>
-      <c r="B11" s="296"/>
-      <c r="C11" s="296"/>
-      <c r="D11" s="296"/>
-      <c r="E11" s="296"/>
-      <c r="F11" s="296"/>
-      <c r="G11" s="296"/>
-      <c r="H11" s="296"/>
+      <c r="A11" s="285"/>
+      <c r="B11" s="286"/>
+      <c r="C11" s="286"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="286"/>
+      <c r="H11" s="286"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="76" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="295"/>
-      <c r="B13" s="296"/>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
+      <c r="A13" s="285"/>
+      <c r="B13" s="286"/>
+      <c r="C13" s="286"/>
+      <c r="D13" s="286"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="286"/>
+      <c r="G13" s="286"/>
+      <c r="H13" s="286"/>
     </row>
     <row r="14" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A14" s="295"/>
-      <c r="B14" s="296"/>
-      <c r="C14" s="296"/>
-      <c r="D14" s="296"/>
-      <c r="E14" s="296"/>
-      <c r="F14" s="296"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="296"/>
+      <c r="A14" s="285"/>
+      <c r="B14" s="286"/>
+      <c r="C14" s="286"/>
+      <c r="D14" s="286"/>
+      <c r="E14" s="286"/>
+      <c r="F14" s="286"/>
+      <c r="G14" s="286"/>
+      <c r="H14" s="286"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -35230,7 +35192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -35242,18 +35204,18 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -35269,8 +35231,8 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F1:F1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="73" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
@@ -35289,42 +35251,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="207" t="str">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="204" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="208"/>
+      <c r="H1" s="205"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="209">
+      <c r="A2" s="115"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="206">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="210"/>
+      <c r="H2" s="207"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="211" t="str">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="208" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="212"/>
+      <c r="H3" s="209"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35342,32 +35304,32 @@
       <c r="H5"/>
     </row>
     <row r="7" spans="1:15" ht="36.6" customHeight="1">
-      <c r="A7" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
+      <c r="A7" s="135" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="213" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
+      <c r="A8" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="210"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -35378,76 +35340,76 @@
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:15" ht="41.4" thickBot="1">
-      <c r="A10" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="133" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="133" t="s">
+      <c r="A10" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="130"/>
+    </row>
+    <row r="11" spans="1:15" ht="41.4" outlineLevel="2">
+      <c r="A11" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="122" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="122" t="s">
+      <c r="D11" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="135"/>
-    </row>
-    <row r="11" spans="1:15" ht="41.4" outlineLevel="2">
-      <c r="A11" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="136" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="136" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="136" t="s">
+      <c r="F11" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="202" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="211"/>
+    </row>
+    <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
+      <c r="A12" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="138" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="214" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="215"/>
-    </row>
-    <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
-      <c r="A12" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="136" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="136" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="138" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="137" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="214" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="216"/>
+      <c r="E12" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="202" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="203"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35457,74 +35419,74 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
-      <c r="A13" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="136" t="s">
+      <c r="A13" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="138" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="214" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="216"/>
+      <c r="E13" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="133"/>
+      <c r="G13" s="202" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="203"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
-      <c r="A14" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="136" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="136" t="s">
+      <c r="A14" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="138" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="138" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="214" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="216"/>
+      <c r="E14" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="202" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="203"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
-      <c r="A15" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="136" t="s">
+      <c r="A15" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="137" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="137" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="214" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="216"/>
+      <c r="E15" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="202" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="203"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35534,359 +35496,374 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="13.8" outlineLevel="2">
-      <c r="A16" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="136" t="s">
+      <c r="A16" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="202" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="203"/>
+    </row>
+    <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
+      <c r="A17" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="132" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="203"/>
+    </row>
+    <row r="18" spans="1:8" ht="41.4">
+      <c r="A18" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="132" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="202" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="203"/>
+    </row>
+    <row r="19" spans="1:8" ht="27.6">
+      <c r="A19" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="131" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="133" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="132" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="202" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="203"/>
+    </row>
+    <row r="20" spans="1:8" ht="27.6">
+      <c r="A20" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="131" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="133" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="203"/>
+    </row>
+    <row r="21" spans="1:8" ht="27.6">
+      <c r="A21" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="131" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="133" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="G21" s="202" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="136" t="s">
+      <c r="H21" s="203"/>
+    </row>
+    <row r="22" spans="1:8" ht="27.6">
+      <c r="A22" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="131" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="138" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="138" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="214" t="s">
+      <c r="E22" s="133" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="216"/>
-    </row>
-    <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
-      <c r="A17" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="136" t="s">
+      <c r="F22" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="G22" s="202" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="H22" s="203"/>
+    </row>
+    <row r="23" spans="1:8" ht="27.6">
+      <c r="A23" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="134" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="137" t="s">
+      <c r="E23" s="133" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="214" t="s">
+      <c r="F23" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="H17" s="216"/>
-    </row>
-    <row r="18" spans="1:8" ht="41.4">
-      <c r="A18" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="136" t="s">
+      <c r="G23" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="H23" s="203"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.8">
+      <c r="A24" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="C24" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="137" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="137" t="s">
+      <c r="E24" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="214" t="s">
+      <c r="F24" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H18" s="216"/>
-    </row>
-    <row r="19" spans="1:8" ht="27.6">
-      <c r="A19" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="136" t="s">
+      <c r="G24" s="202" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="H24" s="203"/>
+    </row>
+    <row r="25" spans="1:8" ht="27.6">
+      <c r="A25" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="136" t="s">
+      <c r="C25" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="138" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="137" t="s">
+      <c r="E25" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="214" t="s">
+      <c r="F25" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="H19" s="216"/>
-    </row>
-    <row r="20" spans="1:8" ht="27.6">
-      <c r="A20" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="136" t="s">
+      <c r="G25" s="202" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="H25" s="203"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.8">
+      <c r="A26" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="D20" s="136" t="s">
+      <c r="C26" s="131" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="138" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="137" t="s">
+      <c r="E26" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="G20" s="214" t="s">
+      <c r="F26" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="216"/>
-    </row>
-    <row r="21" spans="1:8" ht="27.6">
-      <c r="A21" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="136" t="s">
+      <c r="G26" s="202" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="H26" s="203"/>
+    </row>
+    <row r="27" spans="1:8" ht="27.6">
+      <c r="A27" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="C27" s="131" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="138" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="137" t="s">
+      <c r="E27" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="214" t="s">
+      <c r="F27" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="216"/>
-    </row>
-    <row r="22" spans="1:8" ht="27.6">
-      <c r="A22" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="136" t="s">
+      <c r="G27" s="202" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="H27" s="203"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.8">
+      <c r="A28" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="C28" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="137" t="s">
+      <c r="E28" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="214" t="s">
+      <c r="F28" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="216"/>
-    </row>
-    <row r="23" spans="1:8" ht="27.6">
-      <c r="A23" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="139" t="s">
+      <c r="G28" s="202" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="H28" s="203"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.8">
+      <c r="A29" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="138" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="214" t="s">
+      <c r="E29" s="133" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="216"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.8">
-      <c r="A24" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="136" t="s">
+      <c r="F29" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="G29" s="202" t="s">
         <v>211</v>
       </c>
-      <c r="D24" s="136" t="s">
+      <c r="H29" s="203"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.8">
+      <c r="A30" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="131" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="138" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="214" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" s="216"/>
-    </row>
-    <row r="25" spans="1:8" ht="27.6">
-      <c r="A25" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="139" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="138" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="138" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" s="214" t="s">
-        <v>219</v>
-      </c>
-      <c r="H25" s="216"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.8">
-      <c r="A26" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="136" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="136" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="138" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="138" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="214" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" s="216"/>
-    </row>
-    <row r="27" spans="1:8" ht="27.6">
-      <c r="A27" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="137" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27" s="214" t="s">
-        <v>229</v>
-      </c>
-      <c r="H27" s="216"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.8">
-      <c r="A28" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="136" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="136" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="138" t="s">
-        <v>232</v>
-      </c>
-      <c r="F28" s="138" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="214" t="s">
-        <v>234</v>
-      </c>
-      <c r="H28" s="216"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.8">
-      <c r="A29" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="136" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="136" t="s">
-        <v>236</v>
-      </c>
-      <c r="D29" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="138" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="138" t="s">
-        <v>238</v>
-      </c>
-      <c r="G29" s="214" t="s">
-        <v>239</v>
-      </c>
-      <c r="H29" s="216"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.8">
-      <c r="A30" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="216"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -35896,21 +35873,6 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -35930,7 +35892,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="186"/>
+    <col min="1" max="16384" width="11.5546875" style="181"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35956,55 +35918,55 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" s="16"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="217" t="str">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="212" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="218"/>
-      <c r="M1" s="219"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="214"/>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="220">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="215">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="221"/>
-      <c r="M2" s="222"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="217"/>
     </row>
     <row r="3" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="223" t="str">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="218" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="225"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="220"/>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -36142,8 +36104,8 @@
   </sheetPr>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -36154,55 +36116,55 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999">
       <c r="A1" s="16"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="217" t="str">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="212" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="218"/>
-      <c r="M1" s="219"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="214"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="220">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="215">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="221"/>
-      <c r="M2" s="222"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="217"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="223" t="str">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="218" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="225"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="220"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37032,8 +36994,8 @@
   </sheetPr>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -37044,58 +37006,58 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999">
       <c r="A1" s="16"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="217" t="str">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="212" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="226"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="219"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="214"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="220">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="215">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="227"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="223" t="str">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="218" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="228"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="225"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="220"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37448,327 +37410,204 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="3:13" ht="17.399999999999999" customHeight="1">
-      <c r="C53" s="229" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="230"/>
-      <c r="E53" s="231"/>
-      <c r="F53" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="I53" s="103" t="s">
-        <v>85</v>
-      </c>
+      <c r="C53" s="289"/>
+      <c r="D53" s="289"/>
+      <c r="E53" s="289"/>
+      <c r="F53" s="290"/>
+      <c r="G53" s="290"/>
+      <c r="H53" s="290"/>
+      <c r="I53" s="290"/>
+      <c r="J53" s="291"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
     </row>
     <row r="54" spans="3:13" ht="17.399999999999999">
-      <c r="C54" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="17"/>
+      <c r="C54" s="291"/>
+      <c r="D54" s="292"/>
+      <c r="E54" s="292"/>
+      <c r="F54" s="292"/>
+      <c r="G54" s="292"/>
+      <c r="H54" s="292"/>
+      <c r="I54" s="292"/>
+      <c r="J54" s="292"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
     </row>
     <row r="55" spans="3:13" ht="17.399999999999999">
-      <c r="C55" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="107"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="17"/>
+      <c r="C55" s="291"/>
+      <c r="D55" s="292"/>
+      <c r="E55" s="292"/>
+      <c r="F55" s="292"/>
+      <c r="G55" s="292"/>
+      <c r="H55" s="292"/>
+      <c r="I55" s="292"/>
+      <c r="J55" s="292"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="3:13" ht="17.399999999999999">
-      <c r="C56" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="17"/>
+      <c r="C56" s="291"/>
+      <c r="D56" s="292"/>
+      <c r="E56" s="292"/>
+      <c r="F56" s="292"/>
+      <c r="G56" s="292"/>
+      <c r="H56" s="292"/>
+      <c r="I56" s="292"/>
+      <c r="J56" s="292"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
     </row>
     <row r="57" spans="3:13" ht="17.399999999999999">
-      <c r="C57" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="107"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="H57" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="J57" s="17"/>
+      <c r="C57" s="291"/>
+      <c r="D57" s="292"/>
+      <c r="E57" s="292"/>
+      <c r="F57" s="292"/>
+      <c r="G57" s="292"/>
+      <c r="H57" s="292"/>
+      <c r="I57" s="292"/>
+      <c r="J57" s="292"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="3:13" ht="17.399999999999999">
-      <c r="C58" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="107"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="J58" s="17"/>
+      <c r="C58" s="291"/>
+      <c r="D58" s="292"/>
+      <c r="E58" s="292"/>
+      <c r="F58" s="292"/>
+      <c r="G58" s="292"/>
+      <c r="H58" s="292"/>
+      <c r="I58" s="292"/>
+      <c r="J58" s="292"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="3:13" ht="17.399999999999999">
-      <c r="C59" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="107"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13">
-      <c r="C61" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13">
-      <c r="C62" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13">
-      <c r="C63" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16" ht="39.6">
-      <c r="C67" s="229" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="232"/>
-      <c r="E67" s="233"/>
-      <c r="F67" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="G67" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="H67" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="I67" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="J67" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="K67" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="L67" s="103" t="s">
-        <v>139</v>
-      </c>
-      <c r="M67" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="N67" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="O67" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="P67" s="103" t="s">
-        <v>141</v>
-      </c>
+      <c r="C59" s="291"/>
+      <c r="D59" s="292"/>
+      <c r="E59" s="292"/>
+      <c r="F59" s="292"/>
+      <c r="G59" s="292"/>
+      <c r="H59" s="292"/>
+      <c r="I59" s="292"/>
+      <c r="J59" s="291"/>
+    </row>
+    <row r="67" spans="3:16">
+      <c r="C67" s="289"/>
+      <c r="D67" s="293"/>
+      <c r="E67" s="293"/>
+      <c r="F67" s="290"/>
+      <c r="G67" s="290"/>
+      <c r="H67" s="290"/>
+      <c r="I67" s="290"/>
+      <c r="J67" s="290"/>
+      <c r="K67" s="290"/>
+      <c r="L67" s="290"/>
+      <c r="M67" s="290"/>
+      <c r="N67" s="290"/>
+      <c r="O67" s="290"/>
+      <c r="P67" s="290"/>
     </row>
     <row r="68" spans="3:16" ht="17.399999999999999">
-      <c r="C68" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="107"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104"/>
-      <c r="K68" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="L68" s="104"/>
-      <c r="M68" s="104"/>
-      <c r="N68" s="104"/>
-      <c r="O68" s="104"/>
-      <c r="P68" s="104"/>
+      <c r="C68" s="291"/>
+      <c r="D68" s="292"/>
+      <c r="E68" s="292"/>
+      <c r="F68" s="292"/>
+      <c r="G68" s="292"/>
+      <c r="H68" s="292"/>
+      <c r="I68" s="292"/>
+      <c r="J68" s="292"/>
+      <c r="K68" s="292"/>
+      <c r="L68" s="292"/>
+      <c r="M68" s="292"/>
+      <c r="N68" s="292"/>
+      <c r="O68" s="292"/>
+      <c r="P68" s="292"/>
     </row>
     <row r="69" spans="3:16" ht="17.399999999999999">
-      <c r="C69" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="107"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="104"/>
-      <c r="K69" s="104"/>
-      <c r="L69" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="M69" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="N69" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="O69" s="104"/>
-      <c r="P69" s="104"/>
+      <c r="C69" s="291"/>
+      <c r="D69" s="292"/>
+      <c r="E69" s="292"/>
+      <c r="F69" s="292"/>
+      <c r="G69" s="292"/>
+      <c r="H69" s="292"/>
+      <c r="I69" s="292"/>
+      <c r="J69" s="292"/>
+      <c r="K69" s="292"/>
+      <c r="L69" s="292"/>
+      <c r="M69" s="292"/>
+      <c r="N69" s="292"/>
+      <c r="O69" s="292"/>
+      <c r="P69" s="292"/>
     </row>
     <row r="70" spans="3:16" ht="17.399999999999999">
-      <c r="C70" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" s="107"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="104"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="104"/>
-      <c r="J70" s="104"/>
-      <c r="K70" s="104"/>
-      <c r="L70" s="104"/>
-      <c r="M70" s="104"/>
-      <c r="N70" s="104"/>
-      <c r="O70" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="P70" s="104" t="s">
-        <v>128</v>
-      </c>
+      <c r="C70" s="291"/>
+      <c r="D70" s="292"/>
+      <c r="E70" s="292"/>
+      <c r="F70" s="292"/>
+      <c r="G70" s="292"/>
+      <c r="H70" s="292"/>
+      <c r="I70" s="292"/>
+      <c r="J70" s="292"/>
+      <c r="K70" s="292"/>
+      <c r="L70" s="292"/>
+      <c r="M70" s="292"/>
+      <c r="N70" s="292"/>
+      <c r="O70" s="292"/>
+      <c r="P70" s="292"/>
     </row>
     <row r="71" spans="3:16" ht="17.399999999999999">
-      <c r="C71" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="107"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="G71" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="I71" s="104"/>
-      <c r="J71" s="104"/>
-      <c r="K71" s="104"/>
-      <c r="L71" s="104"/>
-      <c r="M71" s="104"/>
-      <c r="N71" s="104"/>
-      <c r="O71" s="104"/>
-      <c r="P71" s="104" t="s">
-        <v>128</v>
-      </c>
+      <c r="C71" s="291"/>
+      <c r="D71" s="292"/>
+      <c r="E71" s="292"/>
+      <c r="F71" s="292"/>
+      <c r="G71" s="292"/>
+      <c r="H71" s="292"/>
+      <c r="I71" s="292"/>
+      <c r="J71" s="292"/>
+      <c r="K71" s="292"/>
+      <c r="L71" s="292"/>
+      <c r="M71" s="292"/>
+      <c r="N71" s="292"/>
+      <c r="O71" s="292"/>
+      <c r="P71" s="292"/>
     </row>
     <row r="72" spans="3:16" ht="17.399999999999999">
-      <c r="C72" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="D72" s="107"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="104"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="104"/>
-      <c r="I72" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="J72" s="104"/>
-      <c r="K72" s="104"/>
-      <c r="L72" s="104"/>
-      <c r="M72" s="104"/>
-      <c r="N72" s="104"/>
-      <c r="O72" s="104"/>
-      <c r="P72" s="104" t="s">
-        <v>128</v>
-      </c>
+      <c r="C72" s="291"/>
+      <c r="D72" s="292"/>
+      <c r="E72" s="292"/>
+      <c r="F72" s="292"/>
+      <c r="G72" s="292"/>
+      <c r="H72" s="292"/>
+      <c r="I72" s="292"/>
+      <c r="J72" s="292"/>
+      <c r="K72" s="292"/>
+      <c r="L72" s="292"/>
+      <c r="M72" s="292"/>
+      <c r="N72" s="292"/>
+      <c r="O72" s="292"/>
+      <c r="P72" s="292"/>
     </row>
     <row r="73" spans="3:16" ht="17.399999999999999">
-      <c r="C73" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="107"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="104"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="104"/>
-      <c r="J73" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="K73" s="104"/>
-      <c r="L73" s="104"/>
-      <c r="M73" s="104"/>
-      <c r="N73" s="104"/>
-      <c r="O73" s="104"/>
-      <c r="P73" s="104" t="s">
-        <v>128</v>
-      </c>
+      <c r="C73" s="291"/>
+      <c r="D73" s="292"/>
+      <c r="E73" s="292"/>
+      <c r="F73" s="292"/>
+      <c r="G73" s="292"/>
+      <c r="H73" s="292"/>
+      <c r="I73" s="292"/>
+      <c r="J73" s="292"/>
+      <c r="K73" s="292"/>
+      <c r="L73" s="292"/>
+      <c r="M73" s="292"/>
+      <c r="N73" s="292"/>
+      <c r="O73" s="292"/>
+      <c r="P73" s="292"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -37793,7 +37632,7 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -37814,55 +37653,55 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999">
       <c r="A1" s="16"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="234" t="str">
+      <c r="B1" s="103"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="224" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="226"/>
-      <c r="M1" s="235"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="225"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="220">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="215">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="221"/>
-      <c r="M2" s="222"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="217"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="223" t="str">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="218" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="225"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="220"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37914,26 +37753,26 @@
       <c r="O6"/>
     </row>
     <row r="7" spans="1:15" ht="27.6">
-      <c r="B7" s="142" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="142" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="142" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="143" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="142" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="142" t="s">
-        <v>244</v>
+      <c r="B7" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>216</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -37944,22 +37783,22 @@
       <c r="O7"/>
     </row>
     <row r="8" spans="1:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B8" s="144">
+      <c r="B8" s="139">
         <v>1</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="146">
+      <c r="D8" s="141">
         <v>45915</v>
       </c>
-      <c r="E8" s="146">
+      <c r="E8" s="141">
         <v>46012</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148" t="s">
-        <v>245</v>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143" t="s">
+        <v>217</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -37970,22 +37809,22 @@
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B9" s="149">
+      <c r="B9" s="144">
         <v>2</v>
       </c>
-      <c r="C9" s="150" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" s="151">
+      <c r="C9" s="145" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="146">
         <v>45915</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="146">
         <v>45928</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="153" t="s">
-        <v>247</v>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="148" t="s">
+        <v>219</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -37996,26 +37835,26 @@
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B10" s="154">
+      <c r="B10" s="149">
         <v>3</v>
       </c>
-      <c r="C10" s="155" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="156">
+      <c r="C10" s="150" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="151">
         <v>45915</v>
       </c>
-      <c r="E10" s="156">
+      <c r="E10" s="151">
         <v>45921</v>
       </c>
-      <c r="F10" s="157" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="155" t="s">
-        <v>250</v>
-      </c>
-      <c r="H10" s="157" t="s">
-        <v>251</v>
+      <c r="F10" s="152" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="150" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="152" t="s">
+        <v>223</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -38026,26 +37865,26 @@
       <c r="O10"/>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B11" s="154">
+      <c r="B11" s="149">
         <v>4</v>
       </c>
-      <c r="C11" s="155" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="156">
+      <c r="C11" s="150" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="151">
         <v>45924</v>
       </c>
-      <c r="E11" s="156">
+      <c r="E11" s="151">
         <v>45928</v>
       </c>
-      <c r="F11" s="157">
+      <c r="F11" s="152">
         <v>3</v>
       </c>
-      <c r="G11" s="155" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="157" t="s">
-        <v>254</v>
+      <c r="G11" s="150" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="152" t="s">
+        <v>226</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -38056,22 +37895,22 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B12" s="158">
+      <c r="B12" s="153">
         <v>5</v>
       </c>
-      <c r="C12" s="159" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="160">
+      <c r="C12" s="154" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="155">
         <v>45945</v>
       </c>
-      <c r="E12" s="160">
+      <c r="E12" s="155">
         <v>45956</v>
       </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="163" t="s">
-        <v>256</v>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="158" t="s">
+        <v>228</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -38082,26 +37921,26 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B13" s="154">
+      <c r="B13" s="149">
         <v>6</v>
       </c>
-      <c r="C13" s="155" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="156">
+      <c r="C13" s="150" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="151">
         <v>45945</v>
       </c>
-      <c r="E13" s="156">
+      <c r="E13" s="151">
         <v>45945</v>
       </c>
-      <c r="F13" s="157" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H13" s="157" t="s">
-        <v>259</v>
+      <c r="F13" s="152" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="152" t="s">
+        <v>231</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -38112,26 +37951,26 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B14" s="154">
+      <c r="B14" s="149">
         <v>7</v>
       </c>
-      <c r="C14" s="155" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="156">
+      <c r="C14" s="150" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="151">
         <v>45946</v>
       </c>
-      <c r="E14" s="156">
+      <c r="E14" s="151">
         <v>45947</v>
       </c>
-      <c r="F14" s="157">
+      <c r="F14" s="152">
         <v>6</v>
       </c>
-      <c r="G14" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="157" t="s">
-        <v>254</v>
+      <c r="G14" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="152" t="s">
+        <v>226</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -38142,26 +37981,26 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B15" s="154">
+      <c r="B15" s="149">
         <v>8</v>
       </c>
-      <c r="C15" s="155" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="156">
+      <c r="C15" s="150" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="151">
         <v>45948</v>
       </c>
-      <c r="E15" s="156">
+      <c r="E15" s="151">
         <v>45951</v>
       </c>
-      <c r="F15" s="157">
+      <c r="F15" s="152">
         <v>7</v>
       </c>
-      <c r="G15" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H15" s="157" t="s">
-        <v>254</v>
+      <c r="G15" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="152" t="s">
+        <v>226</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -38172,26 +38011,26 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B16" s="154">
+      <c r="B16" s="149">
         <v>9</v>
       </c>
-      <c r="C16" s="155" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="156">
+      <c r="C16" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="151">
         <v>45952</v>
       </c>
-      <c r="E16" s="156">
+      <c r="E16" s="151">
         <v>45954</v>
       </c>
-      <c r="F16" s="157">
+      <c r="F16" s="152">
         <v>7</v>
       </c>
-      <c r="G16" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H16" s="157" t="s">
-        <v>251</v>
+      <c r="G16" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="152" t="s">
+        <v>223</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -38202,26 +38041,26 @@
       <c r="O16"/>
     </row>
     <row r="17" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B17" s="154">
+      <c r="B17" s="149">
         <v>10</v>
       </c>
-      <c r="C17" s="155" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="156">
+      <c r="C17" s="150" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="151">
         <v>45955</v>
       </c>
-      <c r="E17" s="156">
+      <c r="E17" s="151">
         <v>45955</v>
       </c>
-      <c r="F17" s="157" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="155" t="s">
-        <v>265</v>
-      </c>
-      <c r="H17" s="157" t="s">
-        <v>266</v>
+      <c r="F17" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="150" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="152" t="s">
+        <v>238</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -38232,26 +38071,26 @@
       <c r="O17"/>
     </row>
     <row r="18" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B18" s="154">
+      <c r="B18" s="149">
         <v>11</v>
       </c>
-      <c r="C18" s="155" t="s">
-        <v>267</v>
-      </c>
-      <c r="D18" s="156">
+      <c r="C18" s="150" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="151">
         <v>45956</v>
       </c>
-      <c r="E18" s="156">
+      <c r="E18" s="151">
         <v>45956</v>
       </c>
-      <c r="F18" s="157" t="s">
-        <v>268</v>
-      </c>
-      <c r="G18" s="155" t="s">
-        <v>269</v>
-      </c>
-      <c r="H18" s="157" t="s">
-        <v>266</v>
+      <c r="F18" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="150" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="152" t="s">
+        <v>238</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -38262,26 +38101,26 @@
       <c r="O18"/>
     </row>
     <row r="19" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B19" s="154">
+      <c r="B19" s="149">
         <v>12</v>
       </c>
-      <c r="C19" s="155" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="156">
+      <c r="C19" s="150" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="151">
         <v>45956</v>
       </c>
-      <c r="E19" s="156">
+      <c r="E19" s="151">
         <v>45956</v>
       </c>
-      <c r="F19" s="157" t="s">
-        <v>271</v>
-      </c>
-      <c r="G19" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H19" s="157" t="s">
-        <v>272</v>
+      <c r="F19" s="152" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="152" t="s">
+        <v>244</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -38292,22 +38131,22 @@
       <c r="O19"/>
     </row>
     <row r="20" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B20" s="158">
+      <c r="B20" s="153">
         <v>13</v>
       </c>
-      <c r="C20" s="159" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="160">
+      <c r="C20" s="154" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="155">
         <v>45976</v>
       </c>
-      <c r="E20" s="160">
+      <c r="E20" s="155">
         <v>45984</v>
       </c>
-      <c r="F20" s="161"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="163" t="s">
-        <v>274</v>
+      <c r="F20" s="156"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="158" t="s">
+        <v>246</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -38318,26 +38157,26 @@
       <c r="O20"/>
     </row>
     <row r="21" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B21" s="154">
+      <c r="B21" s="149">
         <v>14</v>
       </c>
-      <c r="C21" s="155" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="156">
+      <c r="C21" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="151">
         <v>45976</v>
       </c>
-      <c r="E21" s="156">
+      <c r="E21" s="151">
         <v>45977</v>
       </c>
-      <c r="F21" s="157">
+      <c r="F21" s="152">
         <v>7</v>
       </c>
-      <c r="G21" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H21" s="157" t="s">
-        <v>251</v>
+      <c r="G21" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="152" t="s">
+        <v>223</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -38348,26 +38187,26 @@
       <c r="O21"/>
     </row>
     <row r="22" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B22" s="154">
+      <c r="B22" s="149">
         <v>15</v>
       </c>
-      <c r="C22" s="155" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="156">
+      <c r="C22" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="151">
         <v>45977</v>
       </c>
-      <c r="E22" s="156">
+      <c r="E22" s="151">
         <v>45979</v>
       </c>
-      <c r="F22" s="157" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H22" s="157" t="s">
-        <v>278</v>
+      <c r="F22" s="152" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="152" t="s">
+        <v>250</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -38378,26 +38217,26 @@
       <c r="O22"/>
     </row>
     <row r="23" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B23" s="154">
+      <c r="B23" s="149">
         <v>16</v>
       </c>
-      <c r="C23" s="155" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="156">
+      <c r="C23" s="150" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="151">
         <v>45980</v>
       </c>
-      <c r="E23" s="156">
+      <c r="E23" s="151">
         <v>45981</v>
       </c>
-      <c r="F23" s="157" t="s">
-        <v>280</v>
-      </c>
-      <c r="G23" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H23" s="157" t="s">
-        <v>254</v>
+      <c r="F23" s="152" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="152" t="s">
+        <v>226</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -38408,26 +38247,26 @@
       <c r="O23"/>
     </row>
     <row r="24" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B24" s="154">
+      <c r="B24" s="149">
         <v>17</v>
       </c>
-      <c r="C24" s="155" t="s">
-        <v>281</v>
-      </c>
-      <c r="D24" s="156">
+      <c r="C24" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="151">
         <v>45982</v>
       </c>
-      <c r="E24" s="156">
+      <c r="E24" s="151">
         <v>45982</v>
       </c>
-      <c r="F24" s="157" t="s">
-        <v>282</v>
-      </c>
-      <c r="G24" s="155" t="s">
-        <v>269</v>
-      </c>
-      <c r="H24" s="157" t="s">
-        <v>266</v>
+      <c r="F24" s="152" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="150" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" s="152" t="s">
+        <v>238</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -38438,26 +38277,26 @@
       <c r="O24"/>
     </row>
     <row r="25" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B25" s="154">
+      <c r="B25" s="149">
         <v>18</v>
       </c>
-      <c r="C25" s="155" t="s">
-        <v>283</v>
-      </c>
-      <c r="D25" s="156">
+      <c r="C25" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="151">
         <v>45983</v>
       </c>
-      <c r="E25" s="156">
+      <c r="E25" s="151">
         <v>45983</v>
       </c>
-      <c r="F25" s="157" t="s">
-        <v>284</v>
-      </c>
-      <c r="G25" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H25" s="157" t="s">
-        <v>266</v>
+      <c r="F25" s="152" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="152" t="s">
+        <v>238</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -38468,22 +38307,22 @@
       <c r="O25"/>
     </row>
     <row r="26" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B26" s="158">
+      <c r="B26" s="153">
         <v>19</v>
       </c>
-      <c r="C26" s="159" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" s="160">
+      <c r="C26" s="154" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="155">
         <v>46001</v>
       </c>
-      <c r="E26" s="160">
+      <c r="E26" s="155">
         <v>46012</v>
       </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="163" t="s">
-        <v>286</v>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="158" t="s">
+        <v>258</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -38494,26 +38333,26 @@
       <c r="O26"/>
     </row>
     <row r="27" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B27" s="154">
+      <c r="B27" s="149">
         <v>20</v>
       </c>
-      <c r="C27" s="155" t="s">
-        <v>287</v>
-      </c>
-      <c r="D27" s="156">
+      <c r="C27" s="150" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="151">
         <v>46001</v>
       </c>
-      <c r="E27" s="156">
+      <c r="E27" s="151">
         <v>45941</v>
       </c>
-      <c r="F27" s="157" t="s">
-        <v>288</v>
-      </c>
-      <c r="G27" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H27" s="157" t="s">
-        <v>251</v>
+      <c r="F27" s="152" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="152" t="s">
+        <v>223</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -38524,26 +38363,26 @@
       <c r="O27"/>
     </row>
     <row r="28" spans="2:15" ht="28.8" customHeight="1">
-      <c r="B28" s="236">
+      <c r="B28" s="226">
         <v>21</v>
       </c>
-      <c r="C28" s="238" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28" s="240">
+      <c r="C28" s="228" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="230">
         <v>46003</v>
       </c>
-      <c r="E28" s="240">
+      <c r="E28" s="230">
         <v>45943</v>
       </c>
-      <c r="F28" s="164" t="s">
-        <v>290</v>
-      </c>
-      <c r="G28" s="238" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="236" t="s">
-        <v>251</v>
+      <c r="F28" s="159" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="228" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" s="226" t="s">
+        <v>223</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -38554,15 +38393,15 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B29" s="237"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="157" t="s">
-        <v>291</v>
-      </c>
-      <c r="G29" s="239"/>
-      <c r="H29" s="237"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="152" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" s="229"/>
+      <c r="H29" s="227"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -38572,26 +38411,26 @@
       <c r="O29"/>
     </row>
     <row r="30" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B30" s="154">
+      <c r="B30" s="149">
         <v>22</v>
       </c>
-      <c r="C30" s="155" t="s">
-        <v>292</v>
-      </c>
-      <c r="D30" s="156">
+      <c r="C30" s="150" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="151">
         <v>46003</v>
       </c>
-      <c r="E30" s="156">
+      <c r="E30" s="151">
         <v>45943</v>
       </c>
-      <c r="F30" s="157" t="s">
-        <v>249</v>
-      </c>
-      <c r="G30" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>278</v>
+      <c r="F30" s="152" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="152" t="s">
+        <v>250</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -38602,26 +38441,26 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B31" s="154">
+      <c r="B31" s="149">
         <v>23</v>
       </c>
-      <c r="C31" s="155" t="s">
-        <v>293</v>
-      </c>
-      <c r="D31" s="156">
+      <c r="C31" s="150" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="151">
         <v>46006</v>
       </c>
-      <c r="E31" s="156">
+      <c r="E31" s="151">
         <v>45946</v>
       </c>
-      <c r="F31" s="157" t="s">
-        <v>249</v>
-      </c>
-      <c r="G31" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H31" s="157" t="s">
-        <v>251</v>
+      <c r="F31" s="152" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="152" t="s">
+        <v>223</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -38632,26 +38471,26 @@
       <c r="O31"/>
     </row>
     <row r="32" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B32" s="154">
+      <c r="B32" s="149">
         <v>24</v>
       </c>
-      <c r="C32" s="155" t="s">
-        <v>294</v>
-      </c>
-      <c r="D32" s="156">
+      <c r="C32" s="150" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="151">
         <v>46009</v>
       </c>
-      <c r="E32" s="156">
+      <c r="E32" s="151">
         <v>45950</v>
       </c>
-      <c r="F32" s="157" t="s">
-        <v>295</v>
-      </c>
-      <c r="G32" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="H32" s="157" t="s">
-        <v>251</v>
+      <c r="F32" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="152" t="s">
+        <v>223</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -38755,49 +38594,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="251" t="str">
+      <c r="A1" s="241" t="str">
         <f>"Risques / opportunités au "&amp;TEXT(F2,"jj/MM/AAAA")</f>
         <v>Risques / opportunités au 25/09/Freitag</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="242" t="str">
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="232" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="244"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="234"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="253"/>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="245">
+      <c r="A2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="235">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="247"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="237"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="255"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="248" t="str">
+      <c r="A3" s="245"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="238" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="250"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="240"/>
     </row>
     <row r="4" spans="1:9">
       <c r="F4" s="31"/>
@@ -38831,7 +38670,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H6" s="52" t="s">
         <v>16</v>
@@ -38943,7 +38782,7 @@
     <row r="14" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="15" spans="1:9" ht="55.2">
       <c r="A15" s="54" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>11</v>
@@ -38961,7 +38800,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H15" s="52" t="s">
         <v>16</v>
@@ -39091,8 +38930,8 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -39105,8 +38944,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999">
-      <c r="A1" s="114"/>
-      <c r="B1" s="115" t="str">
+      <c r="A1" s="109"/>
+      <c r="B1" s="110" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
@@ -39121,8 +38960,8 @@
       <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117">
+      <c r="A2" s="111"/>
+      <c r="B2" s="112">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
@@ -39137,8 +38976,8 @@
       <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="119" t="str">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
@@ -39169,33 +39008,33 @@
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1">
       <c r="A6" s="47" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="179" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="46.8" outlineLevel="1">
-      <c r="A8" s="121" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="121" t="s">
-        <v>300</v>
+      <c r="A8" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" outlineLevel="1">
-      <c r="A9" s="121"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
     </row>
     <row r="10" spans="1:11" ht="15.6" outlineLevel="1">
-      <c r="A10" s="121"/>
-      <c r="B10" s="121"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
       <c r="A11" s="32"/>
@@ -39207,31 +39046,31 @@
     </row>
     <row r="13" spans="1:11" ht="18" thickBot="1">
       <c r="A13" s="47" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:11" ht="24" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A14" s="183" t="s">
+      <c r="A14" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="179" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="31.2" outlineLevel="1">
-      <c r="A15" s="121" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" s="121"/>
+      <c r="A15" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="116"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" outlineLevel="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
     </row>
     <row r="17" spans="1:2" ht="15.6" outlineLevel="1">
-      <c r="A17" s="121"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="116"/>
     </row>
     <row r="18" spans="1:2" ht="15" outlineLevel="1">
       <c r="A18" s="32"/>
@@ -39243,29 +39082,29 @@
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1">
       <c r="A20" s="47" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="179" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="116"/>
     </row>
     <row r="23" spans="1:2" ht="15.6">
-      <c r="A23" s="121"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
     </row>
     <row r="24" spans="1:2" ht="15.6">
-      <c r="A24" s="121"/>
-      <c r="B24" s="121"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="32"/>
@@ -39277,29 +39116,29 @@
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1">
       <c r="A27" s="47" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="B27" s="48"/>
     </row>
     <row r="28" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="185" t="s">
+      <c r="B28" s="180" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
     </row>
     <row r="30" spans="1:2" ht="15.6">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
     </row>
     <row r="31" spans="1:2" ht="15.6">
-      <c r="A31" s="121"/>
-      <c r="B31" s="121"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="32"/>
@@ -39311,29 +39150,29 @@
     </row>
     <row r="34" spans="1:2" ht="18" thickBot="1">
       <c r="A34" s="47" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B34" s="48"/>
     </row>
     <row r="35" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A35" s="183" t="s">
+      <c r="A35" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="185" t="s">
+      <c r="B35" s="180" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6">
-      <c r="A36" s="121"/>
-      <c r="B36" s="121"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="116"/>
     </row>
     <row r="37" spans="1:2" ht="15.6">
-      <c r="A37" s="121"/>
-      <c r="B37" s="121"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
     </row>
     <row r="38" spans="1:2" ht="15.6">
-      <c r="A38" s="121"/>
-      <c r="B38" s="121"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="116"/>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="32"/>
@@ -39345,29 +39184,31 @@
     </row>
     <row r="41" spans="1:2" ht="18" thickBot="1">
       <c r="A41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" s="48"/>
+    </row>
+    <row r="42" spans="1:2" ht="16.2" thickBot="1">
+      <c r="A42" s="178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.6">
+      <c r="A43" s="116"/>
+      <c r="B43" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="B41" s="48"/>
-    </row>
-    <row r="42" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A42" s="183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="185" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.6">
-      <c r="A43" s="121"/>
-      <c r="B43" s="121"/>
     </row>
     <row r="44" spans="1:2" ht="15.6">
-      <c r="A44" s="121"/>
-      <c r="B44" s="121"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="116"/>
     </row>
     <row r="45" spans="1:2" ht="15.6">
-      <c r="A45" s="121"/>
-      <c r="B45" s="121"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="116"/>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="32"/>
@@ -39379,29 +39220,29 @@
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1">
       <c r="A48" s="47" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="B48" s="48"/>
     </row>
     <row r="49" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="185" t="s">
+      <c r="B49" s="180" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6">
-      <c r="A50" s="121"/>
-      <c r="B50" s="121"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="116"/>
     </row>
     <row r="51" spans="1:2" ht="15.6">
-      <c r="A51" s="121"/>
-      <c r="B51" s="121"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="116"/>
     </row>
     <row r="52" spans="1:2" ht="15.6">
-      <c r="A52" s="121"/>
-      <c r="B52" s="121"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="116"/>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="32"/>
@@ -39413,29 +39254,29 @@
     </row>
     <row r="55" spans="1:2" ht="18" thickBot="1">
       <c r="A55" s="47" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="B55" s="48"/>
     </row>
     <row r="56" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A56" s="183" t="s">
+      <c r="A56" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="185" t="s">
+      <c r="B56" s="180" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6">
-      <c r="A57" s="121"/>
-      <c r="B57" s="121"/>
+      <c r="A57" s="116"/>
+      <c r="B57" s="116"/>
     </row>
     <row r="58" spans="1:2" ht="15.6">
-      <c r="A58" s="121"/>
-      <c r="B58" s="121"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
     </row>
     <row r="59" spans="1:2" ht="15.6">
-      <c r="A59" s="121"/>
-      <c r="B59" s="121"/>
+      <c r="A59" s="116"/>
+      <c r="B59" s="116"/>
     </row>
     <row r="60" spans="1:2" ht="15">
       <c r="A60" s="32"/>
@@ -39447,29 +39288,29 @@
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1">
       <c r="A62" s="47" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="B62" s="48"/>
     </row>
     <row r="63" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A63" s="183" t="s">
+      <c r="A63" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="185" t="s">
+      <c r="B63" s="180" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6">
-      <c r="A64" s="121"/>
-      <c r="B64" s="121"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="116"/>
     </row>
     <row r="65" spans="1:2" ht="15.6">
-      <c r="A65" s="121"/>
-      <c r="B65" s="121"/>
+      <c r="A65" s="116"/>
+      <c r="B65" s="116"/>
     </row>
     <row r="66" spans="1:2" ht="15.6">
-      <c r="A66" s="121"/>
-      <c r="B66" s="121"/>
+      <c r="A66" s="116"/>
+      <c r="B66" s="116"/>
     </row>
     <row r="67" spans="1:2" ht="15">
       <c r="A67" s="32"/>
@@ -39481,29 +39322,29 @@
     </row>
     <row r="69" spans="1:2" ht="18" thickBot="1">
       <c r="A69" s="47" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="B69" s="48"/>
     </row>
     <row r="70" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A70" s="183" t="s">
+      <c r="A70" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="185" t="s">
+      <c r="B70" s="180" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6">
-      <c r="A71" s="121"/>
-      <c r="B71" s="121"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="116"/>
     </row>
     <row r="72" spans="1:2" ht="15.6">
-      <c r="A72" s="121"/>
-      <c r="B72" s="121"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="116"/>
     </row>
     <row r="73" spans="1:2" ht="15.6">
-      <c r="A73" s="121"/>
-      <c r="B73" s="121"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="116"/>
     </row>
     <row r="74" spans="1:2" ht="15">
       <c r="A74" s="32"/>
@@ -39515,29 +39356,29 @@
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1">
       <c r="A76" s="47" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B76" s="48"/>
     </row>
     <row r="77" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A77" s="183" t="s">
+      <c r="A77" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="185" t="s">
+      <c r="B77" s="180" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.6">
-      <c r="A78" s="121"/>
-      <c r="B78" s="121"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="116"/>
     </row>
     <row r="79" spans="1:2" ht="15.6">
-      <c r="A79" s="121"/>
-      <c r="B79" s="121"/>
+      <c r="A79" s="116"/>
+      <c r="B79" s="116"/>
     </row>
     <row r="80" spans="1:2" ht="15.6">
-      <c r="A80" s="121"/>
-      <c r="B80" s="121"/>
+      <c r="A80" s="116"/>
+      <c r="B80" s="116"/>
     </row>
     <row r="81" spans="1:2" ht="15">
       <c r="A81" s="32"/>

--- a/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17061E92-1A36-4154-9486-DEAE2F4EC0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78115CA-BBB6-4DD5-B98E-C85C97C13B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6856,7 +6856,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7392,6 +7392,36 @@
     <xf numFmtId="14" fontId="16" fillId="65" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7419,66 +7449,39 @@
     <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7515,6 +7518,10 @@
     <xf numFmtId="14" fontId="4" fillId="68" borderId="21" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7668,6 +7675,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -7677,27 +7705,6 @@
     <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7710,17 +7717,6 @@
     <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="946" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1319">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -24269,11 +24265,11 @@
       <c r="I1" s="122"/>
       <c r="J1" s="122"/>
       <c r="K1" s="122"/>
-      <c r="L1" s="183" t="s">
+      <c r="L1" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="184"/>
-      <c r="N1" s="185"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="195"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24287,11 +24283,11 @@
       <c r="I2" s="124"/>
       <c r="J2" s="124"/>
       <c r="K2" s="124"/>
-      <c r="L2" s="186">
+      <c r="L2" s="196">
         <v>45912</v>
       </c>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="125"/>
@@ -24304,34 +24300,34 @@
       <c r="I3" s="126"/>
       <c r="J3" s="126"/>
       <c r="K3" s="126"/>
-      <c r="L3" s="189" t="s">
+      <c r="L3" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="192"/>
+      <c r="C5" s="184"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="193" t="s">
+      <c r="E5" s="202" t="s">
         <v>287</v>
       </c>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24348,23 +24344,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="192"/>
+      <c r="C7" s="184"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="196" t="s">
+      <c r="E7" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="198"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="189"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24382,23 +24378,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="199"/>
+      <c r="C9" s="190"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="200" t="s">
+      <c r="E9" s="191" t="s">
         <v>304</v>
       </c>
-      <c r="F9" s="201"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="201"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
+      <c r="N9" s="192"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24416,23 +24412,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="192"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="200" t="s">
+      <c r="E11" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="192"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24450,23 +24446,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="192"/>
+      <c r="C13" s="184"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="194" t="s">
+      <c r="E13" s="185" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="195"/>
-      <c r="L13" s="195"/>
-      <c r="M13" s="195"/>
-      <c r="N13" s="195"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="186"/>
+      <c r="N13" s="186"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -24490,6 +24486,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -24498,11 +24499,6 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -24544,52 +24540,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A1" s="247" t="str">
+      <c r="A1" s="250" t="str">
         <f>"LISTE DES ACTIONS au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>LISTE DES ACTIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="204" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="203" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="205"/>
+      <c r="J1" s="204"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A2" s="250"/>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="206">
+      <c r="A2" s="253"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="205">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="207"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="253"/>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="208" t="str">
+      <c r="A3" s="256"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="207" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="209"/>
+      <c r="J3" s="208"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -25244,55 +25240,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="261" t="str">
+      <c r="A1" s="264" t="str">
         <f>"LISTE DES DECISIONS au "&amp;TEXT(J2,"jj/mm/aaaa")</f>
         <v>LISTE DES DECISIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="204" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="203" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="205"/>
+      <c r="K1" s="204"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="251"/>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="206">
+      <c r="A2" s="254"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="205">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="207"/>
+      <c r="K2" s="206"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="254"/>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="208" t="str">
+      <c r="A3" s="257"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="207" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="209"/>
+      <c r="K3" s="208"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25304,13 +25300,13 @@
       <c r="A5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="260"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
       <c r="G5" s="94" t="s">
         <v>22</v>
       </c>
@@ -25331,13 +25327,13 @@
       <c r="A6" s="95">
         <v>1</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="259" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
       <c r="G6" s="96" t="s">
         <v>291</v>
       </c>
@@ -25354,11 +25350,11 @@
       <c r="A7" s="95">
         <v>2</v>
       </c>
-      <c r="B7" s="256"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
+      <c r="F7" s="259"/>
       <c r="G7" s="96"/>
       <c r="H7" s="96"/>
       <c r="I7" s="96"/>
@@ -25369,11 +25365,11 @@
       <c r="A8" s="95">
         <v>3</v>
       </c>
-      <c r="B8" s="256"/>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
@@ -25384,11 +25380,11 @@
       <c r="A9" s="95">
         <v>4</v>
       </c>
-      <c r="B9" s="257"/>
-      <c r="C9" s="257"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="260"/>
       <c r="G9" s="99"/>
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
@@ -25399,11 +25395,11 @@
       <c r="A10" s="95">
         <v>5</v>
       </c>
-      <c r="B10" s="257"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
@@ -25414,11 +25410,11 @@
       <c r="A11" s="95">
         <v>6</v>
       </c>
-      <c r="B11" s="257"/>
-      <c r="C11" s="257"/>
-      <c r="D11" s="257"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="257"/>
+      <c r="B11" s="260"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="260"/>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
@@ -25481,52 +25477,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="247" t="str">
+      <c r="A1" s="250" t="str">
         <f>"DOCUMENTS PROJET au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>DOCUMENTS PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="204" t="str">
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="203" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="205"/>
+      <c r="J1" s="204"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="263"/>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="206">
+      <c r="A2" s="266"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="205">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="207"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="266"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="208" t="str">
+      <c r="A3" s="269"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="207" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="209"/>
+      <c r="J3" s="208"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -26093,37 +26089,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="269" t="str">
+      <c r="A1" s="272" t="str">
         <f>"LIVRABLES PROJET au "&amp;TEXT(D2,"jj/mm/aaaa")</f>
         <v>LIVRABLES PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="204" t="str">
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="203" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="205"/>
+      <c r="E1" s="204"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="271"/>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="206">
+      <c r="A2" s="274"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="205">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="207"/>
+      <c r="E2" s="206"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="273"/>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="208" t="str">
+      <c r="A3" s="276"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="207" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="209"/>
+      <c r="E3" s="208"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26289,8 +26285,8 @@
   </sheetPr>
   <dimension ref="A1:AM208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -26314,59 +26310,59 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="16"/>
-      <c r="B1" s="269" t="str">
+      <c r="B1" s="272" t="str">
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
       <c r="C1" s="278"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
       <c r="J1" s="279"/>
-      <c r="K1" s="224" t="str">
+      <c r="K1" s="227" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="221"/>
-      <c r="M1" s="225"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="228"/>
     </row>
     <row r="2" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="271"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
       <c r="J2" s="280"/>
-      <c r="K2" s="215">
+      <c r="K2" s="216">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="216"/>
-      <c r="M2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="218"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="273"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
+      <c r="B3" s="276"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
       <c r="J3" s="281"/>
-      <c r="K3" s="218" t="str">
+      <c r="K3" s="219" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="219"/>
-      <c r="M3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="221"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
@@ -26868,7 +26864,7 @@
         <v>227</v>
       </c>
       <c r="M13" s="175">
-        <v>45943</v>
+        <v>45932</v>
       </c>
       <c r="N13" s="175"/>
       <c r="O13" s="176"/>
@@ -26927,10 +26923,10 @@
         <v>229</v>
       </c>
       <c r="M14" s="172">
-        <v>45943</v>
+        <v>45932</v>
       </c>
       <c r="N14" s="172">
-        <v>45945</v>
+        <v>45934</v>
       </c>
       <c r="O14" s="170"/>
       <c r="P14" s="171" t="s">
@@ -26992,10 +26988,10 @@
         <v>232</v>
       </c>
       <c r="M15" s="172">
-        <v>45943</v>
+        <v>45932</v>
       </c>
       <c r="N15" s="172">
-        <v>45946</v>
+        <v>45935</v>
       </c>
       <c r="O15" s="170">
         <v>6</v>
@@ -27059,10 +27055,10 @@
         <v>233</v>
       </c>
       <c r="M16" s="172">
-        <v>45947</v>
+        <v>45936</v>
       </c>
       <c r="N16" s="172">
-        <v>45950</v>
+        <v>45939</v>
       </c>
       <c r="O16" s="170">
         <v>7</v>
@@ -27126,10 +27122,10 @@
         <v>293</v>
       </c>
       <c r="M17" s="172">
-        <v>45951</v>
+        <v>45940</v>
       </c>
       <c r="N17" s="172">
-        <v>45951</v>
+        <v>45940</v>
       </c>
       <c r="O17" s="170">
         <v>7</v>
@@ -27193,10 +27189,10 @@
         <v>294</v>
       </c>
       <c r="M18" s="172">
-        <v>45952</v>
+        <v>45941</v>
       </c>
       <c r="N18" s="172">
-        <v>45952</v>
+        <v>45941</v>
       </c>
       <c r="O18" s="170" t="s">
         <v>236</v>
@@ -27260,10 +27256,10 @@
         <v>295</v>
       </c>
       <c r="M19" s="172">
-        <v>45952</v>
+        <v>45942</v>
       </c>
       <c r="N19" s="172">
-        <v>45952</v>
+        <v>45942</v>
       </c>
       <c r="O19" s="170" t="s">
         <v>240</v>
@@ -27327,10 +27323,10 @@
         <v>297</v>
       </c>
       <c r="M20" s="172">
-        <v>45953</v>
+        <v>45944</v>
       </c>
       <c r="N20" s="172">
-        <v>45953</v>
+        <v>45944</v>
       </c>
       <c r="O20" s="170" t="s">
         <v>243</v>
@@ -27380,10 +27376,10 @@
         <v>296</v>
       </c>
       <c r="M21" s="172">
-        <v>45955</v>
+        <v>45950</v>
       </c>
       <c r="N21" s="172">
-        <v>45955</v>
+        <v>45950</v>
       </c>
       <c r="O21" s="170"/>
       <c r="P21" s="171" t="s">
@@ -27833,28 +27829,28 @@
     </row>
     <row r="30" spans="1:39" ht="27" customHeight="1">
       <c r="A30"/>
-      <c r="C30" s="275">
+      <c r="C30" s="285">
         <v>21</v>
       </c>
-      <c r="D30" s="276" t="s">
+      <c r="D30" s="286" t="s">
         <v>261</v>
       </c>
-      <c r="E30" s="277">
+      <c r="E30" s="287">
         <v>46003</v>
       </c>
-      <c r="F30" s="277">
+      <c r="F30" s="287">
         <v>45943</v>
       </c>
       <c r="G30" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="H30" s="276" t="s">
+      <c r="H30" s="286" t="s">
         <v>230</v>
       </c>
-      <c r="I30" s="275" t="s">
+      <c r="I30" s="285" t="s">
         <v>223</v>
       </c>
-      <c r="K30" s="275"/>
+      <c r="K30" s="285"/>
       <c r="L30" s="171"/>
       <c r="M30" s="172"/>
       <c r="N30" s="172"/>
@@ -27886,16 +27882,16 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="275"/>
-      <c r="D31" s="276"/>
-      <c r="E31" s="277"/>
-      <c r="F31" s="277"/>
+      <c r="C31" s="285"/>
+      <c r="D31" s="286"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="287"/>
       <c r="G31" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="H31" s="276"/>
-      <c r="I31" s="275"/>
-      <c r="K31" s="275"/>
+      <c r="H31" s="286"/>
+      <c r="I31" s="285"/>
+      <c r="K31" s="285"/>
       <c r="L31" s="171"/>
       <c r="M31" s="172"/>
       <c r="N31" s="172"/>
@@ -34997,12 +34993,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="C30:C31"/>
@@ -35010,6 +35000,12 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="H30:H31"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35045,46 +35041,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="269" t="str">
+      <c r="A1" s="272" t="str">
         <f>"BILAN au "&amp;TEXT(G2,"jj/mm/aaaa")</f>
         <v>BILAN au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="287" t="str">
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="290" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="288"/>
+      <c r="H1" s="291"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="271"/>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="206">
+      <c r="A2" s="274"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="205">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="207"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="273"/>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="208" t="str">
+      <c r="A3" s="276"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="207" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="209"/>
+      <c r="H3" s="208"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35098,24 +35094,24 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="285"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
+      <c r="A7" s="288"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
     </row>
     <row r="8" spans="1:8" ht="87" customHeight="1">
-      <c r="A8" s="285"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
+      <c r="A8" s="288"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="289"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="76" t="s">
@@ -35123,24 +35119,24 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="285"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="286"/>
-      <c r="D10" s="286"/>
-      <c r="E10" s="286"/>
-      <c r="F10" s="286"/>
-      <c r="G10" s="286"/>
-      <c r="H10" s="286"/>
+      <c r="A10" s="288"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
     </row>
     <row r="11" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A11" s="285"/>
-      <c r="B11" s="286"/>
-      <c r="C11" s="286"/>
-      <c r="D11" s="286"/>
-      <c r="E11" s="286"/>
-      <c r="F11" s="286"/>
-      <c r="G11" s="286"/>
-      <c r="H11" s="286"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="289"/>
+      <c r="C11" s="289"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="289"/>
+      <c r="F11" s="289"/>
+      <c r="G11" s="289"/>
+      <c r="H11" s="289"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="76" t="s">
@@ -35148,24 +35144,24 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="285"/>
-      <c r="B13" s="286"/>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="289"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="289"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="289"/>
+      <c r="H13" s="289"/>
     </row>
     <row r="14" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A14" s="285"/>
-      <c r="B14" s="286"/>
-      <c r="C14" s="286"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="286"/>
-      <c r="F14" s="286"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="286"/>
+      <c r="A14" s="288"/>
+      <c r="B14" s="289"/>
+      <c r="C14" s="289"/>
+      <c r="D14" s="289"/>
+      <c r="E14" s="289"/>
+      <c r="F14" s="289"/>
+      <c r="G14" s="289"/>
+      <c r="H14" s="289"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -35256,11 +35252,11 @@
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
-      <c r="G1" s="204" t="str">
+      <c r="G1" s="203" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="205"/>
+      <c r="H1" s="204"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="115"/>
@@ -35269,11 +35265,11 @@
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
       <c r="F2" s="119"/>
-      <c r="G2" s="206">
+      <c r="G2" s="205">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="207"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35282,11 +35278,11 @@
       <c r="D3" s="120"/>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
-      <c r="G3" s="208" t="str">
+      <c r="G3" s="207" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="209"/>
+      <c r="H3" s="208"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35316,16 +35312,16 @@
       <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="209" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35382,7 +35378,7 @@
       <c r="F11" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="202" t="s">
+      <c r="G11" s="210" t="s">
         <v>123</v>
       </c>
       <c r="H11" s="211"/>
@@ -35406,10 +35402,10 @@
       <c r="F12" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="202" t="s">
+      <c r="G12" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="203"/>
+      <c r="H12" s="212"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35435,10 +35431,10 @@
         <v>131</v>
       </c>
       <c r="F13" s="133"/>
-      <c r="G13" s="202" t="s">
+      <c r="G13" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="203"/>
+      <c r="H13" s="212"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="131" t="s">
@@ -35459,10 +35455,10 @@
       <c r="F14" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="202" t="s">
+      <c r="G14" s="210" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="203"/>
+      <c r="H14" s="212"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="131" t="s">
@@ -35483,10 +35479,10 @@
       <c r="F15" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="202" t="s">
+      <c r="G15" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="203"/>
+      <c r="H15" s="212"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35514,10 +35510,10 @@
       <c r="F16" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="202" t="s">
+      <c r="G16" s="210" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="203"/>
+      <c r="H16" s="212"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="131" t="s">
@@ -35538,10 +35534,10 @@
       <c r="F17" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="202" t="s">
+      <c r="G17" s="210" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="203"/>
+      <c r="H17" s="212"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="131" t="s">
@@ -35562,10 +35558,10 @@
       <c r="F18" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="202" t="s">
+      <c r="G18" s="210" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="203"/>
+      <c r="H18" s="212"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="131" t="s">
@@ -35586,10 +35582,10 @@
       <c r="F19" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="202" t="s">
+      <c r="G19" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="203"/>
+      <c r="H19" s="212"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="131" t="s">
@@ -35610,10 +35606,10 @@
       <c r="F20" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="202" t="s">
+      <c r="G20" s="210" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="203"/>
+      <c r="H20" s="212"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="131" t="s">
@@ -35634,10 +35630,10 @@
       <c r="F21" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="202" t="s">
+      <c r="G21" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="203"/>
+      <c r="H21" s="212"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="131" t="s">
@@ -35658,10 +35654,10 @@
       <c r="F22" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="202" t="s">
+      <c r="G22" s="210" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="203"/>
+      <c r="H22" s="212"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="131" t="s">
@@ -35682,10 +35678,10 @@
       <c r="F23" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="202" t="s">
+      <c r="G23" s="210" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="203"/>
+      <c r="H23" s="212"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="131" t="s">
@@ -35706,10 +35702,10 @@
       <c r="F24" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="202" t="s">
+      <c r="G24" s="210" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="203"/>
+      <c r="H24" s="212"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="131" t="s">
@@ -35730,10 +35726,10 @@
       <c r="F25" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="G25" s="202" t="s">
+      <c r="G25" s="210" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="203"/>
+      <c r="H25" s="212"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="131" t="s">
@@ -35754,10 +35750,10 @@
       <c r="F26" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="202" t="s">
+      <c r="G26" s="210" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="203"/>
+      <c r="H26" s="212"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="131" t="s">
@@ -35778,10 +35774,10 @@
       <c r="F27" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="202" t="s">
+      <c r="G27" s="210" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="203"/>
+      <c r="H27" s="212"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="131" t="s">
@@ -35802,10 +35798,10 @@
       <c r="F28" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="202" t="s">
+      <c r="G28" s="210" t="s">
         <v>206</v>
       </c>
-      <c r="H28" s="203"/>
+      <c r="H28" s="212"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="131" t="s">
@@ -35826,10 +35822,10 @@
       <c r="F29" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="202" t="s">
+      <c r="G29" s="210" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="203"/>
+      <c r="H29" s="212"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="131" t="s">
@@ -35844,26 +35840,11 @@
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="203"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -35873,6 +35854,21 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -35927,12 +35923,12 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="212" t="str">
+      <c r="K1" s="213" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="213"/>
-      <c r="M1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="215"/>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -35944,12 +35940,12 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="215">
+      <c r="K2" s="216">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="216"/>
-      <c r="M2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="218"/>
     </row>
     <row r="3" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -35961,12 +35957,12 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="218" t="str">
+      <c r="K3" s="219" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="219"/>
-      <c r="M3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="221"/>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -36125,12 +36121,12 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="212" t="str">
+      <c r="K1" s="213" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="213"/>
-      <c r="M1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="215"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -36142,12 +36138,12 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="215">
+      <c r="K2" s="216">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="216"/>
-      <c r="M2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="218"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -36159,12 +36155,12 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="218" t="str">
+      <c r="K3" s="219" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="219"/>
-      <c r="M3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="221"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37015,13 +37011,13 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="212" t="str">
+      <c r="K1" s="213" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="221"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="214"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="215"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -37033,13 +37029,13 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="215">
+      <c r="K2" s="216">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="222"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="217"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="218"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -37051,13 +37047,13 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="218" t="str">
+      <c r="K3" s="219" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="223"/>
-      <c r="M3" s="219"/>
-      <c r="N3" s="220"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="221"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37410,204 +37406,190 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="3:13" ht="17.399999999999999" customHeight="1">
-      <c r="C53" s="289"/>
-      <c r="D53" s="289"/>
-      <c r="E53" s="289"/>
-      <c r="F53" s="290"/>
-      <c r="G53" s="290"/>
-      <c r="H53" s="290"/>
-      <c r="I53" s="290"/>
-      <c r="J53" s="291"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
+      <c r="E53" s="225"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
+      <c r="I53" s="183"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
     </row>
     <row r="54" spans="3:13" ht="17.399999999999999">
-      <c r="C54" s="291"/>
-      <c r="D54" s="292"/>
-      <c r="E54" s="292"/>
-      <c r="F54" s="292"/>
-      <c r="G54" s="292"/>
-      <c r="H54" s="292"/>
-      <c r="I54" s="292"/>
-      <c r="J54" s="292"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
     </row>
     <row r="55" spans="3:13" ht="17.399999999999999">
-      <c r="C55" s="291"/>
-      <c r="D55" s="292"/>
-      <c r="E55" s="292"/>
-      <c r="F55" s="292"/>
-      <c r="G55" s="292"/>
-      <c r="H55" s="292"/>
-      <c r="I55" s="292"/>
-      <c r="J55" s="292"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="3:13" ht="17.399999999999999">
-      <c r="C56" s="291"/>
-      <c r="D56" s="292"/>
-      <c r="E56" s="292"/>
-      <c r="F56" s="292"/>
-      <c r="G56" s="292"/>
-      <c r="H56" s="292"/>
-      <c r="I56" s="292"/>
-      <c r="J56" s="292"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
     </row>
     <row r="57" spans="3:13" ht="17.399999999999999">
-      <c r="C57" s="291"/>
-      <c r="D57" s="292"/>
-      <c r="E57" s="292"/>
-      <c r="F57" s="292"/>
-      <c r="G57" s="292"/>
-      <c r="H57" s="292"/>
-      <c r="I57" s="292"/>
-      <c r="J57" s="292"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="3:13" ht="17.399999999999999">
-      <c r="C58" s="291"/>
-      <c r="D58" s="292"/>
-      <c r="E58" s="292"/>
-      <c r="F58" s="292"/>
-      <c r="G58" s="292"/>
-      <c r="H58" s="292"/>
-      <c r="I58" s="292"/>
-      <c r="J58" s="292"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="3:13" ht="17.399999999999999">
-      <c r="C59" s="291"/>
-      <c r="D59" s="292"/>
-      <c r="E59" s="292"/>
-      <c r="F59" s="292"/>
-      <c r="G59" s="292"/>
-      <c r="H59" s="292"/>
-      <c r="I59" s="292"/>
-      <c r="J59" s="291"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
     </row>
     <row r="67" spans="3:16">
-      <c r="C67" s="289"/>
-      <c r="D67" s="293"/>
-      <c r="E67" s="293"/>
-      <c r="F67" s="290"/>
-      <c r="G67" s="290"/>
-      <c r="H67" s="290"/>
-      <c r="I67" s="290"/>
-      <c r="J67" s="290"/>
-      <c r="K67" s="290"/>
-      <c r="L67" s="290"/>
-      <c r="M67" s="290"/>
-      <c r="N67" s="290"/>
-      <c r="O67" s="290"/>
-      <c r="P67" s="290"/>
+      <c r="C67" s="225"/>
+      <c r="D67" s="226"/>
+      <c r="E67" s="226"/>
+      <c r="F67" s="183"/>
+      <c r="G67" s="183"/>
+      <c r="H67" s="183"/>
+      <c r="I67" s="183"/>
+      <c r="J67" s="183"/>
+      <c r="K67" s="183"/>
+      <c r="L67" s="183"/>
+      <c r="M67" s="183"/>
+      <c r="N67" s="183"/>
+      <c r="O67" s="183"/>
+      <c r="P67" s="183"/>
     </row>
     <row r="68" spans="3:16" ht="17.399999999999999">
-      <c r="C68" s="291"/>
-      <c r="D68" s="292"/>
-      <c r="E68" s="292"/>
-      <c r="F68" s="292"/>
-      <c r="G68" s="292"/>
-      <c r="H68" s="292"/>
-      <c r="I68" s="292"/>
-      <c r="J68" s="292"/>
-      <c r="K68" s="292"/>
-      <c r="L68" s="292"/>
-      <c r="M68" s="292"/>
-      <c r="N68" s="292"/>
-      <c r="O68" s="292"/>
-      <c r="P68" s="292"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
     </row>
     <row r="69" spans="3:16" ht="17.399999999999999">
-      <c r="C69" s="291"/>
-      <c r="D69" s="292"/>
-      <c r="E69" s="292"/>
-      <c r="F69" s="292"/>
-      <c r="G69" s="292"/>
-      <c r="H69" s="292"/>
-      <c r="I69" s="292"/>
-      <c r="J69" s="292"/>
-      <c r="K69" s="292"/>
-      <c r="L69" s="292"/>
-      <c r="M69" s="292"/>
-      <c r="N69" s="292"/>
-      <c r="O69" s="292"/>
-      <c r="P69" s="292"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
     </row>
     <row r="70" spans="3:16" ht="17.399999999999999">
-      <c r="C70" s="291"/>
-      <c r="D70" s="292"/>
-      <c r="E70" s="292"/>
-      <c r="F70" s="292"/>
-      <c r="G70" s="292"/>
-      <c r="H70" s="292"/>
-      <c r="I70" s="292"/>
-      <c r="J70" s="292"/>
-      <c r="K70" s="292"/>
-      <c r="L70" s="292"/>
-      <c r="M70" s="292"/>
-      <c r="N70" s="292"/>
-      <c r="O70" s="292"/>
-      <c r="P70" s="292"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
     </row>
     <row r="71" spans="3:16" ht="17.399999999999999">
-      <c r="C71" s="291"/>
-      <c r="D71" s="292"/>
-      <c r="E71" s="292"/>
-      <c r="F71" s="292"/>
-      <c r="G71" s="292"/>
-      <c r="H71" s="292"/>
-      <c r="I71" s="292"/>
-      <c r="J71" s="292"/>
-      <c r="K71" s="292"/>
-      <c r="L71" s="292"/>
-      <c r="M71" s="292"/>
-      <c r="N71" s="292"/>
-      <c r="O71" s="292"/>
-      <c r="P71" s="292"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
     </row>
     <row r="72" spans="3:16" ht="17.399999999999999">
-      <c r="C72" s="291"/>
-      <c r="D72" s="292"/>
-      <c r="E72" s="292"/>
-      <c r="F72" s="292"/>
-      <c r="G72" s="292"/>
-      <c r="H72" s="292"/>
-      <c r="I72" s="292"/>
-      <c r="J72" s="292"/>
-      <c r="K72" s="292"/>
-      <c r="L72" s="292"/>
-      <c r="M72" s="292"/>
-      <c r="N72" s="292"/>
-      <c r="O72" s="292"/>
-      <c r="P72" s="292"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
     </row>
     <row r="73" spans="3:16" ht="17.399999999999999">
-      <c r="C73" s="291"/>
-      <c r="D73" s="292"/>
-      <c r="E73" s="292"/>
-      <c r="F73" s="292"/>
-      <c r="G73" s="292"/>
-      <c r="H73" s="292"/>
-      <c r="I73" s="292"/>
-      <c r="J73" s="292"/>
-      <c r="K73" s="292"/>
-      <c r="L73" s="292"/>
-      <c r="M73" s="292"/>
-      <c r="N73" s="292"/>
-      <c r="O73" s="292"/>
-      <c r="P73" s="292"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -37662,12 +37644,12 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="224" t="str">
+      <c r="K1" s="227" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="221"/>
-      <c r="M1" s="225"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="228"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -37679,12 +37661,12 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="215">
+      <c r="K2" s="216">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="216"/>
-      <c r="M2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="218"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -37696,12 +37678,12 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="218" t="str">
+      <c r="K3" s="219" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="219"/>
-      <c r="M3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="221"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -38363,25 +38345,25 @@
       <c r="O27"/>
     </row>
     <row r="28" spans="2:15" ht="28.8" customHeight="1">
-      <c r="B28" s="226">
+      <c r="B28" s="229">
         <v>21</v>
       </c>
-      <c r="C28" s="228" t="s">
+      <c r="C28" s="231" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="230">
+      <c r="D28" s="233">
         <v>46003</v>
       </c>
-      <c r="E28" s="230">
+      <c r="E28" s="233">
         <v>45943</v>
       </c>
       <c r="F28" s="159" t="s">
         <v>262</v>
       </c>
-      <c r="G28" s="228" t="s">
+      <c r="G28" s="231" t="s">
         <v>230</v>
       </c>
-      <c r="H28" s="226" t="s">
+      <c r="H28" s="229" t="s">
         <v>223</v>
       </c>
       <c r="I28"/>
@@ -38393,15 +38375,15 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B29" s="227"/>
-      <c r="C29" s="229"/>
-      <c r="D29" s="231"/>
-      <c r="E29" s="231"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
       <c r="F29" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="G29" s="229"/>
-      <c r="H29" s="227"/>
+      <c r="G29" s="232"/>
+      <c r="H29" s="230"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -38594,49 +38576,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="241" t="str">
+      <c r="A1" s="244" t="str">
         <f>"Risques / opportunités au "&amp;TEXT(F2,"jj/MM/AAAA")</f>
         <v>Risques / opportunités au 25/09/Freitag</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="232" t="str">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="235" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="234"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="237"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="243"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="235">
+      <c r="A2" s="246"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="238">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="237"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="240"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="245"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="238" t="str">
+      <c r="A3" s="248"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="241" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="240"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
     </row>
     <row r="4" spans="1:9">
       <c r="F4" s="31"/>

--- a/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78115CA-BBB6-4DD5-B98E-C85C97C13B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C40F7A-A5CD-4065-A9A3-3C7CEAD59888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="309">
   <si>
     <t>Responsable</t>
   </si>
@@ -1145,6 +1145,15 @@
   <si>
     <t>Le plannig n'a pas été respecté à la lettre à cause des  cc d'autres matieres</t>
   </si>
+  <si>
+    <t>6,3hj</t>
+  </si>
+  <si>
+    <t>14'</t>
+  </si>
+  <si>
+    <t>Implémenter les manques demandés par le professeur</t>
+  </si>
 </sst>
 </file>
 
@@ -1817,7 +1826,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="80">
+  <fills count="81">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2265,6 +2274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6856,7 +6871,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7395,9 +7410,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7422,35 +7467,11 @@
     <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7473,13 +7494,7 @@
     <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7675,6 +7690,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7696,15 +7720,6 @@
     <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7716,6 +7731,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyFont="1"/>
+    <xf numFmtId="0" fontId="97" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="97" fillId="80" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1319">
@@ -9339,13 +9371,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>701337</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24265,11 +24297,11 @@
       <c r="I1" s="122"/>
       <c r="J1" s="122"/>
       <c r="K1" s="122"/>
-      <c r="L1" s="193" t="s">
+      <c r="L1" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="194"/>
-      <c r="N1" s="195"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24283,11 +24315,11 @@
       <c r="I2" s="124"/>
       <c r="J2" s="124"/>
       <c r="K2" s="124"/>
-      <c r="L2" s="196">
+      <c r="L2" s="187">
         <v>45912</v>
       </c>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="189"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="125"/>
@@ -24300,34 +24332,34 @@
       <c r="I3" s="126"/>
       <c r="J3" s="126"/>
       <c r="K3" s="126"/>
-      <c r="L3" s="199" t="s">
+      <c r="L3" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="200"/>
-      <c r="N3" s="201"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="184"/>
+      <c r="C5" s="193"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="202" t="s">
+      <c r="E5" s="194" t="s">
         <v>287</v>
       </c>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24344,23 +24376,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="184"/>
+      <c r="C7" s="193"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="187" t="s">
+      <c r="E7" s="197" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="189"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="199"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24378,23 +24410,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="190"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="191" t="s">
+      <c r="E9" s="201" t="s">
         <v>304</v>
       </c>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="192"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24412,23 +24444,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="184"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="191" t="s">
+      <c r="E11" s="201" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24446,23 +24478,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="184"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="185" t="s">
+      <c r="E13" s="195" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="186"/>
-      <c r="N13" s="186"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="196"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -24486,11 +24518,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -24499,6 +24526,11 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -24551,11 +24583,11 @@
       <c r="F1" s="251"/>
       <c r="G1" s="251"/>
       <c r="H1" s="252"/>
-      <c r="I1" s="203" t="str">
+      <c r="I1" s="205" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="206"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
       <c r="A2" s="253"/>
@@ -24566,11 +24598,11 @@
       <c r="F2" s="254"/>
       <c r="G2" s="254"/>
       <c r="H2" s="255"/>
-      <c r="I2" s="205">
+      <c r="I2" s="207">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="206"/>
+      <c r="J2" s="208"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="256"/>
@@ -24581,11 +24613,11 @@
       <c r="F3" s="257"/>
       <c r="G3" s="257"/>
       <c r="H3" s="258"/>
-      <c r="I3" s="207" t="str">
+      <c r="I3" s="209" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="208"/>
+      <c r="J3" s="210"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -25252,11 +25284,11 @@
       <c r="G1" s="251"/>
       <c r="H1" s="251"/>
       <c r="I1" s="252"/>
-      <c r="J1" s="203" t="str">
+      <c r="J1" s="205" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="204"/>
+      <c r="K1" s="206"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="254"/>
@@ -25268,11 +25300,11 @@
       <c r="G2" s="254"/>
       <c r="H2" s="254"/>
       <c r="I2" s="255"/>
-      <c r="J2" s="205">
+      <c r="J2" s="207">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="206"/>
+      <c r="K2" s="208"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="257"/>
@@ -25284,11 +25316,11 @@
       <c r="G3" s="257"/>
       <c r="H3" s="257"/>
       <c r="I3" s="258"/>
-      <c r="J3" s="207" t="str">
+      <c r="J3" s="209" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="208"/>
+      <c r="K3" s="210"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25488,11 +25520,11 @@
       <c r="F1" s="264"/>
       <c r="G1" s="264"/>
       <c r="H1" s="265"/>
-      <c r="I1" s="203" t="str">
+      <c r="I1" s="205" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="206"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="266"/>
@@ -25503,11 +25535,11 @@
       <c r="F2" s="267"/>
       <c r="G2" s="267"/>
       <c r="H2" s="268"/>
-      <c r="I2" s="205">
+      <c r="I2" s="207">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="206"/>
+      <c r="J2" s="208"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="269"/>
@@ -25518,11 +25550,11 @@
       <c r="F3" s="270"/>
       <c r="G3" s="270"/>
       <c r="H3" s="271"/>
-      <c r="I3" s="207" t="str">
+      <c r="I3" s="209" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="208"/>
+      <c r="J3" s="210"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -26095,31 +26127,31 @@
       </c>
       <c r="B1" s="273"/>
       <c r="C1" s="273"/>
-      <c r="D1" s="203" t="str">
+      <c r="D1" s="205" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="204"/>
+      <c r="E1" s="206"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="274"/>
       <c r="B2" s="275"/>
       <c r="C2" s="275"/>
-      <c r="D2" s="205">
+      <c r="D2" s="207">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="206"/>
+      <c r="E2" s="208"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="276"/>
       <c r="B3" s="277"/>
       <c r="C3" s="277"/>
-      <c r="D3" s="207" t="str">
+      <c r="D3" s="209" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="208"/>
+      <c r="E3" s="210"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26283,10 +26315,10 @@
   <sheetPr codeName="Feuil20">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM208"/>
+  <dimension ref="A1:AM209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -26303,7 +26335,8 @@
     <col min="11" max="11" width="11.44140625" style="3"/>
     <col min="12" max="12" width="33" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.109375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="11.44140625" style="3"/>
+    <col min="14" max="14" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="3"/>
     <col min="16" max="16" width="22.6640625" style="3" customWidth="1"/>
     <col min="17" max="16384" width="11.44140625" style="3"/>
   </cols>
@@ -26314,14 +26347,14 @@
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="278"/>
+      <c r="C1" s="281"/>
       <c r="D1" s="273"/>
       <c r="E1" s="273"/>
       <c r="F1" s="273"/>
       <c r="G1" s="273"/>
       <c r="H1" s="273"/>
       <c r="I1" s="273"/>
-      <c r="J1" s="279"/>
+      <c r="J1" s="282"/>
       <c r="K1" s="227" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
@@ -26338,7 +26371,7 @@
       <c r="G2" s="275"/>
       <c r="H2" s="275"/>
       <c r="I2" s="275"/>
-      <c r="J2" s="280"/>
+      <c r="J2" s="283"/>
       <c r="K2" s="216">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
@@ -26356,7 +26389,7 @@
       <c r="G3" s="277"/>
       <c r="H3" s="277"/>
       <c r="I3" s="277"/>
-      <c r="J3" s="281"/>
+      <c r="J3" s="284"/>
       <c r="K3" s="219" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
@@ -26483,25 +26516,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="285" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="287"/>
       <c r="J7"/>
-      <c r="K7" s="282" t="s">
+      <c r="K7" s="285" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="283"/>
-      <c r="M7" s="283"/>
-      <c r="N7" s="283"/>
-      <c r="O7" s="283"/>
-      <c r="P7" s="283"/>
-      <c r="Q7" s="284"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="286"/>
+      <c r="O7" s="286"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="287"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -26866,10 +26899,14 @@
       <c r="M13" s="175">
         <v>45932</v>
       </c>
-      <c r="N13" s="175"/>
+      <c r="N13" s="175">
+        <v>45950</v>
+      </c>
       <c r="O13" s="176"/>
       <c r="P13" s="177"/>
-      <c r="Q13" s="173"/>
+      <c r="Q13" s="173" t="s">
+        <v>306</v>
+      </c>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
@@ -27430,10 +27467,18 @@
       <c r="I22" s="173" t="s">
         <v>246</v>
       </c>
-      <c r="K22" s="173"/>
-      <c r="L22" s="174"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="175"/>
+      <c r="K22" s="173">
+        <v>13</v>
+      </c>
+      <c r="L22" s="174" t="s">
+        <v>245</v>
+      </c>
+      <c r="M22" s="175">
+        <v>45964</v>
+      </c>
+      <c r="N22" s="175">
+        <v>45978</v>
+      </c>
       <c r="O22" s="176"/>
       <c r="P22" s="177"/>
       <c r="Q22" s="173"/>
@@ -27460,88 +27505,90 @@
       <c r="AL22"/>
       <c r="AM22"/>
     </row>
-    <row r="23" spans="1:39" ht="27" customHeight="1">
-      <c r="A23"/>
-      <c r="C23" s="170">
-        <v>14</v>
-      </c>
-      <c r="D23" s="171" t="s">
-        <v>247</v>
-      </c>
-      <c r="E23" s="172">
-        <v>45976</v>
-      </c>
-      <c r="F23" s="172">
-        <v>45977</v>
-      </c>
-      <c r="G23" s="170">
-        <v>7</v>
-      </c>
-      <c r="H23" s="171" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="170" t="s">
-        <v>223</v>
-      </c>
-      <c r="K23" s="170"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="171"/>
-      <c r="Q23" s="170"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
-      <c r="AH23"/>
-      <c r="AI23"/>
-      <c r="AJ23"/>
-      <c r="AK23"/>
-      <c r="AL23"/>
-      <c r="AM23"/>
+    <row r="23" spans="1:39" s="294" customFormat="1" ht="27" customHeight="1">
+      <c r="A23" s="293"/>
+      <c r="C23" s="292"/>
+      <c r="D23" s="295"/>
+      <c r="E23" s="296"/>
+      <c r="F23" s="296"/>
+      <c r="G23" s="297"/>
+      <c r="H23" s="298"/>
+      <c r="I23" s="292"/>
+      <c r="K23" s="292" t="s">
+        <v>307</v>
+      </c>
+      <c r="L23" s="295" t="s">
+        <v>308</v>
+      </c>
+      <c r="M23" s="296"/>
+      <c r="N23" s="296"/>
+      <c r="O23" s="297"/>
+      <c r="P23" s="298"/>
+      <c r="Q23" s="292"/>
+      <c r="R23" s="293"/>
+      <c r="S23" s="293"/>
+      <c r="T23" s="293"/>
+      <c r="U23" s="293"/>
+      <c r="V23" s="293"/>
+      <c r="W23" s="293"/>
+      <c r="X23" s="293"/>
+      <c r="Y23" s="293"/>
+      <c r="Z23" s="293"/>
+      <c r="AA23" s="293"/>
+      <c r="AB23" s="293"/>
+      <c r="AC23" s="293"/>
+      <c r="AD23" s="293"/>
+      <c r="AE23" s="293"/>
+      <c r="AF23" s="293"/>
+      <c r="AG23" s="293"/>
+      <c r="AH23" s="293"/>
+      <c r="AI23" s="293"/>
+      <c r="AJ23" s="293"/>
+      <c r="AK23" s="293"/>
+      <c r="AL23" s="293"/>
+      <c r="AM23" s="293"/>
     </row>
     <row r="24" spans="1:39" ht="27" customHeight="1">
       <c r="A24"/>
       <c r="C24" s="170">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="171" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" s="172">
+        <v>45976</v>
+      </c>
+      <c r="F24" s="172">
         <v>45977</v>
       </c>
-      <c r="F24" s="172">
-        <v>45979</v>
-      </c>
-      <c r="G24" s="170" t="s">
-        <v>249</v>
+      <c r="G24" s="170">
+        <v>7</v>
       </c>
       <c r="H24" s="171" t="s">
         <v>230</v>
       </c>
       <c r="I24" s="170" t="s">
-        <v>250</v>
-      </c>
-      <c r="K24" s="170"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="171"/>
+        <v>223</v>
+      </c>
+      <c r="K24" s="170">
+        <v>14</v>
+      </c>
+      <c r="L24" s="171" t="s">
+        <v>247</v>
+      </c>
+      <c r="M24" s="172">
+        <v>45976</v>
+      </c>
+      <c r="N24" s="172">
+        <v>45977</v>
+      </c>
+      <c r="O24" s="170">
+        <v>7</v>
+      </c>
+      <c r="P24" s="171" t="s">
+        <v>230</v>
+      </c>
       <c r="Q24" s="170"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -27569,32 +27616,44 @@
     <row r="25" spans="1:39" ht="27" customHeight="1">
       <c r="A25"/>
       <c r="C25" s="170">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="171" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E25" s="172">
-        <v>45980</v>
+        <v>45977</v>
       </c>
       <c r="F25" s="172">
-        <v>45981</v>
+        <v>45979</v>
       </c>
       <c r="G25" s="170" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H25" s="171" t="s">
         <v>230</v>
       </c>
       <c r="I25" s="170" t="s">
-        <v>226</v>
-      </c>
-      <c r="K25" s="170"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="171"/>
+        <v>250</v>
+      </c>
+      <c r="K25" s="170">
+        <v>15</v>
+      </c>
+      <c r="L25" s="171" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" s="172">
+        <v>45977</v>
+      </c>
+      <c r="N25" s="172">
+        <v>45979</v>
+      </c>
+      <c r="O25" s="170" t="s">
+        <v>249</v>
+      </c>
+      <c r="P25" s="171" t="s">
+        <v>230</v>
+      </c>
       <c r="Q25" s="170"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -27622,32 +27681,44 @@
     <row r="26" spans="1:39" ht="27" customHeight="1">
       <c r="A26"/>
       <c r="C26" s="170">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="171" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E26" s="172">
-        <v>45982</v>
+        <v>45980</v>
       </c>
       <c r="F26" s="172">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="G26" s="170" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H26" s="171" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I26" s="170" t="s">
-        <v>238</v>
-      </c>
-      <c r="K26" s="170"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="172"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="171"/>
+        <v>226</v>
+      </c>
+      <c r="K26" s="170">
+        <v>16</v>
+      </c>
+      <c r="L26" s="171" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" s="172">
+        <v>45980</v>
+      </c>
+      <c r="N26" s="172">
+        <v>45981</v>
+      </c>
+      <c r="O26" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="P26" s="171" t="s">
+        <v>230</v>
+      </c>
       <c r="Q26" s="170"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -27675,22 +27746,22 @@
     <row r="27" spans="1:39" ht="27" customHeight="1">
       <c r="A27"/>
       <c r="C27" s="170">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="171" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E27" s="172">
-        <v>45983</v>
+        <v>45982</v>
       </c>
       <c r="F27" s="172">
-        <v>45983</v>
+        <v>45982</v>
       </c>
       <c r="G27" s="170" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H27" s="171" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I27" s="170" t="s">
         <v>238</v>
@@ -27727,30 +27798,34 @@
     </row>
     <row r="28" spans="1:39" ht="27" customHeight="1">
       <c r="A28"/>
-      <c r="C28" s="173">
-        <v>19</v>
-      </c>
-      <c r="D28" s="174" t="s">
-        <v>257</v>
-      </c>
-      <c r="E28" s="175">
-        <v>46001</v>
-      </c>
-      <c r="F28" s="175">
-        <v>46012</v>
-      </c>
-      <c r="G28" s="176"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="173" t="s">
-        <v>258</v>
-      </c>
-      <c r="K28" s="173"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="177"/>
-      <c r="Q28" s="173"/>
+      <c r="C28" s="170">
+        <v>18</v>
+      </c>
+      <c r="D28" s="171" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="172">
+        <v>45983</v>
+      </c>
+      <c r="F28" s="172">
+        <v>45983</v>
+      </c>
+      <c r="G28" s="170" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I28" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" s="170"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="170"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
@@ -27776,34 +27851,30 @@
     </row>
     <row r="29" spans="1:39" ht="27" customHeight="1">
       <c r="A29"/>
-      <c r="C29" s="170">
-        <v>20</v>
-      </c>
-      <c r="D29" s="171" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="172">
+      <c r="C29" s="173">
+        <v>19</v>
+      </c>
+      <c r="D29" s="174" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="175">
         <v>46001</v>
       </c>
-      <c r="F29" s="172">
-        <v>45941</v>
-      </c>
-      <c r="G29" s="170" t="s">
-        <v>260</v>
-      </c>
-      <c r="H29" s="171" t="s">
-        <v>230</v>
-      </c>
-      <c r="I29" s="170" t="s">
-        <v>223</v>
-      </c>
-      <c r="K29" s="170"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="170"/>
+      <c r="F29" s="175">
+        <v>46012</v>
+      </c>
+      <c r="G29" s="176"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="173" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" s="173"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="173"/>
       <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
@@ -27829,28 +27900,28 @@
     </row>
     <row r="30" spans="1:39" ht="27" customHeight="1">
       <c r="A30"/>
-      <c r="C30" s="285">
-        <v>21</v>
-      </c>
-      <c r="D30" s="286" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="287">
-        <v>46003</v>
-      </c>
-      <c r="F30" s="287">
-        <v>45943</v>
+      <c r="C30" s="170">
+        <v>20</v>
+      </c>
+      <c r="D30" s="171" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30" s="172">
+        <v>46001</v>
+      </c>
+      <c r="F30" s="172">
+        <v>45941</v>
       </c>
       <c r="G30" s="170" t="s">
-        <v>262</v>
-      </c>
-      <c r="H30" s="286" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="I30" s="285" t="s">
+      <c r="I30" s="170" t="s">
         <v>223</v>
       </c>
-      <c r="K30" s="285"/>
+      <c r="K30" s="170"/>
       <c r="L30" s="171"/>
       <c r="M30" s="172"/>
       <c r="N30" s="172"/>
@@ -27882,16 +27953,28 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="285"/>
-      <c r="D31" s="286"/>
-      <c r="E31" s="287"/>
-      <c r="F31" s="287"/>
+      <c r="C31" s="278">
+        <v>21</v>
+      </c>
+      <c r="D31" s="279" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="280">
+        <v>46003</v>
+      </c>
+      <c r="F31" s="280">
+        <v>45943</v>
+      </c>
       <c r="G31" s="170" t="s">
-        <v>263</v>
-      </c>
-      <c r="H31" s="286"/>
-      <c r="I31" s="285"/>
-      <c r="K31" s="285"/>
+        <v>262</v>
+      </c>
+      <c r="H31" s="279" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" s="278" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="278"/>
       <c r="L31" s="171"/>
       <c r="M31" s="172"/>
       <c r="N31" s="172"/>
@@ -27923,28 +28006,16 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="170">
-        <v>22</v>
-      </c>
-      <c r="D32" s="171" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="172">
-        <v>46003</v>
-      </c>
-      <c r="F32" s="172">
-        <v>45943</v>
-      </c>
+      <c r="C32" s="278"/>
+      <c r="D32" s="279"/>
+      <c r="E32" s="280"/>
+      <c r="F32" s="280"/>
       <c r="G32" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="171" t="s">
-        <v>230</v>
-      </c>
-      <c r="I32" s="170" t="s">
-        <v>250</v>
-      </c>
-      <c r="K32" s="170"/>
+        <v>263</v>
+      </c>
+      <c r="H32" s="279"/>
+      <c r="I32" s="278"/>
+      <c r="K32" s="278"/>
       <c r="L32" s="171"/>
       <c r="M32" s="172"/>
       <c r="N32" s="172"/>
@@ -27977,16 +28048,16 @@
     <row r="33" spans="1:39" ht="27" customHeight="1">
       <c r="A33"/>
       <c r="C33" s="170">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="171" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E33" s="172">
-        <v>46006</v>
+        <v>46003</v>
       </c>
       <c r="F33" s="172">
-        <v>45946</v>
+        <v>45943</v>
       </c>
       <c r="G33" s="170" t="s">
         <v>221</v>
@@ -27995,7 +28066,7 @@
         <v>230</v>
       </c>
       <c r="I33" s="170" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K33" s="170"/>
       <c r="L33" s="171"/>
@@ -28030,19 +28101,19 @@
     <row r="34" spans="1:39" ht="27" customHeight="1">
       <c r="A34"/>
       <c r="C34" s="170">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="171" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E34" s="172">
-        <v>46009</v>
+        <v>46006</v>
       </c>
       <c r="F34" s="172">
-        <v>45950</v>
+        <v>45946</v>
       </c>
       <c r="G34" s="170" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="H34" s="171" t="s">
         <v>230</v>
@@ -28080,8 +28151,36 @@
       <c r="AL34"/>
       <c r="AM34"/>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" ht="27" customHeight="1">
       <c r="A35"/>
+      <c r="C35" s="170">
+        <v>24</v>
+      </c>
+      <c r="D35" s="171" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="172">
+        <v>46009</v>
+      </c>
+      <c r="F35" s="172">
+        <v>45950</v>
+      </c>
+      <c r="G35" s="170" t="s">
+        <v>267</v>
+      </c>
+      <c r="H35" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" s="170"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="172"/>
+      <c r="N35" s="172"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="171"/>
+      <c r="Q35" s="170"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -28432,22 +28531,6 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
@@ -34990,22 +35073,63 @@
       <c r="AL208"/>
       <c r="AM208"/>
     </row>
+    <row r="209" spans="1:39">
+      <c r="A209"/>
+      <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
+      <c r="L209"/>
+      <c r="M209"/>
+      <c r="N209"/>
+      <c r="O209"/>
+      <c r="P209"/>
+      <c r="Q209"/>
+      <c r="R209"/>
+      <c r="S209"/>
+      <c r="T209"/>
+      <c r="U209"/>
+      <c r="V209"/>
+      <c r="W209"/>
+      <c r="X209"/>
+      <c r="Y209"/>
+      <c r="Z209"/>
+      <c r="AA209"/>
+      <c r="AB209"/>
+      <c r="AC209"/>
+      <c r="AD209"/>
+      <c r="AE209"/>
+      <c r="AF209"/>
+      <c r="AG209"/>
+      <c r="AH209"/>
+      <c r="AI209"/>
+      <c r="AJ209"/>
+      <c r="AK209"/>
+      <c r="AL209"/>
+      <c r="AM209"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35063,11 +35187,11 @@
       <c r="D2" s="275"/>
       <c r="E2" s="275"/>
       <c r="F2" s="275"/>
-      <c r="G2" s="205">
+      <c r="G2" s="207">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="206"/>
+      <c r="H2" s="208"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="276"/>
@@ -35076,11 +35200,11 @@
       <c r="D3" s="277"/>
       <c r="E3" s="277"/>
       <c r="F3" s="277"/>
-      <c r="G3" s="207" t="str">
+      <c r="G3" s="209" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="208"/>
+      <c r="H3" s="210"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35252,11 +35376,11 @@
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
-      <c r="G1" s="203" t="str">
+      <c r="G1" s="205" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="204"/>
+      <c r="H1" s="206"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="115"/>
@@ -35265,11 +35389,11 @@
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
       <c r="F2" s="119"/>
-      <c r="G2" s="205">
+      <c r="G2" s="207">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="206"/>
+      <c r="H2" s="208"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35278,11 +35402,11 @@
       <c r="D3" s="120"/>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
-      <c r="G3" s="207" t="str">
+      <c r="G3" s="209" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="208"/>
+      <c r="H3" s="210"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35312,16 +35436,16 @@
       <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="209" t="s">
+      <c r="A8" s="211" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="209"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35378,10 +35502,10 @@
       <c r="F11" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="210" t="s">
+      <c r="G11" s="203" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="211"/>
+      <c r="H11" s="212"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="131" t="s">
@@ -35402,10 +35526,10 @@
       <c r="F12" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="210" t="s">
+      <c r="G12" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="212"/>
+      <c r="H12" s="204"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35431,10 +35555,10 @@
         <v>131</v>
       </c>
       <c r="F13" s="133"/>
-      <c r="G13" s="210" t="s">
+      <c r="G13" s="203" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="212"/>
+      <c r="H13" s="204"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="131" t="s">
@@ -35455,10 +35579,10 @@
       <c r="F14" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="210" t="s">
+      <c r="G14" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="212"/>
+      <c r="H14" s="204"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="131" t="s">
@@ -35479,10 +35603,10 @@
       <c r="F15" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="210" t="s">
+      <c r="G15" s="203" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="212"/>
+      <c r="H15" s="204"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35510,10 +35634,10 @@
       <c r="F16" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="210" t="s">
+      <c r="G16" s="203" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="212"/>
+      <c r="H16" s="204"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="131" t="s">
@@ -35534,10 +35658,10 @@
       <c r="F17" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="210" t="s">
+      <c r="G17" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="212"/>
+      <c r="H17" s="204"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="131" t="s">
@@ -35558,10 +35682,10 @@
       <c r="F18" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="210" t="s">
+      <c r="G18" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="212"/>
+      <c r="H18" s="204"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="131" t="s">
@@ -35582,10 +35706,10 @@
       <c r="F19" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="210" t="s">
+      <c r="G19" s="203" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="212"/>
+      <c r="H19" s="204"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="131" t="s">
@@ -35606,10 +35730,10 @@
       <c r="F20" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="210" t="s">
+      <c r="G20" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="212"/>
+      <c r="H20" s="204"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="131" t="s">
@@ -35630,10 +35754,10 @@
       <c r="F21" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="210" t="s">
+      <c r="G21" s="203" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="212"/>
+      <c r="H21" s="204"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="131" t="s">
@@ -35654,10 +35778,10 @@
       <c r="F22" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="210" t="s">
+      <c r="G22" s="203" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="212"/>
+      <c r="H22" s="204"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="131" t="s">
@@ -35678,10 +35802,10 @@
       <c r="F23" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="210" t="s">
+      <c r="G23" s="203" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="212"/>
+      <c r="H23" s="204"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="131" t="s">
@@ -35702,10 +35826,10 @@
       <c r="F24" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="210" t="s">
+      <c r="G24" s="203" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="212"/>
+      <c r="H24" s="204"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="131" t="s">
@@ -35726,10 +35850,10 @@
       <c r="F25" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="G25" s="210" t="s">
+      <c r="G25" s="203" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="212"/>
+      <c r="H25" s="204"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="131" t="s">
@@ -35750,10 +35874,10 @@
       <c r="F26" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="210" t="s">
+      <c r="G26" s="203" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="212"/>
+      <c r="H26" s="204"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="131" t="s">
@@ -35774,10 +35898,10 @@
       <c r="F27" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="210" t="s">
+      <c r="G27" s="203" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="212"/>
+      <c r="H27" s="204"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="131" t="s">
@@ -35798,10 +35922,10 @@
       <c r="F28" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="210" t="s">
+      <c r="G28" s="203" t="s">
         <v>206</v>
       </c>
-      <c r="H28" s="212"/>
+      <c r="H28" s="204"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="131" t="s">
@@ -35822,10 +35946,10 @@
       <c r="F29" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="210" t="s">
+      <c r="G29" s="203" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="212"/>
+      <c r="H29" s="204"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="131" t="s">
@@ -35840,11 +35964,26 @@
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="212"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -35854,21 +35993,6 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>

--- a/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C40F7A-A5CD-4065-A9A3-3C7CEAD59888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A0BEC0-894D-4CA7-8895-B1292ADB1454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="311">
   <si>
     <t>Responsable</t>
   </si>
@@ -1153,6 +1153,12 @@
   </si>
   <si>
     <t>Implémenter les manques demandés par le professeur</t>
+  </si>
+  <si>
+    <t>1.5hj</t>
+  </si>
+  <si>
+    <t>1.5hhj</t>
   </si>
 </sst>
 </file>
@@ -6871,7 +6877,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7410,6 +7416,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="97" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="97" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="97" fillId="80" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7437,64 +7486,37 @@
     <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7690,6 +7712,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -7699,27 +7742,6 @@
     <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7731,23 +7753,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyFont="1"/>
-    <xf numFmtId="0" fontId="97" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="97" fillId="80" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1319">
@@ -24297,11 +24302,11 @@
       <c r="I1" s="122"/>
       <c r="J1" s="122"/>
       <c r="K1" s="122"/>
-      <c r="L1" s="184" t="s">
+      <c r="L1" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24315,11 +24320,11 @@
       <c r="I2" s="124"/>
       <c r="J2" s="124"/>
       <c r="K2" s="124"/>
-      <c r="L2" s="187">
+      <c r="L2" s="202">
         <v>45912</v>
       </c>
-      <c r="M2" s="188"/>
-      <c r="N2" s="189"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="125"/>
@@ -24332,34 +24337,34 @@
       <c r="I3" s="126"/>
       <c r="J3" s="126"/>
       <c r="K3" s="126"/>
-      <c r="L3" s="190" t="s">
+      <c r="L3" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="193"/>
+      <c r="C5" s="190"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="194" t="s">
+      <c r="E5" s="208" t="s">
         <v>287</v>
       </c>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="208"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24376,23 +24381,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="193"/>
+      <c r="C7" s="190"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="197" t="s">
+      <c r="E7" s="193" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="199"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="195"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24410,23 +24415,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="200" t="s">
+      <c r="B9" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="200"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="201" t="s">
+      <c r="E9" s="197" t="s">
         <v>304</v>
       </c>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24444,23 +24449,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="193"/>
+      <c r="C11" s="190"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="201" t="s">
+      <c r="E11" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198"/>
+      <c r="N11" s="198"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24478,23 +24483,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="193" t="s">
+      <c r="B13" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="193"/>
+      <c r="C13" s="190"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="195" t="s">
+      <c r="E13" s="191" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="192"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -24518,6 +24523,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -24526,11 +24536,6 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -24572,52 +24577,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A1" s="250" t="str">
+      <c r="A1" s="256" t="str">
         <f>"LISTE DES ACTIONS au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>LISTE DES ACTIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="205" t="str">
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="209" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="206"/>
+      <c r="J1" s="210"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A2" s="253"/>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="207">
+      <c r="A2" s="259"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="211">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="208"/>
+      <c r="J2" s="212"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="256"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="209" t="str">
+      <c r="A3" s="262"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="213" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="210"/>
+      <c r="J3" s="214"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -25272,55 +25277,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="264" t="str">
+      <c r="A1" s="270" t="str">
         <f>"LISTE DES DECISIONS au "&amp;TEXT(J2,"jj/mm/aaaa")</f>
         <v>LISTE DES DECISIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="205" t="str">
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="209" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="206"/>
+      <c r="K1" s="210"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="254"/>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="207">
+      <c r="A2" s="260"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="211">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="208"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="257"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="209" t="str">
+      <c r="A3" s="263"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="213" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="210"/>
+      <c r="K3" s="214"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25332,13 +25337,13 @@
       <c r="A5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261" t="s">
+      <c r="B5" s="267" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="269"/>
       <c r="G5" s="94" t="s">
         <v>22</v>
       </c>
@@ -25359,13 +25364,13 @@
       <c r="A6" s="95">
         <v>1</v>
       </c>
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="265" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
       <c r="G6" s="96" t="s">
         <v>291</v>
       </c>
@@ -25382,11 +25387,11 @@
       <c r="A7" s="95">
         <v>2</v>
       </c>
-      <c r="B7" s="259"/>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
       <c r="G7" s="96"/>
       <c r="H7" s="96"/>
       <c r="I7" s="96"/>
@@ -25397,11 +25402,11 @@
       <c r="A8" s="95">
         <v>3</v>
       </c>
-      <c r="B8" s="259"/>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
@@ -25412,11 +25417,11 @@
       <c r="A9" s="95">
         <v>4</v>
       </c>
-      <c r="B9" s="260"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
       <c r="G9" s="99"/>
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
@@ -25427,11 +25432,11 @@
       <c r="A10" s="95">
         <v>5</v>
       </c>
-      <c r="B10" s="260"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
@@ -25442,11 +25447,11 @@
       <c r="A11" s="95">
         <v>6</v>
       </c>
-      <c r="B11" s="260"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
@@ -25509,52 +25514,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="250" t="str">
+      <c r="A1" s="256" t="str">
         <f>"DOCUMENTS PROJET au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>DOCUMENTS PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="205" t="str">
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="209" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="206"/>
+      <c r="J1" s="210"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="266"/>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="207">
+      <c r="A2" s="272"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="211">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="208"/>
+      <c r="J2" s="212"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="269"/>
-      <c r="B3" s="270"/>
-      <c r="C3" s="270"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="209" t="str">
+      <c r="A3" s="275"/>
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="213" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="210"/>
+      <c r="J3" s="214"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -26121,37 +26126,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="272" t="str">
+      <c r="A1" s="278" t="str">
         <f>"LIVRABLES PROJET au "&amp;TEXT(D2,"jj/mm/aaaa")</f>
         <v>LIVRABLES PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="205" t="str">
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="209" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="206"/>
+      <c r="E1" s="210"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="274"/>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="207">
+      <c r="A2" s="280"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="211">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="208"/>
+      <c r="E2" s="212"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="276"/>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="209" t="str">
+      <c r="A3" s="282"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="213" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="210"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26317,8 +26322,8 @@
   </sheetPr>
   <dimension ref="A1:AM209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -26343,59 +26348,59 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="16"/>
-      <c r="B1" s="272" t="str">
+      <c r="B1" s="278" t="str">
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="227" t="str">
+      <c r="C1" s="284"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="233" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="222"/>
-      <c r="M1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="274"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="216">
+      <c r="B2" s="280"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="222">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="217"/>
-      <c r="M2" s="218"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="224"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="276"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277"/>
-      <c r="J3" s="284"/>
-      <c r="K3" s="219" t="str">
+      <c r="B3" s="282"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="287"/>
+      <c r="K3" s="225" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="220"/>
-      <c r="M3" s="221"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="227"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
@@ -26516,25 +26521,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="288" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="287"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="290"/>
       <c r="J7"/>
-      <c r="K7" s="285" t="s">
+      <c r="K7" s="288" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="286"/>
-      <c r="M7" s="286"/>
-      <c r="N7" s="286"/>
-      <c r="O7" s="286"/>
-      <c r="P7" s="286"/>
-      <c r="Q7" s="287"/>
+      <c r="L7" s="289"/>
+      <c r="M7" s="289"/>
+      <c r="N7" s="289"/>
+      <c r="O7" s="289"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="290"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -27505,48 +27510,56 @@
       <c r="AL22"/>
       <c r="AM22"/>
     </row>
-    <row r="23" spans="1:39" s="294" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="293"/>
-      <c r="C23" s="292"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="296"/>
-      <c r="F23" s="296"/>
-      <c r="G23" s="297"/>
-      <c r="H23" s="298"/>
-      <c r="I23" s="292"/>
-      <c r="K23" s="292" t="s">
+    <row r="23" spans="1:39" ht="27" customHeight="1">
+      <c r="A23" s="185"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="184"/>
+      <c r="K23" s="184" t="s">
         <v>307</v>
       </c>
-      <c r="L23" s="295" t="s">
+      <c r="L23" s="186" t="s">
         <v>308</v>
       </c>
-      <c r="M23" s="296"/>
-      <c r="N23" s="296"/>
-      <c r="O23" s="297"/>
-      <c r="P23" s="298"/>
-      <c r="Q23" s="292"/>
-      <c r="R23" s="293"/>
-      <c r="S23" s="293"/>
-      <c r="T23" s="293"/>
-      <c r="U23" s="293"/>
-      <c r="V23" s="293"/>
-      <c r="W23" s="293"/>
-      <c r="X23" s="293"/>
-      <c r="Y23" s="293"/>
-      <c r="Z23" s="293"/>
-      <c r="AA23" s="293"/>
-      <c r="AB23" s="293"/>
-      <c r="AC23" s="293"/>
-      <c r="AD23" s="293"/>
-      <c r="AE23" s="293"/>
-      <c r="AF23" s="293"/>
-      <c r="AG23" s="293"/>
-      <c r="AH23" s="293"/>
-      <c r="AI23" s="293"/>
-      <c r="AJ23" s="293"/>
-      <c r="AK23" s="293"/>
-      <c r="AL23" s="293"/>
-      <c r="AM23" s="293"/>
+      <c r="M23" s="187">
+        <v>45964</v>
+      </c>
+      <c r="N23" s="187">
+        <v>45966</v>
+      </c>
+      <c r="O23" s="188"/>
+      <c r="P23" s="171" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q23" s="184" t="s">
+        <v>223</v>
+      </c>
+      <c r="R23" s="185"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="185"/>
+      <c r="U23" s="185"/>
+      <c r="V23" s="185"/>
+      <c r="W23" s="185"/>
+      <c r="X23" s="185"/>
+      <c r="Y23" s="185"/>
+      <c r="Z23" s="185"/>
+      <c r="AA23" s="185"/>
+      <c r="AB23" s="185"/>
+      <c r="AC23" s="185"/>
+      <c r="AD23" s="185"/>
+      <c r="AE23" s="185"/>
+      <c r="AF23" s="185"/>
+      <c r="AG23" s="185"/>
+      <c r="AH23" s="185"/>
+      <c r="AI23" s="185"/>
+      <c r="AJ23" s="185"/>
+      <c r="AK23" s="185"/>
+      <c r="AL23" s="185"/>
+      <c r="AM23" s="185"/>
     </row>
     <row r="24" spans="1:39" ht="27" customHeight="1">
       <c r="A24"/>
@@ -27578,10 +27591,10 @@
         <v>247</v>
       </c>
       <c r="M24" s="172">
-        <v>45976</v>
+        <v>45967</v>
       </c>
       <c r="N24" s="172">
-        <v>45977</v>
+        <v>45969</v>
       </c>
       <c r="O24" s="170">
         <v>7</v>
@@ -27589,7 +27602,9 @@
       <c r="P24" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="Q24" s="170"/>
+      <c r="Q24" s="170" t="s">
+        <v>223</v>
+      </c>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
@@ -27643,10 +27658,10 @@
         <v>248</v>
       </c>
       <c r="M25" s="172">
-        <v>45977</v>
+        <v>45970</v>
       </c>
       <c r="N25" s="172">
-        <v>45979</v>
+        <v>45974</v>
       </c>
       <c r="O25" s="170" t="s">
         <v>249</v>
@@ -27654,7 +27669,9 @@
       <c r="P25" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="Q25" s="170"/>
+      <c r="Q25" s="170" t="s">
+        <v>309</v>
+      </c>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
@@ -27708,10 +27725,10 @@
         <v>251</v>
       </c>
       <c r="M26" s="172">
-        <v>45980</v>
+        <v>45975</v>
       </c>
       <c r="N26" s="172">
-        <v>45981</v>
+        <v>45977</v>
       </c>
       <c r="O26" s="170" t="s">
         <v>252</v>
@@ -27719,7 +27736,9 @@
       <c r="P26" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="Q26" s="170"/>
+      <c r="Q26" s="170" t="s">
+        <v>310</v>
+      </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
@@ -27953,28 +27972,28 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="278">
+      <c r="C31" s="291">
         <v>21</v>
       </c>
-      <c r="D31" s="279" t="s">
+      <c r="D31" s="292" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="280">
+      <c r="E31" s="293">
         <v>46003</v>
       </c>
-      <c r="F31" s="280">
+      <c r="F31" s="293">
         <v>45943</v>
       </c>
       <c r="G31" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="H31" s="279" t="s">
+      <c r="H31" s="292" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="278" t="s">
+      <c r="I31" s="291" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="278"/>
+      <c r="K31" s="291"/>
       <c r="L31" s="171"/>
       <c r="M31" s="172"/>
       <c r="N31" s="172"/>
@@ -28006,16 +28025,16 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="278"/>
-      <c r="D32" s="279"/>
-      <c r="E32" s="280"/>
-      <c r="F32" s="280"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="292"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="293"/>
       <c r="G32" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="H32" s="279"/>
-      <c r="I32" s="278"/>
-      <c r="K32" s="278"/>
+      <c r="H32" s="292"/>
+      <c r="I32" s="291"/>
+      <c r="K32" s="291"/>
       <c r="L32" s="171"/>
       <c r="M32" s="172"/>
       <c r="N32" s="172"/>
@@ -35117,12 +35136,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C31:C32"/>
@@ -35130,6 +35143,12 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35165,46 +35184,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="272" t="str">
+      <c r="A1" s="278" t="str">
         <f>"BILAN au "&amp;TEXT(G2,"jj/mm/aaaa")</f>
         <v>BILAN au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="290" t="str">
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="296" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="291"/>
+      <c r="H1" s="297"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="274"/>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="207">
+      <c r="A2" s="280"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="211">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="208"/>
+      <c r="H2" s="212"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="276"/>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="209" t="str">
+      <c r="A3" s="282"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="213" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="210"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35218,24 +35237,24 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="288"/>
-      <c r="B7" s="289"/>
-      <c r="C7" s="289"/>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
+      <c r="A7" s="294"/>
+      <c r="B7" s="295"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
     </row>
     <row r="8" spans="1:8" ht="87" customHeight="1">
-      <c r="A8" s="288"/>
-      <c r="B8" s="289"/>
-      <c r="C8" s="289"/>
-      <c r="D8" s="289"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="289"/>
+      <c r="A8" s="294"/>
+      <c r="B8" s="295"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
+      <c r="F8" s="295"/>
+      <c r="G8" s="295"/>
+      <c r="H8" s="295"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="76" t="s">
@@ -35243,24 +35262,24 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="288"/>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
+      <c r="A10" s="294"/>
+      <c r="B10" s="295"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="295"/>
+      <c r="E10" s="295"/>
+      <c r="F10" s="295"/>
+      <c r="G10" s="295"/>
+      <c r="H10" s="295"/>
     </row>
     <row r="11" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A11" s="288"/>
-      <c r="B11" s="289"/>
-      <c r="C11" s="289"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="289"/>
-      <c r="H11" s="289"/>
+      <c r="A11" s="294"/>
+      <c r="B11" s="295"/>
+      <c r="C11" s="295"/>
+      <c r="D11" s="295"/>
+      <c r="E11" s="295"/>
+      <c r="F11" s="295"/>
+      <c r="G11" s="295"/>
+      <c r="H11" s="295"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="76" t="s">
@@ -35268,24 +35287,24 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="288"/>
-      <c r="B13" s="289"/>
-      <c r="C13" s="289"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="289"/>
-      <c r="H13" s="289"/>
+      <c r="A13" s="294"/>
+      <c r="B13" s="295"/>
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="295"/>
+      <c r="G13" s="295"/>
+      <c r="H13" s="295"/>
     </row>
     <row r="14" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A14" s="288"/>
-      <c r="B14" s="289"/>
-      <c r="C14" s="289"/>
-      <c r="D14" s="289"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="289"/>
-      <c r="G14" s="289"/>
-      <c r="H14" s="289"/>
+      <c r="A14" s="294"/>
+      <c r="B14" s="295"/>
+      <c r="C14" s="295"/>
+      <c r="D14" s="295"/>
+      <c r="E14" s="295"/>
+      <c r="F14" s="295"/>
+      <c r="G14" s="295"/>
+      <c r="H14" s="295"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -35376,11 +35395,11 @@
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
-      <c r="G1" s="205" t="str">
+      <c r="G1" s="209" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="206"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="115"/>
@@ -35389,11 +35408,11 @@
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
       <c r="F2" s="119"/>
-      <c r="G2" s="207">
+      <c r="G2" s="211">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="208"/>
+      <c r="H2" s="212"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35402,11 +35421,11 @@
       <c r="D3" s="120"/>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
-      <c r="G3" s="209" t="str">
+      <c r="G3" s="213" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="210"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35436,16 +35455,16 @@
       <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="211" t="s">
+      <c r="A8" s="215" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35502,10 +35521,10 @@
       <c r="F11" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="203" t="s">
+      <c r="G11" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="212"/>
+      <c r="H11" s="217"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="131" t="s">
@@ -35526,10 +35545,10 @@
       <c r="F12" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="203" t="s">
+      <c r="G12" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="204"/>
+      <c r="H12" s="218"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35555,10 +35574,10 @@
         <v>131</v>
       </c>
       <c r="F13" s="133"/>
-      <c r="G13" s="203" t="s">
+      <c r="G13" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="204"/>
+      <c r="H13" s="218"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="131" t="s">
@@ -35579,10 +35598,10 @@
       <c r="F14" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="203" t="s">
+      <c r="G14" s="216" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="204"/>
+      <c r="H14" s="218"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="131" t="s">
@@ -35603,10 +35622,10 @@
       <c r="F15" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="203" t="s">
+      <c r="G15" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="204"/>
+      <c r="H15" s="218"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35634,10 +35653,10 @@
       <c r="F16" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="203" t="s">
+      <c r="G16" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="204"/>
+      <c r="H16" s="218"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="131" t="s">
@@ -35658,10 +35677,10 @@
       <c r="F17" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="203" t="s">
+      <c r="G17" s="216" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="204"/>
+      <c r="H17" s="218"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="131" t="s">
@@ -35682,10 +35701,10 @@
       <c r="F18" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="203" t="s">
+      <c r="G18" s="216" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="204"/>
+      <c r="H18" s="218"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="131" t="s">
@@ -35706,10 +35725,10 @@
       <c r="F19" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="203" t="s">
+      <c r="G19" s="216" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="204"/>
+      <c r="H19" s="218"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="131" t="s">
@@ -35730,10 +35749,10 @@
       <c r="F20" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="203" t="s">
+      <c r="G20" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="204"/>
+      <c r="H20" s="218"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="131" t="s">
@@ -35754,10 +35773,10 @@
       <c r="F21" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="203" t="s">
+      <c r="G21" s="216" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="204"/>
+      <c r="H21" s="218"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="131" t="s">
@@ -35778,10 +35797,10 @@
       <c r="F22" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="203" t="s">
+      <c r="G22" s="216" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="204"/>
+      <c r="H22" s="218"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="131" t="s">
@@ -35802,10 +35821,10 @@
       <c r="F23" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="203" t="s">
+      <c r="G23" s="216" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="204"/>
+      <c r="H23" s="218"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="131" t="s">
@@ -35826,10 +35845,10 @@
       <c r="F24" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="203" t="s">
+      <c r="G24" s="216" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="204"/>
+      <c r="H24" s="218"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="131" t="s">
@@ -35850,10 +35869,10 @@
       <c r="F25" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="G25" s="203" t="s">
+      <c r="G25" s="216" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="204"/>
+      <c r="H25" s="218"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="131" t="s">
@@ -35874,10 +35893,10 @@
       <c r="F26" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="203" t="s">
+      <c r="G26" s="216" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="204"/>
+      <c r="H26" s="218"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="131" t="s">
@@ -35898,10 +35917,10 @@
       <c r="F27" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="203" t="s">
+      <c r="G27" s="216" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="204"/>
+      <c r="H27" s="218"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="131" t="s">
@@ -35922,10 +35941,10 @@
       <c r="F28" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="203" t="s">
+      <c r="G28" s="216" t="s">
         <v>206</v>
       </c>
-      <c r="H28" s="204"/>
+      <c r="H28" s="218"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="131" t="s">
@@ -35946,10 +35965,10 @@
       <c r="F29" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="203" t="s">
+      <c r="G29" s="216" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="204"/>
+      <c r="H29" s="218"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="131" t="s">
@@ -35964,26 +35983,11 @@
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="204"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -35993,6 +35997,21 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -36047,12 +36066,12 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="213" t="str">
+      <c r="K1" s="219" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="214"/>
-      <c r="M1" s="215"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="221"/>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -36064,12 +36083,12 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="216">
+      <c r="K2" s="222">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="217"/>
-      <c r="M2" s="218"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="224"/>
     </row>
     <row r="3" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -36081,12 +36100,12 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="219" t="str">
+      <c r="K3" s="225" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="220"/>
-      <c r="M3" s="221"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="227"/>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -36245,12 +36264,12 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="213" t="str">
+      <c r="K1" s="219" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="214"/>
-      <c r="M1" s="215"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="221"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -36262,12 +36281,12 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="216">
+      <c r="K2" s="222">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="217"/>
-      <c r="M2" s="218"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="224"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -36279,12 +36298,12 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="219" t="str">
+      <c r="K3" s="225" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="220"/>
-      <c r="M3" s="221"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="227"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37135,13 +37154,13 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="213" t="str">
+      <c r="K1" s="219" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="222"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="215"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="221"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -37153,13 +37172,13 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="216">
+      <c r="K2" s="222">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="223"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -37171,13 +37190,13 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="219" t="str">
+      <c r="K3" s="225" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="221"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="227"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37530,9 +37549,9 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="3:13" ht="17.399999999999999" customHeight="1">
-      <c r="C53" s="225"/>
-      <c r="D53" s="225"/>
-      <c r="E53" s="225"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="231"/>
+      <c r="E53" s="231"/>
       <c r="F53" s="183"/>
       <c r="G53" s="183"/>
       <c r="H53" s="183"/>
@@ -37610,9 +37629,9 @@
       <c r="I59" s="17"/>
     </row>
     <row r="67" spans="3:16">
-      <c r="C67" s="225"/>
-      <c r="D67" s="226"/>
-      <c r="E67" s="226"/>
+      <c r="C67" s="231"/>
+      <c r="D67" s="232"/>
+      <c r="E67" s="232"/>
       <c r="F67" s="183"/>
       <c r="G67" s="183"/>
       <c r="H67" s="183"/>
@@ -37768,12 +37787,12 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="227" t="str">
+      <c r="K1" s="233" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="222"/>
-      <c r="M1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -37785,12 +37804,12 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="216">
+      <c r="K2" s="222">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="217"/>
-      <c r="M2" s="218"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="224"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -37802,12 +37821,12 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="219" t="str">
+      <c r="K3" s="225" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="220"/>
-      <c r="M3" s="221"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="227"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -38469,25 +38488,25 @@
       <c r="O27"/>
     </row>
     <row r="28" spans="2:15" ht="28.8" customHeight="1">
-      <c r="B28" s="229">
+      <c r="B28" s="235">
         <v>21</v>
       </c>
-      <c r="C28" s="231" t="s">
+      <c r="C28" s="237" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="233">
+      <c r="D28" s="239">
         <v>46003</v>
       </c>
-      <c r="E28" s="233">
+      <c r="E28" s="239">
         <v>45943</v>
       </c>
       <c r="F28" s="159" t="s">
         <v>262</v>
       </c>
-      <c r="G28" s="231" t="s">
+      <c r="G28" s="237" t="s">
         <v>230</v>
       </c>
-      <c r="H28" s="229" t="s">
+      <c r="H28" s="235" t="s">
         <v>223</v>
       </c>
       <c r="I28"/>
@@ -38499,15 +38518,15 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B29" s="230"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="240"/>
+      <c r="E29" s="240"/>
       <c r="F29" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="G29" s="232"/>
-      <c r="H29" s="230"/>
+      <c r="G29" s="238"/>
+      <c r="H29" s="236"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -38700,49 +38719,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="244" t="str">
+      <c r="A1" s="250" t="str">
         <f>"Risques / opportunités au "&amp;TEXT(F2,"jj/MM/AAAA")</f>
         <v>Risques / opportunités au 25/09/Freitag</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="235" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="241" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="237"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="243"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="246"/>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="238">
+      <c r="A2" s="252"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="244">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="240"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="246"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="248"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="241" t="str">
+      <c r="A3" s="254"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="247" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="243"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
+      <c r="I3" s="249"/>
     </row>
     <row r="4" spans="1:9">
       <c r="F4" s="31"/>

--- a/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A0BEC0-894D-4CA7-8895-B1292ADB1454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC0C8A-4644-43B1-B270-8FAD195AC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7432,9 +7432,39 @@
     <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7459,35 +7489,11 @@
     <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7510,13 +7516,7 @@
     <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7712,6 +7712,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7732,15 +7741,6 @@
     </xf>
     <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -24302,11 +24302,11 @@
       <c r="I1" s="122"/>
       <c r="J1" s="122"/>
       <c r="K1" s="122"/>
-      <c r="L1" s="199" t="s">
+      <c r="L1" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="200"/>
-      <c r="N1" s="201"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24320,11 +24320,11 @@
       <c r="I2" s="124"/>
       <c r="J2" s="124"/>
       <c r="K2" s="124"/>
-      <c r="L2" s="202">
+      <c r="L2" s="193">
         <v>45912</v>
       </c>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="125"/>
@@ -24337,34 +24337,34 @@
       <c r="I3" s="126"/>
       <c r="J3" s="126"/>
       <c r="K3" s="126"/>
-      <c r="L3" s="205" t="s">
+      <c r="L3" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="206"/>
-      <c r="N3" s="207"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="198"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="190"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="208" t="s">
+      <c r="E5" s="200" t="s">
         <v>287</v>
       </c>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="208"/>
-      <c r="K5" s="208"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="208"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24381,23 +24381,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="190" t="s">
+      <c r="B7" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="190"/>
+      <c r="C7" s="199"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="193" t="s">
+      <c r="E7" s="203" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="194"/>
-      <c r="N7" s="195"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="205"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24415,23 +24415,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="196" t="s">
+      <c r="B9" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="196"/>
+      <c r="C9" s="206"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="197" t="s">
+      <c r="E9" s="207" t="s">
         <v>304</v>
       </c>
-      <c r="F9" s="198"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="208"/>
+      <c r="N9" s="208"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24449,23 +24449,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="190"/>
+      <c r="C11" s="199"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="197" t="s">
+      <c r="E11" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="208"/>
+      <c r="N11" s="208"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24483,23 +24483,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="190"/>
+      <c r="C13" s="199"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="191" t="s">
+      <c r="E13" s="201" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="192"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -24523,11 +24523,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -24536,6 +24531,11 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -24588,11 +24588,11 @@
       <c r="F1" s="257"/>
       <c r="G1" s="257"/>
       <c r="H1" s="258"/>
-      <c r="I1" s="209" t="str">
+      <c r="I1" s="211" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="210"/>
+      <c r="J1" s="212"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
       <c r="A2" s="259"/>
@@ -24603,11 +24603,11 @@
       <c r="F2" s="260"/>
       <c r="G2" s="260"/>
       <c r="H2" s="261"/>
-      <c r="I2" s="211">
+      <c r="I2" s="213">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="212"/>
+      <c r="J2" s="214"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="262"/>
@@ -24618,11 +24618,11 @@
       <c r="F3" s="263"/>
       <c r="G3" s="263"/>
       <c r="H3" s="264"/>
-      <c r="I3" s="213" t="str">
+      <c r="I3" s="215" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="214"/>
+      <c r="J3" s="216"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -25289,11 +25289,11 @@
       <c r="G1" s="257"/>
       <c r="H1" s="257"/>
       <c r="I1" s="258"/>
-      <c r="J1" s="209" t="str">
+      <c r="J1" s="211" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="210"/>
+      <c r="K1" s="212"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="260"/>
@@ -25305,11 +25305,11 @@
       <c r="G2" s="260"/>
       <c r="H2" s="260"/>
       <c r="I2" s="261"/>
-      <c r="J2" s="211">
+      <c r="J2" s="213">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="212"/>
+      <c r="K2" s="214"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="263"/>
@@ -25321,11 +25321,11 @@
       <c r="G3" s="263"/>
       <c r="H3" s="263"/>
       <c r="I3" s="264"/>
-      <c r="J3" s="213" t="str">
+      <c r="J3" s="215" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="214"/>
+      <c r="K3" s="216"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25525,11 +25525,11 @@
       <c r="F1" s="270"/>
       <c r="G1" s="270"/>
       <c r="H1" s="271"/>
-      <c r="I1" s="209" t="str">
+      <c r="I1" s="211" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="210"/>
+      <c r="J1" s="212"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="272"/>
@@ -25540,11 +25540,11 @@
       <c r="F2" s="273"/>
       <c r="G2" s="273"/>
       <c r="H2" s="274"/>
-      <c r="I2" s="211">
+      <c r="I2" s="213">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="212"/>
+      <c r="J2" s="214"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="275"/>
@@ -25555,11 +25555,11 @@
       <c r="F3" s="276"/>
       <c r="G3" s="276"/>
       <c r="H3" s="277"/>
-      <c r="I3" s="213" t="str">
+      <c r="I3" s="215" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="214"/>
+      <c r="J3" s="216"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -26132,31 +26132,31 @@
       </c>
       <c r="B1" s="279"/>
       <c r="C1" s="279"/>
-      <c r="D1" s="209" t="str">
+      <c r="D1" s="211" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="210"/>
+      <c r="E1" s="212"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="280"/>
       <c r="B2" s="281"/>
       <c r="C2" s="281"/>
-      <c r="D2" s="211">
+      <c r="D2" s="213">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="212"/>
+      <c r="E2" s="214"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="282"/>
       <c r="B3" s="283"/>
       <c r="C3" s="283"/>
-      <c r="D3" s="213" t="str">
+      <c r="D3" s="215" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="214"/>
+      <c r="E3" s="216"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26323,7 +26323,7 @@
   <dimension ref="A1:AM209"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -26352,14 +26352,14 @@
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="284"/>
+      <c r="C1" s="287"/>
       <c r="D1" s="279"/>
       <c r="E1" s="279"/>
       <c r="F1" s="279"/>
       <c r="G1" s="279"/>
       <c r="H1" s="279"/>
       <c r="I1" s="279"/>
-      <c r="J1" s="285"/>
+      <c r="J1" s="288"/>
       <c r="K1" s="233" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
@@ -26376,7 +26376,7 @@
       <c r="G2" s="281"/>
       <c r="H2" s="281"/>
       <c r="I2" s="281"/>
-      <c r="J2" s="286"/>
+      <c r="J2" s="289"/>
       <c r="K2" s="222">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
@@ -26394,7 +26394,7 @@
       <c r="G3" s="283"/>
       <c r="H3" s="283"/>
       <c r="I3" s="283"/>
-      <c r="J3" s="287"/>
+      <c r="J3" s="290"/>
       <c r="K3" s="225" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
@@ -26521,25 +26521,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="291" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="293"/>
       <c r="J7"/>
-      <c r="K7" s="288" t="s">
+      <c r="K7" s="291" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="289"/>
-      <c r="M7" s="289"/>
-      <c r="N7" s="289"/>
-      <c r="O7" s="289"/>
-      <c r="P7" s="289"/>
-      <c r="Q7" s="290"/>
+      <c r="L7" s="292"/>
+      <c r="M7" s="292"/>
+      <c r="N7" s="292"/>
+      <c r="O7" s="292"/>
+      <c r="P7" s="292"/>
+      <c r="Q7" s="293"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -27972,28 +27972,28 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="291">
+      <c r="C31" s="284">
         <v>21</v>
       </c>
-      <c r="D31" s="292" t="s">
+      <c r="D31" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="293">
+      <c r="E31" s="286">
         <v>46003</v>
       </c>
-      <c r="F31" s="293">
+      <c r="F31" s="286">
         <v>45943</v>
       </c>
       <c r="G31" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="H31" s="292" t="s">
+      <c r="H31" s="285" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="291" t="s">
+      <c r="I31" s="284" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="291"/>
+      <c r="K31" s="284"/>
       <c r="L31" s="171"/>
       <c r="M31" s="172"/>
       <c r="N31" s="172"/>
@@ -28025,16 +28025,16 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="291"/>
-      <c r="D32" s="292"/>
-      <c r="E32" s="293"/>
-      <c r="F32" s="293"/>
+      <c r="C32" s="284"/>
+      <c r="D32" s="285"/>
+      <c r="E32" s="286"/>
+      <c r="F32" s="286"/>
       <c r="G32" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="H32" s="292"/>
-      <c r="I32" s="291"/>
-      <c r="K32" s="291"/>
+      <c r="H32" s="285"/>
+      <c r="I32" s="284"/>
+      <c r="K32" s="284"/>
       <c r="L32" s="171"/>
       <c r="M32" s="172"/>
       <c r="N32" s="172"/>
@@ -35136,6 +35136,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C31:C32"/>
@@ -35143,12 +35149,6 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35206,11 +35206,11 @@
       <c r="D2" s="281"/>
       <c r="E2" s="281"/>
       <c r="F2" s="281"/>
-      <c r="G2" s="211">
+      <c r="G2" s="213">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="212"/>
+      <c r="H2" s="214"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="282"/>
@@ -35219,11 +35219,11 @@
       <c r="D3" s="283"/>
       <c r="E3" s="283"/>
       <c r="F3" s="283"/>
-      <c r="G3" s="213" t="str">
+      <c r="G3" s="215" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="216"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35395,11 +35395,11 @@
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
-      <c r="G1" s="209" t="str">
+      <c r="G1" s="211" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="210"/>
+      <c r="H1" s="212"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="115"/>
@@ -35408,11 +35408,11 @@
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
       <c r="F2" s="119"/>
-      <c r="G2" s="211">
+      <c r="G2" s="213">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="212"/>
+      <c r="H2" s="214"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35421,11 +35421,11 @@
       <c r="D3" s="120"/>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
-      <c r="G3" s="213" t="str">
+      <c r="G3" s="215" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="216"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35455,16 +35455,16 @@
       <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="217" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35521,10 +35521,10 @@
       <c r="F11" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="216" t="s">
+      <c r="G11" s="209" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="217"/>
+      <c r="H11" s="218"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="131" t="s">
@@ -35545,10 +35545,10 @@
       <c r="F12" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="216" t="s">
+      <c r="G12" s="209" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="218"/>
+      <c r="H12" s="210"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35574,10 +35574,10 @@
         <v>131</v>
       </c>
       <c r="F13" s="133"/>
-      <c r="G13" s="216" t="s">
+      <c r="G13" s="209" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="218"/>
+      <c r="H13" s="210"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="131" t="s">
@@ -35598,10 +35598,10 @@
       <c r="F14" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="216" t="s">
+      <c r="G14" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="218"/>
+      <c r="H14" s="210"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="131" t="s">
@@ -35622,10 +35622,10 @@
       <c r="F15" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="216" t="s">
+      <c r="G15" s="209" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="218"/>
+      <c r="H15" s="210"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35653,10 +35653,10 @@
       <c r="F16" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="216" t="s">
+      <c r="G16" s="209" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="218"/>
+      <c r="H16" s="210"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="131" t="s">
@@ -35677,10 +35677,10 @@
       <c r="F17" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="216" t="s">
+      <c r="G17" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="218"/>
+      <c r="H17" s="210"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="131" t="s">
@@ -35701,10 +35701,10 @@
       <c r="F18" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="216" t="s">
+      <c r="G18" s="209" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="218"/>
+      <c r="H18" s="210"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="131" t="s">
@@ -35725,10 +35725,10 @@
       <c r="F19" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="216" t="s">
+      <c r="G19" s="209" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="218"/>
+      <c r="H19" s="210"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="131" t="s">
@@ -35749,10 +35749,10 @@
       <c r="F20" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="216" t="s">
+      <c r="G20" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="218"/>
+      <c r="H20" s="210"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="131" t="s">
@@ -35773,10 +35773,10 @@
       <c r="F21" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="216" t="s">
+      <c r="G21" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="218"/>
+      <c r="H21" s="210"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="131" t="s">
@@ -35797,10 +35797,10 @@
       <c r="F22" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="216" t="s">
+      <c r="G22" s="209" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="218"/>
+      <c r="H22" s="210"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="131" t="s">
@@ -35821,10 +35821,10 @@
       <c r="F23" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="216" t="s">
+      <c r="G23" s="209" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="218"/>
+      <c r="H23" s="210"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="131" t="s">
@@ -35845,10 +35845,10 @@
       <c r="F24" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="216" t="s">
+      <c r="G24" s="209" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="218"/>
+      <c r="H24" s="210"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="131" t="s">
@@ -35869,10 +35869,10 @@
       <c r="F25" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="G25" s="216" t="s">
+      <c r="G25" s="209" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="218"/>
+      <c r="H25" s="210"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="131" t="s">
@@ -35893,10 +35893,10 @@
       <c r="F26" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="216" t="s">
+      <c r="G26" s="209" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="218"/>
+      <c r="H26" s="210"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="131" t="s">
@@ -35917,10 +35917,10 @@
       <c r="F27" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="216" t="s">
+      <c r="G27" s="209" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="218"/>
+      <c r="H27" s="210"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="131" t="s">
@@ -35941,10 +35941,10 @@
       <c r="F28" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="216" t="s">
+      <c r="G28" s="209" t="s">
         <v>206</v>
       </c>
-      <c r="H28" s="218"/>
+      <c r="H28" s="210"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="131" t="s">
@@ -35965,10 +35965,10 @@
       <c r="F29" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="216" t="s">
+      <c r="G29" s="209" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="218"/>
+      <c r="H29" s="210"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="131" t="s">
@@ -35983,11 +35983,26 @@
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="218"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -35997,21 +36012,6 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>

--- a/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_exel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC0C8A-4644-43B1-B270-8FAD195AC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365CA27-1E2F-46D6-9F67-B06EFB2E4F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-Identification Projet" sheetId="39" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="326">
   <si>
     <t>Responsable</t>
   </si>
@@ -1036,13 +1036,6 @@
     <t>Période du 12.09.2025 au 01.10.2025</t>
   </si>
   <si>
-    <t>1. Très bon travail en équipe. Tout le monde a mouillé le maillot pour faire avancer 
-le projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Organisation un peu difficile. Beaucoup de difficultés à fixer les rendez-vous de travail vu les différences d'emplois de temps. </t>
-  </si>
-  <si>
     <t>Période du 02.10.2025 au 11.10.2025</t>
   </si>
   <si>
@@ -1079,9 +1072,6 @@
     <t>chacun va chercher comment travailler avec git et venir avec le résultat dimanche (delais 12.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Decision de travailler avec Git et Discord </t>
-  </si>
-  <si>
     <t>Gihalu Russel</t>
   </si>
   <si>
@@ -1095,9 +1085,6 @@
   </si>
   <si>
     <t>Planning initial de reférence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tout s'est bien passé chacun a éffectué ses tâches hebdomadaires avec succès et dans les delais. </t>
   </si>
   <si>
     <t>Flexibilité</t>
@@ -1143,22 +1130,79 @@
 </t>
   </si>
   <si>
-    <t>Le plannig n'a pas été respecté à la lettre à cause des  cc d'autres matieres</t>
-  </si>
-  <si>
     <t>6,3hj</t>
   </si>
   <si>
     <t>14'</t>
   </si>
   <si>
-    <t>Implémenter les manques demandés par le professeur</t>
-  </si>
-  <si>
     <t>1.5hj</t>
   </si>
   <si>
     <t>1.5hhj</t>
+  </si>
+  <si>
+    <t>Implémenter les manques demandés par le professeur sur le premier CC2</t>
+  </si>
+  <si>
+    <t>Décision de communiquer sur whassap au lieu de discord</t>
+  </si>
+  <si>
+    <t>Beaucoup plus utilisé par le s membres du groupe</t>
+  </si>
+  <si>
+    <t>Fin du projet</t>
+  </si>
+  <si>
+    <t>Monter un powerpoint pour notre présentation</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Faire les modifications demandées par le proffesseur</t>
+  </si>
+  <si>
+    <t>DD,DR,DW</t>
+  </si>
+  <si>
+    <t>Faire un bilan hebdomadaire tous les dimanches</t>
+  </si>
+  <si>
+    <t>Projet sur une courte période</t>
+  </si>
+  <si>
+    <t>1. Excellent travail d’équipe. Tout le monde s’est pleinement investi pour faire avancer le projet.</t>
+  </si>
+  <si>
+    <t>1. L’organisation a été un peu difficile. Il a été compliqué de fixer des rendez-vous de travail en raison des différences d’emplois du temps.</t>
+  </si>
+  <si>
+    <t>1. Tout s’est bien passé : chacun a accompli ses tâches hebdomadaires avec succès et dans les délais.</t>
+  </si>
+  <si>
+    <t>1. Nous avons réussi à effectuer nos tests malgré la difficulté à trouver un créneau commun.</t>
+  </si>
+  <si>
+    <t>1. Problème d’organisation : nous avons eu du mal à trouver un compromis concernant l’horaire de notre rendez-vous, car nous avions tous des contrôles continus.</t>
+  </si>
+  <si>
+    <t>1. Un membre du groupe s’est porté volontaire pour reprendre la tâche qui n’avait pas pu être réalisée par la personne à qui elle avait été attribuée</t>
+  </si>
+  <si>
+    <t>1. Problème d’organisation : le membre du groupe chargé de préparer le PowerPoint a eu un empêchement.</t>
+  </si>
+  <si>
+    <t>2. Congés : le projet a été mis en pause pendant une courte période.</t>
+  </si>
+  <si>
+    <t>1. Nous nous sommes adaptés à l’apparition de nouvelles tâches dans le projet.</t>
+  </si>
+  <si>
+    <t>1. De nouvelles tâches sont apparues dans le projet. Nous avons rencontré des difficultés d’organisation pour les répartir : qui devait faire quoi ?</t>
+  </si>
+  <si>
+    <t>1. Le planning n’a pas été respecté à la lettre en raison des contrôles continus dans d’autres UE.</t>
   </si>
 </sst>
 </file>
@@ -6877,7 +6921,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7419,7 +7463,6 @@
     <xf numFmtId="0" fontId="97" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="97" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7429,8 +7472,32 @@
     <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7459,64 +7526,37 @@
     <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7712,6 +7752,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -7720,27 +7781,6 @@
     </xf>
     <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -24302,11 +24342,11 @@
       <c r="I1" s="122"/>
       <c r="J1" s="122"/>
       <c r="K1" s="122"/>
-      <c r="L1" s="190" t="s">
+      <c r="L1" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="199"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24320,11 +24360,11 @@
       <c r="I2" s="124"/>
       <c r="J2" s="124"/>
       <c r="K2" s="124"/>
-      <c r="L2" s="193">
+      <c r="L2" s="200">
         <v>45912</v>
       </c>
-      <c r="M2" s="194"/>
-      <c r="N2" s="195"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="202"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="125"/>
@@ -24337,34 +24377,34 @@
       <c r="I3" s="126"/>
       <c r="J3" s="126"/>
       <c r="K3" s="126"/>
-      <c r="L3" s="196" t="s">
+      <c r="L3" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="197"/>
-      <c r="N3" s="198"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="205"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="199"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="200" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
+      <c r="E5" s="206" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24381,23 +24421,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="199"/>
+      <c r="C7" s="188"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="203" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="205"/>
+      <c r="E7" s="191" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24415,23 +24455,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="206"/>
+      <c r="C9" s="194"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="207" t="s">
-        <v>304</v>
-      </c>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="208"/>
+      <c r="E9" s="195" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24449,23 +24489,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="199"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="207" t="s">
+      <c r="E11" s="195" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="208"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="208"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="208"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="196"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24483,23 +24523,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="199" t="s">
+      <c r="B13" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="199"/>
+      <c r="C13" s="188"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="201" t="s">
-        <v>288</v>
-      </c>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
+      <c r="E13" s="189" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -24523,6 +24563,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -24531,11 +24576,6 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -24558,7 +24598,7 @@
   <dimension ref="A1:BH17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -24577,52 +24617,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A1" s="256" t="str">
+      <c r="A1" s="254" t="str">
         <f>"LISTE DES ACTIONS au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>LISTE DES ACTIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="211" t="str">
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="212"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A2" s="259"/>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="213">
+      <c r="A2" s="257"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="214"/>
+      <c r="J2" s="210"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="262"/>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="215" t="str">
+      <c r="A3" s="260"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="216"/>
+      <c r="J3" s="212"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -24712,15 +24752,31 @@
       <c r="BH5" s="30"/>
     </row>
     <row r="6" spans="1:60" s="30" customFormat="1" ht="15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
+      <c r="A6" s="77">
+        <v>1</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="81">
+        <v>45949</v>
+      </c>
+      <c r="E6" s="81">
+        <v>45950</v>
+      </c>
+      <c r="F6" s="81">
+        <v>45950</v>
+      </c>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81">
+        <v>45950</v>
+      </c>
+      <c r="I6" s="81">
+        <v>45950</v>
+      </c>
       <c r="J6" s="84"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -24774,10 +24830,18 @@
       <c r="BH6" s="3"/>
     </row>
     <row r="7" spans="1:60" s="23" customFormat="1" ht="15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
+      <c r="A7" s="77">
+        <v>2</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="81">
+        <v>45968</v>
+      </c>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="80"/>
@@ -25212,12 +25276,12 @@
     </row>
     <row r="16" spans="1:60">
       <c r="A16" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -25227,7 +25291,7 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A1:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:J10 A12:J12">
+  <conditionalFormatting sqref="A12:J12 A6:J10">
     <cfRule type="expression" dxfId="2" priority="25" stopIfTrue="1">
       <formula>IF($G6="Done",TRUE,FALSE)</formula>
     </cfRule>
@@ -25239,7 +25303,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G12" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G12" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Pending,Cancelled,Done,In Progress"</formula1>
     </dataValidation>
   </dataValidations>
@@ -25255,10 +25319,10 @@
   <sheetPr codeName="Feuil14">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -25269,7 +25333,7 @@
     <col min="4" max="4" width="6.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="26.5546875" style="3" customWidth="1"/>
@@ -25277,55 +25341,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="270" t="str">
+      <c r="A1" s="268" t="str">
         <f>"LISTE DES DECISIONS au "&amp;TEXT(J2,"jj/mm/aaaa")</f>
         <v>LISTE DES DECISIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="211" t="str">
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="212"/>
+      <c r="K1" s="208"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="260"/>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="213">
+      <c r="A2" s="258"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="214"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="263"/>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="215" t="str">
+      <c r="A3" s="261"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="216"/>
+      <c r="K3" s="212"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25337,13 +25401,13 @@
       <c r="A5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="265" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="269"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
       <c r="G5" s="94" t="s">
         <v>22</v>
       </c>
@@ -25364,64 +25428,92 @@
       <c r="A6" s="95">
         <v>1</v>
       </c>
-      <c r="B6" s="265" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
+      <c r="B6" s="263" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
       <c r="G6" s="96" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H6" s="182">
         <v>45908</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="97"/>
+      <c r="I6" s="182">
+        <v>49655</v>
+      </c>
+      <c r="J6" s="97" t="s">
+        <v>308</v>
+      </c>
       <c r="K6" s="98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="95">
         <v>2</v>
       </c>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98"/>
-    </row>
-    <row r="8" spans="1:11" ht="15">
+      <c r="B7" s="263" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="182">
+        <v>45910</v>
+      </c>
+      <c r="I7" s="182">
+        <v>49655</v>
+      </c>
+      <c r="J7" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="95">
         <v>3</v>
       </c>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="98"/>
+      <c r="B8" s="263" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="182">
+        <v>45967</v>
+      </c>
+      <c r="I8" s="182">
+        <v>49655</v>
+      </c>
+      <c r="J8" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="98" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="95">
         <v>4</v>
       </c>
-      <c r="B9" s="266"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
       <c r="G9" s="99"/>
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
@@ -25432,11 +25524,11 @@
       <c r="A10" s="95">
         <v>5</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
@@ -25447,21 +25539,16 @@
       <c r="A11" s="95">
         <v>6</v>
       </c>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="264"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
       <c r="J11" s="100"/>
       <c r="K11" s="101"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="3" t="s">
-        <v>285</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -25514,52 +25601,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="256" t="str">
+      <c r="A1" s="254" t="str">
         <f>"DOCUMENTS PROJET au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>DOCUMENTS PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="211" t="str">
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="212"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="272"/>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="274"/>
-      <c r="I2" s="213">
+      <c r="A2" s="270"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="214"/>
+      <c r="J2" s="210"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="276"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="215" t="str">
+      <c r="A3" s="273"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="216"/>
+      <c r="J3" s="212"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -26126,37 +26213,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="278" t="str">
+      <c r="A1" s="276" t="str">
         <f>"LIVRABLES PROJET au "&amp;TEXT(D2,"jj/mm/aaaa")</f>
         <v>LIVRABLES PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="211" t="str">
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="212"/>
+      <c r="E1" s="208"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="280"/>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="213">
+      <c r="A2" s="278"/>
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="214"/>
+      <c r="E2" s="210"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="282"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="215" t="str">
+      <c r="A3" s="280"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="281"/>
+      <c r="D3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="216"/>
+      <c r="E3" s="212"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26322,8 +26409,8 @@
   </sheetPr>
   <dimension ref="A1:AM209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" topLeftCell="E16" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -26341,66 +26428,66 @@
     <col min="12" max="12" width="33" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="3"/>
+    <col min="15" max="15" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.6640625" style="3" customWidth="1"/>
     <col min="17" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="16"/>
-      <c r="B1" s="278" t="str">
+      <c r="B1" s="276" t="str">
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="287"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="233" t="str">
+      <c r="C1" s="282"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="283"/>
+      <c r="K1" s="231" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="228"/>
-      <c r="M1" s="234"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="232"/>
     </row>
     <row r="2" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="280"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="222">
+      <c r="B2" s="278"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="284"/>
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="223"/>
-      <c r="M2" s="224"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="222"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="282"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="225" t="str">
+      <c r="B3" s="280"/>
+      <c r="C3" s="281"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="281"/>
+      <c r="H3" s="281"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="226"/>
-      <c r="M3" s="227"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="225"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
@@ -26521,25 +26608,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="291" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="293"/>
+      <c r="C7" s="286" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="288"/>
       <c r="J7"/>
-      <c r="K7" s="291" t="s">
+      <c r="K7" s="286" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="292"/>
-      <c r="M7" s="292"/>
-      <c r="N7" s="292"/>
-      <c r="O7" s="292"/>
-      <c r="P7" s="292"/>
-      <c r="Q7" s="293"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="287"/>
+      <c r="N7" s="287"/>
+      <c r="O7" s="287"/>
+      <c r="P7" s="287"/>
+      <c r="Q7" s="288"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -26717,7 +26804,7 @@
       <c r="O10" s="169"/>
       <c r="P10" s="169"/>
       <c r="Q10" s="166" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
@@ -26784,7 +26871,7 @@
         <v>222</v>
       </c>
       <c r="Q11" s="170" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
@@ -26851,7 +26938,7 @@
         <v>225</v>
       </c>
       <c r="Q12" s="170" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -26910,7 +26997,7 @@
       <c r="O13" s="176"/>
       <c r="P13" s="177"/>
       <c r="Q13" s="173" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -26975,7 +27062,7 @@
         <v>230</v>
       </c>
       <c r="Q14" s="170" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -27161,7 +27248,7 @@
         <v>9</v>
       </c>
       <c r="L17" s="171" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M17" s="172">
         <v>45940</v>
@@ -27173,7 +27260,7 @@
         <v>7</v>
       </c>
       <c r="P17" s="171" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="170" t="s">
         <v>238</v>
@@ -27228,7 +27315,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="171" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M18" s="172">
         <v>45941</v>
@@ -27240,7 +27327,7 @@
         <v>236</v>
       </c>
       <c r="P18" s="171" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="170" t="s">
         <v>244</v>
@@ -27295,7 +27382,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="171" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M19" s="172">
         <v>45942</v>
@@ -27362,7 +27449,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="171" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M20" s="172">
         <v>45944</v>
@@ -27412,10 +27499,10 @@
       <c r="H21" s="171"/>
       <c r="I21" s="170"/>
       <c r="K21" s="170" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L21" s="171" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M21" s="172">
         <v>45950</v>
@@ -27425,7 +27512,7 @@
       </c>
       <c r="O21" s="170"/>
       <c r="P21" s="171" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q21" s="170" t="s">
         <v>231</v>
@@ -27511,98 +27598,98 @@
       <c r="AM22"/>
     </row>
     <row r="23" spans="1:39" ht="27" customHeight="1">
-      <c r="A23" s="185"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="184"/>
-      <c r="K23" s="184" t="s">
-        <v>307</v>
-      </c>
-      <c r="L23" s="186" t="s">
-        <v>308</v>
-      </c>
-      <c r="M23" s="187">
-        <v>45964</v>
-      </c>
-      <c r="N23" s="187">
-        <v>45966</v>
-      </c>
-      <c r="O23" s="188"/>
+      <c r="A23"/>
+      <c r="C23" s="170">
+        <v>14</v>
+      </c>
+      <c r="D23" s="171" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="172">
+        <v>45976</v>
+      </c>
+      <c r="F23" s="172">
+        <v>45977</v>
+      </c>
+      <c r="G23" s="170">
+        <v>7</v>
+      </c>
+      <c r="H23" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" s="170">
+        <v>14</v>
+      </c>
+      <c r="L23" s="171" t="s">
+        <v>247</v>
+      </c>
+      <c r="M23" s="172">
+        <v>45967</v>
+      </c>
+      <c r="N23" s="172">
+        <v>45969</v>
+      </c>
+      <c r="O23" s="170">
+        <v>7</v>
+      </c>
       <c r="P23" s="171" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q23" s="184" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q23" s="170" t="s">
         <v>223</v>
       </c>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="185"/>
-      <c r="AC23" s="185"/>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="185"/>
-      <c r="AF23" s="185"/>
-      <c r="AG23" s="185"/>
-      <c r="AH23" s="185"/>
-      <c r="AI23" s="185"/>
-      <c r="AJ23" s="185"/>
-      <c r="AK23" s="185"/>
-      <c r="AL23" s="185"/>
-      <c r="AM23" s="185"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
     </row>
     <row r="24" spans="1:39" ht="27" customHeight="1">
       <c r="A24"/>
-      <c r="C24" s="170">
-        <v>14</v>
-      </c>
-      <c r="D24" s="171" t="s">
-        <v>247</v>
-      </c>
-      <c r="E24" s="172">
-        <v>45976</v>
-      </c>
-      <c r="F24" s="172">
-        <v>45977</v>
-      </c>
-      <c r="G24" s="170">
-        <v>7</v>
-      </c>
-      <c r="H24" s="171" t="s">
-        <v>230</v>
-      </c>
-      <c r="I24" s="170" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24" s="170">
-        <v>14</v>
-      </c>
-      <c r="L24" s="171" t="s">
-        <v>247</v>
-      </c>
-      <c r="M24" s="172">
-        <v>45967</v>
-      </c>
-      <c r="N24" s="172">
-        <v>45969</v>
-      </c>
-      <c r="O24" s="170">
-        <v>7</v>
-      </c>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="170"/>
+      <c r="K24" s="184" t="s">
+        <v>302</v>
+      </c>
+      <c r="L24" s="185" t="s">
+        <v>305</v>
+      </c>
+      <c r="M24" s="186">
+        <v>45968</v>
+      </c>
+      <c r="N24" s="186">
+        <v>45970</v>
+      </c>
+      <c r="O24" s="187"/>
       <c r="P24" s="171" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q24" s="170" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q24" s="184" t="s">
         <v>223</v>
       </c>
       <c r="R24"/>
@@ -27670,7 +27757,7 @@
         <v>230</v>
       </c>
       <c r="Q25" s="170" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="R25"/>
       <c r="S25"/>
@@ -27737,7 +27824,7 @@
         <v>230</v>
       </c>
       <c r="Q26" s="170" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
@@ -27972,28 +28059,28 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="284">
+      <c r="C31" s="289">
         <v>21</v>
       </c>
-      <c r="D31" s="285" t="s">
+      <c r="D31" s="290" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="286">
+      <c r="E31" s="291">
         <v>46003</v>
       </c>
-      <c r="F31" s="286">
+      <c r="F31" s="291">
         <v>45943</v>
       </c>
       <c r="G31" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="H31" s="285" t="s">
+      <c r="H31" s="290" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="284" t="s">
+      <c r="I31" s="289" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="284"/>
+      <c r="K31" s="289"/>
       <c r="L31" s="171"/>
       <c r="M31" s="172"/>
       <c r="N31" s="172"/>
@@ -28025,16 +28112,16 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="284"/>
-      <c r="D32" s="285"/>
-      <c r="E32" s="286"/>
-      <c r="F32" s="286"/>
+      <c r="C32" s="289"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="291"/>
+      <c r="F32" s="291"/>
       <c r="G32" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="H32" s="285"/>
-      <c r="I32" s="284"/>
-      <c r="K32" s="284"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="289"/>
+      <c r="K32" s="289"/>
       <c r="L32" s="171"/>
       <c r="M32" s="172"/>
       <c r="N32" s="172"/>
@@ -35136,12 +35223,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C31:C32"/>
@@ -35149,6 +35230,12 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35166,7 +35253,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -35184,46 +35271,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="278" t="str">
+      <c r="A1" s="276" t="str">
         <f>"BILAN au "&amp;TEXT(G2,"jj/mm/aaaa")</f>
         <v>BILAN au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="296" t="str">
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="294" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="297"/>
+      <c r="H1" s="295"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="280"/>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="213">
+      <c r="A2" s="278"/>
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="214"/>
+      <c r="H2" s="210"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="282"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="215" t="str">
+      <c r="A3" s="280"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="281"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="216"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35237,24 +35324,24 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="294"/>
-      <c r="B7" s="295"/>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
+      <c r="A7" s="292"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="293"/>
     </row>
     <row r="8" spans="1:8" ht="87" customHeight="1">
-      <c r="A8" s="294"/>
-      <c r="B8" s="295"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
-      <c r="G8" s="295"/>
-      <c r="H8" s="295"/>
+      <c r="A8" s="292"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="293"/>
+      <c r="F8" s="293"/>
+      <c r="G8" s="293"/>
+      <c r="H8" s="293"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="76" t="s">
@@ -35262,24 +35349,24 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="294"/>
-      <c r="B10" s="295"/>
-      <c r="C10" s="295"/>
-      <c r="D10" s="295"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
-      <c r="G10" s="295"/>
-      <c r="H10" s="295"/>
+      <c r="A10" s="292"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
     </row>
     <row r="11" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A11" s="294"/>
-      <c r="B11" s="295"/>
-      <c r="C11" s="295"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="295"/>
-      <c r="G11" s="295"/>
-      <c r="H11" s="295"/>
+      <c r="A11" s="292"/>
+      <c r="B11" s="293"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="293"/>
+      <c r="E11" s="293"/>
+      <c r="F11" s="293"/>
+      <c r="G11" s="293"/>
+      <c r="H11" s="293"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="76" t="s">
@@ -35287,24 +35374,24 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="294"/>
-      <c r="B13" s="295"/>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
+      <c r="A13" s="292"/>
+      <c r="B13" s="293"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
     </row>
     <row r="14" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A14" s="294"/>
-      <c r="B14" s="295"/>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="295"/>
-      <c r="G14" s="295"/>
-      <c r="H14" s="295"/>
+      <c r="A14" s="292"/>
+      <c r="B14" s="293"/>
+      <c r="C14" s="293"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="293"/>
+      <c r="F14" s="293"/>
+      <c r="G14" s="293"/>
+      <c r="H14" s="293"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -35395,11 +35482,11 @@
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
-      <c r="G1" s="211" t="str">
+      <c r="G1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="212"/>
+      <c r="H1" s="208"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="115"/>
@@ -35408,11 +35495,11 @@
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
       <c r="F2" s="119"/>
-      <c r="G2" s="213">
+      <c r="G2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="214"/>
+      <c r="H2" s="210"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35421,11 +35508,11 @@
       <c r="D3" s="120"/>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
-      <c r="G3" s="215" t="str">
+      <c r="G3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="216"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35455,16 +35542,16 @@
       <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="217" t="s">
+      <c r="A8" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="217"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35521,10 +35608,10 @@
       <c r="F11" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="209" t="s">
+      <c r="G11" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="218"/>
+      <c r="H11" s="215"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="131" t="s">
@@ -35545,10 +35632,10 @@
       <c r="F12" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="209" t="s">
+      <c r="G12" s="214" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="210"/>
+      <c r="H12" s="216"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35574,10 +35661,10 @@
         <v>131</v>
       </c>
       <c r="F13" s="133"/>
-      <c r="G13" s="209" t="s">
+      <c r="G13" s="214" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="210"/>
+      <c r="H13" s="216"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="131" t="s">
@@ -35598,10 +35685,10 @@
       <c r="F14" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="209" t="s">
+      <c r="G14" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="210"/>
+      <c r="H14" s="216"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="131" t="s">
@@ -35622,10 +35709,10 @@
       <c r="F15" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="209" t="s">
+      <c r="G15" s="214" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="210"/>
+      <c r="H15" s="216"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35653,10 +35740,10 @@
       <c r="F16" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="209" t="s">
+      <c r="G16" s="214" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="210"/>
+      <c r="H16" s="216"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="131" t="s">
@@ -35677,10 +35764,10 @@
       <c r="F17" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="209" t="s">
+      <c r="G17" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="210"/>
+      <c r="H17" s="216"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="131" t="s">
@@ -35701,10 +35788,10 @@
       <c r="F18" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="209" t="s">
+      <c r="G18" s="214" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="210"/>
+      <c r="H18" s="216"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="131" t="s">
@@ -35725,10 +35812,10 @@
       <c r="F19" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="209" t="s">
+      <c r="G19" s="214" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="210"/>
+      <c r="H19" s="216"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="131" t="s">
@@ -35749,10 +35836,10 @@
       <c r="F20" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="209" t="s">
+      <c r="G20" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="210"/>
+      <c r="H20" s="216"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="131" t="s">
@@ -35773,10 +35860,10 @@
       <c r="F21" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="209" t="s">
+      <c r="G21" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="210"/>
+      <c r="H21" s="216"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="131" t="s">
@@ -35797,10 +35884,10 @@
       <c r="F22" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="209" t="s">
+      <c r="G22" s="214" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="210"/>
+      <c r="H22" s="216"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="131" t="s">
@@ -35821,10 +35908,10 @@
       <c r="F23" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="209" t="s">
+      <c r="G23" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="210"/>
+      <c r="H23" s="216"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="131" t="s">
@@ -35845,10 +35932,10 @@
       <c r="F24" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="209" t="s">
+      <c r="G24" s="214" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="210"/>
+      <c r="H24" s="216"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="131" t="s">
@@ -35869,10 +35956,10 @@
       <c r="F25" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="G25" s="209" t="s">
+      <c r="G25" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="210"/>
+      <c r="H25" s="216"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="131" t="s">
@@ -35893,10 +35980,10 @@
       <c r="F26" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="209" t="s">
+      <c r="G26" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="210"/>
+      <c r="H26" s="216"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="131" t="s">
@@ -35917,10 +36004,10 @@
       <c r="F27" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="209" t="s">
+      <c r="G27" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="210"/>
+      <c r="H27" s="216"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="131" t="s">
@@ -35941,10 +36028,10 @@
       <c r="F28" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="209" t="s">
+      <c r="G28" s="214" t="s">
         <v>206</v>
       </c>
-      <c r="H28" s="210"/>
+      <c r="H28" s="216"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="131" t="s">
@@ -35965,10 +36052,10 @@
       <c r="F29" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="209" t="s">
+      <c r="G29" s="214" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="210"/>
+      <c r="H29" s="216"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="131" t="s">
@@ -35983,26 +36070,11 @@
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="210"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -36012,6 +36084,21 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -36066,12 +36153,12 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="219" t="str">
+      <c r="K1" s="217" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="220"/>
-      <c r="M1" s="221"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="219"/>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -36083,12 +36170,12 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="222">
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="223"/>
-      <c r="M2" s="224"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="222"/>
     </row>
     <row r="3" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -36100,12 +36187,12 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="225" t="str">
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="226"/>
-      <c r="M3" s="227"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="225"/>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -36264,12 +36351,12 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="219" t="str">
+      <c r="K1" s="217" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="220"/>
-      <c r="M1" s="221"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="219"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -36281,12 +36368,12 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="222">
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="223"/>
-      <c r="M2" s="224"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="222"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -36298,12 +36385,12 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="225" t="str">
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="226"/>
-      <c r="M3" s="227"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="225"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37154,13 +37241,13 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="219" t="str">
+      <c r="K1" s="217" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="228"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="221"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -37172,13 +37259,13 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="222">
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="229"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -37190,13 +37277,13 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="225" t="str">
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="230"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37549,9 +37636,9 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="3:13" ht="17.399999999999999" customHeight="1">
-      <c r="C53" s="231"/>
-      <c r="D53" s="231"/>
-      <c r="E53" s="231"/>
+      <c r="C53" s="229"/>
+      <c r="D53" s="229"/>
+      <c r="E53" s="229"/>
       <c r="F53" s="183"/>
       <c r="G53" s="183"/>
       <c r="H53" s="183"/>
@@ -37629,9 +37716,9 @@
       <c r="I59" s="17"/>
     </row>
     <row r="67" spans="3:16">
-      <c r="C67" s="231"/>
-      <c r="D67" s="232"/>
-      <c r="E67" s="232"/>
+      <c r="C67" s="229"/>
+      <c r="D67" s="230"/>
+      <c r="E67" s="230"/>
       <c r="F67" s="183"/>
       <c r="G67" s="183"/>
       <c r="H67" s="183"/>
@@ -37787,12 +37874,12 @@
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
-      <c r="K1" s="233" t="str">
+      <c r="K1" s="231" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="228"/>
-      <c r="M1" s="234"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="232"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="105"/>
@@ -37804,12 +37891,12 @@
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
-      <c r="K2" s="222">
+      <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="223"/>
-      <c r="M2" s="224"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="222"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="107"/>
@@ -37821,12 +37908,12 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
-      <c r="K3" s="225" t="str">
+      <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="226"/>
-      <c r="M3" s="227"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="225"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -38488,25 +38575,25 @@
       <c r="O27"/>
     </row>
     <row r="28" spans="2:15" ht="28.8" customHeight="1">
-      <c r="B28" s="235">
+      <c r="B28" s="233">
         <v>21</v>
       </c>
-      <c r="C28" s="237" t="s">
+      <c r="C28" s="235" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="239">
+      <c r="D28" s="237">
         <v>46003</v>
       </c>
-      <c r="E28" s="239">
+      <c r="E28" s="237">
         <v>45943</v>
       </c>
       <c r="F28" s="159" t="s">
         <v>262</v>
       </c>
-      <c r="G28" s="237" t="s">
+      <c r="G28" s="235" t="s">
         <v>230</v>
       </c>
-      <c r="H28" s="235" t="s">
+      <c r="H28" s="233" t="s">
         <v>223</v>
       </c>
       <c r="I28"/>
@@ -38518,15 +38605,15 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B29" s="236"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="238"/>
       <c r="F29" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="G29" s="238"/>
-      <c r="H29" s="236"/>
+      <c r="G29" s="236"/>
+      <c r="H29" s="234"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -38719,49 +38806,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="250" t="str">
+      <c r="A1" s="248" t="str">
         <f>"Risques / opportunités au "&amp;TEXT(F2,"jj/MM/AAAA")</f>
         <v>Risques / opportunités au 25/09/Freitag</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="241" t="str">
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="239" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="243"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="241"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="252"/>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="244">
+      <c r="A2" s="250"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="242">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="246"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="244"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="254"/>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="247" t="str">
+      <c r="A3" s="252"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="245" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="249"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="247"/>
     </row>
     <row r="4" spans="1:9">
       <c r="F4" s="31"/>
@@ -39055,8 +39142,8 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -39145,12 +39232,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="46.8" outlineLevel="1">
+    <row r="8" spans="1:11" ht="31.2" outlineLevel="1">
       <c r="A8" s="116" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="B8" s="116" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" outlineLevel="1">
@@ -39171,7 +39258,7 @@
     </row>
     <row r="13" spans="1:11" ht="18" thickBot="1">
       <c r="A13" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B13" s="48"/>
     </row>
@@ -39185,7 +39272,7 @@
     </row>
     <row r="15" spans="1:11" ht="31.2" outlineLevel="1">
       <c r="A15" s="116" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="B15" s="116"/>
     </row>
@@ -39207,7 +39294,7 @@
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1">
       <c r="A20" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B20" s="48"/>
     </row>
@@ -39219,9 +39306,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
+    <row r="22" spans="1:2" ht="46.8">
+      <c r="A22" s="116" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="116" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="15.6">
       <c r="A23" s="116"/>
@@ -39241,7 +39332,7 @@
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1">
       <c r="A27" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B27" s="48"/>
     </row>
@@ -39253,13 +39344,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
+    <row r="29" spans="1:2" ht="31.2">
+      <c r="A29" s="116" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="30" spans="1:2" ht="15.6">
       <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
+      <c r="B30" s="116" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="31" spans="1:2" ht="15.6">
       <c r="A31" s="116"/>
@@ -39275,7 +39372,7 @@
     </row>
     <row r="34" spans="1:2" ht="18" thickBot="1">
       <c r="A34" s="47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B34" s="48"/>
     </row>
@@ -39287,9 +39384,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6">
-      <c r="A36" s="116"/>
-      <c r="B36" s="116"/>
+    <row r="36" spans="1:2" ht="31.2">
+      <c r="A36" s="116" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="116" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="37" spans="1:2" ht="15.6">
       <c r="A37" s="116"/>
@@ -39309,7 +39410,7 @@
     </row>
     <row r="41" spans="1:2" ht="18" thickBot="1">
       <c r="A41" s="47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B41" s="48"/>
     </row>
@@ -39321,10 +39422,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6">
+    <row r="43" spans="1:2" ht="31.2">
       <c r="A43" s="116"/>
       <c r="B43" s="116" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6">
@@ -39345,7 +39446,7 @@
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1">
       <c r="A48" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B48" s="48"/>
     </row>
@@ -39379,7 +39480,7 @@
     </row>
     <row r="55" spans="1:2" ht="18" thickBot="1">
       <c r="A55" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B55" s="48"/>
     </row>
@@ -39413,7 +39514,7 @@
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1">
       <c r="A62" s="47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B62" s="48"/>
     </row>
@@ -39447,7 +39548,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" thickBot="1">
       <c r="A69" s="47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B69" s="48"/>
     </row>
@@ -39481,7 +39582,7 @@
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1">
       <c r="A76" s="47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B76" s="48"/>
     </row>
